--- a/outputs_HGR/c__Actinobacteria.xlsx
+++ b/outputs_HGR/c__Actinobacteria.xlsx
@@ -498,37 +498,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0657478135014227</v>
+        <v>0.01578057521049922</v>
       </c>
       <c r="C2" t="n">
-        <v>3.214103948845688e-14</v>
+        <v>2.224891874599356e-14</v>
       </c>
       <c r="D2" t="n">
-        <v>0.185584080881012</v>
+        <v>0.797795064123393</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0006245300044039477</v>
+        <v>3.766840351413324e-07</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1224451077455164</v>
+        <v>0.1864239839820059</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6255984678675807</v>
+        <v>2.224891874599356e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>3.214103948845683e-14</v>
+        <v>2.224891874599356e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6255984678675807</v>
+        <v>0.797795064123393</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
     </row>
@@ -539,37 +539,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3023183677636264</v>
+        <v>0.1788977033172493</v>
       </c>
       <c r="C3" t="n">
-        <v>4.243022295116786e-14</v>
+        <v>1.10673125960686e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>4.243022295116786e-14</v>
+        <v>0.3254138368693891</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0007920266440375701</v>
+        <v>0.0004218407895659862</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07228965186384161</v>
+        <v>0.284803597854842</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6245999537283673</v>
+        <v>0.2104630211687323</v>
       </c>
       <c r="H3" t="n">
-        <v>4.243022295116785e-14</v>
+        <v>1.106731259606858e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6245999537283673</v>
+        <v>0.3254138368693891</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
     </row>
@@ -580,28 +580,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.00195933524287508</v>
+        <v>0.01388163551042422</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9811740616780961</v>
+        <v>0.3688727131000275</v>
       </c>
       <c r="D4" t="n">
-        <v>2.220262153573061e-14</v>
+        <v>0.2990829399892169</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0001881397397403857</v>
+        <v>2.218067617756945e-05</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003699711927617384</v>
+        <v>0.1367766546082888</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01297875141162679</v>
+        <v>0.1813638761157836</v>
       </c>
       <c r="H4" t="n">
-        <v>2.220262153573061e-14</v>
+        <v>8.130661116925866e-14</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9811740616780961</v>
+        <v>0.3688727131000275</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -621,37 +621,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1497845668034997</v>
+        <v>0.003425856486755788</v>
       </c>
       <c r="C5" t="n">
-        <v>0.262252204648742</v>
+        <v>2.218002285339956e-14</v>
       </c>
       <c r="D5" t="n">
-        <v>3.41945029516617e-14</v>
+        <v>0.7623707532487877</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0006537328851494251</v>
+        <v>1.037398927185627e-07</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1213366795069824</v>
+        <v>0.2342032865244973</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4659728161555581</v>
+        <v>2.218002285339956e-14</v>
       </c>
       <c r="H5" t="n">
-        <v>3.41945029516617e-14</v>
+        <v>2.218002285339956e-14</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4659728161555581</v>
+        <v>0.7623707532487877</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
     </row>
@@ -662,37 +662,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9149574186889841</v>
+        <v>0.2642923723717973</v>
       </c>
       <c r="C6" t="n">
-        <v>7.657677517630919e-14</v>
+        <v>2.176317587384797e-13</v>
       </c>
       <c r="D6" t="n">
-        <v>7.657677517630919e-14</v>
+        <v>0.383588531320551</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002472995583732341</v>
+        <v>5.962255315770175e-09</v>
       </c>
       <c r="F6" t="n">
-        <v>0.06742807790022844</v>
+        <v>0.3521190903447433</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0151415078268255</v>
+        <v>2.176317587384799e-13</v>
       </c>
       <c r="H6" t="n">
-        <v>7.657677517630936e-14</v>
+        <v>2.1763175873848e-13</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9149574186889841</v>
+        <v>0.383588531320551</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
     </row>
@@ -703,37 +703,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1919683498917385</v>
+        <v>0.1786519624835161</v>
       </c>
       <c r="C7" t="n">
-        <v>4.08618767726638e-14</v>
+        <v>7.954724115715492e-14</v>
       </c>
       <c r="D7" t="n">
-        <v>4.08618767726638e-14</v>
+        <v>0.2957235806271432</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0005847224877228024</v>
+        <v>0.0001710448240809004</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1485081928407898</v>
+        <v>0.3467635941636583</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6589387347796264</v>
+        <v>0.1786898179014424</v>
       </c>
       <c r="H7" t="n">
-        <v>4.086187677266381e-14</v>
+        <v>7.954724115715499e-14</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6589387347796264</v>
+        <v>0.3467635941636583</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
     </row>
@@ -744,28 +744,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.001080860486326478</v>
+        <v>0.01527483357022581</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9897968017383946</v>
+        <v>0.4558695565520129</v>
       </c>
       <c r="D8" t="n">
-        <v>2.220089768320781e-14</v>
+        <v>3.254189745010345e-13</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0002180901566823781</v>
+        <v>0.0002800154367278698</v>
       </c>
       <c r="F8" t="n">
-        <v>0.000998810471876484</v>
+        <v>0.2266858458755781</v>
       </c>
       <c r="G8" t="n">
-        <v>0.007905437146675465</v>
+        <v>0.3018897485648045</v>
       </c>
       <c r="H8" t="n">
-        <v>2.220089768320781e-14</v>
+        <v>3.254189745010346e-13</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9897968017383946</v>
+        <v>0.4558695565520129</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -785,37 +785,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1910046034458639</v>
+        <v>0.1371975003184776</v>
       </c>
       <c r="C9" t="n">
-        <v>9.797872016771181e-14</v>
+        <v>1.27726804714929e-13</v>
       </c>
       <c r="D9" t="n">
-        <v>9.797872016771181e-14</v>
+        <v>0.3334065599845829</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001405577988954306</v>
+        <v>0.0004591469239982124</v>
       </c>
       <c r="F9" t="n">
-        <v>0.09999416337218417</v>
+        <v>0.3071319050022303</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7075956551927037</v>
+        <v>0.2218048877704557</v>
       </c>
       <c r="H9" t="n">
-        <v>9.797872016771181e-14</v>
+        <v>1.277268047149289e-13</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7075956551927037</v>
+        <v>0.3334065599845829</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
     </row>
@@ -826,37 +826,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2490078894437443</v>
+        <v>0.1692879077679111</v>
       </c>
       <c r="C10" t="n">
-        <v>5.170802239468204e-14</v>
+        <v>1.074994345653014e-13</v>
       </c>
       <c r="D10" t="n">
-        <v>5.170802239468204e-14</v>
+        <v>0.3225775646572493</v>
       </c>
       <c r="E10" t="n">
-        <v>0.000862949947751233</v>
+        <v>0.0004941547227034283</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1131039718493846</v>
+        <v>0.3001873161563267</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6370251887589646</v>
+        <v>0.2074530566955947</v>
       </c>
       <c r="H10" t="n">
-        <v>5.170802239468208e-14</v>
+        <v>1.074994345653012e-13</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6370251887589646</v>
+        <v>0.3225775646572493</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
     </row>
@@ -867,37 +867,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3697455010582194</v>
+        <v>0.1599896532814572</v>
       </c>
       <c r="C11" t="n">
-        <v>5.616572905538334e-14</v>
+        <v>1.196893505674641e-13</v>
       </c>
       <c r="D11" t="n">
-        <v>5.616572905538333e-14</v>
+        <v>0.3350152676965716</v>
       </c>
       <c r="E11" t="n">
-        <v>0.001204932939962828</v>
+        <v>0.0005700774234772844</v>
       </c>
       <c r="F11" t="n">
-        <v>0.05214799499127723</v>
+        <v>0.284793711479591</v>
       </c>
       <c r="G11" t="n">
-        <v>0.576901571010372</v>
+        <v>0.2196312901186637</v>
       </c>
       <c r="H11" t="n">
-        <v>5.616572905538326e-14</v>
+        <v>1.196893505674639e-13</v>
       </c>
       <c r="I11" t="n">
-        <v>0.576901571010372</v>
+        <v>0.3350152676965716</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
     </row>
@@ -908,28 +908,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.902182072418544</v>
+        <v>0.5853784565319198</v>
       </c>
       <c r="C12" t="n">
-        <v>1.110885890847501e-13</v>
+        <v>5.06480709226107e-14</v>
       </c>
       <c r="D12" t="n">
-        <v>1.110885890847501e-13</v>
+        <v>0.2395350633720738</v>
       </c>
       <c r="E12" t="n">
-        <v>0.005940787264825233</v>
+        <v>1.185866497275707e-07</v>
       </c>
       <c r="F12" t="n">
-        <v>0.07420954373630294</v>
+        <v>0.1750863615092049</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01766759657999462</v>
+        <v>5.064807092261073e-14</v>
       </c>
       <c r="H12" t="n">
-        <v>1.110885890847501e-13</v>
+        <v>5.064807092261075e-14</v>
       </c>
       <c r="I12" t="n">
-        <v>0.902182072418544</v>
+        <v>0.5853784565319198</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -949,37 +949,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3370291158558887</v>
+        <v>0.165791718618781</v>
       </c>
       <c r="C13" t="n">
-        <v>6.91411268737336e-14</v>
+        <v>1.437298110231925e-13</v>
       </c>
       <c r="D13" t="n">
-        <v>6.91411268737336e-14</v>
+        <v>0.3436043951024407</v>
       </c>
       <c r="E13" t="n">
-        <v>0.00147556058283433</v>
+        <v>0.0007151971144901325</v>
       </c>
       <c r="F13" t="n">
-        <v>0.04253800332483075</v>
+        <v>0.2563686574690484</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6189573202362387</v>
+        <v>0.2335200316949526</v>
       </c>
       <c r="H13" t="n">
-        <v>6.914112687373359e-14</v>
+        <v>1.437298110231924e-13</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6189573202362387</v>
+        <v>0.3436043951024407</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
     </row>
@@ -990,37 +990,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1743871263249388</v>
+        <v>0.1239188722877023</v>
       </c>
       <c r="C14" t="n">
-        <v>6.049758646960665e-14</v>
+        <v>1.268736156279981e-13</v>
       </c>
       <c r="D14" t="n">
-        <v>6.049758646960665e-14</v>
+        <v>0.3337620352720328</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0009202814061612561</v>
+        <v>0.0003866859393845683</v>
       </c>
       <c r="F14" t="n">
-        <v>0.08259198616857406</v>
+        <v>0.3203008170383909</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7421006061001446</v>
+        <v>0.2216315894622358</v>
       </c>
       <c r="H14" t="n">
-        <v>6.049758646960654e-14</v>
+        <v>1.268736156279978e-13</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7421006061001446</v>
+        <v>0.3337620352720328</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
     </row>
@@ -1031,37 +1031,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1442652616089406</v>
+        <v>0.2185352816059579</v>
       </c>
       <c r="C15" t="n">
-        <v>5.234976717234776e-14</v>
+        <v>1.884156014143471e-13</v>
       </c>
       <c r="D15" t="n">
-        <v>5.234976717234777e-14</v>
+        <v>0.3721255905220158</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0007176812800207036</v>
+        <v>0.0003972194779102447</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1174500042700079</v>
+        <v>0.408941908393551</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7375670528408739</v>
+        <v>1.884156014143474e-13</v>
       </c>
       <c r="H15" t="n">
-        <v>5.234976717234773e-14</v>
+        <v>1.884156014143474e-13</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7375670528408739</v>
+        <v>0.408941908393551</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
     </row>
@@ -1072,37 +1072,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3549619660997821</v>
+        <v>0.2149546780964218</v>
       </c>
       <c r="C16" t="n">
-        <v>3.821122200179433e-14</v>
+        <v>8.662914059016684e-14</v>
       </c>
       <c r="D16" t="n">
-        <v>3.821122200179433e-14</v>
+        <v>0.3052001405652475</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0006419975929568194</v>
+        <v>0.0002931645767556917</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07255878803102671</v>
+        <v>0.2919206338808681</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5718372482761197</v>
+        <v>0.1876313828805336</v>
       </c>
       <c r="H16" t="n">
-        <v>3.821122200179436e-14</v>
+        <v>8.662914059016695e-14</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5718372482761197</v>
+        <v>0.3052001405652475</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
     </row>
@@ -1113,37 +1113,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2226345677180874</v>
+        <v>0.1779454232550852</v>
       </c>
       <c r="C17" t="n">
-        <v>4.568644858894978e-14</v>
+        <v>1.093820667123552e-13</v>
       </c>
       <c r="D17" t="n">
-        <v>4.568644858894978e-14</v>
+        <v>0.3241475399371724</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0007184200397412701</v>
+        <v>0.0003770085520924222</v>
       </c>
       <c r="F17" t="n">
-        <v>0.07062038681615641</v>
+        <v>0.2883425899495101</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7060266254258777</v>
+        <v>0.2091874383059208</v>
       </c>
       <c r="H17" t="n">
-        <v>4.568644858894978e-14</v>
+        <v>1.093820667123549e-13</v>
       </c>
       <c r="I17" t="n">
-        <v>0.7060266254258777</v>
+        <v>0.3241475399371724</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
     </row>
@@ -1154,37 +1154,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3470623540844809</v>
+        <v>0.1731478829493969</v>
       </c>
       <c r="C18" t="n">
-        <v>5.060661140456758e-14</v>
+        <v>9.322695126174264e-14</v>
       </c>
       <c r="D18" t="n">
-        <v>5.060661140456756e-14</v>
+        <v>0.3154156489772674</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0009245787944152189</v>
+        <v>0.0004187682028533398</v>
       </c>
       <c r="F18" t="n">
-        <v>0.09553135723504227</v>
+        <v>0.3146039914515435</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5564817098859098</v>
+        <v>0.1964137084187522</v>
       </c>
       <c r="H18" t="n">
-        <v>5.060661140456758e-14</v>
+        <v>9.322695126174253e-14</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5564817098859098</v>
+        <v>0.3154156489772674</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
     </row>
@@ -1195,37 +1195,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1355598674277678</v>
+        <v>0.1584896849610836</v>
       </c>
       <c r="C19" t="n">
-        <v>4.017482767555594e-14</v>
+        <v>8.654481659750162e-14</v>
       </c>
       <c r="D19" t="n">
-        <v>4.017482767555593e-14</v>
+        <v>0.3069248855966982</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0005446144232349967</v>
+        <v>0.000238345760956382</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1358200641958373</v>
+        <v>0.3460180108527779</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7280754539530394</v>
+        <v>0.1883290728283108</v>
       </c>
       <c r="H19" t="n">
-        <v>4.017482767555592e-14</v>
+        <v>8.654481659750144e-14</v>
       </c>
       <c r="I19" t="n">
-        <v>0.7280754539530394</v>
+        <v>0.3460180108527779</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
     </row>
@@ -1236,37 +1236,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.2930712420274537</v>
+        <v>0.1936428062331581</v>
       </c>
       <c r="C20" t="n">
-        <v>4.281125205625874e-14</v>
+        <v>1.555246796690435e-13</v>
       </c>
       <c r="D20" t="n">
-        <v>4.281125205625874e-14</v>
+        <v>0.3634663601448868</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0007895117108000488</v>
+        <v>0.0003648246974948005</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1345208766661337</v>
+        <v>0.4425260089239937</v>
       </c>
       <c r="G20" t="n">
-        <v>0.571618369595484</v>
+        <v>1.555246796690435e-13</v>
       </c>
       <c r="H20" t="n">
-        <v>4.281125205625872e-14</v>
+        <v>1.555246796690435e-13</v>
       </c>
       <c r="I20" t="n">
-        <v>0.571618369595484</v>
+        <v>0.4425260089239937</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
     </row>
@@ -1277,37 +1277,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1475433609788155</v>
+        <v>0.1615468048332366</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2751002768221025</v>
+        <v>1.675645637932708e-13</v>
       </c>
       <c r="D21" t="n">
-        <v>3.720776627522841e-14</v>
+        <v>0.3648003342804553</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0006585310758404916</v>
+        <v>4.440839646367464e-05</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1144506526525793</v>
+        <v>0.473608452489342</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4622471784705878</v>
+        <v>1.675645637932708e-13</v>
       </c>
       <c r="H21" t="n">
-        <v>3.720776627522839e-14</v>
+        <v>1.675645637932708e-13</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4622471784705878</v>
+        <v>0.473608452489342</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
     </row>
@@ -1318,37 +1318,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2025802283471894</v>
+        <v>0.1431134037148707</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2432838020301364</v>
+        <v>1.176389310767745e-13</v>
       </c>
       <c r="D22" t="n">
-        <v>2.992599022334903e-14</v>
+        <v>0.3341100637786601</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0005766954573592841</v>
+        <v>0.0004325917760842218</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0395954812620504</v>
+        <v>0.3041440872514148</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5139637929032048</v>
+        <v>0.2181998534787347</v>
       </c>
       <c r="H22" t="n">
-        <v>2.992599022334903e-14</v>
+        <v>1.176389310767745e-13</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5139637929032048</v>
+        <v>0.3341100637786601</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
     </row>
@@ -1359,37 +1359,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.2356981722369749</v>
+        <v>0.1452876384536789</v>
       </c>
       <c r="C23" t="n">
-        <v>3.834722901335727e-14</v>
+        <v>8.28330746903768e-14</v>
       </c>
       <c r="D23" t="n">
-        <v>3.834722901335727e-14</v>
+        <v>0.3021040288022048</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0006044434196134899</v>
+        <v>0.0002188851942253272</v>
       </c>
       <c r="F23" t="n">
-        <v>0.129730472681249</v>
+        <v>0.3686733294231604</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6339669116620475</v>
+        <v>0.183716118126565</v>
       </c>
       <c r="H23" t="n">
-        <v>3.834722901335725e-14</v>
+        <v>8.28330746903768e-14</v>
       </c>
       <c r="I23" t="n">
-        <v>0.6339669116620475</v>
+        <v>0.3686733294231604</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
     </row>
@@ -1400,28 +1400,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.001312699601751033</v>
+        <v>0.000226984985958161</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9908908873278734</v>
+        <v>0.945516339589287</v>
       </c>
       <c r="D24" t="n">
-        <v>2.220206354949685e-14</v>
+        <v>2.221482839702744e-14</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0002317619463634652</v>
+        <v>8.88104986186966e-06</v>
       </c>
       <c r="F24" t="n">
-        <v>0.001386117328865353</v>
+        <v>0.01742664583122115</v>
       </c>
       <c r="G24" t="n">
-        <v>0.006178533795102177</v>
+        <v>0.03682114854362723</v>
       </c>
       <c r="H24" t="n">
-        <v>2.220206354949685e-14</v>
+        <v>2.221482839702744e-14</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9908908873278734</v>
+        <v>0.945516339589287</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1441,28 +1441,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9742581799124973</v>
+        <v>0.5482791343718044</v>
       </c>
       <c r="C25" t="n">
-        <v>4.476783318546199e-14</v>
+        <v>9.602846276407709e-14</v>
       </c>
       <c r="D25" t="n">
-        <v>4.476783318546196e-14</v>
+        <v>0.3098853142267438</v>
       </c>
       <c r="E25" t="n">
-        <v>0.002386303003230784</v>
+        <v>1.529351236858848e-08</v>
       </c>
       <c r="F25" t="n">
-        <v>0.01735330900611086</v>
+        <v>0.1418355361076512</v>
       </c>
       <c r="G25" t="n">
-        <v>0.006002208078026755</v>
+        <v>9.602846276407701e-14</v>
       </c>
       <c r="H25" t="n">
-        <v>4.476783318546196e-14</v>
+        <v>9.602846276407701e-14</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9742581799124973</v>
+        <v>0.5482791343718044</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1482,37 +1482,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.2356662230523962</v>
+        <v>0.1847351754066419</v>
       </c>
       <c r="C26" t="n">
-        <v>4.235211463198023e-14</v>
+        <v>9.873866320181948e-14</v>
       </c>
       <c r="D26" t="n">
-        <v>4.235211463198023e-14</v>
+        <v>0.3220023557197484</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0006756854436249631</v>
+        <v>0.000336696600590893</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0674193909101745</v>
+        <v>0.2901508870587713</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6962387005936772</v>
+        <v>0.2027748852140502</v>
       </c>
       <c r="H26" t="n">
-        <v>4.235211463198031e-14</v>
+        <v>9.873866320181948e-14</v>
       </c>
       <c r="I26" t="n">
-        <v>0.6962387005936772</v>
+        <v>0.3220023557197484</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
     </row>
@@ -1523,37 +1523,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.2171710404989209</v>
+        <v>0.1712452264511904</v>
       </c>
       <c r="C27" t="n">
-        <v>4.298651349069447e-14</v>
+        <v>8.918110208042309e-14</v>
       </c>
       <c r="D27" t="n">
-        <v>4.298651349069447e-14</v>
+        <v>0.3100674722876537</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0006711813637979101</v>
+        <v>0.0003004511597943651</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1061494599667949</v>
+        <v>0.3269394731635981</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6760083181703573</v>
+        <v>0.1914473769375851</v>
       </c>
       <c r="H27" t="n">
-        <v>4.298651349069433e-14</v>
+        <v>8.918110208042295e-14</v>
       </c>
       <c r="I27" t="n">
-        <v>0.6760083181703573</v>
+        <v>0.3269394731635981</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
     </row>
@@ -1564,37 +1564,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.2062751775004062</v>
+        <v>0.201915742808371</v>
       </c>
       <c r="C28" t="n">
-        <v>4.842609363027151e-14</v>
+        <v>1.011891279574633e-13</v>
       </c>
       <c r="D28" t="n">
-        <v>4.842609363027151e-14</v>
+        <v>0.3245023450031207</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0007343436537792586</v>
+        <v>0.0003390793692260957</v>
       </c>
       <c r="F28" t="n">
-        <v>0.07600069248039827</v>
+        <v>0.2678701322672936</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7169897863652711</v>
+        <v>0.2053727005517862</v>
       </c>
       <c r="H28" t="n">
-        <v>4.842609363027151e-14</v>
+        <v>1.011891279574632e-13</v>
       </c>
       <c r="I28" t="n">
-        <v>0.7169897863652711</v>
+        <v>0.3245023450031207</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
     </row>
@@ -1605,37 +1605,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.2826229507774253</v>
+        <v>0.1221309904354157</v>
       </c>
       <c r="C29" t="n">
-        <v>7.784607406018015e-14</v>
+        <v>1.253278796949107e-13</v>
       </c>
       <c r="D29" t="n">
-        <v>7.784607406018015e-14</v>
+        <v>0.3326148772006173</v>
       </c>
       <c r="E29" t="n">
-        <v>0.001457239073630905</v>
+        <v>0.0005842796630152552</v>
       </c>
       <c r="F29" t="n">
-        <v>0.102809611766998</v>
+        <v>0.3242928709519808</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6131101983817123</v>
+        <v>0.2203769817487204</v>
       </c>
       <c r="H29" t="n">
-        <v>7.784607406017998e-14</v>
+        <v>1.253278796949105e-13</v>
       </c>
       <c r="I29" t="n">
-        <v>0.6131101983817123</v>
+        <v>0.3326148772006173</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
     </row>
@@ -1646,37 +1646,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.5124297947525978</v>
+        <v>0.1115823747598406</v>
       </c>
       <c r="C30" t="n">
-        <v>2.265625876421002e-14</v>
+        <v>2.263409596633352e-14</v>
       </c>
       <c r="D30" t="n">
-        <v>0.05548230221766545</v>
+        <v>0.7439776589513779</v>
       </c>
       <c r="E30" t="n">
-        <v>8.986721626456202e-05</v>
+        <v>5.350333176776097e-13</v>
       </c>
       <c r="F30" t="n">
-        <v>0.4319771194105353</v>
+        <v>0.1444399662881785</v>
       </c>
       <c r="G30" t="n">
-        <v>2.091640289154722e-05</v>
+        <v>2.263409596633352e-14</v>
       </c>
       <c r="H30" t="n">
-        <v>2.265625876421002e-14</v>
+        <v>2.263409596633352e-14</v>
       </c>
       <c r="I30" t="n">
-        <v>0.5124297947525978</v>
+        <v>0.7439776589513779</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
     </row>
@@ -1687,37 +1687,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.2976306273206349</v>
+        <v>0.1676535109564738</v>
       </c>
       <c r="C31" t="n">
-        <v>5.310212204173966e-14</v>
+        <v>1.197946732954448e-13</v>
       </c>
       <c r="D31" t="n">
-        <v>5.310212204173966e-14</v>
+        <v>0.3347342996563711</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0009874457588726904</v>
+        <v>0.000475313786473322</v>
       </c>
       <c r="F31" t="n">
-        <v>0.05131042285901358</v>
+        <v>0.277597213583464</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6500715040613195</v>
+        <v>0.2195396620169781</v>
       </c>
       <c r="H31" t="n">
-        <v>5.310212204173967e-14</v>
+        <v>1.197946732954446e-13</v>
       </c>
       <c r="I31" t="n">
-        <v>0.6500715040613195</v>
+        <v>0.3347342996563711</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
     </row>
@@ -1728,37 +1728,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.2888312966548943</v>
+        <v>0.1819029534607871</v>
       </c>
       <c r="C32" t="n">
-        <v>6.662560442342349e-14</v>
+        <v>8.803570654589024e-14</v>
       </c>
       <c r="D32" t="n">
-        <v>6.662560442342346e-14</v>
+        <v>0.30809208034397</v>
       </c>
       <c r="E32" t="n">
-        <v>0.001126586880333031</v>
+        <v>0.0001476140071312923</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07595376283782602</v>
+        <v>0.3200291640069592</v>
       </c>
       <c r="G32" t="n">
-        <v>0.6340883536267466</v>
+        <v>0.1898281881809762</v>
       </c>
       <c r="H32" t="n">
-        <v>6.662560442342335e-14</v>
+        <v>8.803570654589029e-14</v>
       </c>
       <c r="I32" t="n">
-        <v>0.6340883536267466</v>
+        <v>0.3200291640069592</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
     </row>
@@ -1769,37 +1769,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.3076348445149411</v>
+        <v>0.1441242843952416</v>
       </c>
       <c r="C33" t="n">
-        <v>4.738464540575622e-14</v>
+        <v>8.744940480422027e-14</v>
       </c>
       <c r="D33" t="n">
-        <v>4.738464540575622e-14</v>
+        <v>0.3088926748991466</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0009005168549644683</v>
+        <v>0.0003333946452259948</v>
       </c>
       <c r="F33" t="n">
-        <v>0.09091213458928617</v>
+        <v>0.3568585231017373</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6005525040406663</v>
+        <v>0.1897911229584736</v>
       </c>
       <c r="H33" t="n">
-        <v>4.738464540575618e-14</v>
+        <v>8.744940480422022e-14</v>
       </c>
       <c r="I33" t="n">
-        <v>0.6005525040406663</v>
+        <v>0.3568585231017373</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
     </row>
@@ -1810,37 +1810,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.04214874198066715</v>
+        <v>0.2374329186594204</v>
       </c>
       <c r="C34" t="n">
-        <v>3.924482272553743e-14</v>
+        <v>1.592212216474474e-13</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2039147493071868</v>
+        <v>0.3631191890584908</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0006529722256154069</v>
+        <v>0.000191246930399479</v>
       </c>
       <c r="F34" t="n">
-        <v>0.04921807646648442</v>
+        <v>0.3992566453512115</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7040654600199678</v>
+        <v>1.592212216474474e-13</v>
       </c>
       <c r="H34" t="n">
-        <v>3.924482272553741e-14</v>
+        <v>1.592212216474474e-13</v>
       </c>
       <c r="I34" t="n">
-        <v>0.7040654600199678</v>
+        <v>0.3992566453512115</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
     </row>
@@ -1851,37 +1851,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.2745912171127152</v>
+        <v>0.2522158762568606</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2520703253235439</v>
+        <v>2.862236458992412e-13</v>
       </c>
       <c r="D35" t="n">
-        <v>3.180958945996212e-14</v>
+        <v>0.3984966228563922</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0006924703112103328</v>
+        <v>0.001208330556762393</v>
       </c>
       <c r="F35" t="n">
-        <v>0.02908442925353591</v>
+        <v>0.3480791703291261</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4435615579989309</v>
+        <v>2.862236458992411e-13</v>
       </c>
       <c r="H35" t="n">
-        <v>3.180958945996212e-14</v>
+        <v>2.862236458992411e-13</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4435615579989309</v>
+        <v>0.3984966228563922</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
     </row>
@@ -1892,37 +1892,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.3316785301658282</v>
+        <v>0.1251540032769265</v>
       </c>
       <c r="C36" t="n">
-        <v>5.954535263728407e-14</v>
+        <v>9.889954720033294e-14</v>
       </c>
       <c r="D36" t="n">
-        <v>5.954535263728407e-14</v>
+        <v>0.3157069306669856</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001191107447068821</v>
+        <v>0.0003355083691136228</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1065114531700905</v>
+        <v>0.3592995877959648</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5606189092168338</v>
+        <v>0.1995039698908116</v>
       </c>
       <c r="H36" t="n">
-        <v>5.954535263728407e-14</v>
+        <v>9.889954720033292e-14</v>
       </c>
       <c r="I36" t="n">
-        <v>0.5606189092168338</v>
+        <v>0.3592995877959648</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
     </row>
@@ -1933,37 +1933,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.526743178760849</v>
+        <v>0.2647225443117079</v>
       </c>
       <c r="C37" t="n">
-        <v>6.789565733061516e-14</v>
+        <v>2.355152092530572e-13</v>
       </c>
       <c r="D37" t="n">
-        <v>6.789565733061516e-14</v>
+        <v>0.3908010537368063</v>
       </c>
       <c r="E37" t="n">
-        <v>0.00192842586393724</v>
+        <v>0.001114349474345587</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0636853327679105</v>
+        <v>0.3433620524764335</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4076430626070996</v>
+        <v>2.35515209253057e-13</v>
       </c>
       <c r="H37" t="n">
-        <v>6.789565733061524e-14</v>
+        <v>2.35515209253057e-13</v>
       </c>
       <c r="I37" t="n">
-        <v>0.526743178760849</v>
+        <v>0.3908010537368063</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
     </row>
@@ -1974,28 +1974,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.008636132411790896</v>
+        <v>0.0709203972777005</v>
       </c>
       <c r="C38" t="n">
-        <v>0.983377575698629</v>
+        <v>0.4200279517647968</v>
       </c>
       <c r="D38" t="n">
-        <v>2.220465288224733e-14</v>
+        <v>0.357787382733995</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0003019662340515598</v>
+        <v>0.0001435257620318774</v>
       </c>
       <c r="F38" t="n">
-        <v>0.002341063207209728</v>
+        <v>0.1511207424611304</v>
       </c>
       <c r="G38" t="n">
-        <v>0.005343262448274397</v>
+        <v>1.72689507821927e-13</v>
       </c>
       <c r="H38" t="n">
-        <v>2.220465288224733e-14</v>
+        <v>1.726895078219271e-13</v>
       </c>
       <c r="I38" t="n">
-        <v>0.983377575698629</v>
+        <v>0.4200279517647968</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -2015,37 +2015,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.2062223487163039</v>
+        <v>0.2398215310279017</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2266559615827766</v>
+        <v>2.019353161921281e-13</v>
       </c>
       <c r="D39" t="n">
-        <v>2.665757673644026e-14</v>
+        <v>0.3775672025340344</v>
       </c>
       <c r="E39" t="n">
-        <v>0.000537029195824533</v>
+        <v>0.0005623015965817062</v>
       </c>
       <c r="F39" t="n">
-        <v>0.04708103147432295</v>
+        <v>0.3820489648408761</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5195036290307186</v>
+        <v>2.019353161921286e-13</v>
       </c>
       <c r="H39" t="n">
-        <v>2.665757673644025e-14</v>
+        <v>2.019353161921287e-13</v>
       </c>
       <c r="I39" t="n">
-        <v>0.5195036290307186</v>
+        <v>0.3820489648408761</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
     </row>
@@ -2056,37 +2056,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.1601412397150294</v>
+        <v>0.1657840488785714</v>
       </c>
       <c r="C40" t="n">
-        <v>7.885069853678506e-14</v>
+        <v>1.083954448041792e-13</v>
       </c>
       <c r="D40" t="n">
-        <v>7.885069853678506e-14</v>
+        <v>0.3237008953157453</v>
       </c>
       <c r="E40" t="n">
-        <v>0.001074807512623602</v>
+        <v>0.0002390781937530483</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1218117104289771</v>
+        <v>0.3018132590168816</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7169722423431333</v>
+        <v>0.2084627185948316</v>
       </c>
       <c r="H40" t="n">
-        <v>7.8850698536785e-14</v>
+        <v>1.083954448041791e-13</v>
       </c>
       <c r="I40" t="n">
-        <v>0.7169722423431333</v>
+        <v>0.3237008953157453</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
     </row>
@@ -2097,37 +2097,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2645847206500189</v>
+        <v>0.1346603258833955</v>
       </c>
       <c r="C41" t="n">
-        <v>5.046428825222487e-14</v>
+        <v>1.018078180141381e-13</v>
       </c>
       <c r="D41" t="n">
-        <v>5.046428825222487e-14</v>
+        <v>0.3183993046478609</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0009203365064058395</v>
+        <v>0.0003582166313885724</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1238359819798366</v>
+        <v>0.344181743872623</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6106589608635872</v>
+        <v>0.2024004089645284</v>
       </c>
       <c r="H41" t="n">
-        <v>5.046428825222487e-14</v>
+        <v>1.018078180141379e-13</v>
       </c>
       <c r="I41" t="n">
-        <v>0.6106589608635872</v>
+        <v>0.344181743872623</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
     </row>
@@ -2138,37 +2138,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.3817730515723286</v>
+        <v>0.2041508566496887</v>
       </c>
       <c r="C42" t="n">
-        <v>4.292103872904007e-14</v>
+        <v>8.794997441654749e-14</v>
       </c>
       <c r="D42" t="n">
-        <v>4.292103872904005e-14</v>
+        <v>0.3072879156115906</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0008991986117996849</v>
+        <v>0.0003534215914716018</v>
       </c>
       <c r="F42" t="n">
-        <v>0.06653935171997082</v>
+        <v>0.2987896887895727</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5507883980957721</v>
+        <v>0.1894181173575004</v>
       </c>
       <c r="H42" t="n">
-        <v>4.292103872904007e-14</v>
+        <v>8.794997441654754e-14</v>
       </c>
       <c r="I42" t="n">
-        <v>0.5507883980957721</v>
+        <v>0.3072879156115906</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
     </row>
@@ -2179,37 +2179,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.2855982955614777</v>
+        <v>0.1426732377031266</v>
       </c>
       <c r="C43" t="n">
-        <v>5.05661893688603e-14</v>
+        <v>8.952022299195382e-14</v>
       </c>
       <c r="D43" t="n">
-        <v>5.05661893688603e-14</v>
+        <v>0.3118707024621679</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0009769388793317469</v>
+        <v>0.0002979970034294368</v>
       </c>
       <c r="F43" t="n">
-        <v>0.130282011179569</v>
+        <v>0.3526947753176955</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5831427543794699</v>
+        <v>0.1924632875134016</v>
       </c>
       <c r="H43" t="n">
-        <v>5.056618936886023e-14</v>
+        <v>8.952022299195382e-14</v>
       </c>
       <c r="I43" t="n">
-        <v>0.5831427543794699</v>
+        <v>0.3526947753176955</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
     </row>
@@ -2220,37 +2220,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.3030116147502065</v>
+        <v>0.1523325501741563</v>
       </c>
       <c r="C44" t="n">
-        <v>4.254267200043315e-14</v>
+        <v>1.074634058166255e-13</v>
       </c>
       <c r="D44" t="n">
-        <v>4.254267200043317e-14</v>
+        <v>0.3234286261763815</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0007882654579225221</v>
+        <v>0.0004201922956077066</v>
       </c>
       <c r="F44" t="n">
-        <v>0.05899044492460272</v>
+        <v>0.3159724942658333</v>
       </c>
       <c r="G44" t="n">
-        <v>0.6372096748671405</v>
+        <v>0.2078461370878063</v>
       </c>
       <c r="H44" t="n">
-        <v>4.254267200043318e-14</v>
+        <v>1.074634058166253e-13</v>
       </c>
       <c r="I44" t="n">
-        <v>0.6372096748671405</v>
+        <v>0.3234286261763815</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
     </row>
@@ -2261,28 +2261,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.00201843410431674</v>
+        <v>0.003813397176796652</v>
       </c>
       <c r="C45" t="n">
-        <v>0.984055861456828</v>
+        <v>0.3611011752036021</v>
       </c>
       <c r="D45" t="n">
-        <v>2.220338123650359e-14</v>
+        <v>0.2914056799536782</v>
       </c>
       <c r="E45" t="n">
-        <v>0.000201571468479056</v>
+        <v>1.82334225611471e-05</v>
       </c>
       <c r="F45" t="n">
-        <v>0.003673623252406069</v>
+        <v>0.1687819878065467</v>
       </c>
       <c r="G45" t="n">
-        <v>0.01005050971792575</v>
+        <v>0.1748795264367383</v>
       </c>
       <c r="H45" t="n">
-        <v>2.220338123650359e-14</v>
+        <v>7.678036716719916e-14</v>
       </c>
       <c r="I45" t="n">
-        <v>0.984055861456828</v>
+        <v>0.3611011752036021</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -2302,28 +2302,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.002429949669657574</v>
+        <v>0.0342847642397883</v>
       </c>
       <c r="C46" t="n">
-        <v>0.9734975184543154</v>
+        <v>0.4136927618018714</v>
       </c>
       <c r="D46" t="n">
-        <v>2.220734061138526e-14</v>
+        <v>0.3488806001316524</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0002719357928834576</v>
+        <v>0.0001245008651086941</v>
       </c>
       <c r="F46" t="n">
-        <v>0.01450627480873918</v>
+        <v>0.203017372961292</v>
       </c>
       <c r="G46" t="n">
-        <v>0.009294321274359939</v>
+        <v>1.437020081874671e-13</v>
       </c>
       <c r="H46" t="n">
-        <v>2.220734061138526e-14</v>
+        <v>1.437020081874671e-13</v>
       </c>
       <c r="I46" t="n">
-        <v>0.9734975184543154</v>
+        <v>0.4136927618018714</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -2343,28 +2343,28 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.007163568596182142</v>
+        <v>0.009016939764547685</v>
       </c>
       <c r="C47" t="n">
-        <v>0.977837306691133</v>
+        <v>0.4336687267501168</v>
       </c>
       <c r="D47" t="n">
-        <v>2.220731251045676e-14</v>
+        <v>1.716247919820061e-13</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0003183857631518045</v>
+        <v>0.0007735420366623347</v>
       </c>
       <c r="F47" t="n">
-        <v>0.009669839149965317</v>
+        <v>0.2998192461861538</v>
       </c>
       <c r="G47" t="n">
-        <v>0.005010899799523297</v>
+        <v>0.2567215452621762</v>
       </c>
       <c r="H47" t="n">
-        <v>2.220731251045676e-14</v>
+        <v>1.716247919820061e-13</v>
       </c>
       <c r="I47" t="n">
-        <v>0.977837306691133</v>
+        <v>0.4336687267501168</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -2384,28 +2384,28 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.006878216253881732</v>
+        <v>0.06051653213933402</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9787831929549605</v>
+        <v>0.4081447626676445</v>
       </c>
       <c r="D48" t="n">
-        <v>2.220593831125348e-14</v>
+        <v>0.3438241124928301</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0003019953246837893</v>
+        <v>5.932219470399637e-05</v>
       </c>
       <c r="F48" t="n">
-        <v>0.002964067232675775</v>
+        <v>0.1874552705052069</v>
       </c>
       <c r="G48" t="n">
-        <v>0.01107252823375377</v>
+        <v>1.403000954517089e-13</v>
       </c>
       <c r="H48" t="n">
-        <v>2.220593831125348e-14</v>
+        <v>1.403000954517089e-13</v>
       </c>
       <c r="I48" t="n">
-        <v>0.9787831929549605</v>
+        <v>0.4081447626676445</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -2425,28 +2425,28 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.002632192624627634</v>
+        <v>0.05158437261759499</v>
       </c>
       <c r="C49" t="n">
-        <v>0.9862182000764048</v>
+        <v>0.4236933211805649</v>
       </c>
       <c r="D49" t="n">
-        <v>2.220263071845347e-14</v>
+        <v>0.3627829792097451</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0002204986206774283</v>
+        <v>0.0001653920576409068</v>
       </c>
       <c r="F49" t="n">
-        <v>0.001804983799412953</v>
+        <v>0.1617739349340616</v>
       </c>
       <c r="G49" t="n">
-        <v>0.00912412487883277</v>
+        <v>1.962602922460193e-13</v>
       </c>
       <c r="H49" t="n">
-        <v>2.220263071845347e-14</v>
+        <v>1.962602922460193e-13</v>
       </c>
       <c r="I49" t="n">
-        <v>0.9862182000764048</v>
+        <v>0.4236933211805649</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -2466,37 +2466,37 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.6571275558583265</v>
+        <v>0.3278577837332491</v>
       </c>
       <c r="C50" t="n">
-        <v>0.2719384659969912</v>
+        <v>8.904399812891108e-14</v>
       </c>
       <c r="D50" t="n">
-        <v>3.921746231252971e-14</v>
+        <v>0.3186232245117722</v>
       </c>
       <c r="E50" t="n">
-        <v>0.001774916309685786</v>
+        <v>3.148059059837853e-07</v>
       </c>
       <c r="F50" t="n">
-        <v>0.06007033164111446</v>
+        <v>0.3535186769488055</v>
       </c>
       <c r="G50" t="n">
-        <v>0.009088730193803596</v>
+        <v>8.904399812891091e-14</v>
       </c>
       <c r="H50" t="n">
-        <v>3.921746231252969e-14</v>
+        <v>8.904399812891093e-14</v>
       </c>
       <c r="I50" t="n">
-        <v>0.6571275558583265</v>
+        <v>0.3535186769488055</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
     </row>
@@ -2507,28 +2507,28 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.001442319315485899</v>
+        <v>0.001061041409852765</v>
       </c>
       <c r="C51" t="n">
-        <v>0.9872012141395269</v>
+        <v>0.356196413559147</v>
       </c>
       <c r="D51" t="n">
-        <v>2.220254999396049e-14</v>
+        <v>0.2842308682220415</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0002216671657867352</v>
+        <v>5.376315903419546e-06</v>
       </c>
       <c r="F51" t="n">
-        <v>0.00275651372799399</v>
+        <v>0.1926564890709709</v>
       </c>
       <c r="G51" t="n">
-        <v>0.008378285651162033</v>
+        <v>0.165849811422016</v>
       </c>
       <c r="H51" t="n">
-        <v>2.220254999396049e-14</v>
+        <v>6.855885905547217e-14</v>
       </c>
       <c r="I51" t="n">
-        <v>0.9872012141395269</v>
+        <v>0.356196413559147</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -2548,28 +2548,28 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.851237827724568</v>
+        <v>0.8380338231875003</v>
       </c>
       <c r="C52" t="n">
-        <v>2.219170908954399e-14</v>
+        <v>2.231607762022478e-14</v>
       </c>
       <c r="D52" t="n">
-        <v>2.219170908954399e-14</v>
+        <v>0.08055407854256499</v>
       </c>
       <c r="E52" t="n">
-        <v>3.667514113339512e-05</v>
+        <v>4.720536539486352e-11</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1487251453402252</v>
+        <v>0.08141209822266245</v>
       </c>
       <c r="G52" t="n">
-        <v>3.51794006956622e-07</v>
+        <v>2.231607762022478e-14</v>
       </c>
       <c r="H52" t="n">
-        <v>2.219170908954399e-14</v>
+        <v>2.231607762022478e-14</v>
       </c>
       <c r="I52" t="n">
-        <v>0.851237827724568</v>
+        <v>0.8380338231875003</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -2589,28 +2589,28 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.001453493581672878</v>
+        <v>0.01703681233493792</v>
       </c>
       <c r="C53" t="n">
-        <v>0.988392763829012</v>
+        <v>0.4542380005350566</v>
       </c>
       <c r="D53" t="n">
-        <v>2.220095719600883e-14</v>
+        <v>2.79588430767944e-13</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0002141738362273883</v>
+        <v>0.0002174059726325093</v>
       </c>
       <c r="F53" t="n">
-        <v>0.001031654317826456</v>
+        <v>0.2339168415698886</v>
       </c>
       <c r="G53" t="n">
-        <v>0.008907914435216739</v>
+        <v>0.2945909395869253</v>
       </c>
       <c r="H53" t="n">
-        <v>2.220095719600883e-14</v>
+        <v>2.795884307679442e-13</v>
       </c>
       <c r="I53" t="n">
-        <v>0.988392763829012</v>
+        <v>0.4542380005350566</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -2630,28 +2630,28 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.001187359380691543</v>
+        <v>0.02458581938684415</v>
       </c>
       <c r="C54" t="n">
-        <v>0.9861387685431029</v>
+        <v>0.4488173212860792</v>
       </c>
       <c r="D54" t="n">
-        <v>2.219970587902807e-14</v>
+        <v>3.071971832100034e-13</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0001760763698170986</v>
+        <v>0.0003707811553508126</v>
       </c>
       <c r="F54" t="n">
-        <v>0.001093959606223226</v>
+        <v>0.2314268494211858</v>
       </c>
       <c r="G54" t="n">
-        <v>0.01140383610012092</v>
+        <v>0.2947992287499256</v>
       </c>
       <c r="H54" t="n">
-        <v>2.219970587902807e-14</v>
+        <v>3.071971832100033e-13</v>
       </c>
       <c r="I54" t="n">
-        <v>0.9861387685431029</v>
+        <v>0.4488173212860792</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -2671,28 +2671,28 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.04198641610298862</v>
+        <v>0.007485188326109633</v>
       </c>
       <c r="C55" t="n">
-        <v>0.9313480127942785</v>
+        <v>0.3986086786448167</v>
       </c>
       <c r="D55" t="n">
-        <v>2.223060651254812e-14</v>
+        <v>1.104703088375704e-13</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0003221243334950264</v>
+        <v>1.450109911257283e-05</v>
       </c>
       <c r="F55" t="n">
-        <v>0.01545841707758807</v>
+        <v>0.3817056688499692</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01088502969160531</v>
+        <v>0.2121859630797709</v>
       </c>
       <c r="H55" t="n">
-        <v>2.223060651254812e-14</v>
+        <v>1.104703088375704e-13</v>
       </c>
       <c r="I55" t="n">
-        <v>0.9313480127942785</v>
+        <v>0.3986086786448167</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.006253607611078115</v>
+        <v>0.0008505926154253351</v>
       </c>
       <c r="C56" t="n">
-        <v>0.9793974616558869</v>
+        <v>0.9247005760492939</v>
       </c>
       <c r="D56" t="n">
-        <v>2.220699150636012e-14</v>
+        <v>2.223851150642674e-14</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0002836606011610426</v>
+        <v>4.022502998499049e-05</v>
       </c>
       <c r="F56" t="n">
-        <v>0.009424909037999609</v>
+        <v>0.04085345523735461</v>
       </c>
       <c r="G56" t="n">
-        <v>0.004640361093829954</v>
+        <v>0.03355515106789674</v>
       </c>
       <c r="H56" t="n">
-        <v>2.220699150636012e-14</v>
+        <v>2.223851150642674e-14</v>
       </c>
       <c r="I56" t="n">
-        <v>0.9793974616558869</v>
+        <v>0.9247005760492939</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -2753,37 +2753,37 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.4264500770038131</v>
+        <v>0.0004615536452932267</v>
       </c>
       <c r="C57" t="n">
-        <v>0.3897022965149735</v>
+        <v>0.09780584043051226</v>
       </c>
       <c r="D57" t="n">
-        <v>1.030391778919648e-13</v>
+        <v>0.06497481118129858</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002527775487962703</v>
+        <v>2.136122461688466e-09</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1202359161844867</v>
+        <v>0.02470479272167208</v>
       </c>
       <c r="G57" t="n">
-        <v>0.06108393480855796</v>
+        <v>0.812052999885079</v>
       </c>
       <c r="H57" t="n">
-        <v>1.030391778919648e-13</v>
+        <v>2.247306554016343e-14</v>
       </c>
       <c r="I57" t="n">
-        <v>0.4264500770038131</v>
+        <v>0.812052999885079</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
     </row>
@@ -2794,28 +2794,28 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.0009883360504545813</v>
+        <v>0.0003933823482207151</v>
       </c>
       <c r="C58" t="n">
-        <v>0.990378017749988</v>
+        <v>0.9445145847033409</v>
       </c>
       <c r="D58" t="n">
-        <v>2.220176439222865e-14</v>
+        <v>2.221525224412701e-14</v>
       </c>
       <c r="E58" t="n">
-        <v>0.00020462524316651</v>
+        <v>9.269315332355082e-06</v>
       </c>
       <c r="F58" t="n">
-        <v>0.001571081119876067</v>
+        <v>0.01829775093410283</v>
       </c>
       <c r="G58" t="n">
-        <v>0.006857939836470392</v>
+        <v>0.03678501269895886</v>
       </c>
       <c r="H58" t="n">
-        <v>2.220176439222865e-14</v>
+        <v>2.221525224412701e-14</v>
       </c>
       <c r="I58" t="n">
-        <v>0.990378017749988</v>
+        <v>0.9445145847033409</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -2835,28 +2835,28 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.002670280941562333</v>
+        <v>0.06854855334595934</v>
       </c>
       <c r="C59" t="n">
-        <v>0.9834242247527325</v>
+        <v>0.4170638373331441</v>
       </c>
       <c r="D59" t="n">
-        <v>2.220451989035821e-14</v>
+        <v>0.3547863372319691</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0002765038931382646</v>
+        <v>0.0002270651574150205</v>
       </c>
       <c r="F59" t="n">
-        <v>0.004252623968416907</v>
+        <v>0.1593742069311752</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0093763664441056</v>
+        <v>1.685271048209728e-13</v>
       </c>
       <c r="H59" t="n">
-        <v>2.220451989035821e-14</v>
+        <v>1.685271048209728e-13</v>
       </c>
       <c r="I59" t="n">
-        <v>0.9834242247527325</v>
+        <v>0.4170638373331441</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -2876,28 +2876,28 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.001870393431024758</v>
+        <v>0.04881296072423537</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9809370658247988</v>
+        <v>0.4224278162214211</v>
       </c>
       <c r="D60" t="n">
-        <v>2.220455810888344e-14</v>
+        <v>0.3598616084592362</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0002334700101037211</v>
+        <v>0.0002374360706998876</v>
       </c>
       <c r="F60" t="n">
-        <v>0.005677070993662337</v>
+        <v>0.1686601785240602</v>
       </c>
       <c r="G60" t="n">
-        <v>0.01128199974036605</v>
+        <v>1.735739197147852e-13</v>
       </c>
       <c r="H60" t="n">
-        <v>2.220455810888344e-14</v>
+        <v>1.735739197147852e-13</v>
       </c>
       <c r="I60" t="n">
-        <v>0.9809370658247988</v>
+        <v>0.4224278162214211</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -2917,37 +2917,37 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.5090582162705164</v>
+        <v>0.07871977325367817</v>
       </c>
       <c r="C61" t="n">
-        <v>2.220497343660632e-14</v>
+        <v>2.236643842725745e-14</v>
       </c>
       <c r="D61" t="n">
-        <v>2.220497343660632e-14</v>
+        <v>0.8454788089731787</v>
       </c>
       <c r="E61" t="n">
-        <v>6.872517872057826e-05</v>
+        <v>3.953313938461192e-14</v>
       </c>
       <c r="F61" t="n">
-        <v>0.4908593003201204</v>
+        <v>0.07580141777303644</v>
       </c>
       <c r="G61" t="n">
-        <v>1.375823057607391e-05</v>
+        <v>2.236643842725745e-14</v>
       </c>
       <c r="H61" t="n">
-        <v>2.220497343660632e-14</v>
+        <v>2.236643842725745e-14</v>
       </c>
       <c r="I61" t="n">
-        <v>0.5090582162705164</v>
+        <v>0.8454788089731787</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
     </row>
@@ -2958,28 +2958,28 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.006677330062883215</v>
+        <v>0.08970823723861579</v>
       </c>
       <c r="C62" t="n">
-        <v>0.9858789938554747</v>
+        <v>0.4212693899702165</v>
       </c>
       <c r="D62" t="n">
-        <v>2.220451775160009e-14</v>
+        <v>0.359198673037588</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0003581489133744</v>
+        <v>0.0002043798433493837</v>
       </c>
       <c r="F62" t="n">
-        <v>0.00291000251035778</v>
+        <v>0.1296193199098792</v>
       </c>
       <c r="G62" t="n">
-        <v>0.004175524657865486</v>
+        <v>1.755675165349288e-13</v>
       </c>
       <c r="H62" t="n">
-        <v>2.220451775160009e-14</v>
+        <v>1.755675165349288e-13</v>
       </c>
       <c r="I62" t="n">
-        <v>0.9858789938554747</v>
+        <v>0.4212693899702165</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -2999,28 +2999,28 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.004817334295336218</v>
+        <v>0.05519694339178575</v>
       </c>
       <c r="C63" t="n">
-        <v>0.9847136025798208</v>
+        <v>0.4180566796888944</v>
       </c>
       <c r="D63" t="n">
-        <v>2.220534387068137e-14</v>
+        <v>0.3555706876662637</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0003008283454751161</v>
+        <v>0.0001414924980338313</v>
       </c>
       <c r="F63" t="n">
-        <v>0.003930753868987487</v>
+        <v>0.1710341967546857</v>
       </c>
       <c r="G63" t="n">
-        <v>0.00623748091033585</v>
+        <v>1.683853720304075e-13</v>
       </c>
       <c r="H63" t="n">
-        <v>2.220534387068137e-14</v>
+        <v>1.683853720304075e-13</v>
       </c>
       <c r="I63" t="n">
-        <v>0.9847136025798208</v>
+        <v>0.4180566796888944</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -3040,28 +3040,28 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.2282469812864302</v>
+        <v>0.07917098362196179</v>
       </c>
       <c r="C64" t="n">
-        <v>0.4561825432421889</v>
+        <v>0.4140780495584027</v>
       </c>
       <c r="D64" t="n">
-        <v>6.631089732521071e-13</v>
+        <v>0.3500803219501533</v>
       </c>
       <c r="E64" t="n">
-        <v>0.02156807621277352</v>
+        <v>4.92016593257543e-05</v>
       </c>
       <c r="F64" t="n">
-        <v>0.106036900358947</v>
+        <v>0.1566214432098598</v>
       </c>
       <c r="G64" t="n">
-        <v>0.1879654988983341</v>
+        <v>1.48498700780295e-13</v>
       </c>
       <c r="H64" t="n">
-        <v>6.631089732521069e-13</v>
+        <v>1.484987007802951e-13</v>
       </c>
       <c r="I64" t="n">
-        <v>0.4561825432421889</v>
+        <v>0.4140780495584027</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -3081,28 +3081,28 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.00114678973387731</v>
+        <v>0.03069237264286536</v>
       </c>
       <c r="C65" t="n">
-        <v>0.9825481280181707</v>
+        <v>0.4233521093737548</v>
       </c>
       <c r="D65" t="n">
-        <v>2.220282465524814e-14</v>
+        <v>0.3620181903279954</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0002073133077255499</v>
+        <v>0.0002571397401813125</v>
       </c>
       <c r="F65" t="n">
-        <v>0.004313857945996314</v>
+        <v>0.1836801879148189</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01178391099418567</v>
+        <v>1.920503275127277e-13</v>
       </c>
       <c r="H65" t="n">
-        <v>2.220282465524814e-14</v>
+        <v>1.920503275127277e-13</v>
       </c>
       <c r="I65" t="n">
-        <v>0.9825481280181707</v>
+        <v>0.4233521093737548</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -3122,28 +3122,28 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.006790050499916205</v>
+        <v>0.04640285065522608</v>
       </c>
       <c r="C66" t="n">
-        <v>0.9827166490076851</v>
+        <v>0.4148213521191285</v>
       </c>
       <c r="D66" t="n">
-        <v>2.220587814963279e-14</v>
+        <v>0.352123097559722</v>
       </c>
       <c r="E66" t="n">
-        <v>0.000321319716759603</v>
+        <v>7.553499071792279e-05</v>
       </c>
       <c r="F66" t="n">
-        <v>0.00417114694762527</v>
+        <v>0.1865771646748798</v>
       </c>
       <c r="G66" t="n">
-        <v>0.006000833827969356</v>
+        <v>1.628059444293918e-13</v>
       </c>
       <c r="H66" t="n">
-        <v>2.220587814963279e-14</v>
+        <v>1.628059444293919e-13</v>
       </c>
       <c r="I66" t="n">
-        <v>0.9827166490076851</v>
+        <v>0.4148213521191285</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -3163,28 +3163,28 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.002559115194500906</v>
+        <v>0.05450448652471745</v>
       </c>
       <c r="C67" t="n">
-        <v>0.9838243536240912</v>
+        <v>0.4232071128247236</v>
       </c>
       <c r="D67" t="n">
-        <v>2.220506896297969e-14</v>
+        <v>0.3607405122511259</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0002886959797077217</v>
+        <v>0.0001917830773114807</v>
       </c>
       <c r="F67" t="n">
-        <v>0.007456777202818135</v>
+        <v>0.161356105321771</v>
       </c>
       <c r="G67" t="n">
-        <v>0.00587105799883771</v>
+        <v>1.753229960981703e-13</v>
       </c>
       <c r="H67" t="n">
-        <v>2.220506896297969e-14</v>
+        <v>1.753229960981703e-13</v>
       </c>
       <c r="I67" t="n">
-        <v>0.9838243536240912</v>
+        <v>0.4232071128247236</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -3204,28 +3204,28 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.002404464114457295</v>
+        <v>0.05945418629957828</v>
       </c>
       <c r="C68" t="n">
-        <v>0.9867238600029894</v>
+        <v>0.4236041459164854</v>
       </c>
       <c r="D68" t="n">
-        <v>2.220312422145458e-14</v>
+        <v>0.362818014607088</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0002438493460422513</v>
+        <v>0.0001685683134705369</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002483588173587086</v>
+        <v>0.1539550848629833</v>
       </c>
       <c r="G68" t="n">
-        <v>0.008144238362879643</v>
+        <v>1.972231851424992e-13</v>
       </c>
       <c r="H68" t="n">
-        <v>2.220312422145458e-14</v>
+        <v>1.972231851424993e-13</v>
       </c>
       <c r="I68" t="n">
-        <v>0.9867238600029894</v>
+        <v>0.4236041459164854</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -3245,28 +3245,28 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.9414610370291333</v>
+        <v>0.511990707719453</v>
       </c>
       <c r="C69" t="n">
-        <v>2.219259471502384e-14</v>
+        <v>4.575257042220317e-14</v>
       </c>
       <c r="D69" t="n">
-        <v>2.219259471502384e-14</v>
+        <v>0.2293658572132283</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0001258409035123073</v>
+        <v>1.797782195510202e-12</v>
       </c>
       <c r="F69" t="n">
-        <v>0.05831903419828782</v>
+        <v>0.2586434350653838</v>
       </c>
       <c r="G69" t="n">
-        <v>9.408786899977426e-05</v>
+        <v>4.575257042220315e-14</v>
       </c>
       <c r="H69" t="n">
-        <v>2.219259471502384e-14</v>
+        <v>4.575257042220315e-14</v>
       </c>
       <c r="I69" t="n">
-        <v>0.9414610370291333</v>
+        <v>0.511990707719453</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -3286,28 +3286,28 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1701063380977572</v>
+        <v>0.06852432449856644</v>
       </c>
       <c r="C70" t="n">
-        <v>0.4716361787702247</v>
+        <v>0.4211428486693909</v>
       </c>
       <c r="D70" t="n">
-        <v>8.990859345316848e-13</v>
+        <v>0.3604763765208451</v>
       </c>
       <c r="E70" t="n">
-        <v>0.02372156903188792</v>
+        <v>0.0001980064885120295</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1405091192277985</v>
+        <v>0.1496584438222966</v>
       </c>
       <c r="G70" t="n">
-        <v>0.1940267948705335</v>
+        <v>1.944485559397222e-13</v>
       </c>
       <c r="H70" t="n">
-        <v>8.990859345316841e-13</v>
+        <v>1.944485559397223e-13</v>
       </c>
       <c r="I70" t="n">
-        <v>0.4716361787702247</v>
+        <v>0.4211428486693909</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -3327,28 +3327,28 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.1398668334729518</v>
+        <v>0.07301964655329411</v>
       </c>
       <c r="C71" t="n">
-        <v>0.4632260007879861</v>
+        <v>0.4190124951632312</v>
       </c>
       <c r="D71" t="n">
-        <v>7.735060590219578e-13</v>
+        <v>0.3567973901953527</v>
       </c>
       <c r="E71" t="n">
-        <v>0.01763351478472932</v>
+        <v>0.0001734254960099016</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1652771106734852</v>
+        <v>0.1509970425917691</v>
       </c>
       <c r="G71" t="n">
-        <v>0.2139965402793004</v>
+        <v>1.715227096368875e-13</v>
       </c>
       <c r="H71" t="n">
-        <v>7.735060590219598e-13</v>
+        <v>1.715227096368875e-13</v>
       </c>
       <c r="I71" t="n">
-        <v>0.4632260007879861</v>
+        <v>0.4190124951632312</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -3368,28 +3368,28 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.1353936730851518</v>
+        <v>0.05447165196598845</v>
       </c>
       <c r="C72" t="n">
-        <v>0.4652866529460993</v>
+        <v>0.4174175985489073</v>
       </c>
       <c r="D72" t="n">
-        <v>8.083272543277245e-13</v>
+        <v>0.354914554983107</v>
       </c>
       <c r="E72" t="n">
-        <v>0.01828869241567515</v>
+        <v>0.0002089495500030705</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1861763723059677</v>
+        <v>0.1729872449516594</v>
       </c>
       <c r="G72" t="n">
-        <v>0.1948546092454894</v>
+        <v>1.67439040619211e-13</v>
       </c>
       <c r="H72" t="n">
-        <v>8.083272543277266e-13</v>
+        <v>1.67439040619211e-13</v>
       </c>
       <c r="I72" t="n">
-        <v>0.4652866529460993</v>
+        <v>0.4174175985489073</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -3409,28 +3409,28 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.001000170542140078</v>
+        <v>0.05394444598875652</v>
       </c>
       <c r="C73" t="n">
-        <v>0.9083528454500783</v>
+        <v>0.4196780225666001</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0800922545193051</v>
+        <v>0.3587816932884185</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0001481191840717889</v>
+        <v>0.00026783259279747</v>
       </c>
       <c r="F73" t="n">
-        <v>0.003041495899703563</v>
+        <v>0.1673280055630471</v>
       </c>
       <c r="G73" t="n">
-        <v>0.007365114404678877</v>
+        <v>1.902029055957769e-13</v>
       </c>
       <c r="H73" t="n">
-        <v>2.220347920050739e-14</v>
+        <v>1.902029055957769e-13</v>
       </c>
       <c r="I73" t="n">
-        <v>0.9083528454500783</v>
+        <v>0.4196780225666001</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -3450,28 +3450,28 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.001364826120332982</v>
+        <v>0.03373170700855285</v>
       </c>
       <c r="C74" t="n">
-        <v>0.9818624813873876</v>
+        <v>0.4227240166025686</v>
       </c>
       <c r="D74" t="n">
-        <v>2.220494340149022e-14</v>
+        <v>0.3598554222518069</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0001968705314563504</v>
+        <v>0.0001927066139342819</v>
       </c>
       <c r="F74" t="n">
-        <v>0.006885164643754964</v>
+        <v>0.1834961475227935</v>
       </c>
       <c r="G74" t="n">
-        <v>0.009690657317023557</v>
+        <v>1.718454694433207e-13</v>
       </c>
       <c r="H74" t="n">
-        <v>2.220494340149022e-14</v>
+        <v>1.718454694433207e-13</v>
       </c>
       <c r="I74" t="n">
-        <v>0.9818624813873876</v>
+        <v>0.4227240166025686</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -3491,28 +3491,28 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.1568917917661639</v>
+        <v>0.06491314107651558</v>
       </c>
       <c r="C75" t="n">
-        <v>0.4650782096333635</v>
+        <v>0.4230860422796705</v>
       </c>
       <c r="D75" t="n">
-        <v>8.251513259639828e-13</v>
+        <v>0.3623761832104223</v>
       </c>
       <c r="E75" t="n">
-        <v>0.02030214242110773</v>
+        <v>0.0002348057018888788</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1663943640218382</v>
+        <v>0.1493898277311086</v>
       </c>
       <c r="G75" t="n">
-        <v>0.1913334921558763</v>
+        <v>1.970917648853024e-13</v>
       </c>
       <c r="H75" t="n">
-        <v>8.251513259639852e-13</v>
+        <v>1.970917648853024e-13</v>
       </c>
       <c r="I75" t="n">
-        <v>0.4650782096333635</v>
+        <v>0.4230860422796705</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -3532,28 +3532,28 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.007604649369414398</v>
+        <v>0.05031314373789135</v>
       </c>
       <c r="C76" t="n">
-        <v>0.9846825595764822</v>
+        <v>0.4214250983734852</v>
       </c>
       <c r="D76" t="n">
-        <v>2.220475671422017e-14</v>
+        <v>0.3604736023226692</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0002951225334106938</v>
+        <v>5.804699973364037e-05</v>
       </c>
       <c r="F76" t="n">
-        <v>0.001912648344868749</v>
+        <v>0.1677301085658359</v>
       </c>
       <c r="G76" t="n">
-        <v>0.005505020175779581</v>
+        <v>1.923963106557314e-13</v>
       </c>
       <c r="H76" t="n">
-        <v>2.220475671422017e-14</v>
+        <v>1.923963106557315e-13</v>
       </c>
       <c r="I76" t="n">
-        <v>0.9846825595764822</v>
+        <v>0.4214250983734852</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -3573,28 +3573,28 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.259245709636166</v>
+        <v>0.06898903121722838</v>
       </c>
       <c r="C77" t="n">
-        <v>0.4572819012888616</v>
+        <v>0.414222548782688</v>
       </c>
       <c r="D77" t="n">
-        <v>6.167031812062328e-13</v>
+        <v>0.3519303796812687</v>
       </c>
       <c r="E77" t="n">
-        <v>0.02370063912699658</v>
+        <v>3.51289161022493e-05</v>
       </c>
       <c r="F77" t="n">
-        <v>0.09054240391958275</v>
+        <v>0.1648229114023833</v>
       </c>
       <c r="G77" t="n">
-        <v>0.1692293460271597</v>
+        <v>1.647510708391993e-13</v>
       </c>
       <c r="H77" t="n">
-        <v>6.167031812062339e-13</v>
+        <v>1.647510708391993e-13</v>
       </c>
       <c r="I77" t="n">
-        <v>0.4572819012888616</v>
+        <v>0.414222548782688</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -3614,28 +3614,28 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.1710017564821197</v>
+        <v>0.07938188160325414</v>
       </c>
       <c r="C78" t="n">
-        <v>0.4694238664873762</v>
+        <v>0.4168618863041369</v>
       </c>
       <c r="D78" t="n">
-        <v>7.007334928127648e-13</v>
+        <v>0.3547171153581668</v>
       </c>
       <c r="E78" t="n">
-        <v>0.02162929776668709</v>
+        <v>0.0001378693977021327</v>
       </c>
       <c r="F78" t="n">
-        <v>0.15343931721113</v>
+        <v>0.1489012473364018</v>
       </c>
       <c r="G78" t="n">
-        <v>0.1845057620512855</v>
+        <v>1.691828730390199e-13</v>
       </c>
       <c r="H78" t="n">
-        <v>7.007334928127646e-13</v>
+        <v>1.691828730390199e-13</v>
       </c>
       <c r="I78" t="n">
-        <v>0.4694238664873762</v>
+        <v>0.4168618863041369</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -3655,28 +3655,28 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.02776923256071283</v>
+        <v>0.05123659960701059</v>
       </c>
       <c r="C79" t="n">
-        <v>0.4125416790558455</v>
+        <v>0.4168319339415103</v>
       </c>
       <c r="D79" t="n">
-        <v>0.3507773140385391</v>
+        <v>0.3542610681197358</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003873878313103854</v>
+        <v>0.0001669987417749844</v>
       </c>
       <c r="F79" t="n">
-        <v>0.06146004308404486</v>
+        <v>0.1775033995896358</v>
       </c>
       <c r="G79" t="n">
-        <v>0.1435778529475878</v>
+        <v>1.662223597891765e-13</v>
       </c>
       <c r="H79" t="n">
-        <v>1.661142747887684e-13</v>
+        <v>1.662223597891765e-13</v>
       </c>
       <c r="I79" t="n">
-        <v>0.4125416790558455</v>
+        <v>0.4168319339415103</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -3696,28 +3696,28 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.103795280867291</v>
+        <v>0.03926060320182118</v>
       </c>
       <c r="C80" t="n">
-        <v>0.4635187071685142</v>
+        <v>0.4236482670252648</v>
       </c>
       <c r="D80" t="n">
-        <v>9.206773733543433e-13</v>
+        <v>0.3609069408212838</v>
       </c>
       <c r="E80" t="n">
-        <v>0.01889770155178142</v>
+        <v>0.0002029508007254694</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1990930399987745</v>
+        <v>0.1759812381505567</v>
       </c>
       <c r="G80" t="n">
-        <v>0.2146952704117975</v>
+        <v>1.739583289070757e-13</v>
       </c>
       <c r="H80" t="n">
-        <v>9.206773733543425e-13</v>
+        <v>1.739583289070758e-13</v>
       </c>
       <c r="I80" t="n">
-        <v>0.4635187071685142</v>
+        <v>0.4236482670252648</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.001742017554806585</v>
+        <v>0.03915419961890905</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9086695094699577</v>
+        <v>0.4223082438802159</v>
       </c>
       <c r="D81" t="n">
-        <v>0.08036295990914973</v>
+        <v>0.3611472851199855</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0001871427083096931</v>
+        <v>0.0001653739736506037</v>
       </c>
       <c r="F81" t="n">
-        <v>0.003799094840113412</v>
+        <v>0.1772248974068552</v>
       </c>
       <c r="G81" t="n">
-        <v>0.005239275517640659</v>
+        <v>1.919413618204658e-13</v>
       </c>
       <c r="H81" t="n">
-        <v>2.220105390502629e-14</v>
+        <v>1.919413618204658e-13</v>
       </c>
       <c r="I81" t="n">
-        <v>0.9086695094699577</v>
+        <v>0.4223082438802159</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -3778,28 +3778,28 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.004709807655930378</v>
+        <v>0.04591572324661265</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9902033097504342</v>
+        <v>0.4350543128932414</v>
       </c>
       <c r="D82" t="n">
-        <v>2.220330193069235e-14</v>
+        <v>0.3766162636814059</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0003613456107487836</v>
+        <v>0.000210417872228045</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0007766262365340153</v>
+        <v>0.1422032823059738</v>
       </c>
       <c r="G82" t="n">
-        <v>0.003948910746308215</v>
+        <v>2.691682338569529e-13</v>
       </c>
       <c r="H82" t="n">
-        <v>2.220330193069235e-14</v>
+        <v>2.69168233856953e-13</v>
       </c>
       <c r="I82" t="n">
-        <v>0.9902033097504342</v>
+        <v>0.4350543128932414</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -3819,28 +3819,28 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.23613347797946</v>
+        <v>0.1225340498191417</v>
       </c>
       <c r="C83" t="n">
-        <v>0.4641764642654612</v>
+        <v>0.4155775942205294</v>
       </c>
       <c r="D83" t="n">
-        <v>7.329810973508527e-13</v>
+        <v>0.3536264763477329</v>
       </c>
       <c r="E83" t="n">
-        <v>0.02414672874053742</v>
+        <v>0.0001432975493588829</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1008242557151246</v>
+        <v>0.1081185820628993</v>
       </c>
       <c r="G83" t="n">
-        <v>0.1747190732979508</v>
+        <v>1.688469721399348e-13</v>
       </c>
       <c r="H83" t="n">
-        <v>7.329810973508516e-13</v>
+        <v>1.688469721399348e-13</v>
       </c>
       <c r="I83" t="n">
-        <v>0.4641764642654612</v>
+        <v>0.4155775942205294</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -3860,28 +3860,28 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.003798956292578759</v>
+        <v>0.01112646409797181</v>
       </c>
       <c r="C84" t="n">
-        <v>0.9847763571608142</v>
+        <v>0.3674729975367359</v>
       </c>
       <c r="D84" t="n">
-        <v>2.220373935055199e-14</v>
+        <v>0.2976951315717762</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0002521197505600067</v>
+        <v>3.355587253771409e-05</v>
       </c>
       <c r="F84" t="n">
-        <v>0.00201424494414116</v>
+        <v>0.1434894901977461</v>
       </c>
       <c r="G84" t="n">
-        <v>0.009158321851861412</v>
+        <v>0.1801823607231518</v>
       </c>
       <c r="H84" t="n">
-        <v>2.220373935055199e-14</v>
+        <v>8.046845887627421e-14</v>
       </c>
       <c r="I84" t="n">
-        <v>0.9847763571608142</v>
+        <v>0.3674729975367359</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -3901,28 +3901,28 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.02753907629603262</v>
+        <v>0.05153968196169124</v>
       </c>
       <c r="C85" t="n">
-        <v>0.4172751174442746</v>
+        <v>0.4147165822375708</v>
       </c>
       <c r="D85" t="n">
-        <v>0.3556283734642195</v>
+        <v>0.3521265399432036</v>
       </c>
       <c r="E85" t="n">
-        <v>0.004493970041969023</v>
+        <v>0.0001824543727492392</v>
       </c>
       <c r="F85" t="n">
-        <v>0.07566638991000167</v>
+        <v>0.1814347414844584</v>
       </c>
       <c r="G85" t="n">
-        <v>0.1193970728433293</v>
+        <v>1.633888911127468e-13</v>
       </c>
       <c r="H85" t="n">
-        <v>1.731884029828337e-13</v>
+        <v>1.633888911127468e-13</v>
       </c>
       <c r="I85" t="n">
-        <v>0.4172751174442746</v>
+        <v>0.4147165822375708</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -3942,28 +3942,28 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.00345489902966811</v>
+        <v>0.01271168244059022</v>
       </c>
       <c r="C86" t="n">
-        <v>0.984617595972719</v>
+        <v>0.4338876349118638</v>
       </c>
       <c r="D86" t="n">
-        <v>2.220530701693837e-14</v>
+        <v>1.953165519803677e-13</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0002063670536779385</v>
+        <v>8.349558584658039e-05</v>
       </c>
       <c r="F86" t="n">
-        <v>0.006200369293430669</v>
+        <v>0.289338879438668</v>
       </c>
       <c r="G86" t="n">
-        <v>0.005520768650459798</v>
+        <v>0.2639783076226409</v>
       </c>
       <c r="H86" t="n">
-        <v>2.220530701693837e-14</v>
+        <v>1.953165519803678e-13</v>
       </c>
       <c r="I86" t="n">
-        <v>0.984617595972719</v>
+        <v>0.4338876349118638</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -3983,28 +3983,28 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.002927914902620414</v>
+        <v>0.0665762836173858</v>
       </c>
       <c r="C87" t="n">
-        <v>0.9817469243891299</v>
+        <v>0.414271317860617</v>
       </c>
       <c r="D87" t="n">
-        <v>2.220459606384678e-14</v>
+        <v>0.3519463057614998</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0002339795891135791</v>
+        <v>0.0002010718705035043</v>
       </c>
       <c r="F87" t="n">
-        <v>0.004615050783737508</v>
+        <v>0.1670050208896647</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0104761303353541</v>
+        <v>1.645920046409019e-13</v>
       </c>
       <c r="H87" t="n">
-        <v>2.220459606384678e-14</v>
+        <v>1.645920046409019e-13</v>
       </c>
       <c r="I87" t="n">
-        <v>0.9817469243891299</v>
+        <v>0.414271317860617</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -4024,28 +4024,28 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.003205285516467886</v>
+        <v>0.05332797641420537</v>
       </c>
       <c r="C88" t="n">
-        <v>0.9844536164138055</v>
+        <v>0.4196286675854993</v>
       </c>
       <c r="D88" t="n">
-        <v>2.220462650259648e-14</v>
+        <v>0.3571228579962061</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0002390937324889898</v>
+        <v>0.0001816276927151648</v>
       </c>
       <c r="F88" t="n">
-        <v>0.004022532683046312</v>
+        <v>0.1697388703110334</v>
       </c>
       <c r="G88" t="n">
-        <v>0.00807947165414704</v>
+        <v>1.703016853798307e-13</v>
       </c>
       <c r="H88" t="n">
-        <v>2.220462650259648e-14</v>
+        <v>1.703016853798307e-13</v>
       </c>
       <c r="I88" t="n">
-        <v>0.9844536164138055</v>
+        <v>0.4196286675854993</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
@@ -4065,37 +4065,37 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.6156206899156824</v>
+        <v>0.2507254930654585</v>
       </c>
       <c r="C89" t="n">
-        <v>0.3059652464200125</v>
+        <v>5.539269460031534e-13</v>
       </c>
       <c r="D89" t="n">
-        <v>5.083496654695445e-14</v>
+        <v>0.4278472246189891</v>
       </c>
       <c r="E89" t="n">
-        <v>0.001984784356895306</v>
+        <v>3.581841515816143e-07</v>
       </c>
       <c r="F89" t="n">
-        <v>0.03740440408397266</v>
+        <v>0.3214269241297388</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03902487522333544</v>
+        <v>5.539269460031534e-13</v>
       </c>
       <c r="H89" t="n">
-        <v>5.083496654695442e-14</v>
+        <v>5.539269460031534e-13</v>
       </c>
       <c r="I89" t="n">
-        <v>0.6156206899156824</v>
+        <v>0.4278472246189891</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
     </row>
@@ -4106,28 +4106,28 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.007529682889959573</v>
+        <v>0.04987869529140024</v>
       </c>
       <c r="C90" t="n">
-        <v>0.9839318299858196</v>
+        <v>0.4189194021318225</v>
       </c>
       <c r="D90" t="n">
-        <v>2.220520376085275e-14</v>
+        <v>0.3563418307098203</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0003286423496234723</v>
+        <v>8.471840088680881e-05</v>
       </c>
       <c r="F90" t="n">
-        <v>0.003105768481541719</v>
+        <v>0.1747753534657324</v>
       </c>
       <c r="G90" t="n">
-        <v>0.005104076293011232</v>
+        <v>1.688792841483282e-13</v>
       </c>
       <c r="H90" t="n">
-        <v>2.220520376085275e-14</v>
+        <v>1.688792841483282e-13</v>
       </c>
       <c r="I90" t="n">
-        <v>0.9839318299858196</v>
+        <v>0.4189194021318225</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
@@ -4147,28 +4147,28 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.001121106223895112</v>
+        <v>0.04966900089380429</v>
       </c>
       <c r="C91" t="n">
-        <v>0.906138737807598</v>
+        <v>0.4210937578071678</v>
       </c>
       <c r="D91" t="n">
-        <v>0.07973690567055466</v>
+        <v>0.3601313505404884</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0001795792518435332</v>
+        <v>0.0002228929575470919</v>
       </c>
       <c r="F91" t="n">
-        <v>0.00302922438436609</v>
+        <v>0.168882997800609</v>
       </c>
       <c r="G91" t="n">
-        <v>0.009794446661720394</v>
+        <v>1.917943276853207e-13</v>
       </c>
       <c r="H91" t="n">
-        <v>2.221088159819408e-14</v>
+        <v>1.917943276853207e-13</v>
       </c>
       <c r="I91" t="n">
-        <v>0.906138737807598</v>
+        <v>0.4210937578071678</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
@@ -4188,28 +4188,28 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.08675831809485382</v>
+        <v>0.04733329990719749</v>
       </c>
       <c r="C92" t="n">
-        <v>0.4644989211586422</v>
+        <v>0.4172346897860447</v>
       </c>
       <c r="D92" t="n">
-        <v>6.973732078241982e-13</v>
+        <v>0.3545929638980149</v>
       </c>
       <c r="E92" t="n">
-        <v>0.01605906452237172</v>
+        <v>0.0002490262195191439</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1924796464260893</v>
+        <v>0.1805900201888911</v>
       </c>
       <c r="G92" t="n">
-        <v>0.2402040497966481</v>
+        <v>1.662617191847183e-13</v>
       </c>
       <c r="H92" t="n">
-        <v>6.973732078241979e-13</v>
+        <v>1.662617191847183e-13</v>
       </c>
       <c r="I92" t="n">
-        <v>0.4644989211586422</v>
+        <v>0.4172346897860447</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
@@ -4229,28 +4229,28 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.1268610925709726</v>
+        <v>0.05252934140617213</v>
       </c>
       <c r="C93" t="n">
-        <v>0.4650900641606928</v>
+        <v>0.4219089029647167</v>
       </c>
       <c r="D93" t="n">
-        <v>7.966960357621091e-13</v>
+        <v>0.3610055561265924</v>
       </c>
       <c r="E93" t="n">
-        <v>0.02084889018690242</v>
+        <v>0.0002561368536472999</v>
       </c>
       <c r="F93" t="n">
-        <v>0.2079804710274125</v>
+        <v>0.1643000626484843</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1792194820524265</v>
+        <v>1.935575208638352e-13</v>
       </c>
       <c r="H93" t="n">
-        <v>7.966960357621093e-13</v>
+        <v>1.935575208638352e-13</v>
       </c>
       <c r="I93" t="n">
-        <v>0.4650900641606928</v>
+        <v>0.4219089029647167</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
@@ -4270,28 +4270,28 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.001372856410142996</v>
+        <v>0.01964273891666592</v>
       </c>
       <c r="C94" t="n">
-        <v>0.9909096462012733</v>
+        <v>0.4553018003895936</v>
       </c>
       <c r="D94" t="n">
-        <v>2.220198711751751e-14</v>
+        <v>3.263748167730931e-13</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0002338198289285538</v>
+        <v>0.0003081658509320649</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001313903279718852</v>
+        <v>0.2230378221735184</v>
       </c>
       <c r="G94" t="n">
-        <v>0.006169774279891791</v>
+        <v>0.3017094726686372</v>
       </c>
       <c r="H94" t="n">
-        <v>2.220198711751751e-14</v>
+        <v>3.263748167730931e-13</v>
       </c>
       <c r="I94" t="n">
-        <v>0.9909096462012733</v>
+        <v>0.4553018003895936</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
@@ -4311,28 +4311,28 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.002480740787149194</v>
+        <v>0.01496555826869321</v>
       </c>
       <c r="C95" t="n">
-        <v>0.9827923532689798</v>
+        <v>0.4161996093814183</v>
       </c>
       <c r="D95" t="n">
-        <v>2.220451414530266e-14</v>
+        <v>0.350918476802846</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0002593786004584614</v>
+        <v>2.56530905459853e-05</v>
       </c>
       <c r="F95" t="n">
-        <v>0.005083788740957412</v>
+        <v>0.2178907024562085</v>
       </c>
       <c r="G95" t="n">
-        <v>0.009383738602410712</v>
+        <v>1.43959982510615e-13</v>
       </c>
       <c r="H95" t="n">
-        <v>2.220451414530266e-14</v>
+        <v>1.43959982510615e-13</v>
       </c>
       <c r="I95" t="n">
-        <v>0.9827923532689798</v>
+        <v>0.4161996093814183</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
@@ -4352,28 +4352,28 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.00368156818795017</v>
+        <v>0.06108986585793413</v>
       </c>
       <c r="C96" t="n">
-        <v>0.9847864887341625</v>
+        <v>0.420712976250897</v>
       </c>
       <c r="D96" t="n">
-        <v>2.220445879399938e-14</v>
+        <v>0.358340000774273</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0002848048847871954</v>
+        <v>0.000172285996831543</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002924002740737362</v>
+        <v>0.159684871119719</v>
       </c>
       <c r="G96" t="n">
-        <v>0.008323135452318248</v>
+        <v>1.726624182493389e-13</v>
       </c>
       <c r="H96" t="n">
-        <v>2.220445879399938e-14</v>
+        <v>1.726624182493389e-13</v>
       </c>
       <c r="I96" t="n">
-        <v>0.9847864887341625</v>
+        <v>0.420712976250897</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
@@ -4393,28 +4393,28 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.01235680006721753</v>
+        <v>0.03173624131012687</v>
       </c>
       <c r="C97" t="n">
-        <v>0.9786544382639129</v>
+        <v>0.4375749231608931</v>
       </c>
       <c r="D97" t="n">
-        <v>2.220558982484614e-14</v>
+        <v>2.113611412775437e-13</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0002828393366232597</v>
+        <v>0.001120182344625945</v>
       </c>
       <c r="F97" t="n">
-        <v>0.003885906075473929</v>
+        <v>0.258794811312591</v>
       </c>
       <c r="G97" t="n">
-        <v>0.004820016256727882</v>
+        <v>0.2707738418713405</v>
       </c>
       <c r="H97" t="n">
-        <v>2.220558982484614e-14</v>
+        <v>2.113611412775437e-13</v>
       </c>
       <c r="I97" t="n">
-        <v>0.9786544382639129</v>
+        <v>0.4375749231608931</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
@@ -4434,28 +4434,28 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.006948007299985772</v>
+        <v>0.08790192323296299</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9855254771643964</v>
+        <v>0.4197686416516155</v>
       </c>
       <c r="D98" t="n">
-        <v>2.220459349369047e-14</v>
+        <v>0.3592968413256323</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0002809399897258805</v>
+        <v>0.0001939968968410181</v>
       </c>
       <c r="F98" t="n">
-        <v>0.002741882412192539</v>
+        <v>0.1328385968925603</v>
       </c>
       <c r="G98" t="n">
-        <v>0.004503693133654938</v>
+        <v>1.940329924235555e-13</v>
       </c>
       <c r="H98" t="n">
-        <v>2.220459349369047e-14</v>
+        <v>1.940329924235555e-13</v>
       </c>
       <c r="I98" t="n">
-        <v>0.9855254771643964</v>
+        <v>0.4197686416516155</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
@@ -4475,37 +4475,37 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.6205842252798384</v>
+        <v>0.004342375292799211</v>
       </c>
       <c r="C99" t="n">
-        <v>2.219896367905558e-14</v>
+        <v>2.222349498468293e-14</v>
       </c>
       <c r="D99" t="n">
-        <v>2.219896367905558e-14</v>
+        <v>0.6314042992600937</v>
       </c>
       <c r="E99" t="n">
-        <v>1.511814572995299e-05</v>
+        <v>2.222349498468293e-14</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3793990239883075</v>
+        <v>0.3642533254470182</v>
       </c>
       <c r="G99" t="n">
-        <v>1.632586057504385e-06</v>
+        <v>2.222349498468293e-14</v>
       </c>
       <c r="H99" t="n">
-        <v>2.219896367905558e-14</v>
+        <v>2.222349498468293e-14</v>
       </c>
       <c r="I99" t="n">
-        <v>0.6205842252798384</v>
+        <v>0.6314042992600937</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
     </row>
@@ -4516,28 +4516,28 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.002216385422813351</v>
+        <v>0.0335220571561821</v>
       </c>
       <c r="C100" t="n">
-        <v>0.9829232663461671</v>
+        <v>0.4216299559262204</v>
       </c>
       <c r="D100" t="n">
-        <v>2.220531522978254e-14</v>
+        <v>0.3587421123693655</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0002447120314528766</v>
+        <v>0.0001437406112592073</v>
       </c>
       <c r="F100" t="n">
-        <v>0.006550266423939315</v>
+        <v>0.1859621339366324</v>
       </c>
       <c r="G100" t="n">
-        <v>0.008065369775583</v>
+        <v>1.702793274785907e-13</v>
       </c>
       <c r="H100" t="n">
-        <v>2.220531522978254e-14</v>
+        <v>1.702793274785907e-13</v>
       </c>
       <c r="I100" t="n">
-        <v>0.9829232663461671</v>
+        <v>0.4216299559262204</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
@@ -4557,37 +4557,37 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.7193698538192643</v>
+        <v>0.2094812760532988</v>
       </c>
       <c r="C101" t="n">
-        <v>2.219443536361629e-14</v>
+        <v>2.279456503620773e-14</v>
       </c>
       <c r="D101" t="n">
-        <v>2.219443536361629e-14</v>
+        <v>0.6789626160745429</v>
       </c>
       <c r="E101" t="n">
-        <v>4.775145979630002e-05</v>
+        <v>7.88266802210269e-13</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2805714429383542</v>
+        <v>0.1115561078713016</v>
       </c>
       <c r="G101" t="n">
-        <v>1.095178251867633e-05</v>
+        <v>2.279456503620773e-14</v>
       </c>
       <c r="H101" t="n">
-        <v>2.219443536361629e-14</v>
+        <v>2.279456503620773e-14</v>
       </c>
       <c r="I101" t="n">
-        <v>0.7193698538192643</v>
+        <v>0.6789626160745429</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
     </row>
@@ -4598,28 +4598,28 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.00481246236114716</v>
+        <v>0.04024864119932553</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9840023115773566</v>
+        <v>0.4202029223355377</v>
       </c>
       <c r="D102" t="n">
-        <v>2.220483130487826e-14</v>
+        <v>0.3574451855944108</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0002860512855991361</v>
+        <v>0.0001152681056645843</v>
       </c>
       <c r="F102" t="n">
-        <v>0.00286314290569752</v>
+        <v>0.1819879827647229</v>
       </c>
       <c r="G102" t="n">
-        <v>0.008036031870155079</v>
+        <v>1.693132340961474e-13</v>
       </c>
       <c r="H102" t="n">
-        <v>2.220483130487826e-14</v>
+        <v>1.693132340961474e-13</v>
       </c>
       <c r="I102" t="n">
-        <v>0.9840023115773566</v>
+        <v>0.4202029223355377</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
@@ -4639,28 +4639,28 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.003115916203434012</v>
+        <v>0.04778186841269991</v>
       </c>
       <c r="C103" t="n">
-        <v>0.983411336054636</v>
+        <v>0.4229313788654904</v>
       </c>
       <c r="D103" t="n">
-        <v>2.220463658055812e-14</v>
+        <v>0.36034594442894</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0002196318979526772</v>
+        <v>8.119022156194341e-05</v>
       </c>
       <c r="F103" t="n">
-        <v>0.004318896589651975</v>
+        <v>0.1688596180709595</v>
       </c>
       <c r="G103" t="n">
-        <v>0.008934219254280899</v>
+        <v>1.741079707032112e-13</v>
       </c>
       <c r="H103" t="n">
-        <v>2.220463658055812e-14</v>
+        <v>1.741079707032112e-13</v>
       </c>
       <c r="I103" t="n">
-        <v>0.983411336054636</v>
+        <v>0.4229313788654904</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
@@ -4680,28 +4680,28 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.002338376967642198</v>
+        <v>0.05050431424460133</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9824012252446582</v>
+        <v>0.4229772898590163</v>
       </c>
       <c r="D104" t="n">
-        <v>2.220558131237279e-14</v>
+        <v>0.3604431353642548</v>
       </c>
       <c r="E104" t="n">
-        <v>0.0002512934453105771</v>
+        <v>0.0001987979619206002</v>
       </c>
       <c r="F104" t="n">
-        <v>0.007774736465370334</v>
+        <v>0.1658764625698579</v>
       </c>
       <c r="G104" t="n">
-        <v>0.00723436787697427</v>
+        <v>1.745332809819814e-13</v>
       </c>
       <c r="H104" t="n">
-        <v>2.220558131237279e-14</v>
+        <v>1.745332809819814e-13</v>
       </c>
       <c r="I104" t="n">
-        <v>0.9824012252446582</v>
+        <v>0.4229772898590163</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
@@ -4721,28 +4721,28 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.1081757026872416</v>
+        <v>0.05065890966913653</v>
       </c>
       <c r="C105" t="n">
-        <v>0.4617163287813976</v>
+        <v>0.4159886872461053</v>
       </c>
       <c r="D105" t="n">
-        <v>5.843738098394891e-13</v>
+        <v>0.3515623226233671</v>
       </c>
       <c r="E105" t="n">
-        <v>0.01533623917450608</v>
+        <v>0.0002064937538030231</v>
       </c>
       <c r="F105" t="n">
-        <v>0.2083352148672872</v>
+        <v>0.1815835867072914</v>
       </c>
       <c r="G105" t="n">
-        <v>0.2064365144883988</v>
+        <v>1.482746942036312e-13</v>
       </c>
       <c r="H105" t="n">
-        <v>5.843738098394886e-13</v>
+        <v>1.482746942036312e-13</v>
       </c>
       <c r="I105" t="n">
-        <v>0.4617163287813976</v>
+        <v>0.4159886872461053</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
@@ -4762,37 +4762,37 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.5679735001675894</v>
+        <v>0.226607596712224</v>
       </c>
       <c r="C106" t="n">
-        <v>2.220222312657484e-14</v>
+        <v>2.278994240300568e-14</v>
       </c>
       <c r="D106" t="n">
-        <v>2.220222312657484e-14</v>
+        <v>0.6733544359926832</v>
       </c>
       <c r="E106" t="n">
-        <v>1.215119473228244e-05</v>
+        <v>3.409748673089275e-13</v>
       </c>
       <c r="F106" t="n">
-        <v>0.432013593315811</v>
+        <v>0.1000379672946834</v>
       </c>
       <c r="G106" t="n">
-        <v>7.553218008997666e-07</v>
+        <v>2.278994240300568e-14</v>
       </c>
       <c r="H106" t="n">
-        <v>2.220222312657484e-14</v>
+        <v>2.278994240300568e-14</v>
       </c>
       <c r="I106" t="n">
-        <v>0.5679735001675894</v>
+        <v>0.6733544359926832</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
     </row>
@@ -4803,28 +4803,28 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.05700438989064058</v>
+        <v>0.01956365326610372</v>
       </c>
       <c r="C107" t="n">
-        <v>0.4616500384212451</v>
+        <v>0.4181339689085256</v>
       </c>
       <c r="D107" t="n">
-        <v>6.058500600453144e-13</v>
+        <v>0.3548339312910274</v>
       </c>
       <c r="E107" t="n">
-        <v>0.01229507301634202</v>
+        <v>0.0001323644992690914</v>
       </c>
       <c r="F107" t="n">
-        <v>0.2422077040255348</v>
+        <v>0.2073360820347483</v>
       </c>
       <c r="G107" t="n">
-        <v>0.2268427946450259</v>
+        <v>1.630401775240328e-13</v>
       </c>
       <c r="H107" t="n">
-        <v>6.058500600453151e-13</v>
+        <v>1.630401775240328e-13</v>
       </c>
       <c r="I107" t="n">
-        <v>0.4616500384212451</v>
+        <v>0.4181339689085256</v>
       </c>
       <c r="J107" t="inlineStr">
         <is>
@@ -4844,28 +4844,28 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.005306930711023838</v>
+        <v>0.02083604196138836</v>
       </c>
       <c r="C108" t="n">
-        <v>0.98260106197111</v>
+        <v>0.4413405019950433</v>
       </c>
       <c r="D108" t="n">
-        <v>2.220589485799192e-14</v>
+        <v>2.153763267783644e-13</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0002516162203558849</v>
+        <v>0.000982649865355193</v>
       </c>
       <c r="F108" t="n">
-        <v>0.005538633704938093</v>
+        <v>0.2629837210948948</v>
       </c>
       <c r="G108" t="n">
-        <v>0.006301757392527773</v>
+        <v>0.2738570850828874</v>
       </c>
       <c r="H108" t="n">
-        <v>2.220589485799192e-14</v>
+        <v>2.15376326778364e-13</v>
       </c>
       <c r="I108" t="n">
-        <v>0.98260106197111</v>
+        <v>0.4413405019950433</v>
       </c>
       <c r="J108" t="inlineStr">
         <is>
@@ -4885,28 +4885,28 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.0009941138473889063</v>
+        <v>0.007211659995983053</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9805469532152041</v>
+        <v>0.3725268821770848</v>
       </c>
       <c r="D109" t="n">
-        <v>2.220416090412754e-14</v>
+        <v>0.3025310455143179</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0001778066569006045</v>
+        <v>8.441016021112141e-05</v>
       </c>
       <c r="F109" t="n">
-        <v>0.006123123109555169</v>
+        <v>0.1335442256286518</v>
       </c>
       <c r="G109" t="n">
-        <v>0.01215800317090677</v>
+        <v>0.184101776523668</v>
       </c>
       <c r="H109" t="n">
-        <v>2.220416090412754e-14</v>
+        <v>8.31224407393561e-14</v>
       </c>
       <c r="I109" t="n">
-        <v>0.9805469532152041</v>
+        <v>0.3725268821770848</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
@@ -4926,28 +4926,28 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.001337217716683728</v>
+        <v>0.03251043574794794</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9808938035998414</v>
+        <v>0.4258614835898332</v>
       </c>
       <c r="D110" t="n">
-        <v>2.220364243305282e-14</v>
+        <v>0.3645976940906</v>
       </c>
       <c r="E110" t="n">
-        <v>0.0001939666332708276</v>
+        <v>0.0001547099580014706</v>
       </c>
       <c r="F110" t="n">
-        <v>0.005155780803854432</v>
+        <v>0.176875676613224</v>
       </c>
       <c r="G110" t="n">
-        <v>0.01241923124630523</v>
+        <v>1.965173638451035e-13</v>
       </c>
       <c r="H110" t="n">
-        <v>2.220364243305282e-14</v>
+        <v>1.965173638451036e-13</v>
       </c>
       <c r="I110" t="n">
-        <v>0.9808938035998414</v>
+        <v>0.4258614835898332</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
@@ -4967,28 +4967,28 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.003443796156492977</v>
+        <v>0.02306624409997128</v>
       </c>
       <c r="C111" t="n">
-        <v>0.9853959386844772</v>
+        <v>0.4245591274474193</v>
       </c>
       <c r="D111" t="n">
-        <v>2.220508079581762e-14</v>
+        <v>0.3614596424223625</v>
       </c>
       <c r="E111" t="n">
-        <v>0.0002723479588623552</v>
+        <v>3.31132100621089e-05</v>
       </c>
       <c r="F111" t="n">
-        <v>0.004981797259679305</v>
+        <v>0.1908818728198395</v>
       </c>
       <c r="G111" t="n">
-        <v>0.00590611994044372</v>
+        <v>1.726539971905175e-13</v>
       </c>
       <c r="H111" t="n">
-        <v>2.220508079581762e-14</v>
+        <v>1.726539971905175e-13</v>
       </c>
       <c r="I111" t="n">
-        <v>0.9853959386844772</v>
+        <v>0.4245591274474193</v>
       </c>
       <c r="J111" t="inlineStr">
         <is>
@@ -5008,28 +5008,28 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.001081448852059618</v>
+        <v>0.04133115401303315</v>
       </c>
       <c r="C112" t="n">
-        <v>0.9802613768466852</v>
+        <v>0.4243771828196923</v>
       </c>
       <c r="D112" t="n">
-        <v>2.220176111281602e-14</v>
+        <v>0.3632853946448794</v>
       </c>
       <c r="E112" t="n">
-        <v>0.000183809753235413</v>
+        <v>0.0002693220274505438</v>
       </c>
       <c r="F112" t="n">
-        <v>0.004230527602335507</v>
+        <v>0.1707369464945532</v>
       </c>
       <c r="G112" t="n">
-        <v>0.01424283694563964</v>
+        <v>1.957245088344112e-13</v>
       </c>
       <c r="H112" t="n">
-        <v>2.220176111281602e-14</v>
+        <v>1.957245088344112e-13</v>
       </c>
       <c r="I112" t="n">
-        <v>0.9802613768466852</v>
+        <v>0.4243771828196923</v>
       </c>
       <c r="J112" t="inlineStr">
         <is>
@@ -5049,28 +5049,28 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.002083069238061525</v>
+        <v>0.04582236329602295</v>
       </c>
       <c r="C113" t="n">
-        <v>0.9852217249834661</v>
+        <v>0.4244267137257576</v>
       </c>
       <c r="D113" t="n">
-        <v>2.220459810004777e-14</v>
+        <v>0.3634214895072824</v>
       </c>
       <c r="E113" t="n">
-        <v>0.0002125385564993144</v>
+        <v>0.0002801253545396558</v>
       </c>
       <c r="F113" t="n">
-        <v>0.005847037309533999</v>
+        <v>0.1660493081160042</v>
       </c>
       <c r="G113" t="n">
-        <v>0.006635629912394724</v>
+        <v>1.965635750484561e-13</v>
       </c>
       <c r="H113" t="n">
-        <v>2.220459810004777e-14</v>
+        <v>1.965635750484561e-13</v>
       </c>
       <c r="I113" t="n">
-        <v>0.9852217249834661</v>
+        <v>0.4244267137257576</v>
       </c>
       <c r="J113" t="inlineStr">
         <is>
@@ -5090,28 +5090,28 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.006598542284422276</v>
+        <v>0.01779318433420095</v>
       </c>
       <c r="C114" t="n">
-        <v>0.9821965496500927</v>
+        <v>0.420992056348986</v>
       </c>
       <c r="D114" t="n">
-        <v>2.220559230029242e-14</v>
+        <v>0.3576979240690877</v>
       </c>
       <c r="E114" t="n">
-        <v>0.0003031294997688399</v>
+        <v>4.746248331156984e-05</v>
       </c>
       <c r="F114" t="n">
-        <v>0.002779740375972204</v>
+        <v>0.2034693727640804</v>
       </c>
       <c r="G114" t="n">
-        <v>0.008122038189699476</v>
+        <v>1.667028894572154e-13</v>
       </c>
       <c r="H114" t="n">
-        <v>2.220559230029242e-14</v>
+        <v>1.667028894572154e-13</v>
       </c>
       <c r="I114" t="n">
-        <v>0.9821965496500927</v>
+        <v>0.420992056348986</v>
       </c>
       <c r="J114" t="inlineStr">
         <is>
@@ -5131,37 +5131,37 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.009326588194731795</v>
+        <v>0.2088471331572803</v>
       </c>
       <c r="C115" t="n">
-        <v>0.9805173005321756</v>
+        <v>3.430321014186789e-12</v>
       </c>
       <c r="D115" t="n">
-        <v>2.220581109075682e-14</v>
+        <v>0.4347323899874641</v>
       </c>
       <c r="E115" t="n">
-        <v>0.0003665474785938061</v>
+        <v>0.0002581427307806555</v>
       </c>
       <c r="F115" t="n">
-        <v>0.003020327061315647</v>
+        <v>0.3561623341141837</v>
       </c>
       <c r="G115" t="n">
-        <v>0.006769236733138848</v>
+        <v>3.430321014186784e-12</v>
       </c>
       <c r="H115" t="n">
-        <v>2.220581109075682e-14</v>
+        <v>3.430321014186788e-12</v>
       </c>
       <c r="I115" t="n">
-        <v>0.9805173005321756</v>
+        <v>0.4347323899874641</v>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
     </row>
@@ -5172,28 +5172,28 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.00138249263091313</v>
+        <v>0.01410519155490469</v>
       </c>
       <c r="C116" t="n">
-        <v>0.9870530601266213</v>
+        <v>0.4479360632586232</v>
       </c>
       <c r="D116" t="n">
-        <v>2.220065506660441e-14</v>
+        <v>2.597782429498674e-13</v>
       </c>
       <c r="E116" t="n">
-        <v>0.0002085675039981422</v>
+        <v>0.0001467316567452225</v>
       </c>
       <c r="F116" t="n">
-        <v>0.001244493358210615</v>
+        <v>0.2508868440860493</v>
       </c>
       <c r="G116" t="n">
-        <v>0.01011138638021245</v>
+        <v>0.286925169443158</v>
       </c>
       <c r="H116" t="n">
-        <v>2.220065506660441e-14</v>
+        <v>2.597782429498668e-13</v>
       </c>
       <c r="I116" t="n">
-        <v>0.9870530601266213</v>
+        <v>0.4479360632586232</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
@@ -5213,28 +5213,28 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.002074926802998198</v>
+        <v>0.005302714777025192</v>
       </c>
       <c r="C117" t="n">
-        <v>0.9901734017965818</v>
+        <v>0.4468545155346873</v>
       </c>
       <c r="D117" t="n">
-        <v>2.22028796704133e-14</v>
+        <v>1.93934544487759e-13</v>
       </c>
       <c r="E117" t="n">
-        <v>0.0002360665642165734</v>
+        <v>3.660905657658334e-05</v>
       </c>
       <c r="F117" t="n">
-        <v>0.001687380822892926</v>
+        <v>0.2765473961676309</v>
       </c>
       <c r="G117" t="n">
-        <v>0.005828224013266114</v>
+        <v>0.271258764463692</v>
       </c>
       <c r="H117" t="n">
-        <v>2.22028796704133e-14</v>
+        <v>1.93934544487759e-13</v>
       </c>
       <c r="I117" t="n">
-        <v>0.9901734017965818</v>
+        <v>0.4468545155346873</v>
       </c>
       <c r="J117" t="inlineStr">
         <is>
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.142671680032713</v>
+        <v>0.07357529442979566</v>
       </c>
       <c r="C118" t="n">
-        <v>0.4593367933940673</v>
+        <v>0.411844176103589</v>
       </c>
       <c r="D118" t="n">
-        <v>6.018912422616749e-13</v>
+        <v>0.3496022993961885</v>
       </c>
       <c r="E118" t="n">
-        <v>0.01775812252526822</v>
+        <v>7.576051470689553e-05</v>
       </c>
       <c r="F118" t="n">
-        <v>0.1954624715749551</v>
+        <v>0.1649024695553958</v>
       </c>
       <c r="G118" t="n">
-        <v>0.1847709324717925</v>
+        <v>1.620537183617519e-13</v>
       </c>
       <c r="H118" t="n">
-        <v>6.018912422616745e-13</v>
+        <v>1.620537183617519e-13</v>
       </c>
       <c r="I118" t="n">
-        <v>0.4593367933940673</v>
+        <v>0.411844176103589</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
@@ -5295,37 +5295,37 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.1925613614168962</v>
+        <v>0.1344758572921826</v>
       </c>
       <c r="C119" t="n">
-        <v>4.522402137188655e-14</v>
+        <v>1.045372910526111e-13</v>
       </c>
       <c r="D119" t="n">
-        <v>4.522402137188655e-14</v>
+        <v>0.3214235531177857</v>
       </c>
       <c r="E119" t="n">
-        <v>0.0007247650311417309</v>
+        <v>0.0002904681618319989</v>
       </c>
       <c r="F119" t="n">
-        <v>0.07130807218791836</v>
+        <v>0.3384822264768942</v>
       </c>
       <c r="G119" t="n">
-        <v>0.735405801363908</v>
+        <v>0.2053278949510964</v>
       </c>
       <c r="H119" t="n">
-        <v>4.522402137188653e-14</v>
+        <v>1.045372910526111e-13</v>
       </c>
       <c r="I119" t="n">
-        <v>0.735405801363908</v>
+        <v>0.3384822264768942</v>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
     </row>
@@ -5336,37 +5336,37 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.2916122129563294</v>
+        <v>0.1645022801042344</v>
       </c>
       <c r="C120" t="n">
-        <v>5.621265499220451e-14</v>
+        <v>1.125912008930268e-13</v>
       </c>
       <c r="D120" t="n">
-        <v>5.621265499220453e-14</v>
+        <v>0.3279944220543744</v>
       </c>
       <c r="E120" t="n">
-        <v>0.001032242883617101</v>
+        <v>0.0003455554532363948</v>
       </c>
       <c r="F120" t="n">
-        <v>0.05928531608330149</v>
+        <v>0.294463656955237</v>
       </c>
       <c r="G120" t="n">
-        <v>0.6480702280765834</v>
+        <v>0.2126940854326925</v>
       </c>
       <c r="H120" t="n">
-        <v>5.621265499220455e-14</v>
+        <v>1.125912008930266e-13</v>
       </c>
       <c r="I120" t="n">
-        <v>0.6480702280765834</v>
+        <v>0.3279944220543744</v>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
     </row>
@@ -5377,37 +5377,37 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.294804780126416</v>
+        <v>0.1897985303622393</v>
       </c>
       <c r="C121" t="n">
-        <v>5.449492712179632e-14</v>
+        <v>9.328514551440481e-14</v>
       </c>
       <c r="D121" t="n">
-        <v>5.449492712179632e-14</v>
+        <v>0.3149054275754373</v>
       </c>
       <c r="E121" t="n">
-        <v>0.000847218653373285</v>
+        <v>0.0002437365877081156</v>
       </c>
       <c r="F121" t="n">
-        <v>0.06412912099592226</v>
+        <v>0.298831320151697</v>
       </c>
       <c r="G121" t="n">
-        <v>0.640218880224125</v>
+        <v>0.1962209853227315</v>
       </c>
       <c r="H121" t="n">
-        <v>5.449492712179631e-14</v>
+        <v>9.328514551440483e-14</v>
       </c>
       <c r="I121" t="n">
-        <v>0.640218880224125</v>
+        <v>0.3149054275754373</v>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
     </row>
@@ -5418,37 +5418,37 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.3768061760223979</v>
+        <v>0.1756820020503213</v>
       </c>
       <c r="C122" t="n">
-        <v>5.42545774166985e-14</v>
+        <v>1.122991733621712e-13</v>
       </c>
       <c r="D122" t="n">
-        <v>5.42545774166985e-14</v>
+        <v>0.3271702567638813</v>
       </c>
       <c r="E122" t="n">
-        <v>0.001078299731339503</v>
+        <v>0.0004705496485721186</v>
       </c>
       <c r="F122" t="n">
-        <v>0.07426440907317394</v>
+        <v>0.2845345562932325</v>
       </c>
       <c r="G122" t="n">
-        <v>0.5478511151729258</v>
+        <v>0.2121426352437683</v>
       </c>
       <c r="H122" t="n">
-        <v>5.425457741669844e-14</v>
+        <v>1.122991733621713e-13</v>
       </c>
       <c r="I122" t="n">
-        <v>0.5478511151729258</v>
+        <v>0.3271702567638813</v>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
     </row>
@@ -5459,37 +5459,37 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.5793236069499246</v>
+        <v>0.2747467363058692</v>
       </c>
       <c r="C123" t="n">
-        <v>1.454487056667108e-13</v>
+        <v>4.471053009669086e-13</v>
       </c>
       <c r="D123" t="n">
-        <v>0.3393722333886103</v>
+        <v>0.4334582383117567</v>
       </c>
       <c r="E123" t="n">
-        <v>0.006571359675794025</v>
+        <v>2.234575129192382e-06</v>
       </c>
       <c r="F123" t="n">
-        <v>0.01745376005422059</v>
+        <v>0.2917927908059034</v>
       </c>
       <c r="G123" t="n">
-        <v>0.05727903993115982</v>
+        <v>4.471053009669078e-13</v>
       </c>
       <c r="H123" t="n">
-        <v>1.454487056667104e-13</v>
+        <v>4.471053009669081e-13</v>
       </c>
       <c r="I123" t="n">
-        <v>0.5793236069499246</v>
+        <v>0.4334582383117567</v>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
     </row>
@@ -5500,37 +5500,37 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.3644946510925148</v>
+        <v>0.1210642266390863</v>
       </c>
       <c r="C124" t="n">
-        <v>4.935488202357644e-14</v>
+        <v>1.040438281900631e-13</v>
       </c>
       <c r="D124" t="n">
-        <v>4.935488202357643e-14</v>
+        <v>0.3218030231140175</v>
       </c>
       <c r="E124" t="n">
-        <v>0.001104005620294779</v>
+        <v>0.0002807870225029241</v>
       </c>
       <c r="F124" t="n">
-        <v>0.1053457298907039</v>
+        <v>0.3516111037745503</v>
       </c>
       <c r="G124" t="n">
-        <v>0.5290556133963383</v>
+        <v>0.2052408594496348</v>
       </c>
       <c r="H124" t="n">
-        <v>4.935488202357639e-14</v>
+        <v>1.04043828190063e-13</v>
       </c>
       <c r="I124" t="n">
-        <v>0.5290556133963383</v>
+        <v>0.3516111037745503</v>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
     </row>
@@ -5541,37 +5541,37 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.1183170745160803</v>
+        <v>0.3132698537969889</v>
       </c>
       <c r="C125" t="n">
-        <v>1.336213635431856e-13</v>
+        <v>1.443124923165226e-13</v>
       </c>
       <c r="D125" t="n">
-        <v>1.336213635431855e-13</v>
+        <v>0.3600122544738962</v>
       </c>
       <c r="E125" t="n">
-        <v>0.002141067146030925</v>
+        <v>0.0002203823319815461</v>
       </c>
       <c r="F125" t="n">
-        <v>0.1139777339429259</v>
+        <v>0.3264975093967002</v>
       </c>
       <c r="G125" t="n">
-        <v>0.765564124394562</v>
+        <v>1.443124923165225e-13</v>
       </c>
       <c r="H125" t="n">
-        <v>1.336213635431855e-13</v>
+        <v>1.443124923165225e-13</v>
       </c>
       <c r="I125" t="n">
-        <v>0.765564124394562</v>
+        <v>0.3600122544738962</v>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
     </row>
@@ -5582,37 +5582,37 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.2284623084608501</v>
+        <v>0.1860578595629942</v>
       </c>
       <c r="C126" t="n">
-        <v>4.207490277519851e-14</v>
+        <v>1.425527406142698e-13</v>
       </c>
       <c r="D126" t="n">
-        <v>4.207490277519851e-14</v>
+        <v>0.354128270682108</v>
       </c>
       <c r="E126" t="n">
-        <v>0.0006569833346645261</v>
+        <v>0.0002646027058424107</v>
       </c>
       <c r="F126" t="n">
-        <v>0.1359389466325206</v>
+        <v>0.459549267048628</v>
       </c>
       <c r="G126" t="n">
-        <v>0.6349417615718387</v>
+        <v>1.425527406142698e-13</v>
       </c>
       <c r="H126" t="n">
-        <v>4.20749027751985e-14</v>
+        <v>1.425527406142698e-13</v>
       </c>
       <c r="I126" t="n">
-        <v>0.6349417615718387</v>
+        <v>0.459549267048628</v>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
     </row>
@@ -5623,37 +5623,37 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.373863350483434</v>
+        <v>0.3161772269762979</v>
       </c>
       <c r="C127" t="n">
-        <v>4.050562206830527e-13</v>
+        <v>1.573034631682609e-13</v>
       </c>
       <c r="D127" t="n">
-        <v>4.050562206830526e-13</v>
+        <v>0.3699340652362352</v>
       </c>
       <c r="E127" t="n">
-        <v>0.01073008468213158</v>
+        <v>1.357773377545191e-05</v>
       </c>
       <c r="F127" t="n">
-        <v>0.2021736635455148</v>
+        <v>0.3138751300532196</v>
       </c>
       <c r="G127" t="n">
-        <v>0.4132329012877046</v>
+        <v>1.573034631682612e-13</v>
       </c>
       <c r="H127" t="n">
-        <v>4.050562206830523e-13</v>
+        <v>1.573034631682612e-13</v>
       </c>
       <c r="I127" t="n">
-        <v>0.4132329012877046</v>
+        <v>0.3699340652362352</v>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
     </row>
@@ -5664,28 +5664,28 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.1272039266708305</v>
+        <v>0.3202111606954181</v>
       </c>
       <c r="C128" t="n">
-        <v>2.21911316483683e-14</v>
+        <v>3.409693088439156e-13</v>
       </c>
       <c r="D128" t="n">
-        <v>0.8653194000709001</v>
+        <v>0.4123568914128747</v>
       </c>
       <c r="E128" t="n">
-        <v>0.0002735880190917366</v>
+        <v>7.279684357727118e-06</v>
       </c>
       <c r="F128" t="n">
-        <v>0.001082727403466729</v>
+        <v>0.2674246682063265</v>
       </c>
       <c r="G128" t="n">
-        <v>0.006120357835666428</v>
+        <v>3.409693088439154e-13</v>
       </c>
       <c r="H128" t="n">
-        <v>2.21911316483683e-14</v>
+        <v>3.409693088439155e-13</v>
       </c>
       <c r="I128" t="n">
-        <v>0.8653194000709001</v>
+        <v>0.4123568914128747</v>
       </c>
       <c r="J128" t="inlineStr">
         <is>
@@ -5705,37 +5705,37 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.3090036869973205</v>
+        <v>0.3830402113377617</v>
       </c>
       <c r="C129" t="n">
-        <v>2.723259925819728e-13</v>
+        <v>1.220063929899217e-13</v>
       </c>
       <c r="D129" t="n">
-        <v>2.723259925819727e-13</v>
+        <v>0.3410392482634133</v>
       </c>
       <c r="E129" t="n">
-        <v>0.007262702363817439</v>
+        <v>8.262585083364806e-05</v>
       </c>
       <c r="F129" t="n">
-        <v>0.1847808485775603</v>
+        <v>0.2758379145476252</v>
       </c>
       <c r="G129" t="n">
-        <v>0.4989527620604847</v>
+        <v>1.220063929899218e-13</v>
       </c>
       <c r="H129" t="n">
-        <v>2.723259925819728e-13</v>
+        <v>1.220063929899218e-13</v>
       </c>
       <c r="I129" t="n">
-        <v>0.4989527620604847</v>
+        <v>0.3830402113377617</v>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
     </row>
@@ -5746,37 +5746,37 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.4041515879461837</v>
+        <v>0.1718161875404971</v>
       </c>
       <c r="C130" t="n">
-        <v>5.651700972484201e-14</v>
+        <v>1.591323740099179e-13</v>
       </c>
       <c r="D130" t="n">
-        <v>5.651700972484201e-14</v>
+        <v>0.3581076516899282</v>
       </c>
       <c r="E130" t="n">
-        <v>0.0011984119350424</v>
+        <v>0.0003092388594784906</v>
       </c>
       <c r="F130" t="n">
-        <v>0.1374826441822212</v>
+        <v>0.4697669219096188</v>
       </c>
       <c r="G130" t="n">
-        <v>0.457167355936383</v>
+        <v>1.591323740099178e-13</v>
       </c>
       <c r="H130" t="n">
-        <v>5.651700972484201e-14</v>
+        <v>1.591323740099179e-13</v>
       </c>
       <c r="I130" t="n">
-        <v>0.457167355936383</v>
+        <v>0.4697669219096188</v>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
     </row>
@@ -5787,37 +5787,37 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.3210239615799426</v>
+        <v>0.1647759263394412</v>
       </c>
       <c r="C131" t="n">
-        <v>5.703784261213323e-14</v>
+        <v>8.261646982573946e-14</v>
       </c>
       <c r="D131" t="n">
-        <v>5.703784261213322e-14</v>
+        <v>0.3009257825095847</v>
       </c>
       <c r="E131" t="n">
-        <v>0.0009089188617373686</v>
+        <v>0.0001129237197504649</v>
       </c>
       <c r="F131" t="n">
-        <v>0.1245885368383031</v>
+        <v>0.3511241427880277</v>
       </c>
       <c r="G131" t="n">
-        <v>0.5534785827198461</v>
+        <v>0.1830612246430307</v>
       </c>
       <c r="H131" t="n">
-        <v>5.703784261213324e-14</v>
+        <v>8.261646982573934e-14</v>
       </c>
       <c r="I131" t="n">
-        <v>0.5534785827198461</v>
+        <v>0.3511241427880277</v>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
     </row>
@@ -5828,37 +5828,37 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.2023161754950103</v>
+        <v>0.1475481113721844</v>
       </c>
       <c r="C132" t="n">
-        <v>0.2478358593622655</v>
+        <v>2.385994858723858e-13</v>
       </c>
       <c r="D132" t="n">
-        <v>3.087329343947265e-14</v>
+        <v>0.3834480101411574</v>
       </c>
       <c r="E132" t="n">
-        <v>0.0006131832050889635</v>
+        <v>0.0002096216417855995</v>
       </c>
       <c r="F132" t="n">
-        <v>0.04068934529628332</v>
+        <v>0.4687942568441569</v>
       </c>
       <c r="G132" t="n">
-        <v>0.5085454366412904</v>
+        <v>2.38599485872386e-13</v>
       </c>
       <c r="H132" t="n">
-        <v>3.087329343947264e-14</v>
+        <v>2.38599485872386e-13</v>
       </c>
       <c r="I132" t="n">
-        <v>0.5085454366412904</v>
+        <v>0.4687942568441569</v>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
     </row>
@@ -5869,37 +5869,37 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.2630033511140779</v>
+        <v>0.1768185773910639</v>
       </c>
       <c r="C133" t="n">
-        <v>3.960811736112519e-14</v>
+        <v>9.056364190767945e-14</v>
       </c>
       <c r="D133" t="n">
-        <v>3.960811736112519e-14</v>
+        <v>0.311733407614939</v>
       </c>
       <c r="E133" t="n">
-        <v>0.0006636221670733868</v>
+        <v>0.0003130040968158032</v>
       </c>
       <c r="F133" t="n">
-        <v>0.09267982560851791</v>
+        <v>0.3180559923074244</v>
       </c>
       <c r="G133" t="n">
-        <v>0.643653201110212</v>
+        <v>0.1930790185895759</v>
       </c>
       <c r="H133" t="n">
-        <v>3.960811736112519e-14</v>
+        <v>9.056364190767948e-14</v>
       </c>
       <c r="I133" t="n">
-        <v>0.643653201110212</v>
+        <v>0.3180559923074244</v>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
     </row>
@@ -5910,37 +5910,37 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.273359330347545</v>
+        <v>0.1843008359162743</v>
       </c>
       <c r="C134" t="n">
-        <v>1.020106801286817e-13</v>
+        <v>1.703650554885676e-13</v>
       </c>
       <c r="D134" t="n">
-        <v>1.020106801286816e-13</v>
+        <v>0.3644418177510152</v>
       </c>
       <c r="E134" t="n">
-        <v>0.001745688305826137</v>
+        <v>0.0001038929815268426</v>
       </c>
       <c r="F134" t="n">
-        <v>0.1256716196496198</v>
+        <v>0.4511534533506726</v>
       </c>
       <c r="G134" t="n">
-        <v>0.599223361696703</v>
+        <v>1.70365055488568e-13</v>
       </c>
       <c r="H134" t="n">
-        <v>1.020106801286818e-13</v>
+        <v>1.70365055488568e-13</v>
       </c>
       <c r="I134" t="n">
-        <v>0.599223361696703</v>
+        <v>0.4511534533506726</v>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
     </row>
@@ -5951,37 +5951,37 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.1535885592717921</v>
+        <v>0.1514772658298528</v>
       </c>
       <c r="C135" t="n">
-        <v>4.418432161443403e-14</v>
+        <v>7.93958401447137e-14</v>
       </c>
       <c r="D135" t="n">
-        <v>4.418432161443403e-14</v>
+        <v>0.2965387209112448</v>
       </c>
       <c r="E135" t="n">
-        <v>0.0006121282886243491</v>
+        <v>0.000201131139771321</v>
       </c>
       <c r="F135" t="n">
-        <v>0.1722174268596057</v>
+        <v>0.3728568153551226</v>
       </c>
       <c r="G135" t="n">
-        <v>0.6735818855798451</v>
+        <v>0.1789260667638498</v>
       </c>
       <c r="H135" t="n">
-        <v>4.418432161443403e-14</v>
+        <v>7.939584014471369e-14</v>
       </c>
       <c r="I135" t="n">
-        <v>0.6735818855798451</v>
+        <v>0.3728568153551226</v>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
     </row>
@@ -5992,37 +5992,37 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.3021830415178682</v>
+        <v>0.1681401967710249</v>
       </c>
       <c r="C136" t="n">
-        <v>5.815072678348055e-14</v>
+        <v>2.004424276418333e-13</v>
       </c>
       <c r="D136" t="n">
-        <v>5.815072678348056e-14</v>
+        <v>0.373270793954021</v>
       </c>
       <c r="E136" t="n">
-        <v>0.001094034034719616</v>
+        <v>0.0003811333313840555</v>
       </c>
       <c r="F136" t="n">
-        <v>0.1373811734107623</v>
+        <v>0.4582078759429687</v>
       </c>
       <c r="G136" t="n">
-        <v>0.5593417510364753</v>
+        <v>2.004424276418328e-13</v>
       </c>
       <c r="H136" t="n">
-        <v>5.815072678348055e-14</v>
+        <v>2.004424276418328e-13</v>
       </c>
       <c r="I136" t="n">
-        <v>0.5593417510364753</v>
+        <v>0.4582078759429687</v>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
     </row>
@@ -6033,37 +6033,37 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.462003260478968</v>
+        <v>0.1471995077292991</v>
       </c>
       <c r="C137" t="n">
-        <v>4.325832010554369e-14</v>
+        <v>1.109980439762848e-13</v>
       </c>
       <c r="D137" t="n">
-        <v>4.325832010554369e-14</v>
+        <v>0.32736590866977</v>
       </c>
       <c r="E137" t="n">
-        <v>0.001146497635793882</v>
+        <v>0.0003593267439504486</v>
       </c>
       <c r="F137" t="n">
-        <v>0.02117367014892599</v>
+        <v>0.3134923370806772</v>
       </c>
       <c r="G137" t="n">
-        <v>0.5156765717361824</v>
+        <v>0.2115829197760813</v>
       </c>
       <c r="H137" t="n">
-        <v>4.325832010554369e-14</v>
+        <v>1.109980439762848e-13</v>
       </c>
       <c r="I137" t="n">
-        <v>0.5156765717361824</v>
+        <v>0.32736590866977</v>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
     </row>
@@ -6074,37 +6074,37 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.2464251381536497</v>
+        <v>0.007332754314448211</v>
       </c>
       <c r="C138" t="n">
-        <v>0.4134925179391853</v>
+        <v>0.3880541084507403</v>
       </c>
       <c r="D138" t="n">
-        <v>1.458379095316202e-13</v>
+        <v>1.007513403218443e-13</v>
       </c>
       <c r="E138" t="n">
-        <v>0.006839143129003425</v>
+        <v>5.057385115210879e-05</v>
       </c>
       <c r="F138" t="n">
-        <v>0.2048815618962429</v>
+        <v>0.4027982727400157</v>
       </c>
       <c r="G138" t="n">
-        <v>0.128361638881627</v>
+        <v>0.2017642906434422</v>
       </c>
       <c r="H138" t="n">
-        <v>1.458379095316205e-13</v>
+        <v>1.007513403218444e-13</v>
       </c>
       <c r="I138" t="n">
-        <v>0.4134925179391853</v>
+        <v>0.4027982727400157</v>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
     </row>
@@ -6115,37 +6115,37 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.8959199140478152</v>
+        <v>0.2997522359392033</v>
       </c>
       <c r="C139" t="n">
-        <v>1.06953126226843e-13</v>
+        <v>1.373771684194691e-13</v>
       </c>
       <c r="D139" t="n">
-        <v>1.06953126226843e-13</v>
+        <v>0.3544696120763424</v>
       </c>
       <c r="E139" t="n">
-        <v>0.003627354139179942</v>
+        <v>2.314474023941857e-08</v>
       </c>
       <c r="F139" t="n">
-        <v>0.07586012321534651</v>
+        <v>0.3457781288393018</v>
       </c>
       <c r="G139" t="n">
-        <v>0.02459260859733749</v>
+        <v>1.37377168419469e-13</v>
       </c>
       <c r="H139" t="n">
-        <v>1.069531262268429e-13</v>
+        <v>1.37377168419469e-13</v>
       </c>
       <c r="I139" t="n">
-        <v>0.8959199140478152</v>
+        <v>0.3544696120763424</v>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
     </row>
@@ -6156,37 +6156,37 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.9074824322809725</v>
+        <v>0.02587478771830845</v>
       </c>
       <c r="C140" t="n">
-        <v>1.273266686220281e-13</v>
+        <v>2.22276209151514e-14</v>
       </c>
       <c r="D140" t="n">
-        <v>1.273266686220281e-13</v>
+        <v>0.9292733162354379</v>
       </c>
       <c r="E140" t="n">
-        <v>0.004683644877982171</v>
+        <v>4.568163701304178e-10</v>
       </c>
       <c r="F140" t="n">
-        <v>0.06575477572842225</v>
+        <v>0.04485189558937056</v>
       </c>
       <c r="G140" t="n">
-        <v>0.0220791471122412</v>
+        <v>2.22276209151514e-14</v>
       </c>
       <c r="H140" t="n">
-        <v>1.273266686220279e-13</v>
+        <v>2.22276209151514e-14</v>
       </c>
       <c r="I140" t="n">
-        <v>0.9074824322809725</v>
+        <v>0.9292733162354379</v>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
     </row>
@@ -6197,28 +6197,28 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.3380440030059386</v>
+        <v>0.2500377947106031</v>
       </c>
       <c r="C141" t="n">
-        <v>0.4239869657513543</v>
+        <v>0.4833339903601043</v>
       </c>
       <c r="D141" t="n">
-        <v>1.87475978715122e-13</v>
+        <v>4.534652967111645e-13</v>
       </c>
       <c r="E141" t="n">
-        <v>0.006179202220354913</v>
+        <v>0.0001228636272417699</v>
       </c>
       <c r="F141" t="n">
-        <v>0.1092758043422905</v>
+        <v>0.2665053513006906</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1225140246796867</v>
+        <v>4.534652967111633e-13</v>
       </c>
       <c r="H141" t="n">
-        <v>1.87475978715122e-13</v>
+        <v>4.534652967111633e-13</v>
       </c>
       <c r="I141" t="n">
-        <v>0.4239869657513543</v>
+        <v>0.4833339903601043</v>
       </c>
       <c r="J141" t="inlineStr">
         <is>
@@ -6238,37 +6238,37 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.9807524227757699</v>
+        <v>0.08413881165782008</v>
       </c>
       <c r="C142" t="n">
-        <v>2.219920655667699e-14</v>
+        <v>2.228071159041941e-14</v>
       </c>
       <c r="D142" t="n">
-        <v>2.219920655667699e-14</v>
+        <v>0.8726578542946272</v>
       </c>
       <c r="E142" t="n">
-        <v>0.0002446236645351333</v>
+        <v>2.228071159041941e-14</v>
       </c>
       <c r="F142" t="n">
-        <v>0.01846201007413726</v>
+        <v>0.04320333404746363</v>
       </c>
       <c r="G142" t="n">
-        <v>0.000540943485490968</v>
+        <v>2.228071159041941e-14</v>
       </c>
       <c r="H142" t="n">
-        <v>2.219920655667699e-14</v>
+        <v>2.228071159041941e-14</v>
       </c>
       <c r="I142" t="n">
-        <v>0.9807524227757699</v>
+        <v>0.8726578542946272</v>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
     </row>
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.002447130593148851</v>
+        <v>0.02795972462191944</v>
       </c>
       <c r="C143" t="n">
-        <v>0.9913453980516209</v>
+        <v>0.4520907567549446</v>
       </c>
       <c r="D143" t="n">
-        <v>2.220260072634578e-14</v>
+        <v>3.679564009790993e-13</v>
       </c>
       <c r="E143" t="n">
-        <v>0.0002550298680223551</v>
+        <v>0.0001878826968874103</v>
       </c>
       <c r="F143" t="n">
-        <v>0.0007460146442285632</v>
+        <v>0.2159915832393208</v>
       </c>
       <c r="G143" t="n">
-        <v>0.00520642684293501</v>
+        <v>0.303770052686192</v>
       </c>
       <c r="H143" t="n">
-        <v>2.220260072634578e-14</v>
+        <v>3.679564009790991e-13</v>
       </c>
       <c r="I143" t="n">
-        <v>0.9913453980516209</v>
+        <v>0.4520907567549446</v>
       </c>
       <c r="J143" t="inlineStr">
         <is>
@@ -6320,28 +6320,28 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.002537000025882643</v>
+        <v>0.004925024499990742</v>
       </c>
       <c r="C144" t="n">
-        <v>0.9782420567868233</v>
+        <v>0.426000805834207</v>
       </c>
       <c r="D144" t="n">
-        <v>2.220528997676537e-14</v>
+        <v>1.576797680997837e-13</v>
       </c>
       <c r="E144" t="n">
-        <v>0.0002533199108169839</v>
+        <v>0.0002957518744687177</v>
       </c>
       <c r="F144" t="n">
-        <v>0.0123356073609147</v>
+        <v>0.3213347829109114</v>
       </c>
       <c r="G144" t="n">
-        <v>0.006632015915518005</v>
+        <v>0.2474436348801068</v>
       </c>
       <c r="H144" t="n">
-        <v>2.220528997676537e-14</v>
+        <v>1.576797680997837e-13</v>
       </c>
       <c r="I144" t="n">
-        <v>0.9782420567868233</v>
+        <v>0.426000805834207</v>
       </c>
       <c r="J144" t="inlineStr">
         <is>
@@ -6361,28 +6361,28 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.006926441893888424</v>
+        <v>0.01921065171021112</v>
       </c>
       <c r="C145" t="n">
-        <v>0.9814135863762732</v>
+        <v>0.4424494849446773</v>
       </c>
       <c r="D145" t="n">
-        <v>2.220607463793698e-14</v>
+        <v>2.171417919691023e-13</v>
       </c>
       <c r="E145" t="n">
-        <v>0.0002775361591363325</v>
+        <v>0.0008067564575636932</v>
       </c>
       <c r="F145" t="n">
-        <v>0.003897599365844764</v>
+        <v>0.2626017018996584</v>
       </c>
       <c r="G145" t="n">
-        <v>0.007484836204812965</v>
+        <v>0.2749314049874549</v>
       </c>
       <c r="H145" t="n">
-        <v>2.220607463793698e-14</v>
+        <v>2.171417919691022e-13</v>
       </c>
       <c r="I145" t="n">
-        <v>0.9814135863762732</v>
+        <v>0.4424494849446773</v>
       </c>
       <c r="J145" t="inlineStr">
         <is>
@@ -6402,28 +6402,28 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.001379992882938017</v>
+        <v>0.2013596138479803</v>
       </c>
       <c r="C146" t="n">
-        <v>0.9901374998749156</v>
+        <v>0.4778823245014294</v>
       </c>
       <c r="D146" t="n">
-        <v>2.220183668780262e-14</v>
+        <v>5.56935254372525e-12</v>
       </c>
       <c r="E146" t="n">
-        <v>0.0002228712612457614</v>
+        <v>0.006876742800747737</v>
       </c>
       <c r="F146" t="n">
-        <v>0.001373772283930469</v>
+        <v>0.3138813188331344</v>
       </c>
       <c r="G146" t="n">
-        <v>0.006885863696925614</v>
+        <v>5.569352543725267e-12</v>
       </c>
       <c r="H146" t="n">
-        <v>2.220183668780262e-14</v>
+        <v>5.569352543725275e-12</v>
       </c>
       <c r="I146" t="n">
-        <v>0.9901374998749156</v>
+        <v>0.4778823245014294</v>
       </c>
       <c r="J146" t="inlineStr">
         <is>
@@ -6443,28 +6443,28 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.0007947633170987495</v>
+        <v>0.001955461442760466</v>
       </c>
       <c r="C147" t="n">
-        <v>0.9872728540030014</v>
+        <v>0.3686933569519247</v>
       </c>
       <c r="D147" t="n">
-        <v>2.220222164245106e-14</v>
+        <v>0.2987518642258487</v>
       </c>
       <c r="E147" t="n">
-        <v>0.0002189120362019618</v>
+        <v>4.0805859354273e-05</v>
       </c>
       <c r="F147" t="n">
-        <v>0.003007987298619782</v>
+        <v>0.1496534584290172</v>
       </c>
       <c r="G147" t="n">
-        <v>0.008705483345033588</v>
+        <v>0.1809050530910139</v>
       </c>
       <c r="H147" t="n">
-        <v>2.220222164245106e-14</v>
+        <v>8.085992458019506e-14</v>
       </c>
       <c r="I147" t="n">
-        <v>0.9872728540030014</v>
+        <v>0.3686933569519247</v>
       </c>
       <c r="J147" t="inlineStr">
         <is>
@@ -6484,28 +6484,28 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.9726524442848059</v>
+        <v>0.4111744704115076</v>
       </c>
       <c r="C148" t="n">
-        <v>4.641061627298861e-14</v>
+        <v>1.232690777407937e-13</v>
       </c>
       <c r="D148" t="n">
-        <v>4.641061627298861e-14</v>
+        <v>0.3432604427029773</v>
       </c>
       <c r="E148" t="n">
-        <v>0.001567553588764502</v>
+        <v>1.200709644476559e-09</v>
       </c>
       <c r="F148" t="n">
-        <v>0.02033403470826287</v>
+        <v>0.2455650856844356</v>
       </c>
       <c r="G148" t="n">
-        <v>0.005445967418027513</v>
+        <v>1.232690777407938e-13</v>
       </c>
       <c r="H148" t="n">
-        <v>4.641061627298762e-14</v>
+        <v>1.232690777407938e-13</v>
       </c>
       <c r="I148" t="n">
-        <v>0.9726524442848059</v>
+        <v>0.4111744704115076</v>
       </c>
       <c r="J148" t="inlineStr">
         <is>
@@ -6525,37 +6525,37 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.4504072879912106</v>
+        <v>0.04054262830855802</v>
       </c>
       <c r="C149" t="n">
-        <v>0.4081568603628697</v>
+        <v>0.3567848850887195</v>
       </c>
       <c r="D149" t="n">
-        <v>1.513063752202121e-13</v>
+        <v>0.2876920531207645</v>
       </c>
       <c r="E149" t="n">
-        <v>0.003989987660135592</v>
+        <v>1.217839292718135e-06</v>
       </c>
       <c r="F149" t="n">
-        <v>0.0692703792315035</v>
+        <v>0.1426012288779486</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06817548475397814</v>
+        <v>0.172377986764641</v>
       </c>
       <c r="H149" t="n">
-        <v>1.513063752202122e-13</v>
+        <v>7.546859051600858e-14</v>
       </c>
       <c r="I149" t="n">
-        <v>0.4504072879912106</v>
+        <v>0.3567848850887195</v>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Bifidobacteriales</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Bifidobacteriales</t>
         </is>
       </c>
     </row>
@@ -6566,28 +6566,28 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.00624598380271285</v>
+        <v>0.006547656025844043</v>
       </c>
       <c r="C150" t="n">
-        <v>0.9767398044867238</v>
+        <v>0.4217549141167889</v>
       </c>
       <c r="D150" t="n">
-        <v>2.22076618970207e-14</v>
+        <v>1.516629919599477e-13</v>
       </c>
       <c r="E150" t="n">
-        <v>0.0003170159974163755</v>
+        <v>0.0005763861994183547</v>
       </c>
       <c r="F150" t="n">
-        <v>0.009408631926864069</v>
+        <v>0.3282239892202214</v>
       </c>
       <c r="G150" t="n">
-        <v>0.007288563786238459</v>
+        <v>0.242897054437424</v>
       </c>
       <c r="H150" t="n">
-        <v>2.22076618970207e-14</v>
+        <v>1.516629919599474e-13</v>
       </c>
       <c r="I150" t="n">
-        <v>0.9767398044867238</v>
+        <v>0.4217549141167889</v>
       </c>
       <c r="J150" t="inlineStr">
         <is>
@@ -6607,28 +6607,28 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.00653678193463656</v>
+        <v>0.003637356905769523</v>
       </c>
       <c r="C151" t="n">
-        <v>0.9775932997433359</v>
+        <v>0.409415124270636</v>
       </c>
       <c r="D151" t="n">
-        <v>2.220739870268613e-14</v>
+        <v>1.210077043387176e-13</v>
       </c>
       <c r="E151" t="n">
-        <v>0.0003234646249322625</v>
+        <v>0.0002403908119936747</v>
       </c>
       <c r="F151" t="n">
-        <v>0.009787563400210161</v>
+        <v>0.3638377062301077</v>
       </c>
       <c r="G151" t="n">
-        <v>0.005758890296840774</v>
+        <v>0.2228694217812512</v>
       </c>
       <c r="H151" t="n">
-        <v>2.220739870268613e-14</v>
+        <v>1.210077043387175e-13</v>
       </c>
       <c r="I151" t="n">
-        <v>0.9775932997433359</v>
+        <v>0.409415124270636</v>
       </c>
       <c r="J151" t="inlineStr">
         <is>
@@ -6648,37 +6648,37 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.1815314062189316</v>
+        <v>0.1402852547857422</v>
       </c>
       <c r="C152" t="n">
-        <v>0.226575605549539</v>
+        <v>1.517772271983918e-13</v>
       </c>
       <c r="D152" t="n">
-        <v>2.645605951871626e-14</v>
+        <v>0.3558388106498991</v>
       </c>
       <c r="E152" t="n">
-        <v>0.00048388263624461</v>
+        <v>0.0001932509770347594</v>
       </c>
       <c r="F152" t="n">
-        <v>0.1285831143314408</v>
+        <v>0.5036826835868683</v>
       </c>
       <c r="G152" t="n">
-        <v>0.462825991263791</v>
+        <v>1.517772271983917e-13</v>
       </c>
       <c r="H152" t="n">
-        <v>2.645605951871624e-14</v>
+        <v>1.517772271983917e-13</v>
       </c>
       <c r="I152" t="n">
-        <v>0.462825991263791</v>
+        <v>0.5036826835868683</v>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
     </row>
@@ -6689,37 +6689,37 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.1549070889708211</v>
+        <v>0.2514819314211019</v>
       </c>
       <c r="C153" t="n">
-        <v>5.16545822947609e-14</v>
+        <v>1.653742596079164e-13</v>
       </c>
       <c r="D153" t="n">
-        <v>5.165458229476094e-14</v>
+        <v>0.3664695621584165</v>
       </c>
       <c r="E153" t="n">
-        <v>0.0007894141961755735</v>
+        <v>0.0003645397158116397</v>
       </c>
       <c r="F153" t="n">
-        <v>0.0690458819345111</v>
+        <v>0.381683966704174</v>
       </c>
       <c r="G153" t="n">
-        <v>0.7752576148983372</v>
+        <v>1.653742596079164e-13</v>
       </c>
       <c r="H153" t="n">
-        <v>5.165458229476091e-14</v>
+        <v>1.653742596079165e-13</v>
       </c>
       <c r="I153" t="n">
-        <v>0.7752576148983372</v>
+        <v>0.381683966704174</v>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
     </row>
@@ -6730,37 +6730,37 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.2688517183515667</v>
+        <v>0.2024510103381946</v>
       </c>
       <c r="C154" t="n">
-        <v>5.134962955080018e-14</v>
+        <v>9.224575320184095e-14</v>
       </c>
       <c r="D154" t="n">
-        <v>5.134962955080018e-14</v>
+        <v>0.3131730789094858</v>
       </c>
       <c r="E154" t="n">
-        <v>0.0008237234285694016</v>
+        <v>0.000274615086689707</v>
       </c>
       <c r="F154" t="n">
-        <v>0.06218975479546493</v>
+        <v>0.2893101327129627</v>
       </c>
       <c r="G154" t="n">
-        <v>0.668134803424245</v>
+        <v>0.1947911629524829</v>
       </c>
       <c r="H154" t="n">
-        <v>5.134962955080016e-14</v>
+        <v>9.224575320184095e-14</v>
       </c>
       <c r="I154" t="n">
-        <v>0.668134803424245</v>
+        <v>0.3131730789094858</v>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
     </row>
@@ -6771,37 +6771,37 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.1326670893393342</v>
+        <v>0.1335142285359562</v>
       </c>
       <c r="C155" t="n">
-        <v>4.698600209596337e-14</v>
+        <v>8.825791729088824e-14</v>
       </c>
       <c r="D155" t="n">
-        <v>4.698600209596337e-14</v>
+        <v>0.3106143830481411</v>
       </c>
       <c r="E155" t="n">
-        <v>0.0006684198297582087</v>
+        <v>0.0002041782210359239</v>
       </c>
       <c r="F155" t="n">
-        <v>0.1178177364003404</v>
+        <v>0.3645866289146723</v>
       </c>
       <c r="G155" t="n">
-        <v>0.748846754430426</v>
+        <v>0.1910805812800182</v>
       </c>
       <c r="H155" t="n">
-        <v>4.698600209596341e-14</v>
+        <v>8.825791729088814e-14</v>
       </c>
       <c r="I155" t="n">
-        <v>0.748846754430426</v>
+        <v>0.3645866289146723</v>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
     </row>
@@ -6812,37 +6812,37 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.3199898233450883</v>
+        <v>0.22141651341989</v>
       </c>
       <c r="C156" t="n">
-        <v>5.18787769862522e-14</v>
+        <v>8.613412126144031e-14</v>
       </c>
       <c r="D156" t="n">
-        <v>5.18787769862522e-14</v>
+        <v>0.3043842313753238</v>
       </c>
       <c r="E156" t="n">
-        <v>0.0008612599967678489</v>
+        <v>0.0002486208724223063</v>
       </c>
       <c r="F156" t="n">
-        <v>0.07644969005073728</v>
+        <v>0.2870048301019923</v>
       </c>
       <c r="G156" t="n">
-        <v>0.6026992266072507</v>
+        <v>0.1869458042301993</v>
       </c>
       <c r="H156" t="n">
-        <v>5.187877698625221e-14</v>
+        <v>8.613412126144037e-14</v>
       </c>
       <c r="I156" t="n">
-        <v>0.6026992266072507</v>
+        <v>0.3043842313753238</v>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
     </row>
@@ -6853,37 +6853,37 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.3543752072717111</v>
+        <v>0.2178485312998712</v>
       </c>
       <c r="C157" t="n">
-        <v>5.447915047362692e-14</v>
+        <v>8.751503127140381e-14</v>
       </c>
       <c r="D157" t="n">
-        <v>5.447915047362692e-14</v>
+        <v>0.3063946145386034</v>
       </c>
       <c r="E157" t="n">
-        <v>0.0009720018249009463</v>
+        <v>0.0002806668512083595</v>
       </c>
       <c r="F157" t="n">
-        <v>0.0871080745421513</v>
+        <v>0.2867364747188028</v>
       </c>
       <c r="G157" t="n">
-        <v>0.5575447163610732</v>
+        <v>0.1887397125913393</v>
       </c>
       <c r="H157" t="n">
-        <v>5.447915047362682e-14</v>
+        <v>8.751503127140369e-14</v>
       </c>
       <c r="I157" t="n">
-        <v>0.5575447163610732</v>
+        <v>0.3063946145386034</v>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
     </row>
@@ -6894,37 +6894,37 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.3543752072717111</v>
+        <v>0.2178485312998712</v>
       </c>
       <c r="C158" t="n">
-        <v>5.447915047362692e-14</v>
+        <v>8.751503127140381e-14</v>
       </c>
       <c r="D158" t="n">
-        <v>5.447915047362692e-14</v>
+        <v>0.3063946145386034</v>
       </c>
       <c r="E158" t="n">
-        <v>0.0009720018249009463</v>
+        <v>0.0002806668512083595</v>
       </c>
       <c r="F158" t="n">
-        <v>0.0871080745421513</v>
+        <v>0.2867364747188028</v>
       </c>
       <c r="G158" t="n">
-        <v>0.5575447163610732</v>
+        <v>0.1887397125913393</v>
       </c>
       <c r="H158" t="n">
-        <v>5.447915047362682e-14</v>
+        <v>8.751503127140369e-14</v>
       </c>
       <c r="I158" t="n">
-        <v>0.5575447163610732</v>
+        <v>0.3063946145386034</v>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
     </row>
@@ -6935,37 +6935,37 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.3015192375004399</v>
+        <v>0.1772973304309215</v>
       </c>
       <c r="C159" t="n">
-        <v>4.733759936534103e-14</v>
+        <v>8.314399792008443e-14</v>
       </c>
       <c r="D159" t="n">
-        <v>4.733759936534103e-14</v>
+        <v>0.3012237633139117</v>
       </c>
       <c r="E159" t="n">
-        <v>0.0007684049577928413</v>
+        <v>0.0002244635216525651</v>
       </c>
       <c r="F159" t="n">
-        <v>0.09386467155672797</v>
+        <v>0.3377010010459974</v>
       </c>
       <c r="G159" t="n">
-        <v>0.6038476859848975</v>
+        <v>0.1835534416873504</v>
       </c>
       <c r="H159" t="n">
-        <v>4.733759936534104e-14</v>
+        <v>8.314399792008449e-14</v>
       </c>
       <c r="I159" t="n">
-        <v>0.6038476859848975</v>
+        <v>0.3377010010459974</v>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
     </row>
@@ -6976,37 +6976,37 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.3543752072717111</v>
+        <v>0.2178485312998712</v>
       </c>
       <c r="C160" t="n">
-        <v>5.447915047362692e-14</v>
+        <v>8.751503127140381e-14</v>
       </c>
       <c r="D160" t="n">
-        <v>5.447915047362692e-14</v>
+        <v>0.3063946145386034</v>
       </c>
       <c r="E160" t="n">
-        <v>0.0009720018249009463</v>
+        <v>0.0002806668512083595</v>
       </c>
       <c r="F160" t="n">
-        <v>0.0871080745421513</v>
+        <v>0.2867364747188028</v>
       </c>
       <c r="G160" t="n">
-        <v>0.5575447163610732</v>
+        <v>0.1887397125913393</v>
       </c>
       <c r="H160" t="n">
-        <v>5.447915047362682e-14</v>
+        <v>8.751503127140369e-14</v>
       </c>
       <c r="I160" t="n">
-        <v>0.5575447163610732</v>
+        <v>0.3063946145386034</v>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
     </row>
@@ -7017,37 +7017,37 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.3015192375004399</v>
+        <v>0.1772973304309215</v>
       </c>
       <c r="C161" t="n">
-        <v>4.733759936534103e-14</v>
+        <v>8.314399792008443e-14</v>
       </c>
       <c r="D161" t="n">
-        <v>4.733759936534103e-14</v>
+        <v>0.3012237633139117</v>
       </c>
       <c r="E161" t="n">
-        <v>0.0007684049577928413</v>
+        <v>0.0002244635216525651</v>
       </c>
       <c r="F161" t="n">
-        <v>0.09386467155672797</v>
+        <v>0.3377010010459974</v>
       </c>
       <c r="G161" t="n">
-        <v>0.6038476859848975</v>
+        <v>0.1835534416873504</v>
       </c>
       <c r="H161" t="n">
-        <v>4.733759936534104e-14</v>
+        <v>8.314399792008449e-14</v>
       </c>
       <c r="I161" t="n">
-        <v>0.6038476859848975</v>
+        <v>0.3377010010459974</v>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
     </row>
@@ -7058,37 +7058,37 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.5695604567631999</v>
+        <v>0.001767193508915096</v>
       </c>
       <c r="C162" t="n">
-        <v>0.2958195072259481</v>
+        <v>2.217310964406586e-14</v>
       </c>
       <c r="D162" t="n">
-        <v>4.457964711227502e-14</v>
+        <v>0.8384508189023506</v>
       </c>
       <c r="E162" t="n">
-        <v>0.00127133393057911</v>
+        <v>1.337602263718617e-11</v>
       </c>
       <c r="F162" t="n">
-        <v>0.1128547255189249</v>
+        <v>0.1597819875752916</v>
       </c>
       <c r="G162" t="n">
-        <v>0.02049397656125889</v>
+        <v>2.217310964406586e-14</v>
       </c>
       <c r="H162" t="n">
-        <v>4.457964711227504e-14</v>
+        <v>2.217310964406586e-14</v>
       </c>
       <c r="I162" t="n">
-        <v>0.5695604567631999</v>
+        <v>0.8384508189023506</v>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
     </row>
@@ -7099,37 +7099,37 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.8372476528154441</v>
+        <v>0.1661236077389954</v>
       </c>
       <c r="C163" t="n">
-        <v>1.646445528764733e-13</v>
+        <v>5.062954750061168e-13</v>
       </c>
       <c r="D163" t="n">
-        <v>1.646445528764733e-13</v>
+        <v>0.4071463418817804</v>
       </c>
       <c r="E163" t="n">
-        <v>0.004758089741709068</v>
+        <v>8.434991769429504e-09</v>
       </c>
       <c r="F163" t="n">
-        <v>0.1080746813182601</v>
+        <v>0.4267300419427138</v>
       </c>
       <c r="G163" t="n">
-        <v>0.04991957612409265</v>
+        <v>5.062954750061168e-13</v>
       </c>
       <c r="H163" t="n">
-        <v>1.646445528764733e-13</v>
+        <v>5.062954750061168e-13</v>
       </c>
       <c r="I163" t="n">
-        <v>0.8372476528154441</v>
+        <v>0.4267300419427138</v>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
     </row>
@@ -7140,37 +7140,37 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.5823713460901875</v>
+        <v>0.1731184385974461</v>
       </c>
       <c r="C164" t="n">
-        <v>0.2956178018324778</v>
+        <v>5.147362940376803e-13</v>
       </c>
       <c r="D164" t="n">
-        <v>4.44373576663711e-14</v>
+        <v>0.4071497184656802</v>
       </c>
       <c r="E164" t="n">
-        <v>0.001338341613979346</v>
+        <v>2.226908500662713e-07</v>
       </c>
       <c r="F164" t="n">
-        <v>0.08841226464555782</v>
+        <v>0.4197316202444794</v>
       </c>
       <c r="G164" t="n">
-        <v>0.03226024581770855</v>
+        <v>5.147362940376801e-13</v>
       </c>
       <c r="H164" t="n">
-        <v>4.44373576663711e-14</v>
+        <v>5.147362940376803e-13</v>
       </c>
       <c r="I164" t="n">
-        <v>0.5823713460901875</v>
+        <v>0.4197316202444794</v>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
     </row>
@@ -7181,28 +7181,28 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.002239366455808539</v>
+        <v>0.02650893996146228</v>
       </c>
       <c r="C165" t="n">
-        <v>0.9822285752982426</v>
+        <v>0.4213402096320379</v>
       </c>
       <c r="D165" t="n">
-        <v>2.220524371230369e-14</v>
+        <v>0.3582796881404358</v>
       </c>
       <c r="E165" t="n">
-        <v>0.0002303446871466807</v>
+        <v>7.261171789563001e-05</v>
       </c>
       <c r="F165" t="n">
-        <v>0.007769977877905918</v>
+        <v>0.1937985505478314</v>
       </c>
       <c r="G165" t="n">
-        <v>0.007531735680851898</v>
+        <v>1.687225250886651e-13</v>
       </c>
       <c r="H165" t="n">
-        <v>2.220524371230369e-14</v>
+        <v>1.687225250886651e-13</v>
       </c>
       <c r="I165" t="n">
-        <v>0.9822285752982426</v>
+        <v>0.4213402096320379</v>
       </c>
       <c r="J165" t="inlineStr">
         <is>
@@ -7222,37 +7222,37 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.8134000912249891</v>
+        <v>0.350310997202165</v>
       </c>
       <c r="C166" t="n">
-        <v>2.219735917394158e-14</v>
+        <v>2.226171849021243e-14</v>
       </c>
       <c r="D166" t="n">
-        <v>2.219735917394158e-14</v>
+        <v>0.6415409734760775</v>
       </c>
       <c r="E166" t="n">
-        <v>1.28973610303301e-05</v>
+        <v>5.122113146483613e-13</v>
       </c>
       <c r="F166" t="n">
-        <v>0.1865868373161189</v>
+        <v>0.008148029321178359</v>
       </c>
       <c r="G166" t="n">
-        <v>1.740977951649145e-07</v>
+        <v>2.226171849021243e-14</v>
       </c>
       <c r="H166" t="n">
-        <v>2.219735917394158e-14</v>
+        <v>2.226171849021243e-14</v>
       </c>
       <c r="I166" t="n">
-        <v>0.8134000912249891</v>
+        <v>0.6415409734760775</v>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
     </row>
@@ -7263,28 +7263,28 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.6305243322152431</v>
+        <v>0.3968331474943019</v>
       </c>
       <c r="C167" t="n">
-        <v>2.22011939160467e-14</v>
+        <v>1.09986303829002e-13</v>
       </c>
       <c r="D167" t="n">
-        <v>2.22011939160467e-14</v>
+        <v>0.3381066471900507</v>
       </c>
       <c r="E167" t="n">
-        <v>8.998053296226501e-06</v>
+        <v>1.529893706615224e-12</v>
       </c>
       <c r="F167" t="n">
-        <v>0.3694627262767766</v>
+        <v>0.2650602053137874</v>
       </c>
       <c r="G167" t="n">
-        <v>3.943454617612138e-06</v>
+        <v>1.099863038290021e-13</v>
       </c>
       <c r="H167" t="n">
-        <v>2.22011939160467e-14</v>
+        <v>1.099863038290021e-13</v>
       </c>
       <c r="I167" t="n">
-        <v>0.6305243322152431</v>
+        <v>0.3968331474943019</v>
       </c>
       <c r="J167" t="inlineStr">
         <is>
@@ -7304,28 +7304,28 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.007065310366291726</v>
+        <v>0.01100520760542378</v>
       </c>
       <c r="C168" t="n">
-        <v>0.9760034682214322</v>
+        <v>0.4356204491475977</v>
       </c>
       <c r="D168" t="n">
-        <v>2.220842632926867e-14</v>
+        <v>1.755081793833024e-13</v>
       </c>
       <c r="E168" t="n">
-        <v>0.0002735334558578838</v>
+        <v>0.0004166394652705592</v>
       </c>
       <c r="F168" t="n">
-        <v>0.007613155722271314</v>
+        <v>0.293806732944683</v>
       </c>
       <c r="G168" t="n">
-        <v>0.009044532234102343</v>
+        <v>0.2591509708366738</v>
       </c>
       <c r="H168" t="n">
-        <v>2.220842632926867e-14</v>
+        <v>1.755081793833025e-13</v>
       </c>
       <c r="I168" t="n">
-        <v>0.9760034682214322</v>
+        <v>0.4356204491475977</v>
       </c>
       <c r="J168" t="inlineStr">
         <is>
@@ -7345,37 +7345,37 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.2565745022654868</v>
+        <v>0.2102869862243031</v>
       </c>
       <c r="C169" t="n">
-        <v>0.4488208125961254</v>
+        <v>1.682534958940034e-12</v>
       </c>
       <c r="D169" t="n">
-        <v>4.673046312764511e-13</v>
+        <v>0.4296767953540071</v>
       </c>
       <c r="E169" t="n">
-        <v>0.01930914120993146</v>
+        <v>2.400698435957429e-05</v>
       </c>
       <c r="F169" t="n">
-        <v>0.1148624770642774</v>
+        <v>0.3600122114322825</v>
       </c>
       <c r="G169" t="n">
-        <v>0.1604330668632445</v>
+        <v>1.682534958940041e-12</v>
       </c>
       <c r="H169" t="n">
-        <v>4.673046312764498e-13</v>
+        <v>1.682534958940041e-12</v>
       </c>
       <c r="I169" t="n">
-        <v>0.4488208125961254</v>
+        <v>0.4296767953540071</v>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
     </row>
@@ -7386,37 +7386,37 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.1492490502971841</v>
+        <v>0.2200557155564355</v>
       </c>
       <c r="C170" t="n">
-        <v>0.4663560632969608</v>
+        <v>1.703148084047906e-12</v>
       </c>
       <c r="D170" t="n">
-        <v>5.334184326566263e-13</v>
+        <v>0.4342713702966204</v>
       </c>
       <c r="E170" t="n">
-        <v>0.01735945003356841</v>
+        <v>0.0003747888507792832</v>
       </c>
       <c r="F170" t="n">
-        <v>0.1697182372498703</v>
+        <v>0.3452981252910555</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1973171991213495</v>
+        <v>1.703148084047911e-12</v>
       </c>
       <c r="H170" t="n">
-        <v>5.334184326566265e-13</v>
+        <v>1.703148084047911e-12</v>
       </c>
       <c r="I170" t="n">
-        <v>0.4663560632969608</v>
+        <v>0.4342713702966204</v>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
     </row>
@@ -7427,28 +7427,28 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.00347187126602429</v>
+        <v>0.002134826995674144</v>
       </c>
       <c r="C171" t="n">
-        <v>0.9762636549192764</v>
+        <v>0.4111546038211427</v>
       </c>
       <c r="D171" t="n">
-        <v>2.220688042013255e-14</v>
+        <v>1.226193335860928e-13</v>
       </c>
       <c r="E171" t="n">
-        <v>0.0002616971586533975</v>
+        <v>6.792007607070094e-05</v>
       </c>
       <c r="F171" t="n">
-        <v>0.01263687595245736</v>
+        <v>0.362136578187889</v>
       </c>
       <c r="G171" t="n">
-        <v>0.007365900703544189</v>
+        <v>0.2245060709189782</v>
       </c>
       <c r="H171" t="n">
-        <v>2.220688042013255e-14</v>
+        <v>1.226193335860928e-13</v>
       </c>
       <c r="I171" t="n">
-        <v>0.9762636549192764</v>
+        <v>0.4111546038211427</v>
       </c>
       <c r="J171" t="inlineStr">
         <is>
@@ -7468,28 +7468,28 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.002523577479234477</v>
+        <v>0.01258256372524608</v>
       </c>
       <c r="C172" t="n">
-        <v>0.9824597415880566</v>
+        <v>0.4421735726072977</v>
       </c>
       <c r="D172" t="n">
-        <v>2.220266351919494e-14</v>
+        <v>2.134786123988119e-13</v>
       </c>
       <c r="E172" t="n">
-        <v>0.0001912874433037592</v>
+        <v>0.0002943707523556425</v>
       </c>
       <c r="F172" t="n">
-        <v>0.002828721964478394</v>
+        <v>0.2712250292488599</v>
       </c>
       <c r="G172" t="n">
-        <v>0.01199667152488247</v>
+        <v>0.2737244636658137</v>
       </c>
       <c r="H172" t="n">
-        <v>2.220266351919494e-14</v>
+        <v>2.134786123988111e-13</v>
       </c>
       <c r="I172" t="n">
-        <v>0.9824597415880566</v>
+        <v>0.4421735726072977</v>
       </c>
       <c r="J172" t="inlineStr">
         <is>
@@ -7509,28 +7509,28 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.01390516787265896</v>
+        <v>0.02391064679877606</v>
       </c>
       <c r="C173" t="n">
-        <v>0.9742654441873009</v>
+        <v>0.4307561655455321</v>
       </c>
       <c r="D173" t="n">
-        <v>2.22074572961541e-14</v>
+        <v>1.934759493637104e-13</v>
       </c>
       <c r="E173" t="n">
-        <v>0.0003334537869224728</v>
+        <v>0.001021982012984862</v>
       </c>
       <c r="F173" t="n">
-        <v>0.006625605868507315</v>
+        <v>0.2824682142813408</v>
       </c>
       <c r="G173" t="n">
-        <v>0.004870328284565997</v>
+        <v>0.2618429913609792</v>
       </c>
       <c r="H173" t="n">
-        <v>2.22074572961541e-14</v>
+        <v>1.934759493637104e-13</v>
       </c>
       <c r="I173" t="n">
-        <v>0.9742654441873009</v>
+        <v>0.4307561655455321</v>
       </c>
       <c r="J173" t="inlineStr">
         <is>
@@ -7550,28 +7550,28 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0.006823684949295326</v>
+        <v>0.01564572373373267</v>
       </c>
       <c r="C174" t="n">
-        <v>0.9815474213293499</v>
+        <v>0.4388876453562451</v>
       </c>
       <c r="D174" t="n">
-        <v>2.220655809324487e-14</v>
+        <v>2.077977542258697e-13</v>
       </c>
       <c r="E174" t="n">
-        <v>0.0003276801628249945</v>
+        <v>0.001174807828247585</v>
       </c>
       <c r="F174" t="n">
-        <v>0.005901694419976969</v>
+        <v>0.2739187672759132</v>
       </c>
       <c r="G174" t="n">
-        <v>0.005399519138508372</v>
+        <v>0.2703730558054458</v>
       </c>
       <c r="H174" t="n">
-        <v>2.220655809324487e-14</v>
+        <v>2.077977542258698e-13</v>
       </c>
       <c r="I174" t="n">
-        <v>0.9815474213293499</v>
+        <v>0.4388876453562451</v>
       </c>
       <c r="J174" t="inlineStr">
         <is>
@@ -7591,28 +7591,28 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0.005246276938504435</v>
+        <v>0.01677185550746359</v>
       </c>
       <c r="C175" t="n">
-        <v>0.9812947836158025</v>
+        <v>0.4352040430188394</v>
       </c>
       <c r="D175" t="n">
-        <v>2.220645676967978e-14</v>
+        <v>1.998775386846846e-13</v>
       </c>
       <c r="E175" t="n">
-        <v>0.0002103490941234272</v>
+        <v>0.0003947059500970106</v>
       </c>
       <c r="F175" t="n">
-        <v>0.006453800880122194</v>
+        <v>0.2815412241351692</v>
       </c>
       <c r="G175" t="n">
-        <v>0.006794789471403058</v>
+        <v>0.266088171388031</v>
       </c>
       <c r="H175" t="n">
-        <v>2.220645676967978e-14</v>
+        <v>1.998775386846847e-13</v>
       </c>
       <c r="I175" t="n">
-        <v>0.9812947836158025</v>
+        <v>0.4352040430188394</v>
       </c>
       <c r="J175" t="inlineStr">
         <is>
@@ -7632,28 +7632,28 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.004167334016751087</v>
+        <v>0.004903282668682959</v>
       </c>
       <c r="C176" t="n">
-        <v>0.9813834922866731</v>
+        <v>0.4246301953535775</v>
       </c>
       <c r="D176" t="n">
-        <v>2.22063246070486e-14</v>
+        <v>1.554719489689869e-13</v>
       </c>
       <c r="E176" t="n">
-        <v>0.0002203724866594612</v>
+        <v>6.27500137339282e-05</v>
       </c>
       <c r="F176" t="n">
-        <v>0.006843913622664275</v>
+        <v>0.3245373466892884</v>
       </c>
       <c r="G176" t="n">
-        <v>0.007384887587207718</v>
+        <v>0.2458664252744064</v>
       </c>
       <c r="H176" t="n">
-        <v>2.22063246070486e-14</v>
+        <v>1.554719489689868e-13</v>
       </c>
       <c r="I176" t="n">
-        <v>0.9813834922866731</v>
+        <v>0.4246301953535775</v>
       </c>
       <c r="J176" t="inlineStr">
         <is>
@@ -7673,28 +7673,28 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.004071890807549658</v>
+        <v>0.0461265492008602</v>
       </c>
       <c r="C177" t="n">
-        <v>0.9837966061639685</v>
+        <v>0.4223278168125327</v>
       </c>
       <c r="D177" t="n">
-        <v>2.220474889419231e-14</v>
+        <v>0.3597097451445218</v>
       </c>
       <c r="E177" t="n">
-        <v>0.0002775139384141562</v>
+        <v>0.0001671568166358148</v>
       </c>
       <c r="F177" t="n">
-        <v>0.003269630061839544</v>
+        <v>0.1716687320251035</v>
       </c>
       <c r="G177" t="n">
-        <v>0.008584359028183804</v>
+        <v>1.730753174188876e-13</v>
       </c>
       <c r="H177" t="n">
-        <v>2.220474889419231e-14</v>
+        <v>1.730753174188876e-13</v>
       </c>
       <c r="I177" t="n">
-        <v>0.9837966061639685</v>
+        <v>0.4223278168125327</v>
       </c>
       <c r="J177" t="inlineStr">
         <is>
@@ -7714,28 +7714,28 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.005611187258852365</v>
+        <v>0.01456575456501985</v>
       </c>
       <c r="C178" t="n">
-        <v>0.9830623118267694</v>
+        <v>0.4378121247666531</v>
       </c>
       <c r="D178" t="n">
-        <v>2.220616646431472e-14</v>
+        <v>2.04694905891271e-13</v>
       </c>
       <c r="E178" t="n">
-        <v>0.000268047124636372</v>
+        <v>0.0005110359038806851</v>
       </c>
       <c r="F178" t="n">
-        <v>0.004806691420805984</v>
+        <v>0.2782237902359604</v>
       </c>
       <c r="G178" t="n">
-        <v>0.006251762368891458</v>
+        <v>0.2688872945280766</v>
       </c>
       <c r="H178" t="n">
-        <v>2.220616646431472e-14</v>
+        <v>2.046949058912709e-13</v>
       </c>
       <c r="I178" t="n">
-        <v>0.9830623118267694</v>
+        <v>0.4378121247666531</v>
       </c>
       <c r="J178" t="inlineStr">
         <is>
@@ -7755,28 +7755,28 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0.002788617173968163</v>
+        <v>0.001541917427900771</v>
       </c>
       <c r="C179" t="n">
-        <v>0.9748345785151744</v>
+        <v>0.4104822177041917</v>
       </c>
       <c r="D179" t="n">
-        <v>2.22056710980302e-14</v>
+        <v>1.217870904434561e-13</v>
       </c>
       <c r="E179" t="n">
-        <v>0.0002653144672972186</v>
+        <v>9.627676538571847e-05</v>
       </c>
       <c r="F179" t="n">
-        <v>0.01496111005567153</v>
+        <v>0.3641307344451362</v>
       </c>
       <c r="G179" t="n">
-        <v>0.007150379787844227</v>
+        <v>0.2237488536571419</v>
       </c>
       <c r="H179" t="n">
-        <v>2.22056710980302e-14</v>
+        <v>1.217870904434562e-13</v>
       </c>
       <c r="I179" t="n">
-        <v>0.9748345785151744</v>
+        <v>0.4104822177041917</v>
       </c>
       <c r="J179" t="inlineStr">
         <is>
@@ -7796,28 +7796,28 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0.007607819002931863</v>
+        <v>0.01737836839773464</v>
       </c>
       <c r="C180" t="n">
-        <v>0.9795488011656455</v>
+        <v>0.4275406919368119</v>
       </c>
       <c r="D180" t="n">
-        <v>2.220602552077339e-14</v>
+        <v>1.842740476671888e-13</v>
       </c>
       <c r="E180" t="n">
-        <v>0.0002650964249171617</v>
+        <v>0.0006443414721799029</v>
       </c>
       <c r="F180" t="n">
-        <v>0.009350577309623086</v>
+        <v>0.2972397640992489</v>
       </c>
       <c r="G180" t="n">
-        <v>0.003227706096837869</v>
+        <v>0.257196834093656</v>
       </c>
       <c r="H180" t="n">
-        <v>2.220602552077339e-14</v>
+        <v>1.842740476671885e-13</v>
       </c>
       <c r="I180" t="n">
-        <v>0.9795488011656455</v>
+        <v>0.4275406919368119</v>
       </c>
       <c r="J180" t="inlineStr">
         <is>
@@ -7837,28 +7837,28 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.003892068781907594</v>
+        <v>0.005887345549386197</v>
       </c>
       <c r="C181" t="n">
-        <v>0.9813665690099744</v>
+        <v>0.4309188095290298</v>
       </c>
       <c r="D181" t="n">
-        <v>2.220602867476965e-14</v>
+        <v>1.659002926078393e-13</v>
       </c>
       <c r="E181" t="n">
-        <v>0.0002549834080633423</v>
+        <v>0.0003165626563890629</v>
       </c>
       <c r="F181" t="n">
-        <v>0.006350266057564623</v>
+        <v>0.3097352872792514</v>
       </c>
       <c r="G181" t="n">
-        <v>0.008136112742445504</v>
+        <v>0.2531419949856117</v>
       </c>
       <c r="H181" t="n">
-        <v>2.220602867476965e-14</v>
+        <v>1.659002926078394e-13</v>
       </c>
       <c r="I181" t="n">
-        <v>0.9813665690099744</v>
+        <v>0.4309188095290298</v>
       </c>
       <c r="J181" t="inlineStr">
         <is>
@@ -7878,28 +7878,28 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0.005799657205382988</v>
+        <v>0.01255128751180779</v>
       </c>
       <c r="C182" t="n">
-        <v>0.9840206117464541</v>
+        <v>0.4379343847045285</v>
       </c>
       <c r="D182" t="n">
-        <v>2.22055831430348e-14</v>
+        <v>2.042464241055502e-13</v>
       </c>
       <c r="E182" t="n">
-        <v>0.0003119502606492036</v>
+        <v>0.0007865920384704937</v>
       </c>
       <c r="F182" t="n">
-        <v>0.004860200277173985</v>
+        <v>0.2799178558057243</v>
       </c>
       <c r="G182" t="n">
-        <v>0.005007580510295299</v>
+        <v>0.2688098799390602</v>
       </c>
       <c r="H182" t="n">
-        <v>2.22055831430348e-14</v>
+        <v>2.042464241055498e-13</v>
       </c>
       <c r="I182" t="n">
-        <v>0.9840206117464541</v>
+        <v>0.4379343847045285</v>
       </c>
       <c r="J182" t="inlineStr">
         <is>
@@ -7919,28 +7919,28 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0.00848751676407025</v>
+        <v>0.01926008340003779</v>
       </c>
       <c r="C183" t="n">
-        <v>0.9770632324761098</v>
+        <v>0.4313764062376001</v>
       </c>
       <c r="D183" t="n">
-        <v>2.22073915957395e-14</v>
+        <v>1.928721520921648e-13</v>
       </c>
       <c r="E183" t="n">
-        <v>0.0002623750199759038</v>
+        <v>0.0007273201629587691</v>
       </c>
       <c r="F183" t="n">
-        <v>0.009861326804826015</v>
+        <v>0.2866863244171377</v>
       </c>
       <c r="G183" t="n">
-        <v>0.00432554893497354</v>
+        <v>0.2619498657818798</v>
       </c>
       <c r="H183" t="n">
-        <v>2.22073915957395e-14</v>
+        <v>1.928721520921649e-13</v>
       </c>
       <c r="I183" t="n">
-        <v>0.9770632324761098</v>
+        <v>0.4313764062376001</v>
       </c>
       <c r="J183" t="inlineStr">
         <is>
@@ -7960,28 +7960,28 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0.2231354209667355</v>
+        <v>0.06289450557401954</v>
       </c>
       <c r="C184" t="n">
-        <v>0.4626141994298557</v>
+        <v>0.4184150585689891</v>
       </c>
       <c r="D184" t="n">
-        <v>6.011386080499924e-13</v>
+        <v>0.3560563459673765</v>
       </c>
       <c r="E184" t="n">
-        <v>0.01930899871311186</v>
+        <v>2.719321383855723e-05</v>
       </c>
       <c r="F184" t="n">
-        <v>0.1178841318256987</v>
+        <v>0.1626068966754369</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1770572490633959</v>
+        <v>1.697322591452508e-13</v>
       </c>
       <c r="H184" t="n">
-        <v>6.011386080499922e-13</v>
+        <v>1.697322591452509e-13</v>
       </c>
       <c r="I184" t="n">
-        <v>0.4626141994298557</v>
+        <v>0.4184150585689891</v>
       </c>
       <c r="J184" t="inlineStr">
         <is>
@@ -8001,28 +8001,28 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0.003842009662565738</v>
+        <v>0.05930294994968235</v>
       </c>
       <c r="C185" t="n">
-        <v>0.9850085713007144</v>
+        <v>0.4230442794547618</v>
       </c>
       <c r="D185" t="n">
-        <v>2.220515354187978e-14</v>
+        <v>0.3606495546593358</v>
       </c>
       <c r="E185" t="n">
-        <v>0.0002691943499282586</v>
+        <v>0.0001211726510708644</v>
       </c>
       <c r="F185" t="n">
-        <v>0.006138782649746738</v>
+        <v>0.1568820432847978</v>
       </c>
       <c r="G185" t="n">
-        <v>0.00474144203700043</v>
+        <v>1.756201816027448e-13</v>
       </c>
       <c r="H185" t="n">
-        <v>2.220515354187978e-14</v>
+        <v>1.756201816027448e-13</v>
       </c>
       <c r="I185" t="n">
-        <v>0.9850085713007144</v>
+        <v>0.4230442794547618</v>
       </c>
       <c r="J185" t="inlineStr">
         <is>
@@ -8042,28 +8042,28 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.003525556428413309</v>
+        <v>0.01129688595070118</v>
       </c>
       <c r="C186" t="n">
-        <v>0.9795495371702468</v>
+        <v>0.4347287232310191</v>
       </c>
       <c r="D186" t="n">
-        <v>2.220603319382024e-14</v>
+        <v>1.966302296997597e-13</v>
       </c>
       <c r="E186" t="n">
-        <v>0.0002224457472879485</v>
+        <v>0.0003288989615605021</v>
       </c>
       <c r="F186" t="n">
-        <v>0.00979988800691717</v>
+        <v>0.2888285892765683</v>
       </c>
       <c r="G186" t="n">
-        <v>0.006902572647090297</v>
+        <v>0.2648169025797575</v>
       </c>
       <c r="H186" t="n">
-        <v>2.220603319382024e-14</v>
+        <v>1.966302296997598e-13</v>
       </c>
       <c r="I186" t="n">
-        <v>0.9795495371702468</v>
+        <v>0.4347287232310191</v>
       </c>
       <c r="J186" t="inlineStr">
         <is>
@@ -8083,37 +8083,37 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0.1289436947060745</v>
+        <v>0.0002565351085405518</v>
       </c>
       <c r="C187" t="n">
-        <v>1.325259466514765e-13</v>
+        <v>2.224828134803069e-14</v>
       </c>
       <c r="D187" t="n">
-        <v>1.325259466514765e-13</v>
+        <v>0.8985454537085988</v>
       </c>
       <c r="E187" t="n">
-        <v>0.00475004167630803</v>
+        <v>8.05334381192266e-06</v>
       </c>
       <c r="F187" t="n">
-        <v>0.1653036456711263</v>
+        <v>0.07030041467212776</v>
       </c>
       <c r="G187" t="n">
-        <v>0.7010026179460936</v>
+        <v>0.03088954316687633</v>
       </c>
       <c r="H187" t="n">
-        <v>1.325259466514766e-13</v>
+        <v>2.224828134803069e-14</v>
       </c>
       <c r="I187" t="n">
-        <v>0.7010026179460936</v>
+        <v>0.8985454537085988</v>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
     </row>
@@ -8124,28 +8124,28 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0.005462868397343887</v>
+        <v>0.01509503925437325</v>
       </c>
       <c r="C188" t="n">
-        <v>0.9816814349987765</v>
+        <v>0.4296724100246064</v>
       </c>
       <c r="D188" t="n">
-        <v>2.220599337151399e-14</v>
+        <v>1.87705875688827e-13</v>
       </c>
       <c r="E188" t="n">
-        <v>0.0002834315945230979</v>
+        <v>0.0005923027971404837</v>
       </c>
       <c r="F188" t="n">
-        <v>0.004595101761063247</v>
+        <v>0.2952411344536661</v>
       </c>
       <c r="G188" t="n">
-        <v>0.007977163248248834</v>
+        <v>0.2593991134698382</v>
       </c>
       <c r="H188" t="n">
-        <v>2.220599337151399e-14</v>
+        <v>1.87705875688827e-13</v>
       </c>
       <c r="I188" t="n">
-        <v>0.9816814349987765</v>
+        <v>0.4296724100246064</v>
       </c>
       <c r="J188" t="inlineStr">
         <is>
@@ -8165,28 +8165,28 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0.005099008442847055</v>
+        <v>0.05863710324988887</v>
       </c>
       <c r="C189" t="n">
-        <v>0.9851678740851074</v>
+        <v>0.4219812754266394</v>
       </c>
       <c r="D189" t="n">
-        <v>2.2205146941953e-14</v>
+        <v>0.3595741596842827</v>
       </c>
       <c r="E189" t="n">
-        <v>0.0002972820144292816</v>
+        <v>0.0001251878916792453</v>
       </c>
       <c r="F189" t="n">
-        <v>0.003047271226775288</v>
+        <v>0.1596822737471614</v>
       </c>
       <c r="G189" t="n">
-        <v>0.006388564230796488</v>
+        <v>1.74108228636396e-13</v>
       </c>
       <c r="H189" t="n">
-        <v>2.2205146941953e-14</v>
+        <v>1.74108228636396e-13</v>
       </c>
       <c r="I189" t="n">
-        <v>0.9851678740851074</v>
+        <v>0.4219812754266394</v>
       </c>
       <c r="J189" t="inlineStr">
         <is>
@@ -8206,28 +8206,28 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0.006160285505126306</v>
+        <v>0.01074962906128119</v>
       </c>
       <c r="C190" t="n">
-        <v>0.9813142028496482</v>
+        <v>0.4289426419958615</v>
       </c>
       <c r="D190" t="n">
-        <v>2.220674400056404e-14</v>
+        <v>1.641002723064306e-13</v>
       </c>
       <c r="E190" t="n">
-        <v>0.0002777370425493465</v>
+        <v>0.0003965648166257664</v>
       </c>
       <c r="F190" t="n">
-        <v>0.006125813362739584</v>
+        <v>0.3084097231232731</v>
       </c>
       <c r="G190" t="n">
-        <v>0.006121961239892127</v>
+        <v>0.2515014410026305</v>
       </c>
       <c r="H190" t="n">
-        <v>2.220674400056404e-14</v>
+        <v>1.641002723064302e-13</v>
       </c>
       <c r="I190" t="n">
-        <v>0.9813142028496482</v>
+        <v>0.4289426419958615</v>
       </c>
       <c r="J190" t="inlineStr">
         <is>
@@ -8247,28 +8247,28 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0.001203590198474256</v>
+        <v>0.02437352270070768</v>
       </c>
       <c r="C191" t="n">
-        <v>0.9791581624081503</v>
+        <v>0.4174862447176959</v>
       </c>
       <c r="D191" t="n">
-        <v>2.220230529111034e-14</v>
+        <v>0.3543053795371452</v>
       </c>
       <c r="E191" t="n">
-        <v>0.000178996790769361</v>
+        <v>0.0001832304156650536</v>
       </c>
       <c r="F191" t="n">
-        <v>0.004695879830719453</v>
+        <v>0.2036516226284599</v>
       </c>
       <c r="G191" t="n">
-        <v>0.01476337077184214</v>
+        <v>1.630023243042996e-13</v>
       </c>
       <c r="H191" t="n">
-        <v>2.220230529111034e-14</v>
+        <v>1.630023243042996e-13</v>
       </c>
       <c r="I191" t="n">
-        <v>0.9791581624081503</v>
+        <v>0.4174862447176959</v>
       </c>
       <c r="J191" t="inlineStr">
         <is>
@@ -8288,37 +8288,37 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0.00403363135222264</v>
+        <v>0.002828719384385974</v>
       </c>
       <c r="C192" t="n">
-        <v>0.9869443839260122</v>
+        <v>1.607427369075932e-13</v>
       </c>
       <c r="D192" t="n">
-        <v>2.220394721419993e-14</v>
+        <v>0.3631154208377165</v>
       </c>
       <c r="E192" t="n">
-        <v>0.0002939653039842292</v>
+        <v>7.246902329507342e-07</v>
       </c>
       <c r="F192" t="n">
-        <v>0.001750781714076857</v>
+        <v>0.3845131834521969</v>
       </c>
       <c r="G192" t="n">
-        <v>0.006977237703659567</v>
+        <v>0.2495419516351461</v>
       </c>
       <c r="H192" t="n">
-        <v>2.220394721419993e-14</v>
+        <v>1.607427369075932e-13</v>
       </c>
       <c r="I192" t="n">
-        <v>0.9869443839260122</v>
+        <v>0.3845131834521969</v>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
     </row>
@@ -8329,28 +8329,28 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0.007504855595075628</v>
+        <v>0.01931118265754823</v>
       </c>
       <c r="C193" t="n">
-        <v>0.9798208409406751</v>
+        <v>0.4358722774327202</v>
       </c>
       <c r="D193" t="n">
-        <v>2.22068856119525e-14</v>
+        <v>2.025426607869795e-13</v>
       </c>
       <c r="E193" t="n">
-        <v>0.0002489921346837124</v>
+        <v>0.0008648487412396582</v>
       </c>
       <c r="F193" t="n">
-        <v>0.004875526920693415</v>
+        <v>0.2766969987607962</v>
       </c>
       <c r="G193" t="n">
-        <v>0.007549784408827652</v>
+        <v>0.2672546924072907</v>
       </c>
       <c r="H193" t="n">
-        <v>2.22068856119525e-14</v>
+        <v>2.025426607869797e-13</v>
       </c>
       <c r="I193" t="n">
-        <v>0.9798208409406751</v>
+        <v>0.4358722774327202</v>
       </c>
       <c r="J193" t="inlineStr">
         <is>
@@ -8370,28 +8370,28 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0.002874781856957339</v>
+        <v>0.03181680839124015</v>
       </c>
       <c r="C194" t="n">
-        <v>0.9824151094685252</v>
+        <v>0.423319768301347</v>
       </c>
       <c r="D194" t="n">
-        <v>2.220327135315098e-14</v>
+        <v>0.3604160433488056</v>
       </c>
       <c r="E194" t="n">
-        <v>0.0001989447061550771</v>
+        <v>0.0002274877500476944</v>
       </c>
       <c r="F194" t="n">
-        <v>0.003206356374187899</v>
+        <v>0.1842198922082148</v>
       </c>
       <c r="G194" t="n">
-        <v>0.01130480759412992</v>
+        <v>1.723847770546056e-13</v>
       </c>
       <c r="H194" t="n">
-        <v>2.220327135315098e-14</v>
+        <v>1.723847770546057e-13</v>
       </c>
       <c r="I194" t="n">
-        <v>0.9824151094685252</v>
+        <v>0.423319768301347</v>
       </c>
       <c r="J194" t="inlineStr">
         <is>
@@ -8411,28 +8411,28 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0.002561451168052497</v>
+        <v>0.04861572483386087</v>
       </c>
       <c r="C195" t="n">
-        <v>0.9877423126274354</v>
+        <v>0.4254830890006713</v>
       </c>
       <c r="D195" t="n">
-        <v>2.220295073407343e-14</v>
+        <v>0.3645317998723016</v>
       </c>
       <c r="E195" t="n">
-        <v>0.000229833763919831</v>
+        <v>0.0001935044476618028</v>
       </c>
       <c r="F195" t="n">
-        <v>0.001806878741725626</v>
+        <v>0.1611758818451071</v>
       </c>
       <c r="G195" t="n">
-        <v>0.007659523698822043</v>
+        <v>1.986950450810142e-13</v>
       </c>
       <c r="H195" t="n">
-        <v>2.220295073407343e-14</v>
+        <v>1.986950450810143e-13</v>
       </c>
       <c r="I195" t="n">
-        <v>0.9877423126274354</v>
+        <v>0.4254830890006713</v>
       </c>
       <c r="J195" t="inlineStr">
         <is>
@@ -8452,28 +8452,28 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0.003522242154994003</v>
+        <v>0.03684957600256544</v>
       </c>
       <c r="C196" t="n">
-        <v>0.9878500097925229</v>
+        <v>0.4276005925876344</v>
       </c>
       <c r="D196" t="n">
-        <v>2.220458122841974e-14</v>
+        <v>0.3664418978955941</v>
       </c>
       <c r="E196" t="n">
-        <v>0.0002928828185362488</v>
+        <v>0.0001144925577485532</v>
       </c>
       <c r="F196" t="n">
-        <v>0.003680361384626127</v>
+        <v>0.1689934409560571</v>
       </c>
       <c r="G196" t="n">
-        <v>0.004654503849276158</v>
+        <v>2.001691497146265e-13</v>
       </c>
       <c r="H196" t="n">
-        <v>2.220458122841974e-14</v>
+        <v>2.001691497146266e-13</v>
       </c>
       <c r="I196" t="n">
-        <v>0.9878500097925229</v>
+        <v>0.4276005925876344</v>
       </c>
       <c r="J196" t="inlineStr">
         <is>
@@ -8493,28 +8493,28 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0.0856549939300008</v>
+        <v>0.04680372050613892</v>
       </c>
       <c r="C197" t="n">
-        <v>0.462381374523774</v>
+        <v>0.416769543346998</v>
       </c>
       <c r="D197" t="n">
-        <v>5.541019256696626e-13</v>
+        <v>0.3541082820771925</v>
       </c>
       <c r="E197" t="n">
-        <v>0.01308332116871858</v>
+        <v>0.000137169806703661</v>
       </c>
       <c r="F197" t="n">
-        <v>0.2120958397084734</v>
+        <v>0.1821812842626361</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2267844706679249</v>
+        <v>1.655331345213618e-13</v>
       </c>
       <c r="H197" t="n">
-        <v>5.541019256696619e-13</v>
+        <v>1.655331345213618e-13</v>
       </c>
       <c r="I197" t="n">
-        <v>0.462381374523774</v>
+        <v>0.416769543346998</v>
       </c>
       <c r="J197" t="inlineStr">
         <is>
@@ -8534,28 +8534,28 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.01072460740801428</v>
+        <v>0.01519101586972396</v>
       </c>
       <c r="C198" t="n">
-        <v>0.9799367247745085</v>
+        <v>0.3693946625390951</v>
       </c>
       <c r="D198" t="n">
-        <v>2.220581218842509e-14</v>
+        <v>0.2996023533343442</v>
       </c>
       <c r="E198" t="n">
-        <v>0.000313647611246862</v>
+        <v>3.81305276504351e-06</v>
       </c>
       <c r="F198" t="n">
-        <v>0.003816081758541475</v>
+        <v>0.1339994669237185</v>
       </c>
       <c r="G198" t="n">
-        <v>0.005208938447644362</v>
+        <v>0.1818086882802718</v>
       </c>
       <c r="H198" t="n">
-        <v>2.220581218842509e-14</v>
+        <v>8.162479154536659e-14</v>
       </c>
       <c r="I198" t="n">
-        <v>0.9799367247745085</v>
+        <v>0.3693946625390951</v>
       </c>
       <c r="J198" t="inlineStr">
         <is>
@@ -8575,28 +8575,28 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0.0005142233910843365</v>
+        <v>0.000469876734399847</v>
       </c>
       <c r="C199" t="n">
-        <v>0.9896843092398546</v>
+        <v>0.9483453084455504</v>
       </c>
       <c r="D199" t="n">
-        <v>2.220110767846889e-14</v>
+        <v>2.220945979061037e-14</v>
       </c>
       <c r="E199" t="n">
-        <v>0.000199515672579815</v>
+        <v>1.354267147661048e-05</v>
       </c>
       <c r="F199" t="n">
-        <v>0.00174250861733811</v>
+        <v>0.01364413958794693</v>
       </c>
       <c r="G199" t="n">
-        <v>0.007859443079098872</v>
+        <v>0.03752713256058182</v>
       </c>
       <c r="H199" t="n">
-        <v>2.220110767846889e-14</v>
+        <v>2.220945979061037e-14</v>
       </c>
       <c r="I199" t="n">
-        <v>0.9896843092398546</v>
+        <v>0.9483453084455504</v>
       </c>
       <c r="J199" t="inlineStr">
         <is>
@@ -8616,28 +8616,28 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0.002089162386712052</v>
+        <v>0.03755154962594801</v>
       </c>
       <c r="C200" t="n">
-        <v>0.9821115101365575</v>
+        <v>0.4228629026511208</v>
       </c>
       <c r="D200" t="n">
-        <v>2.220380654118397e-14</v>
+        <v>0.3600796235837267</v>
       </c>
       <c r="E200" t="n">
-        <v>0.0002036019057613821</v>
+        <v>0.0002313339102760632</v>
       </c>
       <c r="F200" t="n">
-        <v>0.004342877441715903</v>
+        <v>0.1792745902285833</v>
       </c>
       <c r="G200" t="n">
-        <v>0.01125284812920865</v>
+        <v>1.726233577761842e-13</v>
       </c>
       <c r="H200" t="n">
-        <v>2.220380654118397e-14</v>
+        <v>1.726233577761842e-13</v>
       </c>
       <c r="I200" t="n">
-        <v>0.9821115101365575</v>
+        <v>0.4228629026511208</v>
       </c>
       <c r="J200" t="inlineStr">
         <is>
@@ -8657,28 +8657,28 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0.002744499606701434</v>
+        <v>0.02174233965500832</v>
       </c>
       <c r="C201" t="n">
-        <v>0.981248796495242</v>
+        <v>0.369897105816535</v>
       </c>
       <c r="D201" t="n">
-        <v>2.220254881937871e-14</v>
+        <v>0.3001594204711237</v>
       </c>
       <c r="E201" t="n">
-        <v>0.0002036811311429263</v>
+        <v>4.386984750455792e-05</v>
       </c>
       <c r="F201" t="n">
-        <v>0.002813344876517509</v>
+        <v>0.1258052377635954</v>
       </c>
       <c r="G201" t="n">
-        <v>0.01298967789035161</v>
+        <v>0.1823520264461511</v>
       </c>
       <c r="H201" t="n">
-        <v>2.220254881937871e-14</v>
+        <v>8.205980338178984e-14</v>
       </c>
       <c r="I201" t="n">
-        <v>0.981248796495242</v>
+        <v>0.369897105816535</v>
       </c>
       <c r="J201" t="inlineStr">
         <is>
@@ -8698,37 +8698,37 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0.4490416792486255</v>
+        <v>0.06700778547027739</v>
       </c>
       <c r="C202" t="n">
-        <v>3.35807668791251e-06</v>
+        <v>2.2866123742797e-14</v>
       </c>
       <c r="D202" t="n">
-        <v>3.358076687912511e-06</v>
+        <v>0.5394416525794098</v>
       </c>
       <c r="E202" t="n">
-        <v>3.362887831853512e-06</v>
+        <v>2.2866123742797e-14</v>
       </c>
       <c r="F202" t="n">
-        <v>0.5509415254875987</v>
+        <v>0.3935505619502214</v>
       </c>
       <c r="G202" t="n">
-        <v>3.358145880130598e-06</v>
+        <v>2.2866123742797e-14</v>
       </c>
       <c r="H202" t="n">
-        <v>3.358076687912469e-06</v>
+        <v>2.2866123742797e-14</v>
       </c>
       <c r="I202" t="n">
-        <v>0.5509415254875987</v>
+        <v>0.5394416525794098</v>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>o__Micrococcales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>o__Micrococcales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
     </row>
@@ -8739,37 +8739,37 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0.4777692709715409</v>
+        <v>0.1587644166947981</v>
       </c>
       <c r="C203" t="n">
-        <v>2.220402378232611e-14</v>
+        <v>2.38127276518131e-14</v>
       </c>
       <c r="D203" t="n">
-        <v>2.220402378232611e-14</v>
+        <v>0.4615658347621954</v>
       </c>
       <c r="E203" t="n">
-        <v>9.550800728073434e-07</v>
+        <v>2.38127276518131e-14</v>
       </c>
       <c r="F203" t="n">
-        <v>0.5222297728635789</v>
+        <v>0.3796697485429112</v>
       </c>
       <c r="G203" t="n">
-        <v>1.084741045303459e-09</v>
+        <v>2.38127276518131e-14</v>
       </c>
       <c r="H203" t="n">
-        <v>2.220402378232611e-14</v>
+        <v>2.38127276518131e-14</v>
       </c>
       <c r="I203" t="n">
-        <v>0.5222297728635789</v>
+        <v>0.4615658347621954</v>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>o__Micrococcales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>o__Micrococcales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
     </row>
@@ -8780,28 +8780,28 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0.004203574785799235</v>
+        <v>0.008529745700561748</v>
       </c>
       <c r="C204" t="n">
-        <v>0.9806639679854459</v>
+        <v>0.43026341122628</v>
       </c>
       <c r="D204" t="n">
-        <v>2.220614950936898e-14</v>
+        <v>1.656418951894507e-13</v>
       </c>
       <c r="E204" t="n">
-        <v>0.0002525880647080379</v>
+        <v>0.0004508291636923462</v>
       </c>
       <c r="F204" t="n">
-        <v>0.008978307204414856</v>
+        <v>0.3080171823854959</v>
       </c>
       <c r="G204" t="n">
-        <v>0.005901561959587573</v>
+        <v>0.2527388315236387</v>
       </c>
       <c r="H204" t="n">
-        <v>2.220614950936898e-14</v>
+        <v>1.656418951894507e-13</v>
       </c>
       <c r="I204" t="n">
-        <v>0.9806639679854459</v>
+        <v>0.43026341122628</v>
       </c>
       <c r="J204" t="inlineStr">
         <is>
@@ -8821,28 +8821,28 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0.00901745766417864</v>
+        <v>0.004556918415567478</v>
       </c>
       <c r="C205" t="n">
-        <v>0.9779887442132745</v>
+        <v>0.4115496511580835</v>
       </c>
       <c r="D205" t="n">
-        <v>2.220757358797976e-14</v>
+        <v>1.235310948172499e-13</v>
       </c>
       <c r="E205" t="n">
-        <v>0.0004397948108302457</v>
+        <v>0.0003866274011648723</v>
       </c>
       <c r="F205" t="n">
-        <v>0.006752546648990477</v>
+        <v>0.3583065273406036</v>
       </c>
       <c r="G205" t="n">
-        <v>0.005801456662681571</v>
+        <v>0.2252002756843334</v>
       </c>
       <c r="H205" t="n">
-        <v>2.220757358797976e-14</v>
+        <v>1.235310948172497e-13</v>
       </c>
       <c r="I205" t="n">
-        <v>0.9779887442132745</v>
+        <v>0.4115496511580835</v>
       </c>
       <c r="J205" t="inlineStr">
         <is>
@@ -8862,37 +8862,37 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0.6917719633452706</v>
+        <v>0.2464495814106922</v>
       </c>
       <c r="C206" t="n">
-        <v>0.231888946567387</v>
+        <v>1.363337019729599e-13</v>
       </c>
       <c r="D206" t="n">
-        <v>2.831899273555858e-14</v>
+        <v>0.3551619235600264</v>
       </c>
       <c r="E206" t="n">
-        <v>0.0009423394940865122</v>
+        <v>2.648110543239614e-07</v>
       </c>
       <c r="F206" t="n">
-        <v>0.0620674697332593</v>
+        <v>0.3983882302178178</v>
       </c>
       <c r="G206" t="n">
-        <v>0.01332928085993977</v>
+        <v>1.363337019729595e-13</v>
       </c>
       <c r="H206" t="n">
-        <v>2.831899273555852e-14</v>
+        <v>1.363337019729595e-13</v>
       </c>
       <c r="I206" t="n">
-        <v>0.6917719633452706</v>
+        <v>0.3983882302178178</v>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
     </row>
@@ -8903,28 +8903,28 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0.008301319636105038</v>
+        <v>0.008242163783413532</v>
       </c>
       <c r="C207" t="n">
-        <v>0.977284136967457</v>
+        <v>0.4167888699732005</v>
       </c>
       <c r="D207" t="n">
-        <v>2.2208247941814e-14</v>
+        <v>1.446890223558374e-13</v>
       </c>
       <c r="E207" t="n">
-        <v>0.0002405037269650054</v>
+        <v>0.0001476329065643227</v>
       </c>
       <c r="F207" t="n">
-        <v>0.007479171615594166</v>
+        <v>0.3373126817313312</v>
       </c>
       <c r="G207" t="n">
-        <v>0.006694868053834385</v>
+        <v>0.237508651605201</v>
       </c>
       <c r="H207" t="n">
-        <v>2.2208247941814e-14</v>
+        <v>1.446890223558376e-13</v>
       </c>
       <c r="I207" t="n">
-        <v>0.977284136967457</v>
+        <v>0.4167888699732005</v>
       </c>
       <c r="J207" t="inlineStr">
         <is>
@@ -8944,28 +8944,28 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0.8265395394890707</v>
+        <v>0.6392909681521355</v>
       </c>
       <c r="C208" t="n">
-        <v>0.1595654835476359</v>
+        <v>1.156587234394575e-13</v>
       </c>
       <c r="D208" t="n">
-        <v>2.221106317054369e-14</v>
+        <v>0.3107286560890866</v>
       </c>
       <c r="E208" t="n">
-        <v>0.0007770866231195744</v>
+        <v>3.128961202041836e-06</v>
       </c>
       <c r="F208" t="n">
-        <v>0.00505143693359551</v>
+        <v>0.04997724679722872</v>
       </c>
       <c r="G208" t="n">
-        <v>0.008066453406534025</v>
+        <v>1.156587234394575e-13</v>
       </c>
       <c r="H208" t="n">
-        <v>2.221106317054369e-14</v>
+        <v>1.156587234394576e-13</v>
       </c>
       <c r="I208" t="n">
-        <v>0.8265395394890707</v>
+        <v>0.6392909681521355</v>
       </c>
       <c r="J208" t="inlineStr">
         <is>
@@ -8985,28 +8985,28 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0.004646840501450982</v>
+        <v>0.01081236066543709</v>
       </c>
       <c r="C209" t="n">
-        <v>0.983103769263016</v>
+        <v>0.4417109436215197</v>
       </c>
       <c r="D209" t="n">
-        <v>2.22058542723621e-14</v>
+        <v>2.119769420503741e-13</v>
       </c>
       <c r="E209" t="n">
-        <v>0.000337417581607622</v>
+        <v>0.0009761490892646838</v>
       </c>
       <c r="F209" t="n">
-        <v>0.005050055024622361</v>
+        <v>0.2734539943038716</v>
       </c>
       <c r="G209" t="n">
-        <v>0.00686191762925854</v>
+        <v>0.2730465523194828</v>
       </c>
       <c r="H209" t="n">
-        <v>2.22058542723621e-14</v>
+        <v>2.119769420503741e-13</v>
       </c>
       <c r="I209" t="n">
-        <v>0.983103769263016</v>
+        <v>0.4417109436215197</v>
       </c>
       <c r="J209" t="inlineStr">
         <is>
@@ -9026,28 +9026,28 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0.01227668289176349</v>
+        <v>0.01121421534908859</v>
       </c>
       <c r="C210" t="n">
-        <v>0.9749002469877557</v>
+        <v>0.4284252673126637</v>
       </c>
       <c r="D210" t="n">
-        <v>2.220827827764573e-14</v>
+        <v>1.634053712278329e-13</v>
       </c>
       <c r="E210" t="n">
-        <v>0.0003384368938887905</v>
+        <v>0.0004571723330836524</v>
       </c>
       <c r="F210" t="n">
-        <v>0.006759585741775309</v>
+        <v>0.3089257478072788</v>
       </c>
       <c r="G210" t="n">
-        <v>0.005725047484772262</v>
+        <v>0.2509775971975583</v>
       </c>
       <c r="H210" t="n">
-        <v>2.220827827764573e-14</v>
+        <v>1.634053712278327e-13</v>
       </c>
       <c r="I210" t="n">
-        <v>0.9749002469877557</v>
+        <v>0.4284252673126637</v>
       </c>
       <c r="J210" t="inlineStr">
         <is>
@@ -9067,28 +9067,28 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0.001279330976787198</v>
+        <v>0.02514597974232848</v>
       </c>
       <c r="C211" t="n">
-        <v>0.9911029358165367</v>
+        <v>0.4537481358170944</v>
       </c>
       <c r="D211" t="n">
-        <v>2.220161390995044e-14</v>
+        <v>3.727263751337161e-13</v>
       </c>
       <c r="E211" t="n">
-        <v>0.0002318476396700521</v>
+        <v>0.0003437209326520111</v>
       </c>
       <c r="F211" t="n">
-        <v>0.0009918314596792997</v>
+        <v>0.2153766804067449</v>
       </c>
       <c r="G211" t="n">
-        <v>0.006394054107282178</v>
+        <v>0.3053854831004348</v>
       </c>
       <c r="H211" t="n">
-        <v>2.220161390995044e-14</v>
+        <v>3.727263751337159e-13</v>
       </c>
       <c r="I211" t="n">
-        <v>0.9911029358165367</v>
+        <v>0.4537481358170944</v>
       </c>
       <c r="J211" t="inlineStr">
         <is>
@@ -9108,28 +9108,28 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0.008534621167409316</v>
+        <v>0.007877641320310012</v>
       </c>
       <c r="C212" t="n">
-        <v>0.9749070732225174</v>
+        <v>0.4179677660276883</v>
       </c>
       <c r="D212" t="n">
-        <v>2.220764317590554e-14</v>
+        <v>1.464377023068039e-13</v>
       </c>
       <c r="E212" t="n">
-        <v>0.0004114609233401695</v>
+        <v>0.000708507384413044</v>
       </c>
       <c r="F212" t="n">
-        <v>0.01191624664015058</v>
+        <v>0.3346042086341825</v>
       </c>
       <c r="G212" t="n">
-        <v>0.004230598046538118</v>
+        <v>0.2388418766331134</v>
       </c>
       <c r="H212" t="n">
-        <v>2.220764317590554e-14</v>
+        <v>1.464377023068039e-13</v>
       </c>
       <c r="I212" t="n">
-        <v>0.9749070732225174</v>
+        <v>0.4179677660276883</v>
       </c>
       <c r="J212" t="inlineStr">
         <is>
@@ -9149,28 +9149,28 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0.005929023747133965</v>
+        <v>0.01657930695180402</v>
       </c>
       <c r="C213" t="n">
-        <v>0.9798964687386517</v>
+        <v>0.4370989454520271</v>
       </c>
       <c r="D213" t="n">
-        <v>2.220703137237822e-14</v>
+        <v>2.041360084379718e-13</v>
       </c>
       <c r="E213" t="n">
-        <v>0.0002767699425470446</v>
+        <v>0.0009254191654151716</v>
       </c>
       <c r="F213" t="n">
-        <v>0.007638321949359522</v>
+        <v>0.2770370781293606</v>
       </c>
       <c r="G213" t="n">
-        <v>0.00625941562226347</v>
+        <v>0.268359250300985</v>
       </c>
       <c r="H213" t="n">
-        <v>2.220703137237822e-14</v>
+        <v>2.041360084379718e-13</v>
       </c>
       <c r="I213" t="n">
-        <v>0.9798964687386517</v>
+        <v>0.4370989454520271</v>
       </c>
       <c r="J213" t="inlineStr">
         <is>
@@ -9190,28 +9190,28 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0.001447373563389266</v>
+        <v>0.001068691844647615</v>
       </c>
       <c r="C214" t="n">
-        <v>0.9883637692885839</v>
+        <v>0.3463126945522561</v>
       </c>
       <c r="D214" t="n">
-        <v>2.220264419680156e-14</v>
+        <v>0.274749982742203</v>
       </c>
       <c r="E214" t="n">
-        <v>0.000211126328198034</v>
+        <v>8.254252432707542e-06</v>
       </c>
       <c r="F214" t="n">
-        <v>0.002512551621593697</v>
+        <v>0.2194557859772961</v>
       </c>
       <c r="G214" t="n">
-        <v>0.007465179198190658</v>
+        <v>0.1584045906311002</v>
       </c>
       <c r="H214" t="n">
-        <v>2.220264419680156e-14</v>
+        <v>6.411194797339381e-14</v>
       </c>
       <c r="I214" t="n">
-        <v>0.9883637692885839</v>
+        <v>0.3463126945522561</v>
       </c>
       <c r="J214" t="inlineStr">
         <is>
@@ -9231,28 +9231,28 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0.001567835839135981</v>
+        <v>0.01620323390520067</v>
       </c>
       <c r="C215" t="n">
-        <v>0.991325459992017</v>
+        <v>0.4554277704276096</v>
       </c>
       <c r="D215" t="n">
-        <v>2.220238173370372e-14</v>
+        <v>2.825739305318721e-13</v>
       </c>
       <c r="E215" t="n">
-        <v>0.000238999334821099</v>
+        <v>0.0001791306636833041</v>
       </c>
       <c r="F215" t="n">
-        <v>0.001325781057687765</v>
+        <v>0.2323331714476705</v>
       </c>
       <c r="G215" t="n">
-        <v>0.005541923776293696</v>
+        <v>0.2958566935552708</v>
       </c>
       <c r="H215" t="n">
-        <v>2.220238173370372e-14</v>
+        <v>2.825739305318722e-13</v>
       </c>
       <c r="I215" t="n">
-        <v>0.991325459992017</v>
+        <v>0.4554277704276096</v>
       </c>
       <c r="J215" t="inlineStr">
         <is>
@@ -9272,37 +9272,37 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0.2883430291615503</v>
+        <v>0.2022685977973373</v>
       </c>
       <c r="C216" t="n">
-        <v>4.106314688143554e-14</v>
+        <v>9.881706851498876e-14</v>
       </c>
       <c r="D216" t="n">
-        <v>4.106314688143554e-14</v>
+        <v>0.3215852299530603</v>
       </c>
       <c r="E216" t="n">
-        <v>0.0007180349833637171</v>
+        <v>0.0003886795402692977</v>
       </c>
       <c r="F216" t="n">
-        <v>0.07023820544437877</v>
+        <v>0.2731273147030939</v>
       </c>
       <c r="G216" t="n">
-        <v>0.640700730410584</v>
+        <v>0.2026301780060414</v>
       </c>
       <c r="H216" t="n">
-        <v>4.106314688143553e-14</v>
+        <v>9.881706851498873e-14</v>
       </c>
       <c r="I216" t="n">
-        <v>0.640700730410584</v>
+        <v>0.3215852299530603</v>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
     </row>
@@ -9313,37 +9313,37 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0.3073050926303238</v>
+        <v>0.1130937516995025</v>
       </c>
       <c r="C217" t="n">
-        <v>7.687776843651114e-14</v>
+        <v>1.334844569893937e-13</v>
       </c>
       <c r="D217" t="n">
-        <v>7.687776843651119e-14</v>
+        <v>0.3399188093284587</v>
       </c>
       <c r="E217" t="n">
-        <v>0.001605530489771235</v>
+        <v>0.0005986659532309531</v>
       </c>
       <c r="F217" t="n">
-        <v>0.0867757268531776</v>
+        <v>0.3187924199333518</v>
       </c>
       <c r="G217" t="n">
-        <v>0.6043136500264968</v>
+        <v>0.227596353085189</v>
       </c>
       <c r="H217" t="n">
-        <v>7.687776843651118e-14</v>
+        <v>1.334844569893937e-13</v>
       </c>
       <c r="I217" t="n">
-        <v>0.6043136500264968</v>
+        <v>0.3399188093284587</v>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
     </row>
@@ -9354,37 +9354,37 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0.3234893521054036</v>
+        <v>0.1979883553863165</v>
       </c>
       <c r="C218" t="n">
-        <v>5.350454763595262e-14</v>
+        <v>9.611015502785829e-14</v>
       </c>
       <c r="D218" t="n">
-        <v>5.350454763595261e-14</v>
+        <v>0.3182976575412454</v>
       </c>
       <c r="E218" t="n">
-        <v>0.001010735118632225</v>
+        <v>0.0003795368225078987</v>
       </c>
       <c r="F218" t="n">
-        <v>0.08233520687719897</v>
+        <v>0.2838362167010929</v>
       </c>
       <c r="G218" t="n">
-        <v>0.5931647058986048</v>
+        <v>0.1994982335486451</v>
       </c>
       <c r="H218" t="n">
-        <v>5.35045476359526e-14</v>
+        <v>9.611015502785812e-14</v>
       </c>
       <c r="I218" t="n">
-        <v>0.5931647058986048</v>
+        <v>0.3182976575412454</v>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
     </row>
@@ -9395,28 +9395,28 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0.004538043485102055</v>
+        <v>0.002041811561863768</v>
       </c>
       <c r="C219" t="n">
-        <v>0.9781127712968162</v>
+        <v>0.9470879639132914</v>
       </c>
       <c r="D219" t="n">
-        <v>2.220473354982446e-14</v>
+        <v>2.221107912118665e-14</v>
       </c>
       <c r="E219" t="n">
-        <v>0.0001843401986421646</v>
+        <v>1.423046371452655e-05</v>
       </c>
       <c r="F219" t="n">
-        <v>0.004119943724674888</v>
+        <v>0.0131948088856325</v>
       </c>
       <c r="G219" t="n">
-        <v>0.01304490129472031</v>
+        <v>0.03766118517545334</v>
       </c>
       <c r="H219" t="n">
-        <v>2.220473354982446e-14</v>
+        <v>2.221107912118665e-14</v>
       </c>
       <c r="I219" t="n">
-        <v>0.9781127712968162</v>
+        <v>0.9470879639132914</v>
       </c>
       <c r="J219" t="inlineStr">
         <is>
@@ -9436,28 +9436,28 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0.002297758582058715</v>
+        <v>0.04103279611946475</v>
       </c>
       <c r="C220" t="n">
-        <v>0.9811931297334363</v>
+        <v>0.4204294222688721</v>
       </c>
       <c r="D220" t="n">
-        <v>2.220543689860692e-14</v>
+        <v>0.3576928783190962</v>
       </c>
       <c r="E220" t="n">
-        <v>0.0002383301289404565</v>
+        <v>0.000192886350874589</v>
       </c>
       <c r="F220" t="n">
-        <v>0.008261794387749188</v>
+        <v>0.1806520169413526</v>
       </c>
       <c r="G220" t="n">
-        <v>0.008008987167770959</v>
+        <v>1.697539593042233e-13</v>
       </c>
       <c r="H220" t="n">
-        <v>2.220543689860692e-14</v>
+        <v>1.697539593042233e-13</v>
       </c>
       <c r="I220" t="n">
-        <v>0.9811931297334363</v>
+        <v>0.4204294222688721</v>
       </c>
       <c r="J220" t="inlineStr">
         <is>
@@ -9477,28 +9477,28 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0.002297758582058715</v>
+        <v>0.04103279611946475</v>
       </c>
       <c r="C221" t="n">
-        <v>0.9811931297334363</v>
+        <v>0.4204294222688721</v>
       </c>
       <c r="D221" t="n">
-        <v>2.220543689860692e-14</v>
+        <v>0.3576928783190962</v>
       </c>
       <c r="E221" t="n">
-        <v>0.0002383301289404565</v>
+        <v>0.000192886350874589</v>
       </c>
       <c r="F221" t="n">
-        <v>0.008261794387749188</v>
+        <v>0.1806520169413526</v>
       </c>
       <c r="G221" t="n">
-        <v>0.008008987167770959</v>
+        <v>1.697539593042233e-13</v>
       </c>
       <c r="H221" t="n">
-        <v>2.220543689860692e-14</v>
+        <v>1.697539593042233e-13</v>
       </c>
       <c r="I221" t="n">
-        <v>0.9811931297334363</v>
+        <v>0.4204294222688721</v>
       </c>
       <c r="J221" t="inlineStr">
         <is>
@@ -9518,37 +9518,37 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0.3536714901692058</v>
+        <v>0.2176855522756365</v>
       </c>
       <c r="C222" t="n">
-        <v>3.896744247047249e-14</v>
+        <v>8.664055612442858e-14</v>
       </c>
       <c r="D222" t="n">
-        <v>3.896744247047247e-14</v>
+        <v>0.3051637044049977</v>
       </c>
       <c r="E222" t="n">
-        <v>0.0007392854891032935</v>
+        <v>0.0003067177397980973</v>
       </c>
       <c r="F222" t="n">
-        <v>0.05818236547668868</v>
+        <v>0.2892210668350716</v>
       </c>
       <c r="G222" t="n">
-        <v>0.5874068588648854</v>
+        <v>0.1876229587443227</v>
       </c>
       <c r="H222" t="n">
-        <v>3.896744247047248e-14</v>
+        <v>8.664055612442852e-14</v>
       </c>
       <c r="I222" t="n">
-        <v>0.5874068588648854</v>
+        <v>0.3051637044049977</v>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
     </row>
@@ -9559,37 +9559,37 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0.3198559829713886</v>
+        <v>0.1963223829867064</v>
       </c>
       <c r="C223" t="n">
-        <v>4.833142716968706e-14</v>
+        <v>1.489105629616595e-13</v>
       </c>
       <c r="D223" t="n">
-        <v>4.833142716968704e-14</v>
+        <v>0.3583367726591065</v>
       </c>
       <c r="E223" t="n">
-        <v>0.0009592802289232033</v>
+        <v>0.0003298265393999574</v>
       </c>
       <c r="F223" t="n">
-        <v>0.1520889247775052</v>
+        <v>0.4450110178143404</v>
       </c>
       <c r="G223" t="n">
-        <v>0.5270958120220379</v>
+        <v>1.489105629616592e-13</v>
       </c>
       <c r="H223" t="n">
-        <v>4.833142716968704e-14</v>
+        <v>1.489105629616593e-13</v>
       </c>
       <c r="I223" t="n">
-        <v>0.5270958120220379</v>
+        <v>0.4450110178143404</v>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
     </row>
@@ -9600,28 +9600,28 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0.02182752606821061</v>
+        <v>0.06417745839892978</v>
       </c>
       <c r="C224" t="n">
-        <v>0.9723730453799322</v>
+        <v>0.4160174838666992</v>
       </c>
       <c r="D224" t="n">
-        <v>2.21995586388469e-14</v>
+        <v>0.3536641255065507</v>
       </c>
       <c r="E224" t="n">
-        <v>0.0003750969872880076</v>
+        <v>3.736424682302234e-05</v>
       </c>
       <c r="F224" t="n">
-        <v>0.001540728186646289</v>
+        <v>0.166103567980664</v>
       </c>
       <c r="G224" t="n">
-        <v>0.003883603377878533</v>
+        <v>1.666481125373073e-13</v>
       </c>
       <c r="H224" t="n">
-        <v>2.21995586388469e-14</v>
+        <v>1.666481125373073e-13</v>
       </c>
       <c r="I224" t="n">
-        <v>0.9723730453799322</v>
+        <v>0.4160174838666992</v>
       </c>
       <c r="J224" t="inlineStr">
         <is>
@@ -9641,28 +9641,28 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0.2038252193566688</v>
+        <v>0.09509661763304379</v>
       </c>
       <c r="C225" t="n">
-        <v>0.463326828499953</v>
+        <v>0.412857987942972</v>
       </c>
       <c r="D225" t="n">
-        <v>7.797242207640285e-13</v>
+        <v>0.35085610912965</v>
       </c>
       <c r="E225" t="n">
-        <v>0.02464067288908456</v>
+        <v>0.0001441654436358826</v>
       </c>
       <c r="F225" t="n">
-        <v>0.1199173231883891</v>
+        <v>0.1410451198503681</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1882899560643452</v>
+        <v>1.649613545979708e-13</v>
       </c>
       <c r="H225" t="n">
-        <v>7.797242207640285e-13</v>
+        <v>1.649613545979707e-13</v>
       </c>
       <c r="I225" t="n">
-        <v>0.463326828499953</v>
+        <v>0.412857987942972</v>
       </c>
       <c r="J225" t="inlineStr">
         <is>
@@ -9682,37 +9682,37 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>0.2977049263705737</v>
+        <v>0.1359858472032807</v>
       </c>
       <c r="C226" t="n">
-        <v>6.005203969228022e-14</v>
+        <v>8.992983454825517e-14</v>
       </c>
       <c r="D226" t="n">
-        <v>6.005203969228022e-14</v>
+        <v>0.3128025679265276</v>
       </c>
       <c r="E226" t="n">
-        <v>0.00104061652271324</v>
+        <v>0.0002686693973307046</v>
       </c>
       <c r="F226" t="n">
-        <v>0.147683180441269</v>
+        <v>0.3578017331215731</v>
       </c>
       <c r="G226" t="n">
-        <v>0.553571276665264</v>
+        <v>0.1931411823511082</v>
       </c>
       <c r="H226" t="n">
-        <v>6.005203969228022e-14</v>
+        <v>8.992983454825504e-14</v>
       </c>
       <c r="I226" t="n">
-        <v>0.553571276665264</v>
+        <v>0.3578017331215731</v>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
     </row>
@@ -9723,37 +9723,37 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>0.3384976248531451</v>
+        <v>0.1763822484492041</v>
       </c>
       <c r="C227" t="n">
-        <v>4.950985491735233e-14</v>
+        <v>1.119512928002443e-13</v>
       </c>
       <c r="D227" t="n">
-        <v>4.950985491735233e-14</v>
+        <v>0.3267980859769555</v>
       </c>
       <c r="E227" t="n">
-        <v>0.0009001237844798856</v>
+        <v>0.0004356140937632295</v>
       </c>
       <c r="F227" t="n">
-        <v>0.0527440267569509</v>
+        <v>0.284598466183404</v>
       </c>
       <c r="G227" t="n">
-        <v>0.6078582246052756</v>
+        <v>0.2117855852964494</v>
       </c>
       <c r="H227" t="n">
-        <v>4.950985491735233e-14</v>
+        <v>1.119512928002443e-13</v>
       </c>
       <c r="I227" t="n">
-        <v>0.6078582246052756</v>
+        <v>0.3267980859769555</v>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
     </row>
@@ -9764,28 +9764,28 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>0.007242856837892894</v>
+        <v>0.009954116104235581</v>
       </c>
       <c r="C228" t="n">
-        <v>0.9810718177916014</v>
+        <v>0.4399726418032049</v>
       </c>
       <c r="D228" t="n">
-        <v>2.220649964358752e-14</v>
+        <v>2.078839411489903e-13</v>
       </c>
       <c r="E228" t="n">
-        <v>0.0003702989255284078</v>
+        <v>0.001334259440512376</v>
       </c>
       <c r="F228" t="n">
-        <v>0.00451189384177878</v>
+        <v>0.2777958430918592</v>
       </c>
       <c r="G228" t="n">
-        <v>0.006803132603154133</v>
+        <v>0.2709431395597722</v>
       </c>
       <c r="H228" t="n">
-        <v>2.220649964358752e-14</v>
+        <v>2.0788394114899e-13</v>
       </c>
       <c r="I228" t="n">
-        <v>0.9810718177916014</v>
+        <v>0.4399726418032049</v>
       </c>
       <c r="J228" t="inlineStr">
         <is>
@@ -9805,37 +9805,37 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0.2583098372497825</v>
+        <v>0.1605757642752952</v>
       </c>
       <c r="C229" t="n">
-        <v>5.044289541233148e-14</v>
+        <v>1.007783266840613e-13</v>
       </c>
       <c r="D229" t="n">
-        <v>5.044289541233148e-14</v>
+        <v>0.3157650917598745</v>
       </c>
       <c r="E229" t="n">
-        <v>0.0007931453140193833</v>
+        <v>0.0003900455287185346</v>
       </c>
       <c r="F229" t="n">
-        <v>0.1077573546126328</v>
+        <v>0.3226835957892651</v>
       </c>
       <c r="G229" t="n">
-        <v>0.6331396628234142</v>
+        <v>0.2005855026466451</v>
       </c>
       <c r="H229" t="n">
-        <v>5.044289541233145e-14</v>
+        <v>1.007783266840613e-13</v>
       </c>
       <c r="I229" t="n">
-        <v>0.6331396628234142</v>
+        <v>0.3226835957892651</v>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Micrococcales</t>
         </is>
       </c>
     </row>

--- a/outputs_HGR/c__Actinobacteria.xlsx
+++ b/outputs_HGR/c__Actinobacteria.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K192"/>
+  <dimension ref="A1:K208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,7 +528,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales(reject)</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
     </row>
@@ -569,7 +569,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales(reject)</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
     </row>
@@ -658,155 +658,155 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1033.fa</t>
+          <t>even_MAG-GUT103.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1919683498917385</v>
+        <v>0.9149574186889841</v>
       </c>
       <c r="C6" t="n">
-        <v>4.08618767726638e-14</v>
+        <v>7.657677517630919e-14</v>
       </c>
       <c r="D6" t="n">
-        <v>4.08618767726638e-14</v>
+        <v>7.657677517630919e-14</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0005847224877228024</v>
+        <v>0.002472995583732341</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1485081928407898</v>
+        <v>0.06742807790022844</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6589387347796264</v>
+        <v>0.0151415078268255</v>
       </c>
       <c r="H6" t="n">
-        <v>4.086187677266381e-14</v>
+        <v>7.657677517630936e-14</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6589387347796264</v>
+        <v>0.9149574186889841</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales(reject)</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT10488.fa</t>
+          <t>even_MAG-GUT1033.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.001080860486326478</v>
+        <v>0.1919683498917385</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9897968017383946</v>
+        <v>4.08618767726638e-14</v>
       </c>
       <c r="D7" t="n">
-        <v>2.220089768320781e-14</v>
+        <v>4.08618767726638e-14</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0002180901566823781</v>
+        <v>0.0005847224877228024</v>
       </c>
       <c r="F7" t="n">
-        <v>0.000998810471876484</v>
+        <v>0.1485081928407898</v>
       </c>
       <c r="G7" t="n">
-        <v>0.007905437146675465</v>
+        <v>0.6589387347796264</v>
       </c>
       <c r="H7" t="n">
-        <v>2.220089768320781e-14</v>
+        <v>4.086187677266381e-14</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9897968017383946</v>
+        <v>0.6589387347796264</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1054.fa</t>
+          <t>even_MAG-GUT10488.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1910046034458639</v>
+        <v>0.001080860486326478</v>
       </c>
       <c r="C8" t="n">
-        <v>9.797872016771181e-14</v>
+        <v>0.9897968017383946</v>
       </c>
       <c r="D8" t="n">
-        <v>9.797872016771181e-14</v>
+        <v>2.220089768320781e-14</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001405577988954306</v>
+        <v>0.0002180901566823781</v>
       </c>
       <c r="F8" t="n">
-        <v>0.09999416337218417</v>
+        <v>0.000998810471876484</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7075956551927037</v>
+        <v>0.007905437146675465</v>
       </c>
       <c r="H8" t="n">
-        <v>9.797872016771181e-14</v>
+        <v>2.220089768320781e-14</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7075956551927037</v>
+        <v>0.9897968017383946</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Bifidobacteriales</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Bifidobacteriales</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1059.fa</t>
+          <t>even_MAG-GUT1054.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2490078894437443</v>
+        <v>0.1910046034458639</v>
       </c>
       <c r="C9" t="n">
-        <v>5.170802239468204e-14</v>
+        <v>9.797872016771181e-14</v>
       </c>
       <c r="D9" t="n">
-        <v>5.170802239468204e-14</v>
+        <v>9.797872016771181e-14</v>
       </c>
       <c r="E9" t="n">
-        <v>0.000862949947751233</v>
+        <v>0.001405577988954306</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1131039718493846</v>
+        <v>0.09999416337218417</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6370251887589646</v>
+        <v>0.7075956551927037</v>
       </c>
       <c r="H9" t="n">
-        <v>5.170802239468208e-14</v>
+        <v>9.797872016771181e-14</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6370251887589646</v>
+        <v>0.7075956551927037</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -815,39 +815,39 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales(reject)</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1065.fa</t>
+          <t>even_MAG-GUT1059.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3697455010582194</v>
+        <v>0.2490078894437443</v>
       </c>
       <c r="C10" t="n">
-        <v>5.616572905538334e-14</v>
+        <v>5.170802239468204e-14</v>
       </c>
       <c r="D10" t="n">
-        <v>5.616572905538333e-14</v>
+        <v>5.170802239468204e-14</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001204932939962828</v>
+        <v>0.000862949947751233</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05214799499127723</v>
+        <v>0.1131039718493846</v>
       </c>
       <c r="G10" t="n">
-        <v>0.576901571010372</v>
+        <v>0.6370251887589646</v>
       </c>
       <c r="H10" t="n">
-        <v>5.616572905538326e-14</v>
+        <v>5.170802239468208e-14</v>
       </c>
       <c r="I10" t="n">
-        <v>0.576901571010372</v>
+        <v>0.6370251887589646</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -856,39 +856,39 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales(reject)</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1089.fa</t>
+          <t>even_MAG-GUT1065.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3370291158558887</v>
+        <v>0.3697455010582194</v>
       </c>
       <c r="C11" t="n">
-        <v>6.91411268737336e-14</v>
+        <v>5.616572905538334e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>6.91411268737336e-14</v>
+        <v>5.616572905538333e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0.00147556058283433</v>
+        <v>0.001204932939962828</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04253800332483075</v>
+        <v>0.05214799499127723</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6189573202362387</v>
+        <v>0.576901571010372</v>
       </c>
       <c r="H11" t="n">
-        <v>6.914112687373359e-14</v>
+        <v>5.616572905538326e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6189573202362387</v>
+        <v>0.576901571010372</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -897,39 +897,39 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales(reject)</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1122.fa</t>
+          <t>even_MAG-GUT1089.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1743871263249388</v>
+        <v>0.3370291158558887</v>
       </c>
       <c r="C12" t="n">
-        <v>6.049758646960665e-14</v>
+        <v>6.91411268737336e-14</v>
       </c>
       <c r="D12" t="n">
-        <v>6.049758646960665e-14</v>
+        <v>6.91411268737336e-14</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0009202814061612561</v>
+        <v>0.00147556058283433</v>
       </c>
       <c r="F12" t="n">
-        <v>0.08259198616857406</v>
+        <v>0.04253800332483075</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7421006061001446</v>
+        <v>0.6189573202362387</v>
       </c>
       <c r="H12" t="n">
-        <v>6.049758646960654e-14</v>
+        <v>6.914112687373359e-14</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7421006061001446</v>
+        <v>0.6189573202362387</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -945,32 +945,32 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1128.fa</t>
+          <t>even_MAG-GUT1122.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1442652616089406</v>
+        <v>0.1743871263249388</v>
       </c>
       <c r="C13" t="n">
-        <v>5.234976717234776e-14</v>
+        <v>6.049758646960665e-14</v>
       </c>
       <c r="D13" t="n">
-        <v>5.234976717234777e-14</v>
+        <v>6.049758646960665e-14</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0007176812800207036</v>
+        <v>0.0009202814061612561</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1174500042700079</v>
+        <v>0.08259198616857406</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7375670528408739</v>
+        <v>0.7421006061001446</v>
       </c>
       <c r="H13" t="n">
-        <v>5.234976717234773e-14</v>
+        <v>6.049758646960654e-14</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7375670528408739</v>
+        <v>0.7421006061001446</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -986,32 +986,32 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1131.fa</t>
+          <t>even_MAG-GUT1128.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3549619660997821</v>
+        <v>0.1442652616089406</v>
       </c>
       <c r="C14" t="n">
-        <v>3.821122200179433e-14</v>
+        <v>5.234976717234776e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>3.821122200179433e-14</v>
+        <v>5.234976717234777e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0006419975929568194</v>
+        <v>0.0007176812800207036</v>
       </c>
       <c r="F14" t="n">
-        <v>0.07255878803102671</v>
+        <v>0.1174500042700079</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5718372482761197</v>
+        <v>0.7375670528408739</v>
       </c>
       <c r="H14" t="n">
-        <v>3.821122200179436e-14</v>
+        <v>5.234976717234773e-14</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5718372482761197</v>
+        <v>0.7375670528408739</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1020,39 +1020,39 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales(reject)</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1133.fa</t>
+          <t>even_MAG-GUT1131.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2226345677180874</v>
+        <v>0.3549619660997821</v>
       </c>
       <c r="C15" t="n">
-        <v>4.568644858894978e-14</v>
+        <v>3.821122200179433e-14</v>
       </c>
       <c r="D15" t="n">
-        <v>4.568644858894978e-14</v>
+        <v>3.821122200179433e-14</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0007184200397412701</v>
+        <v>0.0006419975929568194</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07062038681615641</v>
+        <v>0.07255878803102671</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7060266254258777</v>
+        <v>0.5718372482761197</v>
       </c>
       <c r="H15" t="n">
-        <v>4.568644858894978e-14</v>
+        <v>3.821122200179436e-14</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7060266254258777</v>
+        <v>0.5718372482761197</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1068,32 +1068,32 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1135.fa</t>
+          <t>even_MAG-GUT1133.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3470623540844809</v>
+        <v>0.2226345677180874</v>
       </c>
       <c r="C16" t="n">
-        <v>5.060661140456758e-14</v>
+        <v>4.568644858894978e-14</v>
       </c>
       <c r="D16" t="n">
-        <v>5.060661140456756e-14</v>
+        <v>4.568644858894978e-14</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0009245787944152189</v>
+        <v>0.0007184200397412701</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09553135723504227</v>
+        <v>0.07062038681615641</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5564817098859098</v>
+        <v>0.7060266254258777</v>
       </c>
       <c r="H16" t="n">
-        <v>5.060661140456758e-14</v>
+        <v>4.568644858894978e-14</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5564817098859098</v>
+        <v>0.7060266254258777</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1102,39 +1102,39 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales(reject)</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1139.fa</t>
+          <t>even_MAG-GUT1135.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1355598674277678</v>
+        <v>0.3470623540844809</v>
       </c>
       <c r="C17" t="n">
-        <v>4.017482767555594e-14</v>
+        <v>5.060661140456758e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>4.017482767555593e-14</v>
+        <v>5.060661140456756e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0005446144232349967</v>
+        <v>0.0009245787944152189</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1358200641958373</v>
+        <v>0.09553135723504227</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7280754539530394</v>
+        <v>0.5564817098859098</v>
       </c>
       <c r="H17" t="n">
-        <v>4.017482767555592e-14</v>
+        <v>5.060661140456758e-14</v>
       </c>
       <c r="I17" t="n">
-        <v>0.7280754539530394</v>
+        <v>0.5564817098859098</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1150,32 +1150,32 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1143.fa</t>
+          <t>even_MAG-GUT1139.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.2930712420274537</v>
+        <v>0.1355598674277678</v>
       </c>
       <c r="C18" t="n">
-        <v>4.281125205625874e-14</v>
+        <v>4.017482767555594e-14</v>
       </c>
       <c r="D18" t="n">
-        <v>4.281125205625874e-14</v>
+        <v>4.017482767555593e-14</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0007895117108000488</v>
+        <v>0.0005446144232349967</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1345208766661337</v>
+        <v>0.1358200641958373</v>
       </c>
       <c r="G18" t="n">
-        <v>0.571618369595484</v>
+        <v>0.7280754539530394</v>
       </c>
       <c r="H18" t="n">
-        <v>4.281125205625872e-14</v>
+        <v>4.017482767555592e-14</v>
       </c>
       <c r="I18" t="n">
-        <v>0.571618369595484</v>
+        <v>0.7280754539530394</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1184,39 +1184,39 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales(reject)</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1148.fa</t>
+          <t>even_MAG-GUT1143.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1475433609788155</v>
+        <v>0.2930712420274537</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2751002768221025</v>
+        <v>4.281125205625874e-14</v>
       </c>
       <c r="D19" t="n">
-        <v>3.720776627522841e-14</v>
+        <v>4.281125205625874e-14</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0006585310758404916</v>
+        <v>0.0007895117108000488</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1144506526525793</v>
+        <v>0.1345208766661337</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4622471784705878</v>
+        <v>0.571618369595484</v>
       </c>
       <c r="H19" t="n">
-        <v>3.720776627522839e-14</v>
+        <v>4.281125205625872e-14</v>
       </c>
       <c r="I19" t="n">
-        <v>0.4622471784705878</v>
+        <v>0.571618369595484</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1225,39 +1225,39 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales(reject)</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1149.fa</t>
+          <t>even_MAG-GUT1148.fa</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.2025802283471894</v>
+        <v>0.1475433609788155</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2432838020301364</v>
+        <v>0.2751002768221025</v>
       </c>
       <c r="D20" t="n">
-        <v>2.992599022334903e-14</v>
+        <v>3.720776627522841e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0005766954573592841</v>
+        <v>0.0006585310758404916</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0395954812620504</v>
+        <v>0.1144506526525793</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5139637929032048</v>
+        <v>0.4622471784705878</v>
       </c>
       <c r="H20" t="n">
-        <v>2.992599022334903e-14</v>
+        <v>3.720776627522839e-14</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5139637929032048</v>
+        <v>0.4622471784705878</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1273,32 +1273,32 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1157.fa</t>
+          <t>even_MAG-GUT1149.fa</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.2356981722369749</v>
+        <v>0.2025802283471894</v>
       </c>
       <c r="C21" t="n">
-        <v>3.834722901335727e-14</v>
+        <v>0.2432838020301364</v>
       </c>
       <c r="D21" t="n">
-        <v>3.834722901335727e-14</v>
+        <v>2.992599022334903e-14</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0006044434196134899</v>
+        <v>0.0005766954573592841</v>
       </c>
       <c r="F21" t="n">
-        <v>0.129730472681249</v>
+        <v>0.0395954812620504</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6339669116620475</v>
+        <v>0.5139637929032048</v>
       </c>
       <c r="H21" t="n">
-        <v>3.834722901335725e-14</v>
+        <v>2.992599022334903e-14</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6339669116620475</v>
+        <v>0.5139637929032048</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1314,114 +1314,114 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11934.fa</t>
+          <t>even_MAG-GUT1157.fa</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.001312699601751033</v>
+        <v>0.2356981722369749</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9908908873278734</v>
+        <v>3.834722901335727e-14</v>
       </c>
       <c r="D22" t="n">
-        <v>2.220206354949685e-14</v>
+        <v>3.834722901335727e-14</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0002317619463634652</v>
+        <v>0.0006044434196134899</v>
       </c>
       <c r="F22" t="n">
-        <v>0.001386117328865353</v>
+        <v>0.129730472681249</v>
       </c>
       <c r="G22" t="n">
-        <v>0.006178533795102177</v>
+        <v>0.6339669116620475</v>
       </c>
       <c r="H22" t="n">
-        <v>2.220206354949685e-14</v>
+        <v>3.834722901335725e-14</v>
       </c>
       <c r="I22" t="n">
-        <v>0.9908908873278734</v>
+        <v>0.6339669116620475</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1249.fa</t>
+          <t>even_MAG-GUT11934.fa</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.2356662230523962</v>
+        <v>0.001312699601751033</v>
       </c>
       <c r="C23" t="n">
-        <v>4.235211463198023e-14</v>
+        <v>0.9908908873278734</v>
       </c>
       <c r="D23" t="n">
-        <v>4.235211463198023e-14</v>
+        <v>2.220206354949685e-14</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0006756854436249631</v>
+        <v>0.0002317619463634652</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0674193909101745</v>
+        <v>0.001386117328865353</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6962387005936772</v>
+        <v>0.006178533795102177</v>
       </c>
       <c r="H23" t="n">
-        <v>4.235211463198031e-14</v>
+        <v>2.220206354949685e-14</v>
       </c>
       <c r="I23" t="n">
-        <v>0.6962387005936772</v>
+        <v>0.9908908873278734</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Bifidobacteriales</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Bifidobacteriales</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1258.fa</t>
+          <t>even_MAG-GUT1249.fa</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2171710404989209</v>
+        <v>0.2356662230523962</v>
       </c>
       <c r="C24" t="n">
-        <v>4.298651349069447e-14</v>
+        <v>4.235211463198023e-14</v>
       </c>
       <c r="D24" t="n">
-        <v>4.298651349069447e-14</v>
+        <v>4.235211463198023e-14</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0006711813637979101</v>
+        <v>0.0006756854436249631</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1061494599667949</v>
+        <v>0.0674193909101745</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6760083181703573</v>
+        <v>0.6962387005936772</v>
       </c>
       <c r="H24" t="n">
-        <v>4.298651349069433e-14</v>
+        <v>4.235211463198031e-14</v>
       </c>
       <c r="I24" t="n">
-        <v>0.6760083181703573</v>
+        <v>0.6962387005936772</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1437,32 +1437,32 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1265.fa</t>
+          <t>even_MAG-GUT1258.fa</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2062751775004062</v>
+        <v>0.2171710404989209</v>
       </c>
       <c r="C25" t="n">
-        <v>4.842609363027151e-14</v>
+        <v>4.298651349069447e-14</v>
       </c>
       <c r="D25" t="n">
-        <v>4.842609363027151e-14</v>
+        <v>4.298651349069447e-14</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0007343436537792586</v>
+        <v>0.0006711813637979101</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07600069248039827</v>
+        <v>0.1061494599667949</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7169897863652711</v>
+        <v>0.6760083181703573</v>
       </c>
       <c r="H25" t="n">
-        <v>4.842609363027151e-14</v>
+        <v>4.298651349069433e-14</v>
       </c>
       <c r="I25" t="n">
-        <v>0.7169897863652711</v>
+        <v>0.6760083181703573</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1478,32 +1478,32 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1274.fa</t>
+          <t>even_MAG-GUT1265.fa</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.2826229507774253</v>
+        <v>0.2062751775004062</v>
       </c>
       <c r="C26" t="n">
-        <v>7.784607406018015e-14</v>
+        <v>4.842609363027151e-14</v>
       </c>
       <c r="D26" t="n">
-        <v>7.784607406018015e-14</v>
+        <v>4.842609363027151e-14</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001457239073630905</v>
+        <v>0.0007343436537792586</v>
       </c>
       <c r="F26" t="n">
-        <v>0.102809611766998</v>
+        <v>0.07600069248039827</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6131101983817123</v>
+        <v>0.7169897863652711</v>
       </c>
       <c r="H26" t="n">
-        <v>7.784607406017998e-14</v>
+        <v>4.842609363027151e-14</v>
       </c>
       <c r="I26" t="n">
-        <v>0.6131101983817123</v>
+        <v>0.7169897863652711</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1512,39 +1512,39 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales(reject)</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1282.fa</t>
+          <t>even_MAG-GUT1274.fa</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.2976306273206349</v>
+        <v>0.2826229507774253</v>
       </c>
       <c r="C27" t="n">
-        <v>5.310212204173966e-14</v>
+        <v>7.784607406018015e-14</v>
       </c>
       <c r="D27" t="n">
-        <v>5.310212204173966e-14</v>
+        <v>7.784607406018015e-14</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0009874457588726904</v>
+        <v>0.001457239073630905</v>
       </c>
       <c r="F27" t="n">
-        <v>0.05131042285901358</v>
+        <v>0.102809611766998</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6500715040613195</v>
+        <v>0.6131101983817123</v>
       </c>
       <c r="H27" t="n">
-        <v>5.310212204173967e-14</v>
+        <v>7.784607406017998e-14</v>
       </c>
       <c r="I27" t="n">
-        <v>0.6500715040613195</v>
+        <v>0.6131101983817123</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1553,39 +1553,39 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales(reject)</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1287.fa</t>
+          <t>even_MAG-GUT1282.fa</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.2888312966548943</v>
+        <v>0.2976306273206349</v>
       </c>
       <c r="C28" t="n">
-        <v>6.662560442342349e-14</v>
+        <v>5.310212204173966e-14</v>
       </c>
       <c r="D28" t="n">
-        <v>6.662560442342346e-14</v>
+        <v>5.310212204173966e-14</v>
       </c>
       <c r="E28" t="n">
-        <v>0.001126586880333031</v>
+        <v>0.0009874457588726904</v>
       </c>
       <c r="F28" t="n">
-        <v>0.07595376283782602</v>
+        <v>0.05131042285901358</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6340883536267466</v>
+        <v>0.6500715040613195</v>
       </c>
       <c r="H28" t="n">
-        <v>6.662560442342335e-14</v>
+        <v>5.310212204173967e-14</v>
       </c>
       <c r="I28" t="n">
-        <v>0.6340883536267466</v>
+        <v>0.6500715040613195</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1594,39 +1594,39 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales(reject)</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1453.fa</t>
+          <t>even_MAG-GUT1287.fa</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.3076348445149411</v>
+        <v>0.2888312966548943</v>
       </c>
       <c r="C29" t="n">
-        <v>4.738464540575622e-14</v>
+        <v>6.662560442342349e-14</v>
       </c>
       <c r="D29" t="n">
-        <v>4.738464540575622e-14</v>
+        <v>6.662560442342346e-14</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0009005168549644683</v>
+        <v>0.001126586880333031</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09091213458928617</v>
+        <v>0.07595376283782602</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6005525040406663</v>
+        <v>0.6340883536267466</v>
       </c>
       <c r="H29" t="n">
-        <v>4.738464540575618e-14</v>
+        <v>6.662560442342335e-14</v>
       </c>
       <c r="I29" t="n">
-        <v>0.6005525040406663</v>
+        <v>0.6340883536267466</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1635,39 +1635,39 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales(reject)</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1485.fa</t>
+          <t>even_MAG-GUT1453.fa</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.04214874198066715</v>
+        <v>0.3076348445149411</v>
       </c>
       <c r="C30" t="n">
-        <v>3.924482272553743e-14</v>
+        <v>4.738464540575622e-14</v>
       </c>
       <c r="D30" t="n">
-        <v>0.2039147493071868</v>
+        <v>4.738464540575622e-14</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0006529722256154069</v>
+        <v>0.0009005168549644683</v>
       </c>
       <c r="F30" t="n">
-        <v>0.04921807646648442</v>
+        <v>0.09091213458928617</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7040654600199678</v>
+        <v>0.6005525040406663</v>
       </c>
       <c r="H30" t="n">
-        <v>3.924482272553741e-14</v>
+        <v>4.738464540575618e-14</v>
       </c>
       <c r="I30" t="n">
-        <v>0.7040654600199678</v>
+        <v>0.6005525040406663</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1683,32 +1683,32 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1529.fa</t>
+          <t>even_MAG-GUT1485.fa</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.2745912171127152</v>
+        <v>0.04214874198066715</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2520703253235439</v>
+        <v>3.924482272553743e-14</v>
       </c>
       <c r="D31" t="n">
-        <v>3.180958945996212e-14</v>
+        <v>0.2039147493071868</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0006924703112103328</v>
+        <v>0.0006529722256154069</v>
       </c>
       <c r="F31" t="n">
-        <v>0.02908442925353591</v>
+        <v>0.04921807646648442</v>
       </c>
       <c r="G31" t="n">
-        <v>0.4435615579989309</v>
+        <v>0.7040654600199678</v>
       </c>
       <c r="H31" t="n">
-        <v>3.180958945996212e-14</v>
+        <v>3.924482272553741e-14</v>
       </c>
       <c r="I31" t="n">
-        <v>0.4435615579989309</v>
+        <v>0.7040654600199678</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -1717,39 +1717,39 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales(reject)</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1534.fa</t>
+          <t>even_MAG-GUT1529.fa</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.3316785301658282</v>
+        <v>0.2745912171127152</v>
       </c>
       <c r="C32" t="n">
-        <v>5.954535263728407e-14</v>
+        <v>0.2520703253235439</v>
       </c>
       <c r="D32" t="n">
-        <v>5.954535263728407e-14</v>
+        <v>3.180958945996212e-14</v>
       </c>
       <c r="E32" t="n">
-        <v>0.001191107447068821</v>
+        <v>0.0006924703112103328</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1065114531700905</v>
+        <v>0.02908442925353591</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5606189092168338</v>
+        <v>0.4435615579989309</v>
       </c>
       <c r="H32" t="n">
-        <v>5.954535263728407e-14</v>
+        <v>3.180958945996212e-14</v>
       </c>
       <c r="I32" t="n">
-        <v>0.5606189092168338</v>
+        <v>0.4435615579989309</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -1765,155 +1765,155 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1537.fa</t>
+          <t>even_MAG-GUT1534.fa</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.526743178760849</v>
+        <v>0.3316785301658282</v>
       </c>
       <c r="C33" t="n">
-        <v>6.789565733061516e-14</v>
+        <v>5.954535263728407e-14</v>
       </c>
       <c r="D33" t="n">
-        <v>6.789565733061516e-14</v>
+        <v>5.954535263728407e-14</v>
       </c>
       <c r="E33" t="n">
-        <v>0.00192842586393724</v>
+        <v>0.001191107447068821</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0636853327679105</v>
+        <v>0.1065114531700905</v>
       </c>
       <c r="G33" t="n">
-        <v>0.4076430626070996</v>
+        <v>0.5606189092168338</v>
       </c>
       <c r="H33" t="n">
-        <v>6.789565733061524e-14</v>
+        <v>5.954535263728407e-14</v>
       </c>
       <c r="I33" t="n">
-        <v>0.526743178760849</v>
+        <v>0.5606189092168338</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>o__Actinomycetales(reject)</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1826.fa</t>
+          <t>even_MAG-GUT1537.fa</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.008636132411790896</v>
+        <v>0.526743178760849</v>
       </c>
       <c r="C34" t="n">
-        <v>0.983377575698629</v>
+        <v>6.789565733061516e-14</v>
       </c>
       <c r="D34" t="n">
-        <v>2.220465288224733e-14</v>
+        <v>6.789565733061516e-14</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0003019662340515598</v>
+        <v>0.00192842586393724</v>
       </c>
       <c r="F34" t="n">
-        <v>0.002341063207209728</v>
+        <v>0.0636853327679105</v>
       </c>
       <c r="G34" t="n">
-        <v>0.005343262448274397</v>
+        <v>0.4076430626070996</v>
       </c>
       <c r="H34" t="n">
-        <v>2.220465288224733e-14</v>
+        <v>6.789565733061524e-14</v>
       </c>
       <c r="I34" t="n">
-        <v>0.983377575698629</v>
+        <v>0.526743178760849</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Actinomycetales(reject)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1870.fa</t>
+          <t>even_MAG-GUT1826.fa</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.2062223487163039</v>
+        <v>0.008636132411790896</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2266559615827766</v>
+        <v>0.983377575698629</v>
       </c>
       <c r="D35" t="n">
-        <v>2.665757673644026e-14</v>
+        <v>2.220465288224733e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0.000537029195824533</v>
+        <v>0.0003019662340515598</v>
       </c>
       <c r="F35" t="n">
-        <v>0.04708103147432295</v>
+        <v>0.002341063207209728</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5195036290307186</v>
+        <v>0.005343262448274397</v>
       </c>
       <c r="H35" t="n">
-        <v>2.665757673644025e-14</v>
+        <v>2.220465288224733e-14</v>
       </c>
       <c r="I35" t="n">
-        <v>0.5195036290307186</v>
+        <v>0.983377575698629</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Bifidobacteriales</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales(reject)</t>
+          <t>o__Bifidobacteriales</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1873.fa</t>
+          <t>even_MAG-GUT1870.fa</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1601412397150294</v>
+        <v>0.2062223487163039</v>
       </c>
       <c r="C36" t="n">
-        <v>7.885069853678506e-14</v>
+        <v>0.2266559615827766</v>
       </c>
       <c r="D36" t="n">
-        <v>7.885069853678506e-14</v>
+        <v>2.665757673644026e-14</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001074807512623602</v>
+        <v>0.000537029195824533</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1218117104289771</v>
+        <v>0.04708103147432295</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7169722423431333</v>
+        <v>0.5195036290307186</v>
       </c>
       <c r="H36" t="n">
-        <v>7.8850698536785e-14</v>
+        <v>2.665757673644025e-14</v>
       </c>
       <c r="I36" t="n">
-        <v>0.7169722423431333</v>
+        <v>0.5195036290307186</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -1922,39 +1922,39 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Propionibacteriales(reject)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1877.fa</t>
+          <t>even_MAG-GUT1873.fa</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.2645847206500189</v>
+        <v>0.1601412397150294</v>
       </c>
       <c r="C37" t="n">
-        <v>5.046428825222487e-14</v>
+        <v>7.885069853678506e-14</v>
       </c>
       <c r="D37" t="n">
-        <v>5.046428825222487e-14</v>
+        <v>7.885069853678506e-14</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0009203365064058395</v>
+        <v>0.001074807512623602</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1238359819798366</v>
+        <v>0.1218117104289771</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6106589608635872</v>
+        <v>0.7169722423431333</v>
       </c>
       <c r="H37" t="n">
-        <v>5.046428825222487e-14</v>
+        <v>7.8850698536785e-14</v>
       </c>
       <c r="I37" t="n">
-        <v>0.6106589608635872</v>
+        <v>0.7169722423431333</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -1963,39 +1963,39 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales(reject)</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1881.fa</t>
+          <t>even_MAG-GUT1877.fa</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.3817730515723286</v>
+        <v>0.2645847206500189</v>
       </c>
       <c r="C38" t="n">
-        <v>4.292103872904007e-14</v>
+        <v>5.046428825222487e-14</v>
       </c>
       <c r="D38" t="n">
-        <v>4.292103872904005e-14</v>
+        <v>5.046428825222487e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0008991986117996849</v>
+        <v>0.0009203365064058395</v>
       </c>
       <c r="F38" t="n">
-        <v>0.06653935171997082</v>
+        <v>0.1238359819798366</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5507883980957721</v>
+        <v>0.6106589608635872</v>
       </c>
       <c r="H38" t="n">
-        <v>4.292103872904007e-14</v>
+        <v>5.046428825222487e-14</v>
       </c>
       <c r="I38" t="n">
-        <v>0.5507883980957721</v>
+        <v>0.6106589608635872</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -2004,39 +2004,39 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales(reject)</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1883.fa</t>
+          <t>even_MAG-GUT1881.fa</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.2855982955614777</v>
+        <v>0.3817730515723286</v>
       </c>
       <c r="C39" t="n">
-        <v>5.05661893688603e-14</v>
+        <v>4.292103872904007e-14</v>
       </c>
       <c r="D39" t="n">
-        <v>5.05661893688603e-14</v>
+        <v>4.292103872904005e-14</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0009769388793317469</v>
+        <v>0.0008991986117996849</v>
       </c>
       <c r="F39" t="n">
-        <v>0.130282011179569</v>
+        <v>0.06653935171997082</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5831427543794699</v>
+        <v>0.5507883980957721</v>
       </c>
       <c r="H39" t="n">
-        <v>5.056618936886023e-14</v>
+        <v>4.292103872904007e-14</v>
       </c>
       <c r="I39" t="n">
-        <v>0.5831427543794699</v>
+        <v>0.5507883980957721</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -2052,32 +2052,32 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1912.fa</t>
+          <t>even_MAG-GUT1883.fa</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.3030116147502065</v>
+        <v>0.2855982955614777</v>
       </c>
       <c r="C40" t="n">
-        <v>4.254267200043315e-14</v>
+        <v>5.05661893688603e-14</v>
       </c>
       <c r="D40" t="n">
-        <v>4.254267200043317e-14</v>
+        <v>5.05661893688603e-14</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0007882654579225221</v>
+        <v>0.0009769388793317469</v>
       </c>
       <c r="F40" t="n">
-        <v>0.05899044492460272</v>
+        <v>0.130282011179569</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6372096748671405</v>
+        <v>0.5831427543794699</v>
       </c>
       <c r="H40" t="n">
-        <v>4.254267200043318e-14</v>
+        <v>5.056618936886023e-14</v>
       </c>
       <c r="I40" t="n">
-        <v>0.6372096748671405</v>
+        <v>0.5831427543794699</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -2086,80 +2086,80 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales(reject)</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2058.fa</t>
+          <t>even_MAG-GUT1912.fa</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.00201843410431674</v>
+        <v>0.3030116147502065</v>
       </c>
       <c r="C41" t="n">
-        <v>0.984055861456828</v>
+        <v>4.254267200043315e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>2.220338123650359e-14</v>
+        <v>4.254267200043317e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>0.000201571468479056</v>
+        <v>0.0007882654579225221</v>
       </c>
       <c r="F41" t="n">
-        <v>0.003673623252406069</v>
+        <v>0.05899044492460272</v>
       </c>
       <c r="G41" t="n">
-        <v>0.01005050971792575</v>
+        <v>0.6372096748671405</v>
       </c>
       <c r="H41" t="n">
-        <v>2.220338123650359e-14</v>
+        <v>4.254267200043318e-14</v>
       </c>
       <c r="I41" t="n">
-        <v>0.984055861456828</v>
+        <v>0.6372096748671405</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2078.fa</t>
+          <t>even_MAG-GUT2058.fa</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.002429949669657574</v>
+        <v>0.00201843410431674</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9734975184543154</v>
+        <v>0.984055861456828</v>
       </c>
       <c r="D42" t="n">
-        <v>2.220734061138526e-14</v>
+        <v>2.220338123650359e-14</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0002719357928834576</v>
+        <v>0.000201571468479056</v>
       </c>
       <c r="F42" t="n">
-        <v>0.01450627480873918</v>
+        <v>0.003673623252406069</v>
       </c>
       <c r="G42" t="n">
-        <v>0.009294321274359939</v>
+        <v>0.01005050971792575</v>
       </c>
       <c r="H42" t="n">
-        <v>2.220734061138526e-14</v>
+        <v>2.220338123650359e-14</v>
       </c>
       <c r="I42" t="n">
-        <v>0.9734975184543154</v>
+        <v>0.984055861456828</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -2175,32 +2175,32 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2079.fa</t>
+          <t>even_MAG-GUT2078.fa</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.007163568596182142</v>
+        <v>0.002429949669657574</v>
       </c>
       <c r="C43" t="n">
-        <v>0.977837306691133</v>
+        <v>0.9734975184543154</v>
       </c>
       <c r="D43" t="n">
-        <v>2.220731251045676e-14</v>
+        <v>2.220734061138526e-14</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0003183857631518045</v>
+        <v>0.0002719357928834576</v>
       </c>
       <c r="F43" t="n">
-        <v>0.009669839149965317</v>
+        <v>0.01450627480873918</v>
       </c>
       <c r="G43" t="n">
-        <v>0.005010899799523297</v>
+        <v>0.009294321274359939</v>
       </c>
       <c r="H43" t="n">
-        <v>2.220731251045676e-14</v>
+        <v>2.220734061138526e-14</v>
       </c>
       <c r="I43" t="n">
-        <v>0.977837306691133</v>
+        <v>0.9734975184543154</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -2216,32 +2216,32 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT23346.fa</t>
+          <t>even_MAG-GUT2079.fa</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.006878216253881732</v>
+        <v>0.007163568596182142</v>
       </c>
       <c r="C44" t="n">
-        <v>0.9787831929549605</v>
+        <v>0.977837306691133</v>
       </c>
       <c r="D44" t="n">
-        <v>2.220593831125348e-14</v>
+        <v>2.220731251045676e-14</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0003019953246837893</v>
+        <v>0.0003183857631518045</v>
       </c>
       <c r="F44" t="n">
-        <v>0.002964067232675775</v>
+        <v>0.009669839149965317</v>
       </c>
       <c r="G44" t="n">
-        <v>0.01107252823375377</v>
+        <v>0.005010899799523297</v>
       </c>
       <c r="H44" t="n">
-        <v>2.220593831125348e-14</v>
+        <v>2.220731251045676e-14</v>
       </c>
       <c r="I44" t="n">
-        <v>0.9787831929549605</v>
+        <v>0.977837306691133</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -2257,32 +2257,32 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT23723.fa</t>
+          <t>even_MAG-GUT23346.fa</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.002632192624627634</v>
+        <v>0.006878216253881732</v>
       </c>
       <c r="C45" t="n">
-        <v>0.9862182000764048</v>
+        <v>0.9787831929549605</v>
       </c>
       <c r="D45" t="n">
-        <v>2.220263071845347e-14</v>
+        <v>2.220593831125348e-14</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0002204986206774283</v>
+        <v>0.0003019953246837893</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001804983799412953</v>
+        <v>0.002964067232675775</v>
       </c>
       <c r="G45" t="n">
-        <v>0.00912412487883277</v>
+        <v>0.01107252823375377</v>
       </c>
       <c r="H45" t="n">
-        <v>2.220263071845347e-14</v>
+        <v>2.220593831125348e-14</v>
       </c>
       <c r="I45" t="n">
-        <v>0.9862182000764048</v>
+        <v>0.9787831929549605</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -2298,32 +2298,32 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26586.fa</t>
+          <t>even_MAG-GUT23723.fa</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.001442319315485899</v>
+        <v>0.002632192624627634</v>
       </c>
       <c r="C46" t="n">
-        <v>0.9872012141395269</v>
+        <v>0.9862182000764048</v>
       </c>
       <c r="D46" t="n">
-        <v>2.220254999396049e-14</v>
+        <v>2.220263071845347e-14</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0002216671657867352</v>
+        <v>0.0002204986206774283</v>
       </c>
       <c r="F46" t="n">
-        <v>0.00275651372799399</v>
+        <v>0.001804983799412953</v>
       </c>
       <c r="G46" t="n">
-        <v>0.008378285651162033</v>
+        <v>0.00912412487883277</v>
       </c>
       <c r="H46" t="n">
-        <v>2.220254999396049e-14</v>
+        <v>2.220263071845347e-14</v>
       </c>
       <c r="I46" t="n">
-        <v>0.9872012141395269</v>
+        <v>0.9862182000764048</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -2339,32 +2339,32 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT28721.fa</t>
+          <t>even_MAG-GUT26586.fa</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.001453493581672878</v>
+        <v>0.001442319315485899</v>
       </c>
       <c r="C47" t="n">
-        <v>0.988392763829012</v>
+        <v>0.9872012141395269</v>
       </c>
       <c r="D47" t="n">
-        <v>2.220095719600883e-14</v>
+        <v>2.220254999396049e-14</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0002141738362273883</v>
+        <v>0.0002216671657867352</v>
       </c>
       <c r="F47" t="n">
-        <v>0.001031654317826456</v>
+        <v>0.00275651372799399</v>
       </c>
       <c r="G47" t="n">
-        <v>0.008907914435216739</v>
+        <v>0.008378285651162033</v>
       </c>
       <c r="H47" t="n">
-        <v>2.220095719600883e-14</v>
+        <v>2.220254999396049e-14</v>
       </c>
       <c r="I47" t="n">
-        <v>0.988392763829012</v>
+        <v>0.9872012141395269</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -2380,32 +2380,32 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT28738.fa</t>
+          <t>even_MAG-GUT28721.fa</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.001187359380691543</v>
+        <v>0.001453493581672878</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9861387685431029</v>
+        <v>0.988392763829012</v>
       </c>
       <c r="D48" t="n">
-        <v>2.219970587902807e-14</v>
+        <v>2.220095719600883e-14</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0001760763698170986</v>
+        <v>0.0002141738362273883</v>
       </c>
       <c r="F48" t="n">
-        <v>0.001093959606223226</v>
+        <v>0.001031654317826456</v>
       </c>
       <c r="G48" t="n">
-        <v>0.01140383610012092</v>
+        <v>0.008907914435216739</v>
       </c>
       <c r="H48" t="n">
-        <v>2.219970587902807e-14</v>
+        <v>2.220095719600883e-14</v>
       </c>
       <c r="I48" t="n">
-        <v>0.9861387685431029</v>
+        <v>0.988392763829012</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -2421,32 +2421,32 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36138.fa</t>
+          <t>even_MAG-GUT28738.fa</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.006253607611078115</v>
+        <v>0.001187359380691543</v>
       </c>
       <c r="C49" t="n">
-        <v>0.9793974616558869</v>
+        <v>0.9861387685431029</v>
       </c>
       <c r="D49" t="n">
-        <v>2.220699150636012e-14</v>
+        <v>2.219970587902807e-14</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0002836606011610426</v>
+        <v>0.0001760763698170986</v>
       </c>
       <c r="F49" t="n">
-        <v>0.009424909037999609</v>
+        <v>0.001093959606223226</v>
       </c>
       <c r="G49" t="n">
-        <v>0.004640361093829954</v>
+        <v>0.01140383610012092</v>
       </c>
       <c r="H49" t="n">
-        <v>2.220699150636012e-14</v>
+        <v>2.219970587902807e-14</v>
       </c>
       <c r="I49" t="n">
-        <v>0.9793974616558869</v>
+        <v>0.9861387685431029</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -2462,32 +2462,32 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37090.fa</t>
+          <t>even_MAG-GUT36138.fa</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.0009883360504545813</v>
+        <v>0.006253607611078115</v>
       </c>
       <c r="C50" t="n">
-        <v>0.990378017749988</v>
+        <v>0.9793974616558869</v>
       </c>
       <c r="D50" t="n">
-        <v>2.220176439222865e-14</v>
+        <v>2.220699150636012e-14</v>
       </c>
       <c r="E50" t="n">
-        <v>0.00020462524316651</v>
+        <v>0.0002836606011610426</v>
       </c>
       <c r="F50" t="n">
-        <v>0.001571081119876067</v>
+        <v>0.009424909037999609</v>
       </c>
       <c r="G50" t="n">
-        <v>0.006857939836470392</v>
+        <v>0.004640361093829954</v>
       </c>
       <c r="H50" t="n">
-        <v>2.220176439222865e-14</v>
+        <v>2.220699150636012e-14</v>
       </c>
       <c r="I50" t="n">
-        <v>0.990378017749988</v>
+        <v>0.9793974616558869</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -2503,32 +2503,32 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT408.fa</t>
+          <t>even_MAG-GUT37090.fa</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.002670280941562333</v>
+        <v>0.0009883360504545813</v>
       </c>
       <c r="C51" t="n">
-        <v>0.9834242247527325</v>
+        <v>0.990378017749988</v>
       </c>
       <c r="D51" t="n">
-        <v>2.220451989035821e-14</v>
+        <v>2.220176439222865e-14</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0002765038931382646</v>
+        <v>0.00020462524316651</v>
       </c>
       <c r="F51" t="n">
-        <v>0.004252623968416907</v>
+        <v>0.001571081119876067</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0093763664441056</v>
+        <v>0.006857939836470392</v>
       </c>
       <c r="H51" t="n">
-        <v>2.220451989035821e-14</v>
+        <v>2.220176439222865e-14</v>
       </c>
       <c r="I51" t="n">
-        <v>0.9834242247527325</v>
+        <v>0.990378017749988</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -2544,32 +2544,32 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT409.fa</t>
+          <t>even_MAG-GUT408.fa</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.001870393431024758</v>
+        <v>0.002670280941562333</v>
       </c>
       <c r="C52" t="n">
-        <v>0.9809370658247988</v>
+        <v>0.9834242247527325</v>
       </c>
       <c r="D52" t="n">
-        <v>2.220455810888344e-14</v>
+        <v>2.220451989035821e-14</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0002334700101037211</v>
+        <v>0.0002765038931382646</v>
       </c>
       <c r="F52" t="n">
-        <v>0.005677070993662337</v>
+        <v>0.004252623968416907</v>
       </c>
       <c r="G52" t="n">
-        <v>0.01128199974036605</v>
+        <v>0.0093763664441056</v>
       </c>
       <c r="H52" t="n">
-        <v>2.220455810888344e-14</v>
+        <v>2.220451989035821e-14</v>
       </c>
       <c r="I52" t="n">
-        <v>0.9809370658247988</v>
+        <v>0.9834242247527325</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -2585,32 +2585,32 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT412.fa</t>
+          <t>even_MAG-GUT409.fa</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.006677330062883215</v>
+        <v>0.001870393431024758</v>
       </c>
       <c r="C53" t="n">
-        <v>0.9858789938554747</v>
+        <v>0.9809370658247988</v>
       </c>
       <c r="D53" t="n">
-        <v>2.220451775160009e-14</v>
+        <v>2.220455810888344e-14</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0003581489133744</v>
+        <v>0.0002334700101037211</v>
       </c>
       <c r="F53" t="n">
-        <v>0.00291000251035778</v>
+        <v>0.005677070993662337</v>
       </c>
       <c r="G53" t="n">
-        <v>0.004175524657865486</v>
+        <v>0.01128199974036605</v>
       </c>
       <c r="H53" t="n">
-        <v>2.220451775160009e-14</v>
+        <v>2.220455810888344e-14</v>
       </c>
       <c r="I53" t="n">
-        <v>0.9858789938554747</v>
+        <v>0.9809370658247988</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -2626,32 +2626,32 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT418.fa</t>
+          <t>even_MAG-GUT412.fa</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.004817334295336218</v>
+        <v>0.006677330062883215</v>
       </c>
       <c r="C54" t="n">
-        <v>0.9847136025798208</v>
+        <v>0.9858789938554747</v>
       </c>
       <c r="D54" t="n">
-        <v>2.220534387068137e-14</v>
+        <v>2.220451775160009e-14</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0003008283454751161</v>
+        <v>0.0003581489133744</v>
       </c>
       <c r="F54" t="n">
-        <v>0.003930753868987487</v>
+        <v>0.00291000251035778</v>
       </c>
       <c r="G54" t="n">
-        <v>0.00623748091033585</v>
+        <v>0.004175524657865486</v>
       </c>
       <c r="H54" t="n">
-        <v>2.220534387068137e-14</v>
+        <v>2.220451775160009e-14</v>
       </c>
       <c r="I54" t="n">
-        <v>0.9847136025798208</v>
+        <v>0.9858789938554747</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -2667,32 +2667,32 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT420.fa</t>
+          <t>even_MAG-GUT418.fa</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.2282469812864302</v>
+        <v>0.004817334295336218</v>
       </c>
       <c r="C55" t="n">
-        <v>0.4561825432421889</v>
+        <v>0.9847136025798208</v>
       </c>
       <c r="D55" t="n">
-        <v>6.631089732521071e-13</v>
+        <v>2.220534387068137e-14</v>
       </c>
       <c r="E55" t="n">
-        <v>0.02156807621277352</v>
+        <v>0.0003008283454751161</v>
       </c>
       <c r="F55" t="n">
-        <v>0.106036900358947</v>
+        <v>0.003930753868987487</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1879654988983341</v>
+        <v>0.00623748091033585</v>
       </c>
       <c r="H55" t="n">
-        <v>6.631089732521069e-13</v>
+        <v>2.220534387068137e-14</v>
       </c>
       <c r="I55" t="n">
-        <v>0.4561825432421889</v>
+        <v>0.9847136025798208</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -2701,39 +2701,39 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales(reject)</t>
+          <t>o__Bifidobacteriales</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT421.fa</t>
+          <t>even_MAG-GUT420.fa</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.00114678973387731</v>
+        <v>0.2282469812864302</v>
       </c>
       <c r="C56" t="n">
-        <v>0.9825481280181707</v>
+        <v>0.4561825432421889</v>
       </c>
       <c r="D56" t="n">
-        <v>2.220282465524814e-14</v>
+        <v>6.631089732521071e-13</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0002073133077255499</v>
+        <v>0.02156807621277352</v>
       </c>
       <c r="F56" t="n">
-        <v>0.004313857945996314</v>
+        <v>0.106036900358947</v>
       </c>
       <c r="G56" t="n">
-        <v>0.01178391099418567</v>
+        <v>0.1879654988983341</v>
       </c>
       <c r="H56" t="n">
-        <v>2.220282465524814e-14</v>
+        <v>6.631089732521069e-13</v>
       </c>
       <c r="I56" t="n">
-        <v>0.9825481280181707</v>
+        <v>0.4561825432421889</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -2742,39 +2742,39 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Bifidobacteriales(reject)</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT422.fa</t>
+          <t>even_MAG-GUT421.fa</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.006790050499916205</v>
+        <v>0.00114678973387731</v>
       </c>
       <c r="C57" t="n">
-        <v>0.9827166490076851</v>
+        <v>0.9825481280181707</v>
       </c>
       <c r="D57" t="n">
-        <v>2.220587814963279e-14</v>
+        <v>2.220282465524814e-14</v>
       </c>
       <c r="E57" t="n">
-        <v>0.000321319716759603</v>
+        <v>0.0002073133077255499</v>
       </c>
       <c r="F57" t="n">
-        <v>0.00417114694762527</v>
+        <v>0.004313857945996314</v>
       </c>
       <c r="G57" t="n">
-        <v>0.006000833827969356</v>
+        <v>0.01178391099418567</v>
       </c>
       <c r="H57" t="n">
-        <v>2.220587814963279e-14</v>
+        <v>2.220282465524814e-14</v>
       </c>
       <c r="I57" t="n">
-        <v>0.9827166490076851</v>
+        <v>0.9825481280181707</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -2790,32 +2790,32 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT423.fa</t>
+          <t>even_MAG-GUT422.fa</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.002559115194500906</v>
+        <v>0.006790050499916205</v>
       </c>
       <c r="C58" t="n">
-        <v>0.9838243536240912</v>
+        <v>0.9827166490076851</v>
       </c>
       <c r="D58" t="n">
-        <v>2.220506896297969e-14</v>
+        <v>2.220587814963279e-14</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0002886959797077217</v>
+        <v>0.000321319716759603</v>
       </c>
       <c r="F58" t="n">
-        <v>0.007456777202818135</v>
+        <v>0.00417114694762527</v>
       </c>
       <c r="G58" t="n">
-        <v>0.00587105799883771</v>
+        <v>0.006000833827969356</v>
       </c>
       <c r="H58" t="n">
-        <v>2.220506896297969e-14</v>
+        <v>2.220587814963279e-14</v>
       </c>
       <c r="I58" t="n">
-        <v>0.9838243536240912</v>
+        <v>0.9827166490076851</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -2831,32 +2831,32 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT425.fa</t>
+          <t>even_MAG-GUT423.fa</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.002404464114457295</v>
+        <v>0.002559115194500906</v>
       </c>
       <c r="C59" t="n">
-        <v>0.9867238600029894</v>
+        <v>0.9838243536240912</v>
       </c>
       <c r="D59" t="n">
-        <v>2.220312422145458e-14</v>
+        <v>2.220506896297969e-14</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0002438493460422513</v>
+        <v>0.0002886959797077217</v>
       </c>
       <c r="F59" t="n">
-        <v>0.002483588173587086</v>
+        <v>0.007456777202818135</v>
       </c>
       <c r="G59" t="n">
-        <v>0.008144238362879643</v>
+        <v>0.00587105799883771</v>
       </c>
       <c r="H59" t="n">
-        <v>2.220312422145458e-14</v>
+        <v>2.220506896297969e-14</v>
       </c>
       <c r="I59" t="n">
-        <v>0.9867238600029894</v>
+        <v>0.9838243536240912</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -2872,32 +2872,32 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT429.fa</t>
+          <t>even_MAG-GUT425.fa</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.1701063380977572</v>
+        <v>0.002404464114457295</v>
       </c>
       <c r="C60" t="n">
-        <v>0.4716361787702247</v>
+        <v>0.9867238600029894</v>
       </c>
       <c r="D60" t="n">
-        <v>8.990859345316848e-13</v>
+        <v>2.220312422145458e-14</v>
       </c>
       <c r="E60" t="n">
-        <v>0.02372156903188792</v>
+        <v>0.0002438493460422513</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1405091192277985</v>
+        <v>0.002483588173587086</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1940267948705335</v>
+        <v>0.008144238362879643</v>
       </c>
       <c r="H60" t="n">
-        <v>8.990859345316841e-13</v>
+        <v>2.220312422145458e-14</v>
       </c>
       <c r="I60" t="n">
-        <v>0.4716361787702247</v>
+        <v>0.9867238600029894</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -2906,39 +2906,39 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales(reject)</t>
+          <t>o__Bifidobacteriales</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT430.fa</t>
+          <t>even_MAG-GUT429.fa</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.1398668334729518</v>
+        <v>0.1701063380977572</v>
       </c>
       <c r="C61" t="n">
-        <v>0.4632260007879861</v>
+        <v>0.4716361787702247</v>
       </c>
       <c r="D61" t="n">
-        <v>7.735060590219578e-13</v>
+        <v>8.990859345316848e-13</v>
       </c>
       <c r="E61" t="n">
-        <v>0.01763351478472932</v>
+        <v>0.02372156903188792</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1652771106734852</v>
+        <v>0.1405091192277985</v>
       </c>
       <c r="G61" t="n">
-        <v>0.2139965402793004</v>
+        <v>0.1940267948705335</v>
       </c>
       <c r="H61" t="n">
-        <v>7.735060590219598e-13</v>
+        <v>8.990859345316841e-13</v>
       </c>
       <c r="I61" t="n">
-        <v>0.4632260007879861</v>
+        <v>0.4716361787702247</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -2954,32 +2954,32 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT431.fa</t>
+          <t>even_MAG-GUT430.fa</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.1353936730851518</v>
+        <v>0.1398668334729518</v>
       </c>
       <c r="C62" t="n">
-        <v>0.4652866529460993</v>
+        <v>0.4632260007879861</v>
       </c>
       <c r="D62" t="n">
-        <v>8.083272543277245e-13</v>
+        <v>7.735060590219578e-13</v>
       </c>
       <c r="E62" t="n">
-        <v>0.01828869241567515</v>
+        <v>0.01763351478472932</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1861763723059677</v>
+        <v>0.1652771106734852</v>
       </c>
       <c r="G62" t="n">
-        <v>0.1948546092454894</v>
+        <v>0.2139965402793004</v>
       </c>
       <c r="H62" t="n">
-        <v>8.083272543277266e-13</v>
+        <v>7.735060590219598e-13</v>
       </c>
       <c r="I62" t="n">
-        <v>0.4652866529460993</v>
+        <v>0.4632260007879861</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -2995,32 +2995,32 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT432.fa</t>
+          <t>even_MAG-GUT431.fa</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.001000170542140078</v>
+        <v>0.1353936730851518</v>
       </c>
       <c r="C63" t="n">
-        <v>0.9083528454500783</v>
+        <v>0.4652866529460993</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0800922545193051</v>
+        <v>8.083272543277245e-13</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0001481191840717889</v>
+        <v>0.01828869241567515</v>
       </c>
       <c r="F63" t="n">
-        <v>0.003041495899703563</v>
+        <v>0.1861763723059677</v>
       </c>
       <c r="G63" t="n">
-        <v>0.007365114404678877</v>
+        <v>0.1948546092454894</v>
       </c>
       <c r="H63" t="n">
-        <v>2.220347920050739e-14</v>
+        <v>8.083272543277266e-13</v>
       </c>
       <c r="I63" t="n">
-        <v>0.9083528454500783</v>
+        <v>0.4652866529460993</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -3029,39 +3029,39 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Bifidobacteriales(reject)</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT433.fa</t>
+          <t>even_MAG-GUT432.fa</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.001364826120332982</v>
+        <v>0.001000170542140078</v>
       </c>
       <c r="C64" t="n">
-        <v>0.9818624813873876</v>
+        <v>0.9083528454500783</v>
       </c>
       <c r="D64" t="n">
-        <v>2.220494340149022e-14</v>
+        <v>0.0800922545193051</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0001968705314563504</v>
+        <v>0.0001481191840717889</v>
       </c>
       <c r="F64" t="n">
-        <v>0.006885164643754964</v>
+        <v>0.003041495899703563</v>
       </c>
       <c r="G64" t="n">
-        <v>0.009690657317023557</v>
+        <v>0.007365114404678877</v>
       </c>
       <c r="H64" t="n">
-        <v>2.220494340149022e-14</v>
+        <v>2.220347920050739e-14</v>
       </c>
       <c r="I64" t="n">
-        <v>0.9818624813873876</v>
+        <v>0.9083528454500783</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -3077,32 +3077,32 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT435.fa</t>
+          <t>even_MAG-GUT433.fa</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.1568917917661639</v>
+        <v>0.001364826120332982</v>
       </c>
       <c r="C65" t="n">
-        <v>0.4650782096333635</v>
+        <v>0.9818624813873876</v>
       </c>
       <c r="D65" t="n">
-        <v>8.251513259639828e-13</v>
+        <v>2.220494340149022e-14</v>
       </c>
       <c r="E65" t="n">
-        <v>0.02030214242110773</v>
+        <v>0.0001968705314563504</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1663943640218382</v>
+        <v>0.006885164643754964</v>
       </c>
       <c r="G65" t="n">
-        <v>0.1913334921558763</v>
+        <v>0.009690657317023557</v>
       </c>
       <c r="H65" t="n">
-        <v>8.251513259639852e-13</v>
+        <v>2.220494340149022e-14</v>
       </c>
       <c r="I65" t="n">
-        <v>0.4650782096333635</v>
+        <v>0.9818624813873876</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -3111,39 +3111,39 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales(reject)</t>
+          <t>o__Bifidobacteriales</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43623.fa</t>
+          <t>even_MAG-GUT435.fa</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.007604649369414398</v>
+        <v>0.1568917917661639</v>
       </c>
       <c r="C66" t="n">
-        <v>0.9846825595764822</v>
+        <v>0.4650782096333635</v>
       </c>
       <c r="D66" t="n">
-        <v>2.220475671422017e-14</v>
+        <v>8.251513259639828e-13</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0002951225334106938</v>
+        <v>0.02030214242110773</v>
       </c>
       <c r="F66" t="n">
-        <v>0.001912648344868749</v>
+        <v>0.1663943640218382</v>
       </c>
       <c r="G66" t="n">
-        <v>0.005505020175779581</v>
+        <v>0.1913334921558763</v>
       </c>
       <c r="H66" t="n">
-        <v>2.220475671422017e-14</v>
+        <v>8.251513259639852e-13</v>
       </c>
       <c r="I66" t="n">
-        <v>0.9846825595764822</v>
+        <v>0.4650782096333635</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -3152,39 +3152,39 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Bifidobacteriales(reject)</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43934.fa</t>
+          <t>even_MAG-GUT43623.fa</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.1710017564821197</v>
+        <v>0.007604649369414398</v>
       </c>
       <c r="C67" t="n">
-        <v>0.4694238664873762</v>
+        <v>0.9846825595764822</v>
       </c>
       <c r="D67" t="n">
-        <v>7.007334928127648e-13</v>
+        <v>2.220475671422017e-14</v>
       </c>
       <c r="E67" t="n">
-        <v>0.02162929776668709</v>
+        <v>0.0002951225334106938</v>
       </c>
       <c r="F67" t="n">
-        <v>0.15343931721113</v>
+        <v>0.001912648344868749</v>
       </c>
       <c r="G67" t="n">
-        <v>0.1845057620512855</v>
+        <v>0.005505020175779581</v>
       </c>
       <c r="H67" t="n">
-        <v>7.007334928127646e-13</v>
+        <v>2.220475671422017e-14</v>
       </c>
       <c r="I67" t="n">
-        <v>0.4694238664873762</v>
+        <v>0.9846825595764822</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -3193,39 +3193,39 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales(reject)</t>
+          <t>o__Bifidobacteriales</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT441.fa</t>
+          <t>even_MAG-GUT43628.fa</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.02776923256071283</v>
+        <v>0.259245709636166</v>
       </c>
       <c r="C68" t="n">
-        <v>0.4125416790558455</v>
+        <v>0.4572819012888616</v>
       </c>
       <c r="D68" t="n">
-        <v>0.3507773140385391</v>
+        <v>6.167031812062328e-13</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003873878313103854</v>
+        <v>0.02370063912699658</v>
       </c>
       <c r="F68" t="n">
-        <v>0.06146004308404486</v>
+        <v>0.09054240391958275</v>
       </c>
       <c r="G68" t="n">
-        <v>0.1435778529475878</v>
+        <v>0.1692293460271597</v>
       </c>
       <c r="H68" t="n">
-        <v>1.661142747887684e-13</v>
+        <v>6.167031812062339e-13</v>
       </c>
       <c r="I68" t="n">
-        <v>0.4125416790558455</v>
+        <v>0.4572819012888616</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -3241,32 +3241,32 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT444.fa</t>
+          <t>even_MAG-GUT43934.fa</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.103795280867291</v>
+        <v>0.1710017564821197</v>
       </c>
       <c r="C69" t="n">
-        <v>0.4635187071685142</v>
+        <v>0.4694238664873762</v>
       </c>
       <c r="D69" t="n">
-        <v>9.206773733543433e-13</v>
+        <v>7.007334928127648e-13</v>
       </c>
       <c r="E69" t="n">
-        <v>0.01889770155178142</v>
+        <v>0.02162929776668709</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1990930399987745</v>
+        <v>0.15343931721113</v>
       </c>
       <c r="G69" t="n">
-        <v>0.2146952704117975</v>
+        <v>0.1845057620512855</v>
       </c>
       <c r="H69" t="n">
-        <v>9.206773733543425e-13</v>
+        <v>7.007334928127646e-13</v>
       </c>
       <c r="I69" t="n">
-        <v>0.4635187071685142</v>
+        <v>0.4694238664873762</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -3282,32 +3282,32 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT445.fa</t>
+          <t>even_MAG-GUT441.fa</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.001742017554806585</v>
+        <v>0.02776923256071283</v>
       </c>
       <c r="C70" t="n">
-        <v>0.9086695094699577</v>
+        <v>0.4125416790558455</v>
       </c>
       <c r="D70" t="n">
-        <v>0.08036295990914973</v>
+        <v>0.3507773140385391</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0001871427083096931</v>
+        <v>0.003873878313103854</v>
       </c>
       <c r="F70" t="n">
-        <v>0.003799094840113412</v>
+        <v>0.06146004308404486</v>
       </c>
       <c r="G70" t="n">
-        <v>0.005239275517640659</v>
+        <v>0.1435778529475878</v>
       </c>
       <c r="H70" t="n">
-        <v>2.220105390502629e-14</v>
+        <v>1.661142747887684e-13</v>
       </c>
       <c r="I70" t="n">
-        <v>0.9086695094699577</v>
+        <v>0.4125416790558455</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -3316,39 +3316,39 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Bifidobacteriales(reject)</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44512.fa</t>
+          <t>even_MAG-GUT444.fa</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.004709807655930378</v>
+        <v>0.103795280867291</v>
       </c>
       <c r="C71" t="n">
-        <v>0.9902033097504342</v>
+        <v>0.4635187071685142</v>
       </c>
       <c r="D71" t="n">
-        <v>2.220330193069235e-14</v>
+        <v>9.206773733543433e-13</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0003613456107487836</v>
+        <v>0.01889770155178142</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0007766262365340153</v>
+        <v>0.1990930399987745</v>
       </c>
       <c r="G71" t="n">
-        <v>0.003948910746308215</v>
+        <v>0.2146952704117975</v>
       </c>
       <c r="H71" t="n">
-        <v>2.220330193069235e-14</v>
+        <v>9.206773733543425e-13</v>
       </c>
       <c r="I71" t="n">
-        <v>0.9902033097504342</v>
+        <v>0.4635187071685142</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -3357,39 +3357,39 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Bifidobacteriales(reject)</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT446.fa</t>
+          <t>even_MAG-GUT445.fa</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.23613347797946</v>
+        <v>0.001742017554806585</v>
       </c>
       <c r="C72" t="n">
-        <v>0.4641764642654612</v>
+        <v>0.9086695094699577</v>
       </c>
       <c r="D72" t="n">
-        <v>7.329810973508527e-13</v>
+        <v>0.08036295990914973</v>
       </c>
       <c r="E72" t="n">
-        <v>0.02414672874053742</v>
+        <v>0.0001871427083096931</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1008242557151246</v>
+        <v>0.003799094840113412</v>
       </c>
       <c r="G72" t="n">
-        <v>0.1747190732979508</v>
+        <v>0.005239275517640659</v>
       </c>
       <c r="H72" t="n">
-        <v>7.329810973508516e-13</v>
+        <v>2.220105390502629e-14</v>
       </c>
       <c r="I72" t="n">
-        <v>0.4641764642654612</v>
+        <v>0.9086695094699577</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -3398,39 +3398,39 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales(reject)</t>
+          <t>o__Bifidobacteriales</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT449.fa</t>
+          <t>even_MAG-GUT44512.fa</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.02753907629603262</v>
+        <v>0.004709807655930378</v>
       </c>
       <c r="C73" t="n">
-        <v>0.4172751174442746</v>
+        <v>0.9902033097504342</v>
       </c>
       <c r="D73" t="n">
-        <v>0.3556283734642195</v>
+        <v>2.220330193069235e-14</v>
       </c>
       <c r="E73" t="n">
-        <v>0.004493970041969023</v>
+        <v>0.0003613456107487836</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07566638991000167</v>
+        <v>0.0007766262365340153</v>
       </c>
       <c r="G73" t="n">
-        <v>0.1193970728433293</v>
+        <v>0.003948910746308215</v>
       </c>
       <c r="H73" t="n">
-        <v>1.731884029828337e-13</v>
+        <v>2.220330193069235e-14</v>
       </c>
       <c r="I73" t="n">
-        <v>0.4172751174442746</v>
+        <v>0.9902033097504342</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -3439,39 +3439,39 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales(reject)</t>
+          <t>o__Bifidobacteriales</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44961.fa</t>
+          <t>even_MAG-GUT446.fa</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.00345489902966811</v>
+        <v>0.23613347797946</v>
       </c>
       <c r="C74" t="n">
-        <v>0.984617595972719</v>
+        <v>0.4641764642654612</v>
       </c>
       <c r="D74" t="n">
-        <v>2.220530701693837e-14</v>
+        <v>7.329810973508527e-13</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0002063670536779385</v>
+        <v>0.02414672874053742</v>
       </c>
       <c r="F74" t="n">
-        <v>0.006200369293430669</v>
+        <v>0.1008242557151246</v>
       </c>
       <c r="G74" t="n">
-        <v>0.005520768650459798</v>
+        <v>0.1747190732979508</v>
       </c>
       <c r="H74" t="n">
-        <v>2.220530701693837e-14</v>
+        <v>7.329810973508516e-13</v>
       </c>
       <c r="I74" t="n">
-        <v>0.984617595972719</v>
+        <v>0.4641764642654612</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -3480,39 +3480,39 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Bifidobacteriales(reject)</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT450.fa</t>
+          <t>even_MAG-GUT44736.fa</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.002927914902620414</v>
+        <v>0.003798956292578759</v>
       </c>
       <c r="C75" t="n">
-        <v>0.9817469243891299</v>
+        <v>0.9847763571608142</v>
       </c>
       <c r="D75" t="n">
-        <v>2.220459606384678e-14</v>
+        <v>2.220373935055199e-14</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0002339795891135791</v>
+        <v>0.0002521197505600067</v>
       </c>
       <c r="F75" t="n">
-        <v>0.004615050783737508</v>
+        <v>0.00201424494414116</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0104761303353541</v>
+        <v>0.009158321851861412</v>
       </c>
       <c r="H75" t="n">
-        <v>2.220459606384678e-14</v>
+        <v>2.220373935055199e-14</v>
       </c>
       <c r="I75" t="n">
-        <v>0.9817469243891299</v>
+        <v>0.9847763571608142</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -3528,32 +3528,32 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT452.fa</t>
+          <t>even_MAG-GUT449.fa</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.003205285516467886</v>
+        <v>0.02753907629603262</v>
       </c>
       <c r="C76" t="n">
-        <v>0.9844536164138055</v>
+        <v>0.4172751174442746</v>
       </c>
       <c r="D76" t="n">
-        <v>2.220462650259648e-14</v>
+        <v>0.3556283734642195</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0002390937324889898</v>
+        <v>0.004493970041969023</v>
       </c>
       <c r="F76" t="n">
-        <v>0.004022532683046312</v>
+        <v>0.07566638991000167</v>
       </c>
       <c r="G76" t="n">
-        <v>0.00807947165414704</v>
+        <v>0.1193970728433293</v>
       </c>
       <c r="H76" t="n">
-        <v>2.220462650259648e-14</v>
+        <v>1.731884029828337e-13</v>
       </c>
       <c r="I76" t="n">
-        <v>0.9844536164138055</v>
+        <v>0.4172751174442746</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -3562,39 +3562,39 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Bifidobacteriales(reject)</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT453.fa</t>
+          <t>even_MAG-GUT44961.fa</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.007529682889959573</v>
+        <v>0.00345489902966811</v>
       </c>
       <c r="C77" t="n">
-        <v>0.9839318299858196</v>
+        <v>0.984617595972719</v>
       </c>
       <c r="D77" t="n">
-        <v>2.220520376085275e-14</v>
+        <v>2.220530701693837e-14</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0003286423496234723</v>
+        <v>0.0002063670536779385</v>
       </c>
       <c r="F77" t="n">
-        <v>0.003105768481541719</v>
+        <v>0.006200369293430669</v>
       </c>
       <c r="G77" t="n">
-        <v>0.005104076293011232</v>
+        <v>0.005520768650459798</v>
       </c>
       <c r="H77" t="n">
-        <v>2.220520376085275e-14</v>
+        <v>2.220530701693837e-14</v>
       </c>
       <c r="I77" t="n">
-        <v>0.9839318299858196</v>
+        <v>0.984617595972719</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -3610,32 +3610,32 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT455.fa</t>
+          <t>even_MAG-GUT450.fa</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.001121106223895112</v>
+        <v>0.002927914902620414</v>
       </c>
       <c r="C78" t="n">
-        <v>0.906138737807598</v>
+        <v>0.9817469243891299</v>
       </c>
       <c r="D78" t="n">
-        <v>0.07973690567055466</v>
+        <v>2.220459606384678e-14</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0001795792518435332</v>
+        <v>0.0002339795891135791</v>
       </c>
       <c r="F78" t="n">
-        <v>0.00302922438436609</v>
+        <v>0.004615050783737508</v>
       </c>
       <c r="G78" t="n">
-        <v>0.009794446661720394</v>
+        <v>0.0104761303353541</v>
       </c>
       <c r="H78" t="n">
-        <v>2.221088159819408e-14</v>
+        <v>2.220459606384678e-14</v>
       </c>
       <c r="I78" t="n">
-        <v>0.906138737807598</v>
+        <v>0.9817469243891299</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -3651,32 +3651,32 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT456.fa</t>
+          <t>even_MAG-GUT452.fa</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.08675831809485382</v>
+        <v>0.003205285516467886</v>
       </c>
       <c r="C79" t="n">
-        <v>0.4644989211586422</v>
+        <v>0.9844536164138055</v>
       </c>
       <c r="D79" t="n">
-        <v>6.973732078241982e-13</v>
+        <v>2.220462650259648e-14</v>
       </c>
       <c r="E79" t="n">
-        <v>0.01605906452237172</v>
+        <v>0.0002390937324889898</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1924796464260893</v>
+        <v>0.004022532683046312</v>
       </c>
       <c r="G79" t="n">
-        <v>0.2402040497966481</v>
+        <v>0.00807947165414704</v>
       </c>
       <c r="H79" t="n">
-        <v>6.973732078241979e-13</v>
+        <v>2.220462650259648e-14</v>
       </c>
       <c r="I79" t="n">
-        <v>0.4644989211586422</v>
+        <v>0.9844536164138055</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -3685,39 +3685,39 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales(reject)</t>
+          <t>o__Bifidobacteriales</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT457.fa</t>
+          <t>even_MAG-GUT453.fa</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.1268610925709726</v>
+        <v>0.007529682889959573</v>
       </c>
       <c r="C80" t="n">
-        <v>0.4650900641606928</v>
+        <v>0.9839318299858196</v>
       </c>
       <c r="D80" t="n">
-        <v>7.966960357621091e-13</v>
+        <v>2.220520376085275e-14</v>
       </c>
       <c r="E80" t="n">
-        <v>0.02084889018690242</v>
+        <v>0.0003286423496234723</v>
       </c>
       <c r="F80" t="n">
-        <v>0.2079804710274125</v>
+        <v>0.003105768481541719</v>
       </c>
       <c r="G80" t="n">
-        <v>0.1792194820524265</v>
+        <v>0.005104076293011232</v>
       </c>
       <c r="H80" t="n">
-        <v>7.966960357621093e-13</v>
+        <v>2.220520376085275e-14</v>
       </c>
       <c r="I80" t="n">
-        <v>0.4650900641606928</v>
+        <v>0.9839318299858196</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -3726,39 +3726,39 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales(reject)</t>
+          <t>o__Bifidobacteriales</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4577.fa</t>
+          <t>even_MAG-GUT455.fa</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.001372856410142996</v>
+        <v>0.001121106223895112</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9909096462012733</v>
+        <v>0.906138737807598</v>
       </c>
       <c r="D81" t="n">
-        <v>2.220198711751751e-14</v>
+        <v>0.07973690567055466</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0002338198289285538</v>
+        <v>0.0001795792518435332</v>
       </c>
       <c r="F81" t="n">
-        <v>0.001313903279718852</v>
+        <v>0.00302922438436609</v>
       </c>
       <c r="G81" t="n">
-        <v>0.006169774279891791</v>
+        <v>0.009794446661720394</v>
       </c>
       <c r="H81" t="n">
-        <v>2.220198711751751e-14</v>
+        <v>2.221088159819408e-14</v>
       </c>
       <c r="I81" t="n">
-        <v>0.9909096462012733</v>
+        <v>0.906138737807598</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -3774,32 +3774,32 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45829.fa</t>
+          <t>even_MAG-GUT456.fa</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.002480740787149194</v>
+        <v>0.08675831809485382</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9827923532689798</v>
+        <v>0.4644989211586422</v>
       </c>
       <c r="D82" t="n">
-        <v>2.220451414530266e-14</v>
+        <v>6.973732078241982e-13</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0002593786004584614</v>
+        <v>0.01605906452237172</v>
       </c>
       <c r="F82" t="n">
-        <v>0.005083788740957412</v>
+        <v>0.1924796464260893</v>
       </c>
       <c r="G82" t="n">
-        <v>0.009383738602410712</v>
+        <v>0.2402040497966481</v>
       </c>
       <c r="H82" t="n">
-        <v>2.220451414530266e-14</v>
+        <v>6.973732078241979e-13</v>
       </c>
       <c r="I82" t="n">
-        <v>0.9827923532689798</v>
+        <v>0.4644989211586422</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -3808,39 +3808,39 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Bifidobacteriales(reject)</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT459.fa</t>
+          <t>even_MAG-GUT457.fa</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.00368156818795017</v>
+        <v>0.1268610925709726</v>
       </c>
       <c r="C83" t="n">
-        <v>0.9847864887341625</v>
+        <v>0.4650900641606928</v>
       </c>
       <c r="D83" t="n">
-        <v>2.220445879399938e-14</v>
+        <v>7.966960357621091e-13</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0002848048847871954</v>
+        <v>0.02084889018690242</v>
       </c>
       <c r="F83" t="n">
-        <v>0.002924002740737362</v>
+        <v>0.2079804710274125</v>
       </c>
       <c r="G83" t="n">
-        <v>0.008323135452318248</v>
+        <v>0.1792194820524265</v>
       </c>
       <c r="H83" t="n">
-        <v>2.220445879399938e-14</v>
+        <v>7.966960357621093e-13</v>
       </c>
       <c r="I83" t="n">
-        <v>0.9847864887341625</v>
+        <v>0.4650900641606928</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -3849,39 +3849,39 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Bifidobacteriales(reject)</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46159.fa</t>
+          <t>even_MAG-GUT4577.fa</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.01235680006721753</v>
+        <v>0.001372856410142996</v>
       </c>
       <c r="C84" t="n">
-        <v>0.9786544382639129</v>
+        <v>0.9909096462012733</v>
       </c>
       <c r="D84" t="n">
-        <v>2.220558982484614e-14</v>
+        <v>2.220198711751751e-14</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0002828393366232597</v>
+        <v>0.0002338198289285538</v>
       </c>
       <c r="F84" t="n">
-        <v>0.003885906075473929</v>
+        <v>0.001313903279718852</v>
       </c>
       <c r="G84" t="n">
-        <v>0.004820016256727882</v>
+        <v>0.006169774279891791</v>
       </c>
       <c r="H84" t="n">
-        <v>2.220558982484614e-14</v>
+        <v>2.220198711751751e-14</v>
       </c>
       <c r="I84" t="n">
-        <v>0.9786544382639129</v>
+        <v>0.9909096462012733</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -3897,32 +3897,32 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT462.fa</t>
+          <t>even_MAG-GUT45829.fa</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.006948007299985772</v>
+        <v>0.002480740787149194</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9855254771643964</v>
+        <v>0.9827923532689798</v>
       </c>
       <c r="D85" t="n">
-        <v>2.220459349369047e-14</v>
+        <v>2.220451414530266e-14</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0002809399897258805</v>
+        <v>0.0002593786004584614</v>
       </c>
       <c r="F85" t="n">
-        <v>0.002741882412192539</v>
+        <v>0.005083788740957412</v>
       </c>
       <c r="G85" t="n">
-        <v>0.004503693133654938</v>
+        <v>0.009383738602410712</v>
       </c>
       <c r="H85" t="n">
-        <v>2.220459349369047e-14</v>
+        <v>2.220451414530266e-14</v>
       </c>
       <c r="I85" t="n">
-        <v>0.9855254771643964</v>
+        <v>0.9827923532689798</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -3938,32 +3938,32 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT463.fa</t>
+          <t>even_MAG-GUT459.fa</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.002216385422813351</v>
+        <v>0.00368156818795017</v>
       </c>
       <c r="C86" t="n">
-        <v>0.9829232663461671</v>
+        <v>0.9847864887341625</v>
       </c>
       <c r="D86" t="n">
-        <v>2.220531522978254e-14</v>
+        <v>2.220445879399938e-14</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0002447120314528766</v>
+        <v>0.0002848048847871954</v>
       </c>
       <c r="F86" t="n">
-        <v>0.006550266423939315</v>
+        <v>0.002924002740737362</v>
       </c>
       <c r="G86" t="n">
-        <v>0.008065369775583</v>
+        <v>0.008323135452318248</v>
       </c>
       <c r="H86" t="n">
-        <v>2.220531522978254e-14</v>
+        <v>2.220445879399938e-14</v>
       </c>
       <c r="I86" t="n">
-        <v>0.9829232663461671</v>
+        <v>0.9847864887341625</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -3979,32 +3979,32 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT464.fa</t>
+          <t>even_MAG-GUT46159.fa</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.00481246236114716</v>
+        <v>0.01235680006721753</v>
       </c>
       <c r="C87" t="n">
-        <v>0.9840023115773566</v>
+        <v>0.9786544382639129</v>
       </c>
       <c r="D87" t="n">
-        <v>2.220483130487826e-14</v>
+        <v>2.220558982484614e-14</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0002860512855991361</v>
+        <v>0.0002828393366232597</v>
       </c>
       <c r="F87" t="n">
-        <v>0.00286314290569752</v>
+        <v>0.003885906075473929</v>
       </c>
       <c r="G87" t="n">
-        <v>0.008036031870155079</v>
+        <v>0.004820016256727882</v>
       </c>
       <c r="H87" t="n">
-        <v>2.220483130487826e-14</v>
+        <v>2.220558982484614e-14</v>
       </c>
       <c r="I87" t="n">
-        <v>0.9840023115773566</v>
+        <v>0.9786544382639129</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -4020,32 +4020,32 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46486.fa</t>
+          <t>even_MAG-GUT462.fa</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.003115916203434012</v>
+        <v>0.006948007299985772</v>
       </c>
       <c r="C88" t="n">
-        <v>0.983411336054636</v>
+        <v>0.9855254771643964</v>
       </c>
       <c r="D88" t="n">
-        <v>2.220463658055812e-14</v>
+        <v>2.220459349369047e-14</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0002196318979526772</v>
+        <v>0.0002809399897258805</v>
       </c>
       <c r="F88" t="n">
-        <v>0.004318896589651975</v>
+        <v>0.002741882412192539</v>
       </c>
       <c r="G88" t="n">
-        <v>0.008934219254280899</v>
+        <v>0.004503693133654938</v>
       </c>
       <c r="H88" t="n">
-        <v>2.220463658055812e-14</v>
+        <v>2.220459349369047e-14</v>
       </c>
       <c r="I88" t="n">
-        <v>0.983411336054636</v>
+        <v>0.9855254771643964</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
@@ -4061,32 +4061,32 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46493.fa</t>
+          <t>even_MAG-GUT463.fa</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.002338376967642198</v>
+        <v>0.002216385422813351</v>
       </c>
       <c r="C89" t="n">
-        <v>0.9824012252446582</v>
+        <v>0.9829232663461671</v>
       </c>
       <c r="D89" t="n">
-        <v>2.220558131237279e-14</v>
+        <v>2.220531522978254e-14</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0002512934453105771</v>
+        <v>0.0002447120314528766</v>
       </c>
       <c r="F89" t="n">
-        <v>0.007774736465370334</v>
+        <v>0.006550266423939315</v>
       </c>
       <c r="G89" t="n">
-        <v>0.00723436787697427</v>
+        <v>0.008065369775583</v>
       </c>
       <c r="H89" t="n">
-        <v>2.220558131237279e-14</v>
+        <v>2.220531522978254e-14</v>
       </c>
       <c r="I89" t="n">
-        <v>0.9824012252446582</v>
+        <v>0.9829232663461671</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
@@ -4102,73 +4102,73 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT465.fa</t>
+          <t>even_MAG-GUT4634.fa</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.1081757026872416</v>
+        <v>0.7193698538192643</v>
       </c>
       <c r="C90" t="n">
-        <v>0.4617163287813976</v>
+        <v>2.219443536361629e-14</v>
       </c>
       <c r="D90" t="n">
-        <v>5.843738098394891e-13</v>
+        <v>2.219443536361629e-14</v>
       </c>
       <c r="E90" t="n">
-        <v>0.01533623917450608</v>
+        <v>4.775145979630002e-05</v>
       </c>
       <c r="F90" t="n">
-        <v>0.2083352148672872</v>
+        <v>0.2805714429383542</v>
       </c>
       <c r="G90" t="n">
-        <v>0.2064365144883988</v>
+        <v>1.095178251867633e-05</v>
       </c>
       <c r="H90" t="n">
-        <v>5.843738098394886e-13</v>
+        <v>2.219443536361629e-14</v>
       </c>
       <c r="I90" t="n">
-        <v>0.4617163287813976</v>
+        <v>0.7193698538192643</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales(reject)</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT467.fa</t>
+          <t>even_MAG-GUT464.fa</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.05700438989064058</v>
+        <v>0.00481246236114716</v>
       </c>
       <c r="C91" t="n">
-        <v>0.4616500384212451</v>
+        <v>0.9840023115773566</v>
       </c>
       <c r="D91" t="n">
-        <v>6.058500600453144e-13</v>
+        <v>2.220483130487826e-14</v>
       </c>
       <c r="E91" t="n">
-        <v>0.01229507301634202</v>
+        <v>0.0002860512855991361</v>
       </c>
       <c r="F91" t="n">
-        <v>0.2422077040255348</v>
+        <v>0.00286314290569752</v>
       </c>
       <c r="G91" t="n">
-        <v>0.2268427946450259</v>
+        <v>0.008036031870155079</v>
       </c>
       <c r="H91" t="n">
-        <v>6.058500600453151e-13</v>
+        <v>2.220483130487826e-14</v>
       </c>
       <c r="I91" t="n">
-        <v>0.4616500384212451</v>
+        <v>0.9840023115773566</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
@@ -4177,39 +4177,39 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales(reject)</t>
+          <t>o__Bifidobacteriales</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46719.fa</t>
+          <t>even_MAG-GUT46486.fa</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.005306930711023838</v>
+        <v>0.003115916203434012</v>
       </c>
       <c r="C92" t="n">
-        <v>0.98260106197111</v>
+        <v>0.983411336054636</v>
       </c>
       <c r="D92" t="n">
-        <v>2.220589485799192e-14</v>
+        <v>2.220463658055812e-14</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0002516162203558849</v>
+        <v>0.0002196318979526772</v>
       </c>
       <c r="F92" t="n">
-        <v>0.005538633704938093</v>
+        <v>0.004318896589651975</v>
       </c>
       <c r="G92" t="n">
-        <v>0.006301757392527773</v>
+        <v>0.008934219254280899</v>
       </c>
       <c r="H92" t="n">
-        <v>2.220589485799192e-14</v>
+        <v>2.220463658055812e-14</v>
       </c>
       <c r="I92" t="n">
-        <v>0.98260106197111</v>
+        <v>0.983411336054636</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
@@ -4225,32 +4225,32 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46760.fa</t>
+          <t>even_MAG-GUT46493.fa</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.0009941138473889063</v>
+        <v>0.002338376967642198</v>
       </c>
       <c r="C93" t="n">
-        <v>0.9805469532152041</v>
+        <v>0.9824012252446582</v>
       </c>
       <c r="D93" t="n">
-        <v>2.220416090412754e-14</v>
+        <v>2.220558131237279e-14</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0001778066569006045</v>
+        <v>0.0002512934453105771</v>
       </c>
       <c r="F93" t="n">
-        <v>0.006123123109555169</v>
+        <v>0.007774736465370334</v>
       </c>
       <c r="G93" t="n">
-        <v>0.01215800317090677</v>
+        <v>0.00723436787697427</v>
       </c>
       <c r="H93" t="n">
-        <v>2.220416090412754e-14</v>
+        <v>2.220558131237279e-14</v>
       </c>
       <c r="I93" t="n">
-        <v>0.9805469532152041</v>
+        <v>0.9824012252446582</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
@@ -4266,32 +4266,32 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT468.fa</t>
+          <t>even_MAG-GUT465.fa</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.001337217716683728</v>
+        <v>0.1081757026872416</v>
       </c>
       <c r="C94" t="n">
-        <v>0.9808938035998414</v>
+        <v>0.4617163287813976</v>
       </c>
       <c r="D94" t="n">
-        <v>2.220364243305282e-14</v>
+        <v>5.843738098394891e-13</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0001939666332708276</v>
+        <v>0.01533623917450608</v>
       </c>
       <c r="F94" t="n">
-        <v>0.005155780803854432</v>
+        <v>0.2083352148672872</v>
       </c>
       <c r="G94" t="n">
-        <v>0.01241923124630523</v>
+        <v>0.2064365144883988</v>
       </c>
       <c r="H94" t="n">
-        <v>2.220364243305282e-14</v>
+        <v>5.843738098394886e-13</v>
       </c>
       <c r="I94" t="n">
-        <v>0.9808938035998414</v>
+        <v>0.4617163287813976</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
@@ -4300,39 +4300,39 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Bifidobacteriales(reject)</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT469.fa</t>
+          <t>even_MAG-GUT467.fa</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.003443796156492977</v>
+        <v>0.05700438989064058</v>
       </c>
       <c r="C95" t="n">
-        <v>0.9853959386844772</v>
+        <v>0.4616500384212451</v>
       </c>
       <c r="D95" t="n">
-        <v>2.220508079581762e-14</v>
+        <v>6.058500600453144e-13</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0002723479588623552</v>
+        <v>0.01229507301634202</v>
       </c>
       <c r="F95" t="n">
-        <v>0.004981797259679305</v>
+        <v>0.2422077040255348</v>
       </c>
       <c r="G95" t="n">
-        <v>0.00590611994044372</v>
+        <v>0.2268427946450259</v>
       </c>
       <c r="H95" t="n">
-        <v>2.220508079581762e-14</v>
+        <v>6.058500600453151e-13</v>
       </c>
       <c r="I95" t="n">
-        <v>0.9853959386844772</v>
+        <v>0.4616500384212451</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
@@ -4341,39 +4341,39 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Bifidobacteriales(reject)</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT470.fa</t>
+          <t>even_MAG-GUT46719.fa</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.001081448852059618</v>
+        <v>0.005306930711023838</v>
       </c>
       <c r="C96" t="n">
-        <v>0.9802613768466852</v>
+        <v>0.98260106197111</v>
       </c>
       <c r="D96" t="n">
-        <v>2.220176111281602e-14</v>
+        <v>2.220589485799192e-14</v>
       </c>
       <c r="E96" t="n">
-        <v>0.000183809753235413</v>
+        <v>0.0002516162203558849</v>
       </c>
       <c r="F96" t="n">
-        <v>0.004230527602335507</v>
+        <v>0.005538633704938093</v>
       </c>
       <c r="G96" t="n">
-        <v>0.01424283694563964</v>
+        <v>0.006301757392527773</v>
       </c>
       <c r="H96" t="n">
-        <v>2.220176111281602e-14</v>
+        <v>2.220589485799192e-14</v>
       </c>
       <c r="I96" t="n">
-        <v>0.9802613768466852</v>
+        <v>0.98260106197111</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
@@ -4389,32 +4389,32 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT471.fa</t>
+          <t>even_MAG-GUT46760.fa</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.002083069238061525</v>
+        <v>0.0009941138473889063</v>
       </c>
       <c r="C97" t="n">
-        <v>0.9852217249834661</v>
+        <v>0.9805469532152041</v>
       </c>
       <c r="D97" t="n">
-        <v>2.220459810004777e-14</v>
+        <v>2.220416090412754e-14</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0002125385564993144</v>
+        <v>0.0001778066569006045</v>
       </c>
       <c r="F97" t="n">
-        <v>0.005847037309533999</v>
+        <v>0.006123123109555169</v>
       </c>
       <c r="G97" t="n">
-        <v>0.006635629912394724</v>
+        <v>0.01215800317090677</v>
       </c>
       <c r="H97" t="n">
-        <v>2.220459810004777e-14</v>
+        <v>2.220416090412754e-14</v>
       </c>
       <c r="I97" t="n">
-        <v>0.9852217249834661</v>
+        <v>0.9805469532152041</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
@@ -4430,32 +4430,32 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47585.fa</t>
+          <t>even_MAG-GUT468.fa</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.00138249263091313</v>
+        <v>0.001337217716683728</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9870530601266213</v>
+        <v>0.9808938035998414</v>
       </c>
       <c r="D98" t="n">
-        <v>2.220065506660441e-14</v>
+        <v>2.220364243305282e-14</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0002085675039981422</v>
+        <v>0.0001939666332708276</v>
       </c>
       <c r="F98" t="n">
-        <v>0.001244493358210615</v>
+        <v>0.005155780803854432</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01011138638021245</v>
+        <v>0.01241923124630523</v>
       </c>
       <c r="H98" t="n">
-        <v>2.220065506660441e-14</v>
+        <v>2.220364243305282e-14</v>
       </c>
       <c r="I98" t="n">
-        <v>0.9870530601266213</v>
+        <v>0.9808938035998414</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
@@ -4471,32 +4471,32 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47777.fa</t>
+          <t>even_MAG-GUT469.fa</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.002074926802998198</v>
+        <v>0.003443796156492977</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9901734017965818</v>
+        <v>0.9853959386844772</v>
       </c>
       <c r="D99" t="n">
-        <v>2.22028796704133e-14</v>
+        <v>2.220508079581762e-14</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0002360665642165734</v>
+        <v>0.0002723479588623552</v>
       </c>
       <c r="F99" t="n">
-        <v>0.001687380822892926</v>
+        <v>0.004981797259679305</v>
       </c>
       <c r="G99" t="n">
-        <v>0.005828224013266114</v>
+        <v>0.00590611994044372</v>
       </c>
       <c r="H99" t="n">
-        <v>2.22028796704133e-14</v>
+        <v>2.220508079581762e-14</v>
       </c>
       <c r="I99" t="n">
-        <v>0.9901734017965818</v>
+        <v>0.9853959386844772</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
@@ -4512,32 +4512,32 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48579.fa</t>
+          <t>even_MAG-GUT470.fa</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.142671680032713</v>
+        <v>0.001081448852059618</v>
       </c>
       <c r="C100" t="n">
-        <v>0.4593367933940673</v>
+        <v>0.9802613768466852</v>
       </c>
       <c r="D100" t="n">
-        <v>6.018912422616749e-13</v>
+        <v>2.220176111281602e-14</v>
       </c>
       <c r="E100" t="n">
-        <v>0.01775812252526822</v>
+        <v>0.000183809753235413</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1954624715749551</v>
+        <v>0.004230527602335507</v>
       </c>
       <c r="G100" t="n">
-        <v>0.1847709324717925</v>
+        <v>0.01424283694563964</v>
       </c>
       <c r="H100" t="n">
-        <v>6.018912422616745e-13</v>
+        <v>2.220176111281602e-14</v>
       </c>
       <c r="I100" t="n">
-        <v>0.4593367933940673</v>
+        <v>0.9802613768466852</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
@@ -4546,285 +4546,285 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales(reject)</t>
+          <t>o__Bifidobacteriales</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48681.fa</t>
+          <t>even_MAG-GUT471.fa</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.1925613614168962</v>
+        <v>0.002083069238061525</v>
       </c>
       <c r="C101" t="n">
-        <v>4.522402137188655e-14</v>
+        <v>0.9852217249834661</v>
       </c>
       <c r="D101" t="n">
-        <v>4.522402137188655e-14</v>
+        <v>2.220459810004777e-14</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0007247650311417309</v>
+        <v>0.0002125385564993144</v>
       </c>
       <c r="F101" t="n">
-        <v>0.07130807218791836</v>
+        <v>0.005847037309533999</v>
       </c>
       <c r="G101" t="n">
-        <v>0.735405801363908</v>
+        <v>0.006635629912394724</v>
       </c>
       <c r="H101" t="n">
-        <v>4.522402137188653e-14</v>
+        <v>2.220459810004777e-14</v>
       </c>
       <c r="I101" t="n">
-        <v>0.735405801363908</v>
+        <v>0.9852217249834661</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Bifidobacteriales</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Bifidobacteriales</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48721.fa</t>
+          <t>even_MAG-GUT47330.fa</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.2916122129563294</v>
+        <v>0.006598542284422276</v>
       </c>
       <c r="C102" t="n">
-        <v>5.621265499220451e-14</v>
+        <v>0.9821965496500927</v>
       </c>
       <c r="D102" t="n">
-        <v>5.621265499220453e-14</v>
+        <v>2.220559230029242e-14</v>
       </c>
       <c r="E102" t="n">
-        <v>0.001032242883617101</v>
+        <v>0.0003031294997688399</v>
       </c>
       <c r="F102" t="n">
-        <v>0.05928531608330149</v>
+        <v>0.002779740375972204</v>
       </c>
       <c r="G102" t="n">
-        <v>0.6480702280765834</v>
+        <v>0.008122038189699476</v>
       </c>
       <c r="H102" t="n">
-        <v>5.621265499220455e-14</v>
+        <v>2.220559230029242e-14</v>
       </c>
       <c r="I102" t="n">
-        <v>0.6480702280765834</v>
+        <v>0.9821965496500927</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Bifidobacteriales</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales(reject)</t>
+          <t>o__Bifidobacteriales</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48763.fa</t>
+          <t>even_MAG-GUT47464.fa</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.294804780126416</v>
+        <v>0.009326588194731795</v>
       </c>
       <c r="C103" t="n">
-        <v>5.449492712179632e-14</v>
+        <v>0.9805173005321756</v>
       </c>
       <c r="D103" t="n">
-        <v>5.449492712179632e-14</v>
+        <v>2.220581109075682e-14</v>
       </c>
       <c r="E103" t="n">
-        <v>0.000847218653373285</v>
+        <v>0.0003665474785938061</v>
       </c>
       <c r="F103" t="n">
-        <v>0.06412912099592226</v>
+        <v>0.003020327061315647</v>
       </c>
       <c r="G103" t="n">
-        <v>0.640218880224125</v>
+        <v>0.006769236733138848</v>
       </c>
       <c r="H103" t="n">
-        <v>5.449492712179631e-14</v>
+        <v>2.220581109075682e-14</v>
       </c>
       <c r="I103" t="n">
-        <v>0.640218880224125</v>
+        <v>0.9805173005321756</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Bifidobacteriales</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales(reject)</t>
+          <t>o__Bifidobacteriales</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48801.fa</t>
+          <t>even_MAG-GUT47585.fa</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.3768061760223979</v>
+        <v>0.00138249263091313</v>
       </c>
       <c r="C104" t="n">
-        <v>5.42545774166985e-14</v>
+        <v>0.9870530601266213</v>
       </c>
       <c r="D104" t="n">
-        <v>5.42545774166985e-14</v>
+        <v>2.220065506660441e-14</v>
       </c>
       <c r="E104" t="n">
-        <v>0.001078299731339503</v>
+        <v>0.0002085675039981422</v>
       </c>
       <c r="F104" t="n">
-        <v>0.07426440907317394</v>
+        <v>0.001244493358210615</v>
       </c>
       <c r="G104" t="n">
-        <v>0.5478511151729258</v>
+        <v>0.01011138638021245</v>
       </c>
       <c r="H104" t="n">
-        <v>5.425457741669844e-14</v>
+        <v>2.220065506660441e-14</v>
       </c>
       <c r="I104" t="n">
-        <v>0.5478511151729258</v>
+        <v>0.9870530601266213</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Bifidobacteriales</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales(reject)</t>
+          <t>o__Bifidobacteriales</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48805.fa</t>
+          <t>even_MAG-GUT47777.fa</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.5793236069499246</v>
+        <v>0.002074926802998198</v>
       </c>
       <c r="C105" t="n">
-        <v>1.454487056667108e-13</v>
+        <v>0.9901734017965818</v>
       </c>
       <c r="D105" t="n">
-        <v>0.3393722333886103</v>
+        <v>2.22028796704133e-14</v>
       </c>
       <c r="E105" t="n">
-        <v>0.006571359675794025</v>
+        <v>0.0002360665642165734</v>
       </c>
       <c r="F105" t="n">
-        <v>0.01745376005422059</v>
+        <v>0.001687380822892926</v>
       </c>
       <c r="G105" t="n">
-        <v>0.05727903993115982</v>
+        <v>0.005828224013266114</v>
       </c>
       <c r="H105" t="n">
-        <v>1.454487056667104e-13</v>
+        <v>2.22028796704133e-14</v>
       </c>
       <c r="I105" t="n">
-        <v>0.5793236069499246</v>
+        <v>0.9901734017965818</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>o__Actinomycetales</t>
+          <t>o__Bifidobacteriales</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>o__Actinomycetales(reject)</t>
+          <t>o__Bifidobacteriales</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48852.fa</t>
+          <t>even_MAG-GUT48579.fa</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.3644946510925148</v>
+        <v>0.142671680032713</v>
       </c>
       <c r="C106" t="n">
-        <v>4.935488202357644e-14</v>
+        <v>0.4593367933940673</v>
       </c>
       <c r="D106" t="n">
-        <v>4.935488202357643e-14</v>
+        <v>6.018912422616749e-13</v>
       </c>
       <c r="E106" t="n">
-        <v>0.001104005620294779</v>
+        <v>0.01775812252526822</v>
       </c>
       <c r="F106" t="n">
-        <v>0.1053457298907039</v>
+        <v>0.1954624715749551</v>
       </c>
       <c r="G106" t="n">
-        <v>0.5290556133963383</v>
+        <v>0.1847709324717925</v>
       </c>
       <c r="H106" t="n">
-        <v>4.935488202357639e-14</v>
+        <v>6.018912422616745e-13</v>
       </c>
       <c r="I106" t="n">
-        <v>0.5290556133963383</v>
+        <v>0.4593367933940673</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Bifidobacteriales</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales(reject)</t>
+          <t>o__Bifidobacteriales(reject)</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48995.fa</t>
+          <t>even_MAG-GUT48681.fa</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.1183170745160803</v>
+        <v>0.1925613614168962</v>
       </c>
       <c r="C107" t="n">
-        <v>1.336213635431856e-13</v>
+        <v>4.522402137188655e-14</v>
       </c>
       <c r="D107" t="n">
-        <v>1.336213635431855e-13</v>
+        <v>4.522402137188655e-14</v>
       </c>
       <c r="E107" t="n">
-        <v>0.002141067146030925</v>
+        <v>0.0007247650311417309</v>
       </c>
       <c r="F107" t="n">
-        <v>0.1139777339429259</v>
+        <v>0.07130807218791836</v>
       </c>
       <c r="G107" t="n">
-        <v>0.765564124394562</v>
+        <v>0.735405801363908</v>
       </c>
       <c r="H107" t="n">
-        <v>1.336213635431855e-13</v>
+        <v>4.522402137188653e-14</v>
       </c>
       <c r="I107" t="n">
-        <v>0.765564124394562</v>
+        <v>0.735405801363908</v>
       </c>
       <c r="J107" t="inlineStr">
         <is>
@@ -4840,32 +4840,32 @@
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49009.fa</t>
+          <t>even_MAG-GUT48721.fa</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.2284623084608501</v>
+        <v>0.2916122129563294</v>
       </c>
       <c r="C108" t="n">
-        <v>4.207490277519851e-14</v>
+        <v>5.621265499220451e-14</v>
       </c>
       <c r="D108" t="n">
-        <v>4.207490277519851e-14</v>
+        <v>5.621265499220453e-14</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0006569833346645261</v>
+        <v>0.001032242883617101</v>
       </c>
       <c r="F108" t="n">
-        <v>0.1359389466325206</v>
+        <v>0.05928531608330149</v>
       </c>
       <c r="G108" t="n">
-        <v>0.6349417615718387</v>
+        <v>0.6480702280765834</v>
       </c>
       <c r="H108" t="n">
-        <v>4.20749027751985e-14</v>
+        <v>5.621265499220455e-14</v>
       </c>
       <c r="I108" t="n">
-        <v>0.6349417615718387</v>
+        <v>0.6480702280765834</v>
       </c>
       <c r="J108" t="inlineStr">
         <is>
@@ -4874,39 +4874,39 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales(reject)</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49041.fa</t>
+          <t>even_MAG-GUT48763.fa</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.373863350483434</v>
+        <v>0.294804780126416</v>
       </c>
       <c r="C109" t="n">
-        <v>4.050562206830527e-13</v>
+        <v>5.449492712179632e-14</v>
       </c>
       <c r="D109" t="n">
-        <v>4.050562206830526e-13</v>
+        <v>5.449492712179632e-14</v>
       </c>
       <c r="E109" t="n">
-        <v>0.01073008468213158</v>
+        <v>0.000847218653373285</v>
       </c>
       <c r="F109" t="n">
-        <v>0.2021736635455148</v>
+        <v>0.06412912099592226</v>
       </c>
       <c r="G109" t="n">
-        <v>0.4132329012877046</v>
+        <v>0.640218880224125</v>
       </c>
       <c r="H109" t="n">
-        <v>4.050562206830523e-13</v>
+        <v>5.449492712179631e-14</v>
       </c>
       <c r="I109" t="n">
-        <v>0.4132329012877046</v>
+        <v>0.640218880224125</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
@@ -4915,121 +4915,121 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales(reject)</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49046.fa</t>
+          <t>even_MAG-GUT48801.fa</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.1272039266708305</v>
+        <v>0.3768061760223979</v>
       </c>
       <c r="C110" t="n">
-        <v>2.21911316483683e-14</v>
+        <v>5.42545774166985e-14</v>
       </c>
       <c r="D110" t="n">
-        <v>0.8653194000709001</v>
+        <v>5.42545774166985e-14</v>
       </c>
       <c r="E110" t="n">
-        <v>0.0002735880190917366</v>
+        <v>0.001078299731339503</v>
       </c>
       <c r="F110" t="n">
-        <v>0.001082727403466729</v>
+        <v>0.07426440907317394</v>
       </c>
       <c r="G110" t="n">
-        <v>0.006120357835666428</v>
+        <v>0.5478511151729258</v>
       </c>
       <c r="H110" t="n">
-        <v>2.21911316483683e-14</v>
+        <v>5.425457741669844e-14</v>
       </c>
       <c r="I110" t="n">
-        <v>0.8653194000709001</v>
+        <v>0.5478511151729258</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>o__Corynebacteriales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>o__Corynebacteriales</t>
+          <t>o__Propionibacteriales(reject)</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49058.fa</t>
+          <t>even_MAG-GUT48805.fa</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.3090036869973205</v>
+        <v>0.5793236069499246</v>
       </c>
       <c r="C111" t="n">
-        <v>2.723259925819728e-13</v>
+        <v>1.454487056667108e-13</v>
       </c>
       <c r="D111" t="n">
-        <v>2.723259925819727e-13</v>
+        <v>0.3393722333886103</v>
       </c>
       <c r="E111" t="n">
-        <v>0.007262702363817439</v>
+        <v>0.006571359675794025</v>
       </c>
       <c r="F111" t="n">
-        <v>0.1847808485775603</v>
+        <v>0.01745376005422059</v>
       </c>
       <c r="G111" t="n">
-        <v>0.4989527620604847</v>
+        <v>0.05727903993115982</v>
       </c>
       <c r="H111" t="n">
-        <v>2.723259925819728e-13</v>
+        <v>1.454487056667104e-13</v>
       </c>
       <c r="I111" t="n">
-        <v>0.4989527620604847</v>
+        <v>0.5793236069499246</v>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales(reject)</t>
+          <t>o__Actinomycetales(reject)</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49079.fa</t>
+          <t>even_MAG-GUT48852.fa</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.4041515879461837</v>
+        <v>0.3644946510925148</v>
       </c>
       <c r="C112" t="n">
-        <v>5.651700972484201e-14</v>
+        <v>4.935488202357644e-14</v>
       </c>
       <c r="D112" t="n">
-        <v>5.651700972484201e-14</v>
+        <v>4.935488202357643e-14</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0011984119350424</v>
+        <v>0.001104005620294779</v>
       </c>
       <c r="F112" t="n">
-        <v>0.1374826441822212</v>
+        <v>0.1053457298907039</v>
       </c>
       <c r="G112" t="n">
-        <v>0.457167355936383</v>
+        <v>0.5290556133963383</v>
       </c>
       <c r="H112" t="n">
-        <v>5.651700972484201e-14</v>
+        <v>4.935488202357639e-14</v>
       </c>
       <c r="I112" t="n">
-        <v>0.457167355936383</v>
+        <v>0.5290556133963383</v>
       </c>
       <c r="J112" t="inlineStr">
         <is>
@@ -5045,32 +5045,32 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49243.fa</t>
+          <t>even_MAG-GUT48995.fa</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.3210239615799426</v>
+        <v>0.1183170745160803</v>
       </c>
       <c r="C113" t="n">
-        <v>5.703784261213323e-14</v>
+        <v>1.336213635431856e-13</v>
       </c>
       <c r="D113" t="n">
-        <v>5.703784261213322e-14</v>
+        <v>1.336213635431855e-13</v>
       </c>
       <c r="E113" t="n">
-        <v>0.0009089188617373686</v>
+        <v>0.002141067146030925</v>
       </c>
       <c r="F113" t="n">
-        <v>0.1245885368383031</v>
+        <v>0.1139777339429259</v>
       </c>
       <c r="G113" t="n">
-        <v>0.5534785827198461</v>
+        <v>0.765564124394562</v>
       </c>
       <c r="H113" t="n">
-        <v>5.703784261213324e-14</v>
+        <v>1.336213635431855e-13</v>
       </c>
       <c r="I113" t="n">
-        <v>0.5534785827198461</v>
+        <v>0.765564124394562</v>
       </c>
       <c r="J113" t="inlineStr">
         <is>
@@ -5079,39 +5079,39 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales(reject)</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49261.fa</t>
+          <t>even_MAG-GUT49009.fa</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.2023161754950103</v>
+        <v>0.2284623084608501</v>
       </c>
       <c r="C114" t="n">
-        <v>0.2478358593622655</v>
+        <v>4.207490277519851e-14</v>
       </c>
       <c r="D114" t="n">
-        <v>3.087329343947265e-14</v>
+        <v>4.207490277519851e-14</v>
       </c>
       <c r="E114" t="n">
-        <v>0.0006131832050889635</v>
+        <v>0.0006569833346645261</v>
       </c>
       <c r="F114" t="n">
-        <v>0.04068934529628332</v>
+        <v>0.1359389466325206</v>
       </c>
       <c r="G114" t="n">
-        <v>0.5085454366412904</v>
+        <v>0.6349417615718387</v>
       </c>
       <c r="H114" t="n">
-        <v>3.087329343947264e-14</v>
+        <v>4.20749027751985e-14</v>
       </c>
       <c r="I114" t="n">
-        <v>0.5085454366412904</v>
+        <v>0.6349417615718387</v>
       </c>
       <c r="J114" t="inlineStr">
         <is>
@@ -5120,39 +5120,39 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales(reject)</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49394.fa</t>
+          <t>even_MAG-GUT49041.fa</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.2630033511140779</v>
+        <v>0.373863350483434</v>
       </c>
       <c r="C115" t="n">
-        <v>3.960811736112519e-14</v>
+        <v>4.050562206830527e-13</v>
       </c>
       <c r="D115" t="n">
-        <v>3.960811736112519e-14</v>
+        <v>4.050562206830526e-13</v>
       </c>
       <c r="E115" t="n">
-        <v>0.0006636221670733868</v>
+        <v>0.01073008468213158</v>
       </c>
       <c r="F115" t="n">
-        <v>0.09267982560851791</v>
+        <v>0.2021736635455148</v>
       </c>
       <c r="G115" t="n">
-        <v>0.643653201110212</v>
+        <v>0.4132329012877046</v>
       </c>
       <c r="H115" t="n">
-        <v>3.960811736112519e-14</v>
+        <v>4.050562206830523e-13</v>
       </c>
       <c r="I115" t="n">
-        <v>0.643653201110212</v>
+        <v>0.4132329012877046</v>
       </c>
       <c r="J115" t="inlineStr">
         <is>
@@ -5168,73 +5168,73 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49423.fa</t>
+          <t>even_MAG-GUT49046.fa</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.273359330347545</v>
+        <v>0.1272039266708305</v>
       </c>
       <c r="C116" t="n">
-        <v>1.020106801286817e-13</v>
+        <v>2.21911316483683e-14</v>
       </c>
       <c r="D116" t="n">
-        <v>1.020106801286816e-13</v>
+        <v>0.8653194000709001</v>
       </c>
       <c r="E116" t="n">
-        <v>0.001745688305826137</v>
+        <v>0.0002735880190917366</v>
       </c>
       <c r="F116" t="n">
-        <v>0.1256716196496198</v>
+        <v>0.001082727403466729</v>
       </c>
       <c r="G116" t="n">
-        <v>0.599223361696703</v>
+        <v>0.006120357835666428</v>
       </c>
       <c r="H116" t="n">
-        <v>1.020106801286818e-13</v>
+        <v>2.21911316483683e-14</v>
       </c>
       <c r="I116" t="n">
-        <v>0.599223361696703</v>
+        <v>0.8653194000709001</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales(reject)</t>
+          <t>o__Corynebacteriales</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49507.fa</t>
+          <t>even_MAG-GUT49058.fa</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.1535885592717921</v>
+        <v>0.3090036869973205</v>
       </c>
       <c r="C117" t="n">
-        <v>4.418432161443403e-14</v>
+        <v>2.723259925819728e-13</v>
       </c>
       <c r="D117" t="n">
-        <v>4.418432161443403e-14</v>
+        <v>2.723259925819727e-13</v>
       </c>
       <c r="E117" t="n">
-        <v>0.0006121282886243491</v>
+        <v>0.007262702363817439</v>
       </c>
       <c r="F117" t="n">
-        <v>0.1722174268596057</v>
+        <v>0.1847808485775603</v>
       </c>
       <c r="G117" t="n">
-        <v>0.6735818855798451</v>
+        <v>0.4989527620604847</v>
       </c>
       <c r="H117" t="n">
-        <v>4.418432161443403e-14</v>
+        <v>2.723259925819728e-13</v>
       </c>
       <c r="I117" t="n">
-        <v>0.6735818855798451</v>
+        <v>0.4989527620604847</v>
       </c>
       <c r="J117" t="inlineStr">
         <is>
@@ -5243,39 +5243,39 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Propionibacteriales(reject)</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49537.fa</t>
+          <t>even_MAG-GUT49079.fa</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.3021830415178682</v>
+        <v>0.4041515879461837</v>
       </c>
       <c r="C118" t="n">
-        <v>5.815072678348055e-14</v>
+        <v>5.651700972484201e-14</v>
       </c>
       <c r="D118" t="n">
-        <v>5.815072678348056e-14</v>
+        <v>5.651700972484201e-14</v>
       </c>
       <c r="E118" t="n">
-        <v>0.001094034034719616</v>
+        <v>0.0011984119350424</v>
       </c>
       <c r="F118" t="n">
-        <v>0.1373811734107623</v>
+        <v>0.1374826441822212</v>
       </c>
       <c r="G118" t="n">
-        <v>0.5593417510364753</v>
+        <v>0.457167355936383</v>
       </c>
       <c r="H118" t="n">
-        <v>5.815072678348055e-14</v>
+        <v>5.651700972484201e-14</v>
       </c>
       <c r="I118" t="n">
-        <v>0.5593417510364753</v>
+        <v>0.457167355936383</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
@@ -5291,32 +5291,32 @@
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49543.fa</t>
+          <t>even_MAG-GUT49243.fa</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.462003260478968</v>
+        <v>0.3210239615799426</v>
       </c>
       <c r="C119" t="n">
-        <v>4.325832010554369e-14</v>
+        <v>5.703784261213323e-14</v>
       </c>
       <c r="D119" t="n">
-        <v>4.325832010554369e-14</v>
+        <v>5.703784261213322e-14</v>
       </c>
       <c r="E119" t="n">
-        <v>0.001146497635793882</v>
+        <v>0.0009089188617373686</v>
       </c>
       <c r="F119" t="n">
-        <v>0.02117367014892599</v>
+        <v>0.1245885368383031</v>
       </c>
       <c r="G119" t="n">
-        <v>0.5156765717361824</v>
+        <v>0.5534785827198461</v>
       </c>
       <c r="H119" t="n">
-        <v>4.325832010554369e-14</v>
+        <v>5.703784261213324e-14</v>
       </c>
       <c r="I119" t="n">
-        <v>0.5156765717361824</v>
+        <v>0.5534785827198461</v>
       </c>
       <c r="J119" t="inlineStr">
         <is>
@@ -5332,688 +5332,688 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT54955.fa</t>
+          <t>even_MAG-GUT49261.fa</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.002447130593148851</v>
+        <v>0.2023161754950103</v>
       </c>
       <c r="C120" t="n">
-        <v>0.9913453980516209</v>
+        <v>0.2478358593622655</v>
       </c>
       <c r="D120" t="n">
-        <v>2.220260072634578e-14</v>
+        <v>3.087329343947265e-14</v>
       </c>
       <c r="E120" t="n">
-        <v>0.0002550298680223551</v>
+        <v>0.0006131832050889635</v>
       </c>
       <c r="F120" t="n">
-        <v>0.0007460146442285632</v>
+        <v>0.04068934529628332</v>
       </c>
       <c r="G120" t="n">
-        <v>0.00520642684293501</v>
+        <v>0.5085454366412904</v>
       </c>
       <c r="H120" t="n">
-        <v>2.220260072634578e-14</v>
+        <v>3.087329343947264e-14</v>
       </c>
       <c r="I120" t="n">
-        <v>0.9913453980516209</v>
+        <v>0.5085454366412904</v>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Propionibacteriales(reject)</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT55663.fa</t>
+          <t>even_MAG-GUT49394.fa</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.002537000025882643</v>
+        <v>0.2630033511140779</v>
       </c>
       <c r="C121" t="n">
-        <v>0.9782420567868233</v>
+        <v>3.960811736112519e-14</v>
       </c>
       <c r="D121" t="n">
-        <v>2.220528997676537e-14</v>
+        <v>3.960811736112519e-14</v>
       </c>
       <c r="E121" t="n">
-        <v>0.0002533199108169839</v>
+        <v>0.0006636221670733868</v>
       </c>
       <c r="F121" t="n">
-        <v>0.0123356073609147</v>
+        <v>0.09267982560851791</v>
       </c>
       <c r="G121" t="n">
-        <v>0.006632015915518005</v>
+        <v>0.643653201110212</v>
       </c>
       <c r="H121" t="n">
-        <v>2.220528997676537e-14</v>
+        <v>3.960811736112519e-14</v>
       </c>
       <c r="I121" t="n">
-        <v>0.9782420567868233</v>
+        <v>0.643653201110212</v>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT55688.fa</t>
+          <t>even_MAG-GUT49423.fa</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.006926441893888424</v>
+        <v>0.273359330347545</v>
       </c>
       <c r="C122" t="n">
-        <v>0.9814135863762732</v>
+        <v>1.020106801286817e-13</v>
       </c>
       <c r="D122" t="n">
-        <v>2.220607463793698e-14</v>
+        <v>1.020106801286816e-13</v>
       </c>
       <c r="E122" t="n">
-        <v>0.0002775361591363325</v>
+        <v>0.001745688305826137</v>
       </c>
       <c r="F122" t="n">
-        <v>0.003897599365844764</v>
+        <v>0.1256716196496198</v>
       </c>
       <c r="G122" t="n">
-        <v>0.007484836204812965</v>
+        <v>0.599223361696703</v>
       </c>
       <c r="H122" t="n">
-        <v>2.220607463793698e-14</v>
+        <v>1.020106801286818e-13</v>
       </c>
       <c r="I122" t="n">
-        <v>0.9814135863762732</v>
+        <v>0.599223361696703</v>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT55792.fa</t>
+          <t>even_MAG-GUT49507.fa</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.001379992882938017</v>
+        <v>0.1535885592717921</v>
       </c>
       <c r="C123" t="n">
-        <v>0.9901374998749156</v>
+        <v>4.418432161443403e-14</v>
       </c>
       <c r="D123" t="n">
-        <v>2.220183668780262e-14</v>
+        <v>4.418432161443403e-14</v>
       </c>
       <c r="E123" t="n">
-        <v>0.0002228712612457614</v>
+        <v>0.0006121282886243491</v>
       </c>
       <c r="F123" t="n">
-        <v>0.001373772283930469</v>
+        <v>0.1722174268596057</v>
       </c>
       <c r="G123" t="n">
-        <v>0.006885863696925614</v>
+        <v>0.6735818855798451</v>
       </c>
       <c r="H123" t="n">
-        <v>2.220183668780262e-14</v>
+        <v>4.418432161443403e-14</v>
       </c>
       <c r="I123" t="n">
-        <v>0.9901374998749156</v>
+        <v>0.6735818855798451</v>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56059.fa</t>
+          <t>even_MAG-GUT49537.fa</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.0007947633170987495</v>
+        <v>0.3021830415178682</v>
       </c>
       <c r="C124" t="n">
-        <v>0.9872728540030014</v>
+        <v>5.815072678348055e-14</v>
       </c>
       <c r="D124" t="n">
-        <v>2.220222164245106e-14</v>
+        <v>5.815072678348056e-14</v>
       </c>
       <c r="E124" t="n">
-        <v>0.0002189120362019618</v>
+        <v>0.001094034034719616</v>
       </c>
       <c r="F124" t="n">
-        <v>0.003007987298619782</v>
+        <v>0.1373811734107623</v>
       </c>
       <c r="G124" t="n">
-        <v>0.008705483345033588</v>
+        <v>0.5593417510364753</v>
       </c>
       <c r="H124" t="n">
-        <v>2.220222164245106e-14</v>
+        <v>5.815072678348055e-14</v>
       </c>
       <c r="I124" t="n">
-        <v>0.9872728540030014</v>
+        <v>0.5593417510364753</v>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59472.fa</t>
+          <t>even_MAG-GUT49543.fa</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.00624598380271285</v>
+        <v>0.462003260478968</v>
       </c>
       <c r="C125" t="n">
-        <v>0.9767398044867238</v>
+        <v>4.325832010554369e-14</v>
       </c>
       <c r="D125" t="n">
-        <v>2.22076618970207e-14</v>
+        <v>4.325832010554369e-14</v>
       </c>
       <c r="E125" t="n">
-        <v>0.0003170159974163755</v>
+        <v>0.001146497635793882</v>
       </c>
       <c r="F125" t="n">
-        <v>0.009408631926864069</v>
+        <v>0.02117367014892599</v>
       </c>
       <c r="G125" t="n">
-        <v>0.007288563786238459</v>
+        <v>0.5156765717361824</v>
       </c>
       <c r="H125" t="n">
-        <v>2.22076618970207e-14</v>
+        <v>4.325832010554369e-14</v>
       </c>
       <c r="I125" t="n">
-        <v>0.9767398044867238</v>
+        <v>0.5156765717361824</v>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Propionibacteriales(reject)</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62023.fa</t>
+          <t>even_MAG-GUT51557.fa</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.00653678193463656</v>
+        <v>0.8959199140478152</v>
       </c>
       <c r="C126" t="n">
-        <v>0.9775932997433359</v>
+        <v>1.06953126226843e-13</v>
       </c>
       <c r="D126" t="n">
-        <v>2.220739870268613e-14</v>
+        <v>1.06953126226843e-13</v>
       </c>
       <c r="E126" t="n">
-        <v>0.0003234646249322625</v>
+        <v>0.003627354139179942</v>
       </c>
       <c r="F126" t="n">
-        <v>0.009787563400210161</v>
+        <v>0.07586012321534651</v>
       </c>
       <c r="G126" t="n">
-        <v>0.005758890296840774</v>
+        <v>0.02459260859733749</v>
       </c>
       <c r="H126" t="n">
-        <v>2.220739870268613e-14</v>
+        <v>1.069531262268429e-13</v>
       </c>
       <c r="I126" t="n">
-        <v>0.9775932997433359</v>
+        <v>0.8959199140478152</v>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6244.fa</t>
+          <t>even_MAG-GUT51559.fa</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.1815314062189316</v>
+        <v>0.9074824322809725</v>
       </c>
       <c r="C127" t="n">
-        <v>0.226575605549539</v>
+        <v>1.273266686220281e-13</v>
       </c>
       <c r="D127" t="n">
-        <v>2.645605951871626e-14</v>
+        <v>1.273266686220281e-13</v>
       </c>
       <c r="E127" t="n">
-        <v>0.00048388263624461</v>
+        <v>0.004683644877982171</v>
       </c>
       <c r="F127" t="n">
-        <v>0.1285831143314408</v>
+        <v>0.06575477572842225</v>
       </c>
       <c r="G127" t="n">
-        <v>0.462825991263791</v>
+        <v>0.0220791471122412</v>
       </c>
       <c r="H127" t="n">
-        <v>2.645605951871624e-14</v>
+        <v>1.273266686220279e-13</v>
       </c>
       <c r="I127" t="n">
-        <v>0.462825991263791</v>
+        <v>0.9074824322809725</v>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales(reject)</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6247.fa</t>
+          <t>even_MAG-GUT54955.fa</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.1549070889708211</v>
+        <v>0.002447130593148851</v>
       </c>
       <c r="C128" t="n">
-        <v>5.16545822947609e-14</v>
+        <v>0.9913453980516209</v>
       </c>
       <c r="D128" t="n">
-        <v>5.165458229476094e-14</v>
+        <v>2.220260072634578e-14</v>
       </c>
       <c r="E128" t="n">
-        <v>0.0007894141961755735</v>
+        <v>0.0002550298680223551</v>
       </c>
       <c r="F128" t="n">
-        <v>0.0690458819345111</v>
+        <v>0.0007460146442285632</v>
       </c>
       <c r="G128" t="n">
-        <v>0.7752576148983372</v>
+        <v>0.00520642684293501</v>
       </c>
       <c r="H128" t="n">
-        <v>5.165458229476091e-14</v>
+        <v>2.220260072634578e-14</v>
       </c>
       <c r="I128" t="n">
-        <v>0.7752576148983372</v>
+        <v>0.9913453980516209</v>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Bifidobacteriales</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Bifidobacteriales</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6251.fa</t>
+          <t>even_MAG-GUT55663.fa</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.2688517183515667</v>
+        <v>0.002537000025882643</v>
       </c>
       <c r="C129" t="n">
-        <v>5.134962955080018e-14</v>
+        <v>0.9782420567868233</v>
       </c>
       <c r="D129" t="n">
-        <v>5.134962955080018e-14</v>
+        <v>2.220528997676537e-14</v>
       </c>
       <c r="E129" t="n">
-        <v>0.0008237234285694016</v>
+        <v>0.0002533199108169839</v>
       </c>
       <c r="F129" t="n">
-        <v>0.06218975479546493</v>
+        <v>0.0123356073609147</v>
       </c>
       <c r="G129" t="n">
-        <v>0.668134803424245</v>
+        <v>0.006632015915518005</v>
       </c>
       <c r="H129" t="n">
-        <v>5.134962955080016e-14</v>
+        <v>2.220528997676537e-14</v>
       </c>
       <c r="I129" t="n">
-        <v>0.668134803424245</v>
+        <v>0.9782420567868233</v>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Bifidobacteriales</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Bifidobacteriales</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6256.fa</t>
+          <t>even_MAG-GUT55688.fa</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.1326670893393342</v>
+        <v>0.006926441893888424</v>
       </c>
       <c r="C130" t="n">
-        <v>4.698600209596337e-14</v>
+        <v>0.9814135863762732</v>
       </c>
       <c r="D130" t="n">
-        <v>4.698600209596337e-14</v>
+        <v>2.220607463793698e-14</v>
       </c>
       <c r="E130" t="n">
-        <v>0.0006684198297582087</v>
+        <v>0.0002775361591363325</v>
       </c>
       <c r="F130" t="n">
-        <v>0.1178177364003404</v>
+        <v>0.003897599365844764</v>
       </c>
       <c r="G130" t="n">
-        <v>0.748846754430426</v>
+        <v>0.007484836204812965</v>
       </c>
       <c r="H130" t="n">
-        <v>4.698600209596341e-14</v>
+        <v>2.220607463793698e-14</v>
       </c>
       <c r="I130" t="n">
-        <v>0.748846754430426</v>
+        <v>0.9814135863762732</v>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Bifidobacteriales</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Bifidobacteriales</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6261.fa</t>
+          <t>even_MAG-GUT55792.fa</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.3199898233450883</v>
+        <v>0.001379992882938017</v>
       </c>
       <c r="C131" t="n">
-        <v>5.18787769862522e-14</v>
+        <v>0.9901374998749156</v>
       </c>
       <c r="D131" t="n">
-        <v>5.18787769862522e-14</v>
+        <v>2.220183668780262e-14</v>
       </c>
       <c r="E131" t="n">
-        <v>0.0008612599967678489</v>
+        <v>0.0002228712612457614</v>
       </c>
       <c r="F131" t="n">
-        <v>0.07644969005073728</v>
+        <v>0.001373772283930469</v>
       </c>
       <c r="G131" t="n">
-        <v>0.6026992266072507</v>
+        <v>0.006885863696925614</v>
       </c>
       <c r="H131" t="n">
-        <v>5.187877698625221e-14</v>
+        <v>2.220183668780262e-14</v>
       </c>
       <c r="I131" t="n">
-        <v>0.6026992266072507</v>
+        <v>0.9901374998749156</v>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Bifidobacteriales</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales(reject)</t>
+          <t>o__Bifidobacteriales</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6265.fa</t>
+          <t>even_MAG-GUT56059.fa</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.3543752072717111</v>
+        <v>0.0007947633170987495</v>
       </c>
       <c r="C132" t="n">
-        <v>5.447915047362692e-14</v>
+        <v>0.9872728540030014</v>
       </c>
       <c r="D132" t="n">
-        <v>5.447915047362692e-14</v>
+        <v>2.220222164245106e-14</v>
       </c>
       <c r="E132" t="n">
-        <v>0.0009720018249009463</v>
+        <v>0.0002189120362019618</v>
       </c>
       <c r="F132" t="n">
-        <v>0.0871080745421513</v>
+        <v>0.003007987298619782</v>
       </c>
       <c r="G132" t="n">
-        <v>0.5575447163610732</v>
+        <v>0.008705483345033588</v>
       </c>
       <c r="H132" t="n">
-        <v>5.447915047362682e-14</v>
+        <v>2.220222164245106e-14</v>
       </c>
       <c r="I132" t="n">
-        <v>0.5575447163610732</v>
+        <v>0.9872728540030014</v>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Bifidobacteriales</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales(reject)</t>
+          <t>o__Bifidobacteriales</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6273.fa</t>
+          <t>even_MAG-GUT5848.fa</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.3543752072717111</v>
+        <v>0.9726524442848059</v>
       </c>
       <c r="C133" t="n">
-        <v>5.447915047362692e-14</v>
+        <v>4.641061627298861e-14</v>
       </c>
       <c r="D133" t="n">
-        <v>5.447915047362692e-14</v>
+        <v>4.641061627298861e-14</v>
       </c>
       <c r="E133" t="n">
-        <v>0.0009720018249009463</v>
+        <v>0.001567553588764502</v>
       </c>
       <c r="F133" t="n">
-        <v>0.0871080745421513</v>
+        <v>0.02033403470826287</v>
       </c>
       <c r="G133" t="n">
-        <v>0.5575447163610732</v>
+        <v>0.005445967418027513</v>
       </c>
       <c r="H133" t="n">
-        <v>5.447915047362682e-14</v>
+        <v>4.641061627298762e-14</v>
       </c>
       <c r="I133" t="n">
-        <v>0.5575447163610732</v>
+        <v>0.9726524442848059</v>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales(reject)</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6280.fa</t>
+          <t>even_MAG-GUT59472.fa</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.3015192375004399</v>
+        <v>0.00624598380271285</v>
       </c>
       <c r="C134" t="n">
-        <v>4.733759936534103e-14</v>
+        <v>0.9767398044867238</v>
       </c>
       <c r="D134" t="n">
-        <v>4.733759936534103e-14</v>
+        <v>2.22076618970207e-14</v>
       </c>
       <c r="E134" t="n">
-        <v>0.0007684049577928413</v>
+        <v>0.0003170159974163755</v>
       </c>
       <c r="F134" t="n">
-        <v>0.09386467155672797</v>
+        <v>0.009408631926864069</v>
       </c>
       <c r="G134" t="n">
-        <v>0.6038476859848975</v>
+        <v>0.007288563786238459</v>
       </c>
       <c r="H134" t="n">
-        <v>4.733759936534104e-14</v>
+        <v>2.22076618970207e-14</v>
       </c>
       <c r="I134" t="n">
-        <v>0.6038476859848975</v>
+        <v>0.9767398044867238</v>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Bifidobacteriales</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales(reject)</t>
+          <t>o__Bifidobacteriales</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6286.fa</t>
+          <t>even_MAG-GUT62023.fa</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.3543752072717111</v>
+        <v>0.00653678193463656</v>
       </c>
       <c r="C135" t="n">
-        <v>5.447915047362692e-14</v>
+        <v>0.9775932997433359</v>
       </c>
       <c r="D135" t="n">
-        <v>5.447915047362692e-14</v>
+        <v>2.220739870268613e-14</v>
       </c>
       <c r="E135" t="n">
-        <v>0.0009720018249009463</v>
+        <v>0.0003234646249322625</v>
       </c>
       <c r="F135" t="n">
-        <v>0.0871080745421513</v>
+        <v>0.009787563400210161</v>
       </c>
       <c r="G135" t="n">
-        <v>0.5575447163610732</v>
+        <v>0.005758890296840774</v>
       </c>
       <c r="H135" t="n">
-        <v>5.447915047362682e-14</v>
+        <v>2.220739870268613e-14</v>
       </c>
       <c r="I135" t="n">
-        <v>0.5575447163610732</v>
+        <v>0.9775932997433359</v>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Bifidobacteriales</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales(reject)</t>
+          <t>o__Bifidobacteriales</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6290.fa</t>
+          <t>even_MAG-GUT6244.fa</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.3015192375004399</v>
+        <v>0.1815314062189316</v>
       </c>
       <c r="C136" t="n">
-        <v>4.733759936534103e-14</v>
+        <v>0.226575605549539</v>
       </c>
       <c r="D136" t="n">
-        <v>4.733759936534103e-14</v>
+        <v>2.645605951871626e-14</v>
       </c>
       <c r="E136" t="n">
-        <v>0.0007684049577928413</v>
+        <v>0.00048388263624461</v>
       </c>
       <c r="F136" t="n">
-        <v>0.09386467155672797</v>
+        <v>0.1285831143314408</v>
       </c>
       <c r="G136" t="n">
-        <v>0.6038476859848975</v>
+        <v>0.462825991263791</v>
       </c>
       <c r="H136" t="n">
-        <v>4.733759936534104e-14</v>
+        <v>2.645605951871624e-14</v>
       </c>
       <c r="I136" t="n">
-        <v>0.6038476859848975</v>
+        <v>0.462825991263791</v>
       </c>
       <c r="J136" t="inlineStr">
         <is>
@@ -6029,483 +6029,483 @@
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT64457.fa</t>
+          <t>even_MAG-GUT6247.fa</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.002239366455808539</v>
+        <v>0.1549070889708211</v>
       </c>
       <c r="C137" t="n">
-        <v>0.9822285752982426</v>
+        <v>5.16545822947609e-14</v>
       </c>
       <c r="D137" t="n">
-        <v>2.220524371230369e-14</v>
+        <v>5.165458229476094e-14</v>
       </c>
       <c r="E137" t="n">
-        <v>0.0002303446871466807</v>
+        <v>0.0007894141961755735</v>
       </c>
       <c r="F137" t="n">
-        <v>0.007769977877905918</v>
+        <v>0.0690458819345111</v>
       </c>
       <c r="G137" t="n">
-        <v>0.007531735680851898</v>
+        <v>0.7752576148983372</v>
       </c>
       <c r="H137" t="n">
-        <v>2.220524371230369e-14</v>
+        <v>5.165458229476091e-14</v>
       </c>
       <c r="I137" t="n">
-        <v>0.9822285752982426</v>
+        <v>0.7752576148983372</v>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66991.fa</t>
+          <t>even_MAG-GUT6251.fa</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.007065310366291726</v>
+        <v>0.2688517183515667</v>
       </c>
       <c r="C138" t="n">
-        <v>0.9760034682214322</v>
+        <v>5.134962955080018e-14</v>
       </c>
       <c r="D138" t="n">
-        <v>2.220842632926867e-14</v>
+        <v>5.134962955080018e-14</v>
       </c>
       <c r="E138" t="n">
-        <v>0.0002735334558578838</v>
+        <v>0.0008237234285694016</v>
       </c>
       <c r="F138" t="n">
-        <v>0.007613155722271314</v>
+        <v>0.06218975479546493</v>
       </c>
       <c r="G138" t="n">
-        <v>0.009044532234102343</v>
+        <v>0.668134803424245</v>
       </c>
       <c r="H138" t="n">
-        <v>2.220842632926867e-14</v>
+        <v>5.134962955080016e-14</v>
       </c>
       <c r="I138" t="n">
-        <v>0.9760034682214322</v>
+        <v>0.668134803424245</v>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67029.fa</t>
+          <t>even_MAG-GUT6256.fa</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.1492490502971841</v>
+        <v>0.1326670893393342</v>
       </c>
       <c r="C139" t="n">
-        <v>0.4663560632969608</v>
+        <v>4.698600209596337e-14</v>
       </c>
       <c r="D139" t="n">
-        <v>5.334184326566263e-13</v>
+        <v>4.698600209596337e-14</v>
       </c>
       <c r="E139" t="n">
-        <v>0.01735945003356841</v>
+        <v>0.0006684198297582087</v>
       </c>
       <c r="F139" t="n">
-        <v>0.1697182372498703</v>
+        <v>0.1178177364003404</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1973171991213495</v>
+        <v>0.748846754430426</v>
       </c>
       <c r="H139" t="n">
-        <v>5.334184326566265e-13</v>
+        <v>4.698600209596341e-14</v>
       </c>
       <c r="I139" t="n">
-        <v>0.4663560632969608</v>
+        <v>0.748846754430426</v>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales(reject)</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67120.fa</t>
+          <t>even_MAG-GUT6261.fa</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.00347187126602429</v>
+        <v>0.3199898233450883</v>
       </c>
       <c r="C140" t="n">
-        <v>0.9762636549192764</v>
+        <v>5.18787769862522e-14</v>
       </c>
       <c r="D140" t="n">
-        <v>2.220688042013255e-14</v>
+        <v>5.18787769862522e-14</v>
       </c>
       <c r="E140" t="n">
-        <v>0.0002616971586533975</v>
+        <v>0.0008612599967678489</v>
       </c>
       <c r="F140" t="n">
-        <v>0.01263687595245736</v>
+        <v>0.07644969005073728</v>
       </c>
       <c r="G140" t="n">
-        <v>0.007365900703544189</v>
+        <v>0.6026992266072507</v>
       </c>
       <c r="H140" t="n">
-        <v>2.220688042013255e-14</v>
+        <v>5.187877698625221e-14</v>
       </c>
       <c r="I140" t="n">
-        <v>0.9762636549192764</v>
+        <v>0.6026992266072507</v>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67723.fa</t>
+          <t>even_MAG-GUT6265.fa</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.002523577479234477</v>
+        <v>0.3543752072717111</v>
       </c>
       <c r="C141" t="n">
-        <v>0.9824597415880566</v>
+        <v>5.447915047362692e-14</v>
       </c>
       <c r="D141" t="n">
-        <v>2.220266351919494e-14</v>
+        <v>5.447915047362692e-14</v>
       </c>
       <c r="E141" t="n">
-        <v>0.0001912874433037592</v>
+        <v>0.0009720018249009463</v>
       </c>
       <c r="F141" t="n">
-        <v>0.002828721964478394</v>
+        <v>0.0871080745421513</v>
       </c>
       <c r="G141" t="n">
-        <v>0.01199667152488247</v>
+        <v>0.5575447163610732</v>
       </c>
       <c r="H141" t="n">
-        <v>2.220266351919494e-14</v>
+        <v>5.447915047362682e-14</v>
       </c>
       <c r="I141" t="n">
-        <v>0.9824597415880566</v>
+        <v>0.5575447163610732</v>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67770.fa</t>
+          <t>even_MAG-GUT6273.fa</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.01390516787265896</v>
+        <v>0.3543752072717111</v>
       </c>
       <c r="C142" t="n">
-        <v>0.9742654441873009</v>
+        <v>5.447915047362692e-14</v>
       </c>
       <c r="D142" t="n">
-        <v>2.22074572961541e-14</v>
+        <v>5.447915047362692e-14</v>
       </c>
       <c r="E142" t="n">
-        <v>0.0003334537869224728</v>
+        <v>0.0009720018249009463</v>
       </c>
       <c r="F142" t="n">
-        <v>0.006625605868507315</v>
+        <v>0.0871080745421513</v>
       </c>
       <c r="G142" t="n">
-        <v>0.004870328284565997</v>
+        <v>0.5575447163610732</v>
       </c>
       <c r="H142" t="n">
-        <v>2.22074572961541e-14</v>
+        <v>5.447915047362682e-14</v>
       </c>
       <c r="I142" t="n">
-        <v>0.9742654441873009</v>
+        <v>0.5575447163610732</v>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67779.fa</t>
+          <t>even_MAG-GUT6280.fa</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.006823684949295326</v>
+        <v>0.3015192375004399</v>
       </c>
       <c r="C143" t="n">
-        <v>0.9815474213293499</v>
+        <v>4.733759936534103e-14</v>
       </c>
       <c r="D143" t="n">
-        <v>2.220655809324487e-14</v>
+        <v>4.733759936534103e-14</v>
       </c>
       <c r="E143" t="n">
-        <v>0.0003276801628249945</v>
+        <v>0.0007684049577928413</v>
       </c>
       <c r="F143" t="n">
-        <v>0.005901694419976969</v>
+        <v>0.09386467155672797</v>
       </c>
       <c r="G143" t="n">
-        <v>0.005399519138508372</v>
+        <v>0.6038476859848975</v>
       </c>
       <c r="H143" t="n">
-        <v>2.220655809324487e-14</v>
+        <v>4.733759936534104e-14</v>
       </c>
       <c r="I143" t="n">
-        <v>0.9815474213293499</v>
+        <v>0.6038476859848975</v>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67830.fa</t>
+          <t>even_MAG-GUT6286.fa</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.005246276938504435</v>
+        <v>0.3543752072717111</v>
       </c>
       <c r="C144" t="n">
-        <v>0.9812947836158025</v>
+        <v>5.447915047362692e-14</v>
       </c>
       <c r="D144" t="n">
-        <v>2.220645676967978e-14</v>
+        <v>5.447915047362692e-14</v>
       </c>
       <c r="E144" t="n">
-        <v>0.0002103490941234272</v>
+        <v>0.0009720018249009463</v>
       </c>
       <c r="F144" t="n">
-        <v>0.006453800880122194</v>
+        <v>0.0871080745421513</v>
       </c>
       <c r="G144" t="n">
-        <v>0.006794789471403058</v>
+        <v>0.5575447163610732</v>
       </c>
       <c r="H144" t="n">
-        <v>2.220645676967978e-14</v>
+        <v>5.447915047362682e-14</v>
       </c>
       <c r="I144" t="n">
-        <v>0.9812947836158025</v>
+        <v>0.5575447163610732</v>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67839.fa</t>
+          <t>even_MAG-GUT6290.fa</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.004167334016751087</v>
+        <v>0.3015192375004399</v>
       </c>
       <c r="C145" t="n">
-        <v>0.9813834922866731</v>
+        <v>4.733759936534103e-14</v>
       </c>
       <c r="D145" t="n">
-        <v>2.22063246070486e-14</v>
+        <v>4.733759936534103e-14</v>
       </c>
       <c r="E145" t="n">
-        <v>0.0002203724866594612</v>
+        <v>0.0007684049577928413</v>
       </c>
       <c r="F145" t="n">
-        <v>0.006843913622664275</v>
+        <v>0.09386467155672797</v>
       </c>
       <c r="G145" t="n">
-        <v>0.007384887587207718</v>
+        <v>0.6038476859848975</v>
       </c>
       <c r="H145" t="n">
-        <v>2.22063246070486e-14</v>
+        <v>4.733759936534104e-14</v>
       </c>
       <c r="I145" t="n">
-        <v>0.9813834922866731</v>
+        <v>0.6038476859848975</v>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67975.fa</t>
+          <t>even_MAG-GUT63164.fa</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.004071890807549658</v>
+        <v>0.5695604567631999</v>
       </c>
       <c r="C146" t="n">
-        <v>0.9837966061639685</v>
+        <v>0.2958195072259481</v>
       </c>
       <c r="D146" t="n">
-        <v>2.220474889419231e-14</v>
+        <v>4.457964711227502e-14</v>
       </c>
       <c r="E146" t="n">
-        <v>0.0002775139384141562</v>
+        <v>0.00127133393057911</v>
       </c>
       <c r="F146" t="n">
-        <v>0.003269630061839544</v>
+        <v>0.1128547255189249</v>
       </c>
       <c r="G146" t="n">
-        <v>0.008584359028183804</v>
+        <v>0.02049397656125889</v>
       </c>
       <c r="H146" t="n">
-        <v>2.220474889419231e-14</v>
+        <v>4.457964711227504e-14</v>
       </c>
       <c r="I146" t="n">
-        <v>0.9837966061639685</v>
+        <v>0.5695604567631999</v>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Actinomycetales(reject)</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67977.fa</t>
+          <t>even_MAG-GUT6384.fa</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.005611187258852365</v>
+        <v>0.8372476528154441</v>
       </c>
       <c r="C147" t="n">
-        <v>0.9830623118267694</v>
+        <v>1.646445528764733e-13</v>
       </c>
       <c r="D147" t="n">
-        <v>2.220616646431472e-14</v>
+        <v>1.646445528764733e-13</v>
       </c>
       <c r="E147" t="n">
-        <v>0.000268047124636372</v>
+        <v>0.004758089741709068</v>
       </c>
       <c r="F147" t="n">
-        <v>0.004806691420805984</v>
+        <v>0.1080746813182601</v>
       </c>
       <c r="G147" t="n">
-        <v>0.006251762368891458</v>
+        <v>0.04991957612409265</v>
       </c>
       <c r="H147" t="n">
-        <v>2.220616646431472e-14</v>
+        <v>1.646445528764733e-13</v>
       </c>
       <c r="I147" t="n">
-        <v>0.9830623118267694</v>
+        <v>0.8372476528154441</v>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68007.fa</t>
+          <t>even_MAG-GUT64457.fa</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.002788617173968163</v>
+        <v>0.002239366455808539</v>
       </c>
       <c r="C148" t="n">
-        <v>0.9748345785151744</v>
+        <v>0.9822285752982426</v>
       </c>
       <c r="D148" t="n">
-        <v>2.22056710980302e-14</v>
+        <v>2.220524371230369e-14</v>
       </c>
       <c r="E148" t="n">
-        <v>0.0002653144672972186</v>
+        <v>0.0002303446871466807</v>
       </c>
       <c r="F148" t="n">
-        <v>0.01496111005567153</v>
+        <v>0.007769977877905918</v>
       </c>
       <c r="G148" t="n">
-        <v>0.007150379787844227</v>
+        <v>0.007531735680851898</v>
       </c>
       <c r="H148" t="n">
-        <v>2.22056710980302e-14</v>
+        <v>2.220524371230369e-14</v>
       </c>
       <c r="I148" t="n">
-        <v>0.9748345785151744</v>
+        <v>0.9822285752982426</v>
       </c>
       <c r="J148" t="inlineStr">
         <is>
@@ -6521,73 +6521,73 @@
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68023.fa</t>
+          <t>even_MAG-GUT65671.fa</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.007607819002931863</v>
+        <v>0.6305243322152431</v>
       </c>
       <c r="C149" t="n">
-        <v>0.9795488011656455</v>
+        <v>2.22011939160467e-14</v>
       </c>
       <c r="D149" t="n">
-        <v>2.220602552077339e-14</v>
+        <v>2.22011939160467e-14</v>
       </c>
       <c r="E149" t="n">
-        <v>0.0002650964249171617</v>
+        <v>8.998053296226501e-06</v>
       </c>
       <c r="F149" t="n">
-        <v>0.009350577309623086</v>
+        <v>0.3694627262767766</v>
       </c>
       <c r="G149" t="n">
-        <v>0.003227706096837869</v>
+        <v>3.943454617612138e-06</v>
       </c>
       <c r="H149" t="n">
-        <v>2.220602552077339e-14</v>
+        <v>2.22011939160467e-14</v>
       </c>
       <c r="I149" t="n">
-        <v>0.9795488011656455</v>
+        <v>0.6305243322152431</v>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Actinomycetales(reject)</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68145.fa</t>
+          <t>even_MAG-GUT66991.fa</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.003892068781907594</v>
+        <v>0.007065310366291726</v>
       </c>
       <c r="C150" t="n">
-        <v>0.9813665690099744</v>
+        <v>0.9760034682214322</v>
       </c>
       <c r="D150" t="n">
-        <v>2.220602867476965e-14</v>
+        <v>2.220842632926867e-14</v>
       </c>
       <c r="E150" t="n">
-        <v>0.0002549834080633423</v>
+        <v>0.0002735334558578838</v>
       </c>
       <c r="F150" t="n">
-        <v>0.006350266057564623</v>
+        <v>0.007613155722271314</v>
       </c>
       <c r="G150" t="n">
-        <v>0.008136112742445504</v>
+        <v>0.009044532234102343</v>
       </c>
       <c r="H150" t="n">
-        <v>2.220602867476965e-14</v>
+        <v>2.220842632926867e-14</v>
       </c>
       <c r="I150" t="n">
-        <v>0.9813665690099744</v>
+        <v>0.9760034682214322</v>
       </c>
       <c r="J150" t="inlineStr">
         <is>
@@ -6603,32 +6603,32 @@
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68157.fa</t>
+          <t>even_MAG-GUT67012.fa</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.005799657205382988</v>
+        <v>0.2565745022654868</v>
       </c>
       <c r="C151" t="n">
-        <v>0.9840206117464541</v>
+        <v>0.4488208125961254</v>
       </c>
       <c r="D151" t="n">
-        <v>2.22055831430348e-14</v>
+        <v>4.673046312764511e-13</v>
       </c>
       <c r="E151" t="n">
-        <v>0.0003119502606492036</v>
+        <v>0.01930914120993146</v>
       </c>
       <c r="F151" t="n">
-        <v>0.004860200277173985</v>
+        <v>0.1148624770642774</v>
       </c>
       <c r="G151" t="n">
-        <v>0.005007580510295299</v>
+        <v>0.1604330668632445</v>
       </c>
       <c r="H151" t="n">
-        <v>2.22055831430348e-14</v>
+        <v>4.673046312764498e-13</v>
       </c>
       <c r="I151" t="n">
-        <v>0.9840206117464541</v>
+        <v>0.4488208125961254</v>
       </c>
       <c r="J151" t="inlineStr">
         <is>
@@ -6637,39 +6637,39 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Bifidobacteriales(reject)</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68181.fa</t>
+          <t>even_MAG-GUT67029.fa</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.00848751676407025</v>
+        <v>0.1492490502971841</v>
       </c>
       <c r="C152" t="n">
-        <v>0.9770632324761098</v>
+        <v>0.4663560632969608</v>
       </c>
       <c r="D152" t="n">
-        <v>2.22073915957395e-14</v>
+        <v>5.334184326566263e-13</v>
       </c>
       <c r="E152" t="n">
-        <v>0.0002623750199759038</v>
+        <v>0.01735945003356841</v>
       </c>
       <c r="F152" t="n">
-        <v>0.009861326804826015</v>
+        <v>0.1697182372498703</v>
       </c>
       <c r="G152" t="n">
-        <v>0.00432554893497354</v>
+        <v>0.1973171991213495</v>
       </c>
       <c r="H152" t="n">
-        <v>2.22073915957395e-14</v>
+        <v>5.334184326566265e-13</v>
       </c>
       <c r="I152" t="n">
-        <v>0.9770632324761098</v>
+        <v>0.4663560632969608</v>
       </c>
       <c r="J152" t="inlineStr">
         <is>
@@ -6678,39 +6678,39 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Bifidobacteriales(reject)</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68189.fa</t>
+          <t>even_MAG-GUT67120.fa</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.2231354209667355</v>
+        <v>0.00347187126602429</v>
       </c>
       <c r="C153" t="n">
-        <v>0.4626141994298557</v>
+        <v>0.9762636549192764</v>
       </c>
       <c r="D153" t="n">
-        <v>6.011386080499924e-13</v>
+        <v>2.220688042013255e-14</v>
       </c>
       <c r="E153" t="n">
-        <v>0.01930899871311186</v>
+        <v>0.0002616971586533975</v>
       </c>
       <c r="F153" t="n">
-        <v>0.1178841318256987</v>
+        <v>0.01263687595245736</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1770572490633959</v>
+        <v>0.007365900703544189</v>
       </c>
       <c r="H153" t="n">
-        <v>6.011386080499922e-13</v>
+        <v>2.220688042013255e-14</v>
       </c>
       <c r="I153" t="n">
-        <v>0.4626141994298557</v>
+        <v>0.9762636549192764</v>
       </c>
       <c r="J153" t="inlineStr">
         <is>
@@ -6719,39 +6719,39 @@
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales(reject)</t>
+          <t>o__Bifidobacteriales</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68190.fa</t>
+          <t>even_MAG-GUT67723.fa</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.003842009662565738</v>
+        <v>0.002523577479234477</v>
       </c>
       <c r="C154" t="n">
-        <v>0.9850085713007144</v>
+        <v>0.9824597415880566</v>
       </c>
       <c r="D154" t="n">
-        <v>2.220515354187978e-14</v>
+        <v>2.220266351919494e-14</v>
       </c>
       <c r="E154" t="n">
-        <v>0.0002691943499282586</v>
+        <v>0.0001912874433037592</v>
       </c>
       <c r="F154" t="n">
-        <v>0.006138782649746738</v>
+        <v>0.002828721964478394</v>
       </c>
       <c r="G154" t="n">
-        <v>0.00474144203700043</v>
+        <v>0.01199667152488247</v>
       </c>
       <c r="H154" t="n">
-        <v>2.220515354187978e-14</v>
+        <v>2.220266351919494e-14</v>
       </c>
       <c r="I154" t="n">
-        <v>0.9850085713007144</v>
+        <v>0.9824597415880566</v>
       </c>
       <c r="J154" t="inlineStr">
         <is>
@@ -6767,32 +6767,32 @@
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68197.fa</t>
+          <t>even_MAG-GUT67770.fa</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.003525556428413309</v>
+        <v>0.01390516787265896</v>
       </c>
       <c r="C155" t="n">
-        <v>0.9795495371702468</v>
+        <v>0.9742654441873009</v>
       </c>
       <c r="D155" t="n">
-        <v>2.220603319382024e-14</v>
+        <v>2.22074572961541e-14</v>
       </c>
       <c r="E155" t="n">
-        <v>0.0002224457472879485</v>
+        <v>0.0003334537869224728</v>
       </c>
       <c r="F155" t="n">
-        <v>0.00979988800691717</v>
+        <v>0.006625605868507315</v>
       </c>
       <c r="G155" t="n">
-        <v>0.006902572647090297</v>
+        <v>0.004870328284565997</v>
       </c>
       <c r="H155" t="n">
-        <v>2.220603319382024e-14</v>
+        <v>2.22074572961541e-14</v>
       </c>
       <c r="I155" t="n">
-        <v>0.9795495371702468</v>
+        <v>0.9742654441873009</v>
       </c>
       <c r="J155" t="inlineStr">
         <is>
@@ -6808,73 +6808,73 @@
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68245.fa</t>
+          <t>even_MAG-GUT67779.fa</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.1289436947060745</v>
+        <v>0.006823684949295326</v>
       </c>
       <c r="C156" t="n">
-        <v>1.325259466514765e-13</v>
+        <v>0.9815474213293499</v>
       </c>
       <c r="D156" t="n">
-        <v>1.325259466514765e-13</v>
+        <v>2.220655809324487e-14</v>
       </c>
       <c r="E156" t="n">
-        <v>0.00475004167630803</v>
+        <v>0.0003276801628249945</v>
       </c>
       <c r="F156" t="n">
-        <v>0.1653036456711263</v>
+        <v>0.005901694419976969</v>
       </c>
       <c r="G156" t="n">
-        <v>0.7010026179460936</v>
+        <v>0.005399519138508372</v>
       </c>
       <c r="H156" t="n">
-        <v>1.325259466514766e-13</v>
+        <v>2.220655809324487e-14</v>
       </c>
       <c r="I156" t="n">
-        <v>0.7010026179460936</v>
+        <v>0.9815474213293499</v>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Bifidobacteriales</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Bifidobacteriales</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68475.fa</t>
+          <t>even_MAG-GUT67830.fa</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.005462868397343887</v>
+        <v>0.005246276938504435</v>
       </c>
       <c r="C157" t="n">
-        <v>0.9816814349987765</v>
+        <v>0.9812947836158025</v>
       </c>
       <c r="D157" t="n">
-        <v>2.220599337151399e-14</v>
+        <v>2.220645676967978e-14</v>
       </c>
       <c r="E157" t="n">
-        <v>0.0002834315945230979</v>
+        <v>0.0002103490941234272</v>
       </c>
       <c r="F157" t="n">
-        <v>0.004595101761063247</v>
+        <v>0.006453800880122194</v>
       </c>
       <c r="G157" t="n">
-        <v>0.007977163248248834</v>
+        <v>0.006794789471403058</v>
       </c>
       <c r="H157" t="n">
-        <v>2.220599337151399e-14</v>
+        <v>2.220645676967978e-14</v>
       </c>
       <c r="I157" t="n">
-        <v>0.9816814349987765</v>
+        <v>0.9812947836158025</v>
       </c>
       <c r="J157" t="inlineStr">
         <is>
@@ -6890,32 +6890,32 @@
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68642.fa</t>
+          <t>even_MAG-GUT67839.fa</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.005099008442847055</v>
+        <v>0.004167334016751087</v>
       </c>
       <c r="C158" t="n">
-        <v>0.9851678740851074</v>
+        <v>0.9813834922866731</v>
       </c>
       <c r="D158" t="n">
-        <v>2.2205146941953e-14</v>
+        <v>2.22063246070486e-14</v>
       </c>
       <c r="E158" t="n">
-        <v>0.0002972820144292816</v>
+        <v>0.0002203724866594612</v>
       </c>
       <c r="F158" t="n">
-        <v>0.003047271226775288</v>
+        <v>0.006843913622664275</v>
       </c>
       <c r="G158" t="n">
-        <v>0.006388564230796488</v>
+        <v>0.007384887587207718</v>
       </c>
       <c r="H158" t="n">
-        <v>2.2205146941953e-14</v>
+        <v>2.22063246070486e-14</v>
       </c>
       <c r="I158" t="n">
-        <v>0.9851678740851074</v>
+        <v>0.9813834922866731</v>
       </c>
       <c r="J158" t="inlineStr">
         <is>
@@ -6931,32 +6931,32 @@
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68659.fa</t>
+          <t>even_MAG-GUT67975.fa</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.006160285505126306</v>
+        <v>0.004071890807549658</v>
       </c>
       <c r="C159" t="n">
-        <v>0.9813142028496482</v>
+        <v>0.9837966061639685</v>
       </c>
       <c r="D159" t="n">
-        <v>2.220674400056404e-14</v>
+        <v>2.220474889419231e-14</v>
       </c>
       <c r="E159" t="n">
-        <v>0.0002777370425493465</v>
+        <v>0.0002775139384141562</v>
       </c>
       <c r="F159" t="n">
-        <v>0.006125813362739584</v>
+        <v>0.003269630061839544</v>
       </c>
       <c r="G159" t="n">
-        <v>0.006121961239892127</v>
+        <v>0.008584359028183804</v>
       </c>
       <c r="H159" t="n">
-        <v>2.220674400056404e-14</v>
+        <v>2.220474889419231e-14</v>
       </c>
       <c r="I159" t="n">
-        <v>0.9813142028496482</v>
+        <v>0.9837966061639685</v>
       </c>
       <c r="J159" t="inlineStr">
         <is>
@@ -6972,32 +6972,32 @@
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68697.fa</t>
+          <t>even_MAG-GUT67977.fa</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.001203590198474256</v>
+        <v>0.005611187258852365</v>
       </c>
       <c r="C160" t="n">
-        <v>0.9791581624081503</v>
+        <v>0.9830623118267694</v>
       </c>
       <c r="D160" t="n">
-        <v>2.220230529111034e-14</v>
+        <v>2.220616646431472e-14</v>
       </c>
       <c r="E160" t="n">
-        <v>0.000178996790769361</v>
+        <v>0.000268047124636372</v>
       </c>
       <c r="F160" t="n">
-        <v>0.004695879830719453</v>
+        <v>0.004806691420805984</v>
       </c>
       <c r="G160" t="n">
-        <v>0.01476337077184214</v>
+        <v>0.006251762368891458</v>
       </c>
       <c r="H160" t="n">
-        <v>2.220230529111034e-14</v>
+        <v>2.220616646431472e-14</v>
       </c>
       <c r="I160" t="n">
-        <v>0.9791581624081503</v>
+        <v>0.9830623118267694</v>
       </c>
       <c r="J160" t="inlineStr">
         <is>
@@ -7013,32 +7013,32 @@
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68968.fa</t>
+          <t>even_MAG-GUT68007.fa</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.00403363135222264</v>
+        <v>0.002788617173968163</v>
       </c>
       <c r="C161" t="n">
-        <v>0.9869443839260122</v>
+        <v>0.9748345785151744</v>
       </c>
       <c r="D161" t="n">
-        <v>2.220394721419993e-14</v>
+        <v>2.22056710980302e-14</v>
       </c>
       <c r="E161" t="n">
-        <v>0.0002939653039842292</v>
+        <v>0.0002653144672972186</v>
       </c>
       <c r="F161" t="n">
-        <v>0.001750781714076857</v>
+        <v>0.01496111005567153</v>
       </c>
       <c r="G161" t="n">
-        <v>0.006977237703659567</v>
+        <v>0.007150379787844227</v>
       </c>
       <c r="H161" t="n">
-        <v>2.220394721419993e-14</v>
+        <v>2.22056710980302e-14</v>
       </c>
       <c r="I161" t="n">
-        <v>0.9869443839260122</v>
+        <v>0.9748345785151744</v>
       </c>
       <c r="J161" t="inlineStr">
         <is>
@@ -7054,32 +7054,32 @@
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69048.fa</t>
+          <t>even_MAG-GUT68023.fa</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.007504855595075628</v>
+        <v>0.007607819002931863</v>
       </c>
       <c r="C162" t="n">
-        <v>0.9798208409406751</v>
+        <v>0.9795488011656455</v>
       </c>
       <c r="D162" t="n">
-        <v>2.22068856119525e-14</v>
+        <v>2.220602552077339e-14</v>
       </c>
       <c r="E162" t="n">
-        <v>0.0002489921346837124</v>
+        <v>0.0002650964249171617</v>
       </c>
       <c r="F162" t="n">
-        <v>0.004875526920693415</v>
+        <v>0.009350577309623086</v>
       </c>
       <c r="G162" t="n">
-        <v>0.007549784408827652</v>
+        <v>0.003227706096837869</v>
       </c>
       <c r="H162" t="n">
-        <v>2.22068856119525e-14</v>
+        <v>2.220602552077339e-14</v>
       </c>
       <c r="I162" t="n">
-        <v>0.9798208409406751</v>
+        <v>0.9795488011656455</v>
       </c>
       <c r="J162" t="inlineStr">
         <is>
@@ -7095,32 +7095,32 @@
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69064.fa</t>
+          <t>even_MAG-GUT68145.fa</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.002874781856957339</v>
+        <v>0.003892068781907594</v>
       </c>
       <c r="C163" t="n">
-        <v>0.9824151094685252</v>
+        <v>0.9813665690099744</v>
       </c>
       <c r="D163" t="n">
-        <v>2.220327135315098e-14</v>
+        <v>2.220602867476965e-14</v>
       </c>
       <c r="E163" t="n">
-        <v>0.0001989447061550771</v>
+        <v>0.0002549834080633423</v>
       </c>
       <c r="F163" t="n">
-        <v>0.003206356374187899</v>
+        <v>0.006350266057564623</v>
       </c>
       <c r="G163" t="n">
-        <v>0.01130480759412992</v>
+        <v>0.008136112742445504</v>
       </c>
       <c r="H163" t="n">
-        <v>2.220327135315098e-14</v>
+        <v>2.220602867476965e-14</v>
       </c>
       <c r="I163" t="n">
-        <v>0.9824151094685252</v>
+        <v>0.9813665690099744</v>
       </c>
       <c r="J163" t="inlineStr">
         <is>
@@ -7136,32 +7136,32 @@
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69117.fa</t>
+          <t>even_MAG-GUT68157.fa</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.002561451168052497</v>
+        <v>0.005799657205382988</v>
       </c>
       <c r="C164" t="n">
-        <v>0.9877423126274354</v>
+        <v>0.9840206117464541</v>
       </c>
       <c r="D164" t="n">
-        <v>2.220295073407343e-14</v>
+        <v>2.22055831430348e-14</v>
       </c>
       <c r="E164" t="n">
-        <v>0.000229833763919831</v>
+        <v>0.0003119502606492036</v>
       </c>
       <c r="F164" t="n">
-        <v>0.001806878741725626</v>
+        <v>0.004860200277173985</v>
       </c>
       <c r="G164" t="n">
-        <v>0.007659523698822043</v>
+        <v>0.005007580510295299</v>
       </c>
       <c r="H164" t="n">
-        <v>2.220295073407343e-14</v>
+        <v>2.22055831430348e-14</v>
       </c>
       <c r="I164" t="n">
-        <v>0.9877423126274354</v>
+        <v>0.9840206117464541</v>
       </c>
       <c r="J164" t="inlineStr">
         <is>
@@ -7177,32 +7177,32 @@
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69121.fa</t>
+          <t>even_MAG-GUT68181.fa</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.003522242154994003</v>
+        <v>0.00848751676407025</v>
       </c>
       <c r="C165" t="n">
-        <v>0.9878500097925229</v>
+        <v>0.9770632324761098</v>
       </c>
       <c r="D165" t="n">
-        <v>2.220458122841974e-14</v>
+        <v>2.22073915957395e-14</v>
       </c>
       <c r="E165" t="n">
-        <v>0.0002928828185362488</v>
+        <v>0.0002623750199759038</v>
       </c>
       <c r="F165" t="n">
-        <v>0.003680361384626127</v>
+        <v>0.009861326804826015</v>
       </c>
       <c r="G165" t="n">
-        <v>0.004654503849276158</v>
+        <v>0.00432554893497354</v>
       </c>
       <c r="H165" t="n">
-        <v>2.220458122841974e-14</v>
+        <v>2.22073915957395e-14</v>
       </c>
       <c r="I165" t="n">
-        <v>0.9878500097925229</v>
+        <v>0.9770632324761098</v>
       </c>
       <c r="J165" t="inlineStr">
         <is>
@@ -7218,32 +7218,32 @@
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69224.fa</t>
+          <t>even_MAG-GUT68189.fa</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.0856549939300008</v>
+        <v>0.2231354209667355</v>
       </c>
       <c r="C166" t="n">
-        <v>0.462381374523774</v>
+        <v>0.4626141994298557</v>
       </c>
       <c r="D166" t="n">
-        <v>5.541019256696626e-13</v>
+        <v>6.011386080499924e-13</v>
       </c>
       <c r="E166" t="n">
-        <v>0.01308332116871858</v>
+        <v>0.01930899871311186</v>
       </c>
       <c r="F166" t="n">
-        <v>0.2120958397084734</v>
+        <v>0.1178841318256987</v>
       </c>
       <c r="G166" t="n">
-        <v>0.2267844706679249</v>
+        <v>0.1770572490633959</v>
       </c>
       <c r="H166" t="n">
-        <v>5.541019256696619e-13</v>
+        <v>6.011386080499922e-13</v>
       </c>
       <c r="I166" t="n">
-        <v>0.462381374523774</v>
+        <v>0.4626141994298557</v>
       </c>
       <c r="J166" t="inlineStr">
         <is>
@@ -7259,32 +7259,32 @@
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69253.fa</t>
+          <t>even_MAG-GUT68190.fa</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.0005142233910843365</v>
+        <v>0.003842009662565738</v>
       </c>
       <c r="C167" t="n">
-        <v>0.9896843092398546</v>
+        <v>0.9850085713007144</v>
       </c>
       <c r="D167" t="n">
-        <v>2.220110767846889e-14</v>
+        <v>2.220515354187978e-14</v>
       </c>
       <c r="E167" t="n">
-        <v>0.000199515672579815</v>
+        <v>0.0002691943499282586</v>
       </c>
       <c r="F167" t="n">
-        <v>0.00174250861733811</v>
+        <v>0.006138782649746738</v>
       </c>
       <c r="G167" t="n">
-        <v>0.007859443079098872</v>
+        <v>0.00474144203700043</v>
       </c>
       <c r="H167" t="n">
-        <v>2.220110767846889e-14</v>
+        <v>2.220515354187978e-14</v>
       </c>
       <c r="I167" t="n">
-        <v>0.9896843092398546</v>
+        <v>0.9850085713007144</v>
       </c>
       <c r="J167" t="inlineStr">
         <is>
@@ -7300,32 +7300,32 @@
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69434.fa</t>
+          <t>even_MAG-GUT68197.fa</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.002089162386712052</v>
+        <v>0.003525556428413309</v>
       </c>
       <c r="C168" t="n">
-        <v>0.9821115101365575</v>
+        <v>0.9795495371702468</v>
       </c>
       <c r="D168" t="n">
-        <v>2.220380654118397e-14</v>
+        <v>2.220603319382024e-14</v>
       </c>
       <c r="E168" t="n">
-        <v>0.0002036019057613821</v>
+        <v>0.0002224457472879485</v>
       </c>
       <c r="F168" t="n">
-        <v>0.004342877441715903</v>
+        <v>0.00979988800691717</v>
       </c>
       <c r="G168" t="n">
-        <v>0.01125284812920865</v>
+        <v>0.006902572647090297</v>
       </c>
       <c r="H168" t="n">
-        <v>2.220380654118397e-14</v>
+        <v>2.220603319382024e-14</v>
       </c>
       <c r="I168" t="n">
-        <v>0.9821115101365575</v>
+        <v>0.9795495371702468</v>
       </c>
       <c r="J168" t="inlineStr">
         <is>
@@ -7341,73 +7341,73 @@
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69447.fa</t>
+          <t>even_MAG-GUT68245.fa</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.002744499606701434</v>
+        <v>0.1289436947060745</v>
       </c>
       <c r="C169" t="n">
-        <v>0.981248796495242</v>
+        <v>1.325259466514765e-13</v>
       </c>
       <c r="D169" t="n">
-        <v>2.220254881937871e-14</v>
+        <v>1.325259466514765e-13</v>
       </c>
       <c r="E169" t="n">
-        <v>0.0002036811311429263</v>
+        <v>0.00475004167630803</v>
       </c>
       <c r="F169" t="n">
-        <v>0.002813344876517509</v>
+        <v>0.1653036456711263</v>
       </c>
       <c r="G169" t="n">
-        <v>0.01298967789035161</v>
+        <v>0.7010026179460936</v>
       </c>
       <c r="H169" t="n">
-        <v>2.220254881937871e-14</v>
+        <v>1.325259466514766e-13</v>
       </c>
       <c r="I169" t="n">
-        <v>0.981248796495242</v>
+        <v>0.7010026179460936</v>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT74324.fa</t>
+          <t>even_MAG-GUT68475.fa</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.004203574785799235</v>
+        <v>0.005462868397343887</v>
       </c>
       <c r="C170" t="n">
-        <v>0.9806639679854459</v>
+        <v>0.9816814349987765</v>
       </c>
       <c r="D170" t="n">
-        <v>2.220614950936898e-14</v>
+        <v>2.220599337151399e-14</v>
       </c>
       <c r="E170" t="n">
-        <v>0.0002525880647080379</v>
+        <v>0.0002834315945230979</v>
       </c>
       <c r="F170" t="n">
-        <v>0.008978307204414856</v>
+        <v>0.004595101761063247</v>
       </c>
       <c r="G170" t="n">
-        <v>0.005901561959587573</v>
+        <v>0.007977163248248834</v>
       </c>
       <c r="H170" t="n">
-        <v>2.220614950936898e-14</v>
+        <v>2.220599337151399e-14</v>
       </c>
       <c r="I170" t="n">
-        <v>0.9806639679854459</v>
+        <v>0.9816814349987765</v>
       </c>
       <c r="J170" t="inlineStr">
         <is>
@@ -7423,32 +7423,32 @@
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT74347.fa</t>
+          <t>even_MAG-GUT68642.fa</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.00901745766417864</v>
+        <v>0.005099008442847055</v>
       </c>
       <c r="C171" t="n">
-        <v>0.9779887442132745</v>
+        <v>0.9851678740851074</v>
       </c>
       <c r="D171" t="n">
-        <v>2.220757358797976e-14</v>
+        <v>2.2205146941953e-14</v>
       </c>
       <c r="E171" t="n">
-        <v>0.0004397948108302457</v>
+        <v>0.0002972820144292816</v>
       </c>
       <c r="F171" t="n">
-        <v>0.006752546648990477</v>
+        <v>0.003047271226775288</v>
       </c>
       <c r="G171" t="n">
-        <v>0.005801456662681571</v>
+        <v>0.006388564230796488</v>
       </c>
       <c r="H171" t="n">
-        <v>2.220757358797976e-14</v>
+        <v>2.2205146941953e-14</v>
       </c>
       <c r="I171" t="n">
-        <v>0.9779887442132745</v>
+        <v>0.9851678740851074</v>
       </c>
       <c r="J171" t="inlineStr">
         <is>
@@ -7464,32 +7464,32 @@
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7772.fa</t>
+          <t>even_MAG-GUT68659.fa</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.008301319636105038</v>
+        <v>0.006160285505126306</v>
       </c>
       <c r="C172" t="n">
-        <v>0.977284136967457</v>
+        <v>0.9813142028496482</v>
       </c>
       <c r="D172" t="n">
-        <v>2.2208247941814e-14</v>
+        <v>2.220674400056404e-14</v>
       </c>
       <c r="E172" t="n">
-        <v>0.0002405037269650054</v>
+        <v>0.0002777370425493465</v>
       </c>
       <c r="F172" t="n">
-        <v>0.007479171615594166</v>
+        <v>0.006125813362739584</v>
       </c>
       <c r="G172" t="n">
-        <v>0.006694868053834385</v>
+        <v>0.006121961239892127</v>
       </c>
       <c r="H172" t="n">
-        <v>2.2208247941814e-14</v>
+        <v>2.220674400056404e-14</v>
       </c>
       <c r="I172" t="n">
-        <v>0.977284136967457</v>
+        <v>0.9813142028496482</v>
       </c>
       <c r="J172" t="inlineStr">
         <is>
@@ -7505,32 +7505,32 @@
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80568.fa</t>
+          <t>even_MAG-GUT68697.fa</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.004646840501450982</v>
+        <v>0.001203590198474256</v>
       </c>
       <c r="C173" t="n">
-        <v>0.983103769263016</v>
+        <v>0.9791581624081503</v>
       </c>
       <c r="D173" t="n">
-        <v>2.22058542723621e-14</v>
+        <v>2.220230529111034e-14</v>
       </c>
       <c r="E173" t="n">
-        <v>0.000337417581607622</v>
+        <v>0.000178996790769361</v>
       </c>
       <c r="F173" t="n">
-        <v>0.005050055024622361</v>
+        <v>0.004695879830719453</v>
       </c>
       <c r="G173" t="n">
-        <v>0.00686191762925854</v>
+        <v>0.01476337077184214</v>
       </c>
       <c r="H173" t="n">
-        <v>2.22058542723621e-14</v>
+        <v>2.220230529111034e-14</v>
       </c>
       <c r="I173" t="n">
-        <v>0.983103769263016</v>
+        <v>0.9791581624081503</v>
       </c>
       <c r="J173" t="inlineStr">
         <is>
@@ -7546,32 +7546,32 @@
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT81959.fa</t>
+          <t>even_MAG-GUT68968.fa</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0.01227668289176349</v>
+        <v>0.00403363135222264</v>
       </c>
       <c r="C174" t="n">
-        <v>0.9749002469877557</v>
+        <v>0.9869443839260122</v>
       </c>
       <c r="D174" t="n">
-        <v>2.220827827764573e-14</v>
+        <v>2.220394721419993e-14</v>
       </c>
       <c r="E174" t="n">
-        <v>0.0003384368938887905</v>
+        <v>0.0002939653039842292</v>
       </c>
       <c r="F174" t="n">
-        <v>0.006759585741775309</v>
+        <v>0.001750781714076857</v>
       </c>
       <c r="G174" t="n">
-        <v>0.005725047484772262</v>
+        <v>0.006977237703659567</v>
       </c>
       <c r="H174" t="n">
-        <v>2.220827827764573e-14</v>
+        <v>2.220394721419993e-14</v>
       </c>
       <c r="I174" t="n">
-        <v>0.9749002469877557</v>
+        <v>0.9869443839260122</v>
       </c>
       <c r="J174" t="inlineStr">
         <is>
@@ -7587,32 +7587,32 @@
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT85070.fa</t>
+          <t>even_MAG-GUT69048.fa</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0.001279330976787198</v>
+        <v>0.007504855595075628</v>
       </c>
       <c r="C175" t="n">
-        <v>0.9911029358165367</v>
+        <v>0.9798208409406751</v>
       </c>
       <c r="D175" t="n">
-        <v>2.220161390995044e-14</v>
+        <v>2.22068856119525e-14</v>
       </c>
       <c r="E175" t="n">
-        <v>0.0002318476396700521</v>
+        <v>0.0002489921346837124</v>
       </c>
       <c r="F175" t="n">
-        <v>0.0009918314596792997</v>
+        <v>0.004875526920693415</v>
       </c>
       <c r="G175" t="n">
-        <v>0.006394054107282178</v>
+        <v>0.007549784408827652</v>
       </c>
       <c r="H175" t="n">
-        <v>2.220161390995044e-14</v>
+        <v>2.22068856119525e-14</v>
       </c>
       <c r="I175" t="n">
-        <v>0.9911029358165367</v>
+        <v>0.9798208409406751</v>
       </c>
       <c r="J175" t="inlineStr">
         <is>
@@ -7628,32 +7628,32 @@
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT86606.fa</t>
+          <t>even_MAG-GUT69064.fa</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.008534621167409316</v>
+        <v>0.002874781856957339</v>
       </c>
       <c r="C176" t="n">
-        <v>0.9749070732225174</v>
+        <v>0.9824151094685252</v>
       </c>
       <c r="D176" t="n">
-        <v>2.220764317590554e-14</v>
+        <v>2.220327135315098e-14</v>
       </c>
       <c r="E176" t="n">
-        <v>0.0004114609233401695</v>
+        <v>0.0001989447061550771</v>
       </c>
       <c r="F176" t="n">
-        <v>0.01191624664015058</v>
+        <v>0.003206356374187899</v>
       </c>
       <c r="G176" t="n">
-        <v>0.004230598046538118</v>
+        <v>0.01130480759412992</v>
       </c>
       <c r="H176" t="n">
-        <v>2.220764317590554e-14</v>
+        <v>2.220327135315098e-14</v>
       </c>
       <c r="I176" t="n">
-        <v>0.9749070732225174</v>
+        <v>0.9824151094685252</v>
       </c>
       <c r="J176" t="inlineStr">
         <is>
@@ -7669,32 +7669,32 @@
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88052.fa</t>
+          <t>even_MAG-GUT69117.fa</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.005929023747133965</v>
+        <v>0.002561451168052497</v>
       </c>
       <c r="C177" t="n">
-        <v>0.9798964687386517</v>
+        <v>0.9877423126274354</v>
       </c>
       <c r="D177" t="n">
-        <v>2.220703137237822e-14</v>
+        <v>2.220295073407343e-14</v>
       </c>
       <c r="E177" t="n">
-        <v>0.0002767699425470446</v>
+        <v>0.000229833763919831</v>
       </c>
       <c r="F177" t="n">
-        <v>0.007638321949359522</v>
+        <v>0.001806878741725626</v>
       </c>
       <c r="G177" t="n">
-        <v>0.00625941562226347</v>
+        <v>0.007659523698822043</v>
       </c>
       <c r="H177" t="n">
-        <v>2.220703137237822e-14</v>
+        <v>2.220295073407343e-14</v>
       </c>
       <c r="I177" t="n">
-        <v>0.9798964687386517</v>
+        <v>0.9877423126274354</v>
       </c>
       <c r="J177" t="inlineStr">
         <is>
@@ -7710,32 +7710,32 @@
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88444.fa</t>
+          <t>even_MAG-GUT69121.fa</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.001447373563389266</v>
+        <v>0.003522242154994003</v>
       </c>
       <c r="C178" t="n">
-        <v>0.9883637692885839</v>
+        <v>0.9878500097925229</v>
       </c>
       <c r="D178" t="n">
-        <v>2.220264419680156e-14</v>
+        <v>2.220458122841974e-14</v>
       </c>
       <c r="E178" t="n">
-        <v>0.000211126328198034</v>
+        <v>0.0002928828185362488</v>
       </c>
       <c r="F178" t="n">
-        <v>0.002512551621593697</v>
+        <v>0.003680361384626127</v>
       </c>
       <c r="G178" t="n">
-        <v>0.007465179198190658</v>
+        <v>0.004654503849276158</v>
       </c>
       <c r="H178" t="n">
-        <v>2.220264419680156e-14</v>
+        <v>2.220458122841974e-14</v>
       </c>
       <c r="I178" t="n">
-        <v>0.9883637692885839</v>
+        <v>0.9878500097925229</v>
       </c>
       <c r="J178" t="inlineStr">
         <is>
@@ -7751,32 +7751,32 @@
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT9016.fa</t>
+          <t>even_MAG-GUT69224.fa</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0.001567835839135981</v>
+        <v>0.0856549939300008</v>
       </c>
       <c r="C179" t="n">
-        <v>0.991325459992017</v>
+        <v>0.462381374523774</v>
       </c>
       <c r="D179" t="n">
-        <v>2.220238173370372e-14</v>
+        <v>5.541019256696626e-13</v>
       </c>
       <c r="E179" t="n">
-        <v>0.000238999334821099</v>
+        <v>0.01308332116871858</v>
       </c>
       <c r="F179" t="n">
-        <v>0.001325781057687765</v>
+        <v>0.2120958397084734</v>
       </c>
       <c r="G179" t="n">
-        <v>0.005541923776293696</v>
+        <v>0.2267844706679249</v>
       </c>
       <c r="H179" t="n">
-        <v>2.220238173370372e-14</v>
+        <v>5.541019256696619e-13</v>
       </c>
       <c r="I179" t="n">
-        <v>0.991325459992017</v>
+        <v>0.462381374523774</v>
       </c>
       <c r="J179" t="inlineStr">
         <is>
@@ -7785,162 +7785,162 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales</t>
+          <t>o__Bifidobacteriales(reject)</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91259.fa</t>
+          <t>even_MAG-GUT69229.fa</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0.2883430291615503</v>
+        <v>0.01072460740801428</v>
       </c>
       <c r="C180" t="n">
-        <v>4.106314688143554e-14</v>
+        <v>0.9799367247745085</v>
       </c>
       <c r="D180" t="n">
-        <v>4.106314688143554e-14</v>
+        <v>2.220581218842509e-14</v>
       </c>
       <c r="E180" t="n">
-        <v>0.0007180349833637171</v>
+        <v>0.000313647611246862</v>
       </c>
       <c r="F180" t="n">
-        <v>0.07023820544437877</v>
+        <v>0.003816081758541475</v>
       </c>
       <c r="G180" t="n">
-        <v>0.640700730410584</v>
+        <v>0.005208938447644362</v>
       </c>
       <c r="H180" t="n">
-        <v>4.106314688143553e-14</v>
+        <v>2.220581218842509e-14</v>
       </c>
       <c r="I180" t="n">
-        <v>0.640700730410584</v>
+        <v>0.9799367247745085</v>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Bifidobacteriales</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales(reject)</t>
+          <t>o__Bifidobacteriales</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91528.fa</t>
+          <t>even_MAG-GUT69253.fa</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.3073050926303238</v>
+        <v>0.0005142233910843365</v>
       </c>
       <c r="C181" t="n">
-        <v>7.687776843651114e-14</v>
+        <v>0.9896843092398546</v>
       </c>
       <c r="D181" t="n">
-        <v>7.687776843651119e-14</v>
+        <v>2.220110767846889e-14</v>
       </c>
       <c r="E181" t="n">
-        <v>0.001605530489771235</v>
+        <v>0.000199515672579815</v>
       </c>
       <c r="F181" t="n">
-        <v>0.0867757268531776</v>
+        <v>0.00174250861733811</v>
       </c>
       <c r="G181" t="n">
-        <v>0.6043136500264968</v>
+        <v>0.007859443079098872</v>
       </c>
       <c r="H181" t="n">
-        <v>7.687776843651118e-14</v>
+        <v>2.220110767846889e-14</v>
       </c>
       <c r="I181" t="n">
-        <v>0.6043136500264968</v>
+        <v>0.9896843092398546</v>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Bifidobacteriales</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales(reject)</t>
+          <t>o__Bifidobacteriales</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91549.fa</t>
+          <t>even_MAG-GUT69434.fa</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0.3234893521054036</v>
+        <v>0.002089162386712052</v>
       </c>
       <c r="C182" t="n">
-        <v>5.350454763595262e-14</v>
+        <v>0.9821115101365575</v>
       </c>
       <c r="D182" t="n">
-        <v>5.350454763595261e-14</v>
+        <v>2.220380654118397e-14</v>
       </c>
       <c r="E182" t="n">
-        <v>0.001010735118632225</v>
+        <v>0.0002036019057613821</v>
       </c>
       <c r="F182" t="n">
-        <v>0.08233520687719897</v>
+        <v>0.004342877441715903</v>
       </c>
       <c r="G182" t="n">
-        <v>0.5931647058986048</v>
+        <v>0.01125284812920865</v>
       </c>
       <c r="H182" t="n">
-        <v>5.35045476359526e-14</v>
+        <v>2.220380654118397e-14</v>
       </c>
       <c r="I182" t="n">
-        <v>0.5931647058986048</v>
+        <v>0.9821115101365575</v>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Bifidobacteriales</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales(reject)</t>
+          <t>o__Bifidobacteriales</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91633.fa</t>
+          <t>even_MAG-GUT69447.fa</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0.004538043485102055</v>
+        <v>0.002744499606701434</v>
       </c>
       <c r="C183" t="n">
-        <v>0.9781127712968162</v>
+        <v>0.981248796495242</v>
       </c>
       <c r="D183" t="n">
-        <v>2.220473354982446e-14</v>
+        <v>2.220254881937871e-14</v>
       </c>
       <c r="E183" t="n">
-        <v>0.0001843401986421646</v>
+        <v>0.0002036811311429263</v>
       </c>
       <c r="F183" t="n">
-        <v>0.004119943724674888</v>
+        <v>0.002813344876517509</v>
       </c>
       <c r="G183" t="n">
-        <v>0.01304490129472031</v>
+        <v>0.01298967789035161</v>
       </c>
       <c r="H183" t="n">
-        <v>2.220473354982446e-14</v>
+        <v>2.220254881937871e-14</v>
       </c>
       <c r="I183" t="n">
-        <v>0.9781127712968162</v>
+        <v>0.981248796495242</v>
       </c>
       <c r="J183" t="inlineStr">
         <is>
@@ -7956,32 +7956,32 @@
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91733.fa</t>
+          <t>even_MAG-GUT74324.fa</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0.002297758582058715</v>
+        <v>0.004203574785799235</v>
       </c>
       <c r="C184" t="n">
-        <v>0.9811931297334363</v>
+        <v>0.9806639679854459</v>
       </c>
       <c r="D184" t="n">
-        <v>2.220543689860692e-14</v>
+        <v>2.220614950936898e-14</v>
       </c>
       <c r="E184" t="n">
-        <v>0.0002383301289404565</v>
+        <v>0.0002525880647080379</v>
       </c>
       <c r="F184" t="n">
-        <v>0.008261794387749188</v>
+        <v>0.008978307204414856</v>
       </c>
       <c r="G184" t="n">
-        <v>0.008008987167770959</v>
+        <v>0.005901561959587573</v>
       </c>
       <c r="H184" t="n">
-        <v>2.220543689860692e-14</v>
+        <v>2.220614950936898e-14</v>
       </c>
       <c r="I184" t="n">
-        <v>0.9811931297334363</v>
+        <v>0.9806639679854459</v>
       </c>
       <c r="J184" t="inlineStr">
         <is>
@@ -7997,32 +7997,32 @@
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91735.fa</t>
+          <t>even_MAG-GUT74347.fa</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0.002297758582058715</v>
+        <v>0.00901745766417864</v>
       </c>
       <c r="C185" t="n">
-        <v>0.9811931297334363</v>
+        <v>0.9779887442132745</v>
       </c>
       <c r="D185" t="n">
-        <v>2.220543689860692e-14</v>
+        <v>2.220757358797976e-14</v>
       </c>
       <c r="E185" t="n">
-        <v>0.0002383301289404565</v>
+        <v>0.0004397948108302457</v>
       </c>
       <c r="F185" t="n">
-        <v>0.008261794387749188</v>
+        <v>0.006752546648990477</v>
       </c>
       <c r="G185" t="n">
-        <v>0.008008987167770959</v>
+        <v>0.005801456662681571</v>
       </c>
       <c r="H185" t="n">
-        <v>2.220543689860692e-14</v>
+        <v>2.220757358797976e-14</v>
       </c>
       <c r="I185" t="n">
-        <v>0.9811931297334363</v>
+        <v>0.9779887442132745</v>
       </c>
       <c r="J185" t="inlineStr">
         <is>
@@ -8038,114 +8038,114 @@
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91835.fa</t>
+          <t>even_MAG-GUT76034.fa</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.3536714901692058</v>
+        <v>0.6917719633452706</v>
       </c>
       <c r="C186" t="n">
-        <v>3.896744247047249e-14</v>
+        <v>0.231888946567387</v>
       </c>
       <c r="D186" t="n">
-        <v>3.896744247047247e-14</v>
+        <v>2.831899273555858e-14</v>
       </c>
       <c r="E186" t="n">
-        <v>0.0007392854891032935</v>
+        <v>0.0009423394940865122</v>
       </c>
       <c r="F186" t="n">
-        <v>0.05818236547668868</v>
+        <v>0.0620674697332593</v>
       </c>
       <c r="G186" t="n">
-        <v>0.5874068588648854</v>
+        <v>0.01332928085993977</v>
       </c>
       <c r="H186" t="n">
-        <v>3.896744247047248e-14</v>
+        <v>2.831899273555852e-14</v>
       </c>
       <c r="I186" t="n">
-        <v>0.5874068588648854</v>
+        <v>0.6917719633452706</v>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales(reject)</t>
+          <t>o__Actinomycetales</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91865.fa</t>
+          <t>even_MAG-GUT7772.fa</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0.3198559829713886</v>
+        <v>0.008301319636105038</v>
       </c>
       <c r="C187" t="n">
-        <v>4.833142716968706e-14</v>
+        <v>0.977284136967457</v>
       </c>
       <c r="D187" t="n">
-        <v>4.833142716968704e-14</v>
+        <v>2.2208247941814e-14</v>
       </c>
       <c r="E187" t="n">
-        <v>0.0009592802289232033</v>
+        <v>0.0002405037269650054</v>
       </c>
       <c r="F187" t="n">
-        <v>0.1520889247775052</v>
+        <v>0.007479171615594166</v>
       </c>
       <c r="G187" t="n">
-        <v>0.5270958120220379</v>
+        <v>0.006694868053834385</v>
       </c>
       <c r="H187" t="n">
-        <v>4.833142716968704e-14</v>
+        <v>2.2208247941814e-14</v>
       </c>
       <c r="I187" t="n">
-        <v>0.5270958120220379</v>
+        <v>0.977284136967457</v>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Bifidobacteriales</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales(reject)</t>
+          <t>o__Bifidobacteriales</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT92065.fa</t>
+          <t>even_MAG-GUT80568.fa</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0.2038252193566688</v>
+        <v>0.004646840501450982</v>
       </c>
       <c r="C188" t="n">
-        <v>0.463326828499953</v>
+        <v>0.983103769263016</v>
       </c>
       <c r="D188" t="n">
-        <v>7.797242207640285e-13</v>
+        <v>2.22058542723621e-14</v>
       </c>
       <c r="E188" t="n">
-        <v>0.02464067288908456</v>
+        <v>0.000337417581607622</v>
       </c>
       <c r="F188" t="n">
-        <v>0.1199173231883891</v>
+        <v>0.005050055024622361</v>
       </c>
       <c r="G188" t="n">
-        <v>0.1882899560643452</v>
+        <v>0.00686191762925854</v>
       </c>
       <c r="H188" t="n">
-        <v>7.797242207640285e-13</v>
+        <v>2.22058542723621e-14</v>
       </c>
       <c r="I188" t="n">
-        <v>0.463326828499953</v>
+        <v>0.983103769263016</v>
       </c>
       <c r="J188" t="inlineStr">
         <is>
@@ -8154,121 +8154,121 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>o__Bifidobacteriales(reject)</t>
+          <t>o__Bifidobacteriales</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT92079.fa</t>
+          <t>even_MAG-GUT81959.fa</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0.2977049263705737</v>
+        <v>0.01227668289176349</v>
       </c>
       <c r="C189" t="n">
-        <v>6.005203969228022e-14</v>
+        <v>0.9749002469877557</v>
       </c>
       <c r="D189" t="n">
-        <v>6.005203969228022e-14</v>
+        <v>2.220827827764573e-14</v>
       </c>
       <c r="E189" t="n">
-        <v>0.00104061652271324</v>
+        <v>0.0003384368938887905</v>
       </c>
       <c r="F189" t="n">
-        <v>0.147683180441269</v>
+        <v>0.006759585741775309</v>
       </c>
       <c r="G189" t="n">
-        <v>0.553571276665264</v>
+        <v>0.005725047484772262</v>
       </c>
       <c r="H189" t="n">
-        <v>6.005203969228022e-14</v>
+        <v>2.220827827764573e-14</v>
       </c>
       <c r="I189" t="n">
-        <v>0.553571276665264</v>
+        <v>0.9749002469877557</v>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Bifidobacteriales</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales(reject)</t>
+          <t>o__Bifidobacteriales</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT92127.fa</t>
+          <t>even_MAG-GUT85070.fa</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0.3384976248531451</v>
+        <v>0.001279330976787198</v>
       </c>
       <c r="C190" t="n">
-        <v>4.950985491735233e-14</v>
+        <v>0.9911029358165367</v>
       </c>
       <c r="D190" t="n">
-        <v>4.950985491735233e-14</v>
+        <v>2.220161390995044e-14</v>
       </c>
       <c r="E190" t="n">
-        <v>0.0009001237844798856</v>
+        <v>0.0002318476396700521</v>
       </c>
       <c r="F190" t="n">
-        <v>0.0527440267569509</v>
+        <v>0.0009918314596792997</v>
       </c>
       <c r="G190" t="n">
-        <v>0.6078582246052756</v>
+        <v>0.006394054107282178</v>
       </c>
       <c r="H190" t="n">
-        <v>4.950985491735233e-14</v>
+        <v>2.220161390995044e-14</v>
       </c>
       <c r="I190" t="n">
-        <v>0.6078582246052756</v>
+        <v>0.9911029358165367</v>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales</t>
+          <t>o__Bifidobacteriales</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>o__Propionibacteriales(reject)</t>
+          <t>o__Bifidobacteriales</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT9523.fa</t>
+          <t>even_MAG-GUT86606.fa</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0.007242856837892894</v>
+        <v>0.008534621167409316</v>
       </c>
       <c r="C191" t="n">
-        <v>0.9810718177916014</v>
+        <v>0.9749070732225174</v>
       </c>
       <c r="D191" t="n">
-        <v>2.220649964358752e-14</v>
+        <v>2.220764317590554e-14</v>
       </c>
       <c r="E191" t="n">
-        <v>0.0003702989255284078</v>
+        <v>0.0004114609233401695</v>
       </c>
       <c r="F191" t="n">
-        <v>0.00451189384177878</v>
+        <v>0.01191624664015058</v>
       </c>
       <c r="G191" t="n">
-        <v>0.006803132603154133</v>
+        <v>0.004230598046538118</v>
       </c>
       <c r="H191" t="n">
-        <v>2.220649964358752e-14</v>
+        <v>2.220764317590554e-14</v>
       </c>
       <c r="I191" t="n">
-        <v>0.9810718177916014</v>
+        <v>0.9749070732225174</v>
       </c>
       <c r="J191" t="inlineStr">
         <is>
@@ -8284,41 +8284,697 @@
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT88052.fa</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>0.005929023747133965</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0.9798964687386517</v>
+      </c>
+      <c r="D192" t="n">
+        <v>2.220703137237822e-14</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0.0002767699425470446</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0.007638321949359522</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0.00625941562226347</v>
+      </c>
+      <c r="H192" t="n">
+        <v>2.220703137237822e-14</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0.9798964687386517</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>o__Bifidobacteriales</t>
+        </is>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>o__Bifidobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT88444.fa</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>0.001447373563389266</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0.9883637692885839</v>
+      </c>
+      <c r="D193" t="n">
+        <v>2.220264419680156e-14</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0.000211126328198034</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0.002512551621593697</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0.007465179198190658</v>
+      </c>
+      <c r="H193" t="n">
+        <v>2.220264419680156e-14</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0.9883637692885839</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>o__Bifidobacteriales</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>o__Bifidobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT9016.fa</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>0.001567835839135981</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0.991325459992017</v>
+      </c>
+      <c r="D194" t="n">
+        <v>2.220238173370372e-14</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0.000238999334821099</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0.001325781057687765</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0.005541923776293696</v>
+      </c>
+      <c r="H194" t="n">
+        <v>2.220238173370372e-14</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0.991325459992017</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>o__Bifidobacteriales</t>
+        </is>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>o__Bifidobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91259.fa</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>0.2883430291615503</v>
+      </c>
+      <c r="C195" t="n">
+        <v>4.106314688143554e-14</v>
+      </c>
+      <c r="D195" t="n">
+        <v>4.106314688143554e-14</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0.0007180349833637171</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0.07023820544437877</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0.640700730410584</v>
+      </c>
+      <c r="H195" t="n">
+        <v>4.106314688143553e-14</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0.640700730410584</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91528.fa</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>0.3073050926303238</v>
+      </c>
+      <c r="C196" t="n">
+        <v>7.687776843651114e-14</v>
+      </c>
+      <c r="D196" t="n">
+        <v>7.687776843651119e-14</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0.001605530489771235</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0.0867757268531776</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0.6043136500264968</v>
+      </c>
+      <c r="H196" t="n">
+        <v>7.687776843651118e-14</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0.6043136500264968</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91549.fa</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>0.3234893521054036</v>
+      </c>
+      <c r="C197" t="n">
+        <v>5.350454763595262e-14</v>
+      </c>
+      <c r="D197" t="n">
+        <v>5.350454763595261e-14</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0.001010735118632225</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0.08233520687719897</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0.5931647058986048</v>
+      </c>
+      <c r="H197" t="n">
+        <v>5.35045476359526e-14</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0.5931647058986048</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91633.fa</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>0.004538043485102055</v>
+      </c>
+      <c r="C198" t="n">
+        <v>0.9781127712968162</v>
+      </c>
+      <c r="D198" t="n">
+        <v>2.220473354982446e-14</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0.0001843401986421646</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0.004119943724674888</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0.01304490129472031</v>
+      </c>
+      <c r="H198" t="n">
+        <v>2.220473354982446e-14</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0.9781127712968162</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>o__Bifidobacteriales</t>
+        </is>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>o__Bifidobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91733.fa</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>0.002297758582058715</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0.9811931297334363</v>
+      </c>
+      <c r="D199" t="n">
+        <v>2.220543689860692e-14</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0.0002383301289404565</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0.008261794387749188</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0.008008987167770959</v>
+      </c>
+      <c r="H199" t="n">
+        <v>2.220543689860692e-14</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0.9811931297334363</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>o__Bifidobacteriales</t>
+        </is>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>o__Bifidobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91735.fa</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>0.002297758582058715</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0.9811931297334363</v>
+      </c>
+      <c r="D200" t="n">
+        <v>2.220543689860692e-14</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0.0002383301289404565</v>
+      </c>
+      <c r="F200" t="n">
+        <v>0.008261794387749188</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0.008008987167770959</v>
+      </c>
+      <c r="H200" t="n">
+        <v>2.220543689860692e-14</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0.9811931297334363</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>o__Bifidobacteriales</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>o__Bifidobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91835.fa</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>0.3536714901692058</v>
+      </c>
+      <c r="C201" t="n">
+        <v>3.896744247047249e-14</v>
+      </c>
+      <c r="D201" t="n">
+        <v>3.896744247047247e-14</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0.0007392854891032935</v>
+      </c>
+      <c r="F201" t="n">
+        <v>0.05818236547668868</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0.5874068588648854</v>
+      </c>
+      <c r="H201" t="n">
+        <v>3.896744247047248e-14</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0.5874068588648854</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91865.fa</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>0.3198559829713886</v>
+      </c>
+      <c r="C202" t="n">
+        <v>4.833142716968706e-14</v>
+      </c>
+      <c r="D202" t="n">
+        <v>4.833142716968704e-14</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0.0009592802289232033</v>
+      </c>
+      <c r="F202" t="n">
+        <v>0.1520889247775052</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0.5270958120220379</v>
+      </c>
+      <c r="H202" t="n">
+        <v>4.833142716968704e-14</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0.5270958120220379</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91947.fa</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>0.02182752606821061</v>
+      </c>
+      <c r="C203" t="n">
+        <v>0.9723730453799322</v>
+      </c>
+      <c r="D203" t="n">
+        <v>2.21995586388469e-14</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0.0003750969872880076</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0.001540728186646289</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0.003883603377878533</v>
+      </c>
+      <c r="H203" t="n">
+        <v>2.21995586388469e-14</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0.9723730453799322</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>o__Bifidobacteriales</t>
+        </is>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>o__Bifidobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT92065.fa</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>0.2038252193566688</v>
+      </c>
+      <c r="C204" t="n">
+        <v>0.463326828499953</v>
+      </c>
+      <c r="D204" t="n">
+        <v>7.797242207640285e-13</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0.02464067288908456</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0.1199173231883891</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0.1882899560643452</v>
+      </c>
+      <c r="H204" t="n">
+        <v>7.797242207640285e-13</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0.463326828499953</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>o__Bifidobacteriales</t>
+        </is>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>o__Bifidobacteriales(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT92079.fa</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>0.2977049263705737</v>
+      </c>
+      <c r="C205" t="n">
+        <v>6.005203969228022e-14</v>
+      </c>
+      <c r="D205" t="n">
+        <v>6.005203969228022e-14</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0.00104061652271324</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0.147683180441269</v>
+      </c>
+      <c r="G205" t="n">
+        <v>0.553571276665264</v>
+      </c>
+      <c r="H205" t="n">
+        <v>6.005203969228022e-14</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0.553571276665264</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT92127.fa</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>0.3384976248531451</v>
+      </c>
+      <c r="C206" t="n">
+        <v>4.950985491735233e-14</v>
+      </c>
+      <c r="D206" t="n">
+        <v>4.950985491735233e-14</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0.0009001237844798856</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0.0527440267569509</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0.6078582246052756</v>
+      </c>
+      <c r="H206" t="n">
+        <v>4.950985491735233e-14</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0.6078582246052756</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT9523.fa</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>0.007242856837892894</v>
+      </c>
+      <c r="C207" t="n">
+        <v>0.9810718177916014</v>
+      </c>
+      <c r="D207" t="n">
+        <v>2.220649964358752e-14</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0.0003702989255284078</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0.00451189384177878</v>
+      </c>
+      <c r="G207" t="n">
+        <v>0.006803132603154133</v>
+      </c>
+      <c r="H207" t="n">
+        <v>2.220649964358752e-14</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0.9810718177916014</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>o__Bifidobacteriales</t>
+        </is>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>o__Bifidobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT988.fa</t>
         </is>
       </c>
-      <c r="B192" t="n">
+      <c r="B208" t="n">
         <v>0.2583098372497825</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C208" t="n">
         <v>5.044289541233148e-14</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D208" t="n">
         <v>5.044289541233148e-14</v>
       </c>
-      <c r="E192" t="n">
+      <c r="E208" t="n">
         <v>0.0007931453140193833</v>
       </c>
-      <c r="F192" t="n">
+      <c r="F208" t="n">
         <v>0.1077573546126328</v>
       </c>
-      <c r="G192" t="n">
+      <c r="G208" t="n">
         <v>0.6331396628234142</v>
       </c>
-      <c r="H192" t="n">
+      <c r="H208" t="n">
         <v>5.044289541233145e-14</v>
       </c>
-      <c r="I192" t="n">
+      <c r="I208" t="n">
         <v>0.6331396628234142</v>
       </c>
-      <c r="J192" t="inlineStr">
-        <is>
-          <t>o__Propionibacteriales</t>
-        </is>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>o__Propionibacteriales(reject)</t>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
+        </is>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>o__Propionibacteriales</t>
         </is>
       </c>
     </row>
